--- a/DB_ImportFields.xlsx
+++ b/DB_ImportFields.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="860" windowWidth="24720" windowHeight="16580" tabRatio="678" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="880" yWindow="860" windowWidth="24720" windowHeight="16580" tabRatio="678" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="allg" sheetId="8" r:id="rId1"/>
@@ -4095,15 +4095,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -4111,44 +4111,64 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="0">LEN(B3)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>136</v>
+      </c>
+      <c r="D7">
+        <f>LEN(B7)</f>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -4164,15 +4184,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -4186,7 +4206,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4199,8 +4219,16 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3">
+        <f>LEN(B3)</f>
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <f>LEN(C3)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4213,8 +4241,16 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4">
+        <f t="shared" ref="F4:G16" si="0">LEN(B4)</f>
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4227,8 +4263,16 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4241,8 +4285,16 @@
       <c r="D6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4255,8 +4307,16 @@
       <c r="D7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4269,8 +4329,16 @@
       <c r="D8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4283,8 +4351,16 @@
       <c r="D9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4297,8 +4373,16 @@
       <c r="D10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4311,8 +4395,16 @@
       <c r="D11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4325,8 +4417,16 @@
       <c r="D12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4339,8 +4439,16 @@
       <c r="D13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4353,8 +4461,16 @@
       <c r="D14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4367,8 +4483,16 @@
       <c r="D15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4381,8 +4505,16 @@
       <c r="D16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4394,6 +4526,14 @@
       </c>
       <c r="D17">
         <v>5</v>
+      </c>
+      <c r="F17">
+        <f>LEN(B17)</f>
+        <v>31</v>
+      </c>
+      <c r="G17">
+        <f>LEN(C17)</f>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -4414,7 +4554,7 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:XFD2"/>
@@ -5040,15 +5180,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D251"/>
+  <dimension ref="A1:F251"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -5061,8 +5201,12 @@
       <c r="D1" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F1">
+        <f>MAX(F3:F276)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>4</v>
       </c>
@@ -5075,8 +5219,12 @@
       <c r="D3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3">
+        <f t="shared" ref="F2:F65" si="0">LEN(B3)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>8</v>
       </c>
@@ -5089,8 +5237,12 @@
       <c r="D4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>12</v>
       </c>
@@ -5103,8 +5255,12 @@
       <c r="D5" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>16</v>
       </c>
@@ -5117,8 +5273,12 @@
       <c r="D6" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>20</v>
       </c>
@@ -5131,8 +5291,12 @@
       <c r="D7" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>24</v>
       </c>
@@ -5145,8 +5309,12 @@
       <c r="D8" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>660</v>
       </c>
@@ -5159,8 +5327,12 @@
       <c r="D9" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>10</v>
       </c>
@@ -5173,8 +5345,12 @@
       <c r="D10" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>28</v>
       </c>
@@ -5187,8 +5363,12 @@
       <c r="D11" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>32</v>
       </c>
@@ -5201,8 +5381,12 @@
       <c r="D12" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>51</v>
       </c>
@@ -5215,8 +5399,12 @@
       <c r="D13" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>533</v>
       </c>
@@ -5229,8 +5417,12 @@
       <c r="D14" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>36</v>
       </c>
@@ -5243,8 +5435,12 @@
       <c r="D15" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>40</v>
       </c>
@@ -5257,8 +5453,12 @@
       <c r="D16" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>31</v>
       </c>
@@ -5271,8 +5471,12 @@
       <c r="D17" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>44</v>
       </c>
@@ -5285,8 +5489,12 @@
       <c r="D18" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>48</v>
       </c>
@@ -5299,8 +5507,12 @@
       <c r="D19" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>50</v>
       </c>
@@ -5313,8 +5525,12 @@
       <c r="D20" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>52</v>
       </c>
@@ -5327,8 +5543,12 @@
       <c r="D21" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>112</v>
       </c>
@@ -5341,8 +5561,12 @@
       <c r="D22" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>56</v>
       </c>
@@ -5355,8 +5579,12 @@
       <c r="D23" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>84</v>
       </c>
@@ -5369,8 +5597,12 @@
       <c r="D24" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>204</v>
       </c>
@@ -5383,8 +5615,12 @@
       <c r="D25" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>60</v>
       </c>
@@ -5397,8 +5633,12 @@
       <c r="D26" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>64</v>
       </c>
@@ -5411,8 +5651,12 @@
       <c r="D27" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>68</v>
       </c>
@@ -5425,8 +5669,12 @@
       <c r="D28" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>535</v>
       </c>
@@ -5439,8 +5687,12 @@
       <c r="D29" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>70</v>
       </c>
@@ -5453,8 +5705,12 @@
       <c r="D30" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>72</v>
       </c>
@@ -5467,8 +5723,12 @@
       <c r="D31" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>74</v>
       </c>
@@ -5481,8 +5741,12 @@
       <c r="D32" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>76</v>
       </c>
@@ -5495,8 +5759,12 @@
       <c r="D33" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>86</v>
       </c>
@@ -5509,8 +5777,12 @@
       <c r="D34" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>96</v>
       </c>
@@ -5523,8 +5795,12 @@
       <c r="D35" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>100</v>
       </c>
@@ -5537,8 +5813,12 @@
       <c r="D36" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>854</v>
       </c>
@@ -5551,8 +5831,12 @@
       <c r="D37" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>108</v>
       </c>
@@ -5565,8 +5849,12 @@
       <c r="D38" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>132</v>
       </c>
@@ -5579,8 +5867,12 @@
       <c r="D39" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>116</v>
       </c>
@@ -5593,8 +5885,12 @@
       <c r="D40" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>120</v>
       </c>
@@ -5607,8 +5903,12 @@
       <c r="D41" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>124</v>
       </c>
@@ -5621,8 +5921,12 @@
       <c r="D42" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>136</v>
       </c>
@@ -5635,8 +5939,12 @@
       <c r="D43" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>140</v>
       </c>
@@ -5649,8 +5957,12 @@
       <c r="D44" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>148</v>
       </c>
@@ -5663,8 +5975,12 @@
       <c r="D45" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>152</v>
       </c>
@@ -5677,8 +5993,12 @@
       <c r="D46" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>156</v>
       </c>
@@ -5691,8 +6011,12 @@
       <c r="D47" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>162</v>
       </c>
@@ -5705,8 +6029,12 @@
       <c r="D48" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>166</v>
       </c>
@@ -5719,8 +6047,12 @@
       <c r="D49" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>170</v>
       </c>
@@ -5733,8 +6065,12 @@
       <c r="D50" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>174</v>
       </c>
@@ -5747,8 +6083,12 @@
       <c r="D51" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>180</v>
       </c>
@@ -5761,8 +6101,12 @@
       <c r="D52" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>178</v>
       </c>
@@ -5775,8 +6119,12 @@
       <c r="D53" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>184</v>
       </c>
@@ -5789,8 +6137,12 @@
       <c r="D54" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>188</v>
       </c>
@@ -5803,8 +6155,12 @@
       <c r="D55" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>191</v>
       </c>
@@ -5817,8 +6173,12 @@
       <c r="D56" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>192</v>
       </c>
@@ -5831,8 +6191,12 @@
       <c r="D57" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>531</v>
       </c>
@@ -5845,8 +6209,12 @@
       <c r="D58" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>196</v>
       </c>
@@ -5859,8 +6227,12 @@
       <c r="D59" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>203</v>
       </c>
@@ -5873,8 +6245,12 @@
       <c r="D60" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>384</v>
       </c>
@@ -5887,8 +6263,12 @@
       <c r="D61" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>208</v>
       </c>
@@ -5901,8 +6281,12 @@
       <c r="D62" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>262</v>
       </c>
@@ -5915,8 +6299,12 @@
       <c r="D63" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>212</v>
       </c>
@@ -5929,8 +6317,12 @@
       <c r="D64" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>214</v>
       </c>
@@ -5943,8 +6335,12 @@
       <c r="D65" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>218</v>
       </c>
@@ -5957,8 +6353,12 @@
       <c r="D66" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="F66">
+        <f t="shared" ref="F66:F129" si="1">LEN(B66)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>818</v>
       </c>
@@ -5971,8 +6371,12 @@
       <c r="D67" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="F67">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>222</v>
       </c>
@@ -5985,8 +6389,12 @@
       <c r="D68" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>226</v>
       </c>
@@ -5999,8 +6407,12 @@
       <c r="D69" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>232</v>
       </c>
@@ -6013,8 +6425,12 @@
       <c r="D70" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>233</v>
       </c>
@@ -6027,8 +6443,12 @@
       <c r="D71" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>748</v>
       </c>
@@ -6041,8 +6461,12 @@
       <c r="D72" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>231</v>
       </c>
@@ -6055,8 +6479,12 @@
       <c r="D73" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>238</v>
       </c>
@@ -6069,8 +6497,12 @@
       <c r="D74" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>234</v>
       </c>
@@ -6083,8 +6515,12 @@
       <c r="D75" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>242</v>
       </c>
@@ -6097,8 +6533,12 @@
       <c r="D76" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>246</v>
       </c>
@@ -6111,8 +6551,12 @@
       <c r="D77" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>250</v>
       </c>
@@ -6125,8 +6569,12 @@
       <c r="D78" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>254</v>
       </c>
@@ -6139,8 +6587,12 @@
       <c r="D79" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>258</v>
       </c>
@@ -6153,8 +6605,12 @@
       <c r="D80" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>260</v>
       </c>
@@ -6167,8 +6623,12 @@
       <c r="D81" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>266</v>
       </c>
@@ -6181,8 +6641,12 @@
       <c r="D82" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="F82">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>270</v>
       </c>
@@ -6195,8 +6659,12 @@
       <c r="D83" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>268</v>
       </c>
@@ -6209,8 +6677,12 @@
       <c r="D84" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="F84">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>276</v>
       </c>
@@ -6223,8 +6695,12 @@
       <c r="D85" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="F85">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>288</v>
       </c>
@@ -6237,8 +6713,12 @@
       <c r="D86" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="F86">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>292</v>
       </c>
@@ -6251,8 +6731,12 @@
       <c r="D87" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="F87">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>300</v>
       </c>
@@ -6265,8 +6749,12 @@
       <c r="D88" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="F88">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>304</v>
       </c>
@@ -6279,8 +6767,12 @@
       <c r="D89" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="F89">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>308</v>
       </c>
@@ -6293,8 +6785,12 @@
       <c r="D90" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="F90">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>312</v>
       </c>
@@ -6307,8 +6803,12 @@
       <c r="D91" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="F91">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>316</v>
       </c>
@@ -6321,8 +6821,12 @@
       <c r="D92" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="F92">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>320</v>
       </c>
@@ -6335,8 +6839,12 @@
       <c r="D93" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="F93">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>831</v>
       </c>
@@ -6349,8 +6857,12 @@
       <c r="D94" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="F94">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>324</v>
       </c>
@@ -6363,8 +6875,12 @@
       <c r="D95" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="F95">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>624</v>
       </c>
@@ -6377,8 +6893,12 @@
       <c r="D96" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="F96">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>328</v>
       </c>
@@ -6391,8 +6911,12 @@
       <c r="D97" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="F97">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>332</v>
       </c>
@@ -6405,8 +6929,12 @@
       <c r="D98" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="F98">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>334</v>
       </c>
@@ -6419,8 +6947,12 @@
       <c r="D99" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="F99">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>336</v>
       </c>
@@ -6433,8 +6965,12 @@
       <c r="D100" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="F100">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>340</v>
       </c>
@@ -6447,8 +6983,12 @@
       <c r="D101" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="F101">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>344</v>
       </c>
@@ -6461,8 +7001,12 @@
       <c r="D102" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="F102">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>348</v>
       </c>
@@ -6475,8 +7019,12 @@
       <c r="D103" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="F103">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>352</v>
       </c>
@@ -6489,8 +7037,12 @@
       <c r="D104" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="F104">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>356</v>
       </c>
@@ -6503,8 +7055,12 @@
       <c r="D105" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="F105">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>360</v>
       </c>
@@ -6517,8 +7073,12 @@
       <c r="D106" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="F106">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>364</v>
       </c>
@@ -6531,8 +7091,12 @@
       <c r="D107" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="F107">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>368</v>
       </c>
@@ -6545,8 +7109,12 @@
       <c r="D108" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="F108">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>372</v>
       </c>
@@ -6559,8 +7127,12 @@
       <c r="D109" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="F109">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>833</v>
       </c>
@@ -6573,8 +7145,12 @@
       <c r="D110" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="F110">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>376</v>
       </c>
@@ -6587,8 +7163,12 @@
       <c r="D111" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="F111">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>380</v>
       </c>
@@ -6601,8 +7181,12 @@
       <c r="D112" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="F112">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>388</v>
       </c>
@@ -6615,8 +7199,12 @@
       <c r="D113" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="F113">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>392</v>
       </c>
@@ -6629,8 +7217,12 @@
       <c r="D114" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="F114">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>832</v>
       </c>
@@ -6643,8 +7235,12 @@
       <c r="D115" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="F115">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>400</v>
       </c>
@@ -6657,8 +7253,12 @@
       <c r="D116" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="F116">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>398</v>
       </c>
@@ -6671,8 +7271,12 @@
       <c r="D117" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="F117">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>404</v>
       </c>
@@ -6685,8 +7289,12 @@
       <c r="D118" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="F118">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>296</v>
       </c>
@@ -6699,8 +7307,12 @@
       <c r="D119" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="F119">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>408</v>
       </c>
@@ -6713,8 +7325,12 @@
       <c r="D120" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="F120">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>410</v>
       </c>
@@ -6727,8 +7343,12 @@
       <c r="D121" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="F121">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>414</v>
       </c>
@@ -6741,8 +7361,12 @@
       <c r="D122" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="F122">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>417</v>
       </c>
@@ -6755,8 +7379,12 @@
       <c r="D123" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="F123">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>418</v>
       </c>
@@ -6769,8 +7397,12 @@
       <c r="D124" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="F124">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>428</v>
       </c>
@@ -6783,8 +7415,12 @@
       <c r="D125" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="F125">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>422</v>
       </c>
@@ -6797,8 +7433,12 @@
       <c r="D126" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="F126">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>426</v>
       </c>
@@ -6811,8 +7451,12 @@
       <c r="D127" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="F127">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>430</v>
       </c>
@@ -6825,8 +7469,12 @@
       <c r="D128" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="F128">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>434</v>
       </c>
@@ -6839,8 +7487,12 @@
       <c r="D129" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="F129">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>438</v>
       </c>
@@ -6853,8 +7505,12 @@
       <c r="D130" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="F130">
+        <f t="shared" ref="F130:F193" si="2">LEN(B130)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>440</v>
       </c>
@@ -6867,8 +7523,12 @@
       <c r="D131" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="F131">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>442</v>
       </c>
@@ -6881,8 +7541,12 @@
       <c r="D132" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="F132">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>446</v>
       </c>
@@ -6895,8 +7559,12 @@
       <c r="D133" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="F133">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>450</v>
       </c>
@@ -6909,8 +7577,12 @@
       <c r="D134" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="F134">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>454</v>
       </c>
@@ -6923,8 +7595,12 @@
       <c r="D135" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="F135">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>458</v>
       </c>
@@ -6937,8 +7613,12 @@
       <c r="D136" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="F136">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>462</v>
       </c>
@@ -6951,8 +7631,12 @@
       <c r="D137" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="F137">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>466</v>
       </c>
@@ -6965,8 +7649,12 @@
       <c r="D138" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="139" spans="1:4">
+      <c r="F138">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>470</v>
       </c>
@@ -6979,8 +7667,12 @@
       <c r="D139" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="F139">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>584</v>
       </c>
@@ -6993,8 +7685,12 @@
       <c r="D140" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="F140">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>474</v>
       </c>
@@ -7007,8 +7703,12 @@
       <c r="D141" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="F141">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>478</v>
       </c>
@@ -7021,8 +7721,12 @@
       <c r="D142" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
+      <c r="F142">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>480</v>
       </c>
@@ -7035,8 +7739,12 @@
       <c r="D143" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="F143">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>175</v>
       </c>
@@ -7049,8 +7757,12 @@
       <c r="D144" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="145" spans="1:4">
+      <c r="F144">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>484</v>
       </c>
@@ -7063,8 +7775,12 @@
       <c r="D145" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="F145">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146">
         <v>583</v>
       </c>
@@ -7077,8 +7793,12 @@
       <c r="D146" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="F146">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147">
         <v>498</v>
       </c>
@@ -7091,8 +7811,12 @@
       <c r="D147" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="F147">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148">
         <v>492</v>
       </c>
@@ -7105,8 +7829,12 @@
       <c r="D148" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="F148">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149">
         <v>496</v>
       </c>
@@ -7119,8 +7847,12 @@
       <c r="D149" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
+      <c r="F149">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150">
         <v>499</v>
       </c>
@@ -7133,8 +7865,12 @@
       <c r="D150" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
+      <c r="F150">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151">
         <v>500</v>
       </c>
@@ -7147,8 +7883,12 @@
       <c r="D151" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="F151">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152">
         <v>504</v>
       </c>
@@ -7161,8 +7901,12 @@
       <c r="D152" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="153" spans="1:4">
+      <c r="F152">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153">
         <v>508</v>
       </c>
@@ -7175,8 +7919,12 @@
       <c r="D153" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="154" spans="1:4">
+      <c r="F153">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154">
         <v>104</v>
       </c>
@@ -7189,8 +7937,12 @@
       <c r="D154" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="F154">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155">
         <v>516</v>
       </c>
@@ -7203,8 +7955,12 @@
       <c r="D155" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="156" spans="1:4">
+      <c r="F155">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156">
         <v>520</v>
       </c>
@@ -7217,8 +7973,12 @@
       <c r="D156" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="F156">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157">
         <v>524</v>
       </c>
@@ -7231,8 +7991,12 @@
       <c r="D157" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="F157">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158">
         <v>528</v>
       </c>
@@ -7245,8 +8009,12 @@
       <c r="D158" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="F158">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159">
         <v>540</v>
       </c>
@@ -7259,8 +8027,12 @@
       <c r="D159" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="160" spans="1:4">
+      <c r="F159">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160">
         <v>554</v>
       </c>
@@ -7273,8 +8045,12 @@
       <c r="D160" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="161" spans="1:4">
+      <c r="F160">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161">
         <v>558</v>
       </c>
@@ -7287,8 +8063,12 @@
       <c r="D161" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="F161">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162">
         <v>562</v>
       </c>
@@ -7301,8 +8081,12 @@
       <c r="D162" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="163" spans="1:4">
+      <c r="F162">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163">
         <v>566</v>
       </c>
@@ -7315,8 +8099,12 @@
       <c r="D163" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="F163">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164">
         <v>570</v>
       </c>
@@ -7329,8 +8117,12 @@
       <c r="D164" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="165" spans="1:4">
+      <c r="F164">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165">
         <v>574</v>
       </c>
@@ -7343,8 +8135,12 @@
       <c r="D165" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="166" spans="1:4">
+      <c r="F165">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166">
         <v>580</v>
       </c>
@@ -7357,8 +8153,12 @@
       <c r="D166" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="F166">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167">
         <v>578</v>
       </c>
@@ -7371,8 +8171,12 @@
       <c r="D167" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="168" spans="1:4">
+      <c r="F167">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168">
         <v>512</v>
       </c>
@@ -7385,8 +8189,12 @@
       <c r="D168" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="169" spans="1:4">
+      <c r="F168">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169">
         <v>586</v>
       </c>
@@ -7399,8 +8207,12 @@
       <c r="D169" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
+      <c r="F169">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170">
         <v>585</v>
       </c>
@@ -7413,8 +8225,12 @@
       <c r="D170" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="171" spans="1:4">
+      <c r="F170">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171">
         <v>275</v>
       </c>
@@ -7427,8 +8243,12 @@
       <c r="D171" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="172" spans="1:4">
+      <c r="F171">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172">
         <v>591</v>
       </c>
@@ -7441,8 +8261,12 @@
       <c r="D172" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="173" spans="1:4">
+      <c r="F172">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173">
         <v>598</v>
       </c>
@@ -7455,8 +8279,12 @@
       <c r="D173" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="174" spans="1:4">
+      <c r="F173">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174">
         <v>600</v>
       </c>
@@ -7469,8 +8297,12 @@
       <c r="D174" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="175" spans="1:4">
+      <c r="F174">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175">
         <v>604</v>
       </c>
@@ -7483,8 +8315,12 @@
       <c r="D175" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="176" spans="1:4">
+      <c r="F175">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176">
         <v>608</v>
       </c>
@@ -7497,8 +8333,12 @@
       <c r="D176" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="177" spans="1:4">
+      <c r="F176">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177">
         <v>612</v>
       </c>
@@ -7511,8 +8351,12 @@
       <c r="D177" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="178" spans="1:4">
+      <c r="F177">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178">
         <v>616</v>
       </c>
@@ -7525,8 +8369,12 @@
       <c r="D178" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="179" spans="1:4">
+      <c r="F178">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179">
         <v>620</v>
       </c>
@@ -7539,8 +8387,12 @@
       <c r="D179" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="180" spans="1:4">
+      <c r="F179">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180">
         <v>630</v>
       </c>
@@ -7553,8 +8405,12 @@
       <c r="D180" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="181" spans="1:4">
+      <c r="F180">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181">
         <v>634</v>
       </c>
@@ -7567,8 +8423,12 @@
       <c r="D181" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="182" spans="1:4">
+      <c r="F181">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182">
         <v>807</v>
       </c>
@@ -7581,8 +8441,12 @@
       <c r="D182" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="183" spans="1:4">
+      <c r="F182">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183">
         <v>642</v>
       </c>
@@ -7595,8 +8459,12 @@
       <c r="D183" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="184" spans="1:4">
+      <c r="F183">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184">
         <v>643</v>
       </c>
@@ -7609,8 +8477,12 @@
       <c r="D184" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="185" spans="1:4">
+      <c r="F184">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185">
         <v>646</v>
       </c>
@@ -7623,8 +8495,12 @@
       <c r="D185" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="186" spans="1:4">
+      <c r="F185">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>638</v>
       </c>
@@ -7637,8 +8513,12 @@
       <c r="D186" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="187" spans="1:4">
+      <c r="F186">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>652</v>
       </c>
@@ -7651,8 +8531,12 @@
       <c r="D187" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="188" spans="1:4">
+      <c r="F187">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188">
         <v>654</v>
       </c>
@@ -7665,8 +8549,12 @@
       <c r="D188" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="189" spans="1:4">
+      <c r="F188">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189">
         <v>659</v>
       </c>
@@ -7679,8 +8567,12 @@
       <c r="D189" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="190" spans="1:4">
+      <c r="F189">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190">
         <v>662</v>
       </c>
@@ -7693,8 +8585,12 @@
       <c r="D190" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="191" spans="1:4">
+      <c r="F190">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191">
         <v>663</v>
       </c>
@@ -7707,8 +8603,12 @@
       <c r="D191" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="192" spans="1:4">
+      <c r="F191">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192">
         <v>666</v>
       </c>
@@ -7721,8 +8621,12 @@
       <c r="D192" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="193" spans="1:4">
+      <c r="F192">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193">
         <v>670</v>
       </c>
@@ -7735,8 +8639,12 @@
       <c r="D193" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="F193">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194">
         <v>882</v>
       </c>
@@ -7749,8 +8657,12 @@
       <c r="D194" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="195" spans="1:4">
+      <c r="F194">
+        <f t="shared" ref="F194:F251" si="3">LEN(B194)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195">
         <v>674</v>
       </c>
@@ -7763,8 +8675,12 @@
       <c r="D195" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="196" spans="1:4">
+      <c r="F195">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196">
         <v>678</v>
       </c>
@@ -7777,8 +8693,12 @@
       <c r="D196" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="F196">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197">
         <v>682</v>
       </c>
@@ -7791,8 +8711,12 @@
       <c r="D197" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="198" spans="1:4">
+      <c r="F197">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198">
         <v>686</v>
       </c>
@@ -7805,8 +8729,12 @@
       <c r="D198" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="199" spans="1:4">
+      <c r="F198">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199">
         <v>688</v>
       </c>
@@ -7819,8 +8747,12 @@
       <c r="D199" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="200" spans="1:4">
+      <c r="F199">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200">
         <v>690</v>
       </c>
@@ -7833,8 +8765,12 @@
       <c r="D200" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="201" spans="1:4">
+      <c r="F200">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201">
         <v>694</v>
       </c>
@@ -7847,8 +8783,12 @@
       <c r="D201" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="202" spans="1:4">
+      <c r="F201">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202">
         <v>702</v>
       </c>
@@ -7861,8 +8801,12 @@
       <c r="D202" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="203" spans="1:4">
+      <c r="F202">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203">
         <v>534</v>
       </c>
@@ -7875,8 +8819,12 @@
       <c r="D203" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="204" spans="1:4">
+      <c r="F203">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204">
         <v>703</v>
       </c>
@@ -7889,8 +8837,12 @@
       <c r="D204" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="205" spans="1:4">
+      <c r="F204">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205">
         <v>705</v>
       </c>
@@ -7903,8 +8855,12 @@
       <c r="D205" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="206" spans="1:4">
+      <c r="F205">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206">
         <v>90</v>
       </c>
@@ -7917,8 +8873,12 @@
       <c r="D206" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="207" spans="1:4">
+      <c r="F206">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207">
         <v>706</v>
       </c>
@@ -7931,8 +8891,12 @@
       <c r="D207" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="208" spans="1:4">
+      <c r="F207">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208">
         <v>710</v>
       </c>
@@ -7945,8 +8909,12 @@
       <c r="D208" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="209" spans="1:4">
+      <c r="F208">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209">
         <v>239</v>
       </c>
@@ -7959,8 +8927,12 @@
       <c r="D209" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="210" spans="1:4">
+      <c r="F209">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210">
         <v>728</v>
       </c>
@@ -7973,8 +8945,12 @@
       <c r="D210" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="211" spans="1:4">
+      <c r="F210">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211">
         <v>724</v>
       </c>
@@ -7987,8 +8963,12 @@
       <c r="D211" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="212" spans="1:4">
+      <c r="F211">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212">
         <v>144</v>
       </c>
@@ -8001,8 +8981,12 @@
       <c r="D212" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="213" spans="1:4">
+      <c r="F212">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213">
         <v>729</v>
       </c>
@@ -8015,8 +8999,12 @@
       <c r="D213" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="214" spans="1:4">
+      <c r="F213">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214">
         <v>740</v>
       </c>
@@ -8029,8 +9017,12 @@
       <c r="D214" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="215" spans="1:4">
+      <c r="F214">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215">
         <v>744</v>
       </c>
@@ -8043,8 +9035,12 @@
       <c r="D215" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="216" spans="1:4">
+      <c r="F215">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216">
         <v>752</v>
       </c>
@@ -8057,8 +9053,12 @@
       <c r="D216" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="217" spans="1:4">
+      <c r="F216">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217">
         <v>756</v>
       </c>
@@ -8071,8 +9071,12 @@
       <c r="D217" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="218" spans="1:4">
+      <c r="F217">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218">
         <v>760</v>
       </c>
@@ -8085,8 +9089,12 @@
       <c r="D218" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="219" spans="1:4">
+      <c r="F218">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219">
         <v>158</v>
       </c>
@@ -8099,8 +9107,12 @@
       <c r="D219" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="220" spans="1:4">
+      <c r="F219">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220">
         <v>762</v>
       </c>
@@ -8113,8 +9125,12 @@
       <c r="D220" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="221" spans="1:4">
+      <c r="F220">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221">
         <v>834</v>
       </c>
@@ -8127,8 +9143,12 @@
       <c r="D221" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="222" spans="1:4">
+      <c r="F221">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222">
         <v>764</v>
       </c>
@@ -8141,8 +9161,12 @@
       <c r="D222" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="223" spans="1:4">
+      <c r="F222">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223">
         <v>626</v>
       </c>
@@ -8155,8 +9179,12 @@
       <c r="D223" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="224" spans="1:4">
+      <c r="F223">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224">
         <v>768</v>
       </c>
@@ -8169,8 +9197,12 @@
       <c r="D224" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="225" spans="1:4">
+      <c r="F224">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225">
         <v>772</v>
       </c>
@@ -8183,8 +9215,12 @@
       <c r="D225" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="226" spans="1:4">
+      <c r="F225">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
       <c r="A226">
         <v>776</v>
       </c>
@@ -8197,8 +9233,12 @@
       <c r="D226" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="227" spans="1:4">
+      <c r="F226">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
       <c r="A227">
         <v>780</v>
       </c>
@@ -8211,8 +9251,12 @@
       <c r="D227" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="228" spans="1:4">
+      <c r="F227">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
       <c r="A228">
         <v>788</v>
       </c>
@@ -8225,8 +9269,12 @@
       <c r="D228" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="229" spans="1:4">
+      <c r="F228">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
       <c r="A229">
         <v>792</v>
       </c>
@@ -8239,8 +9287,12 @@
       <c r="D229" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="230" spans="1:4">
+      <c r="F229">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
       <c r="A230">
         <v>795</v>
       </c>
@@ -8253,8 +9305,12 @@
       <c r="D230" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="231" spans="1:4">
+      <c r="F230">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
       <c r="A231">
         <v>796</v>
       </c>
@@ -8267,8 +9323,12 @@
       <c r="D231" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="232" spans="1:4">
+      <c r="F231">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232">
         <v>798</v>
       </c>
@@ -8281,8 +9341,12 @@
       <c r="D232" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="233" spans="1:4">
+      <c r="F232">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
       <c r="A233">
         <v>800</v>
       </c>
@@ -8295,8 +9359,12 @@
       <c r="D233" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="234" spans="1:4">
+      <c r="F233">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
       <c r="A234">
         <v>804</v>
       </c>
@@ -8309,8 +9377,12 @@
       <c r="D234" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="235" spans="1:4">
+      <c r="F234">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
       <c r="A235">
         <v>784</v>
       </c>
@@ -8323,8 +9395,12 @@
       <c r="D235" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="236" spans="1:4">
+      <c r="F235">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
       <c r="A236">
         <v>826</v>
       </c>
@@ -8337,8 +9413,12 @@
       <c r="D236" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="237" spans="1:4">
+      <c r="F236">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
       <c r="A237">
         <v>581</v>
       </c>
@@ -8351,8 +9431,12 @@
       <c r="D237" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="238" spans="1:4">
+      <c r="F237">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
       <c r="A238">
         <v>840</v>
       </c>
@@ -8365,8 +9449,12 @@
       <c r="D238" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="239" spans="1:4">
+      <c r="F238">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
       <c r="A239">
         <v>858</v>
       </c>
@@ -8379,8 +9467,12 @@
       <c r="D239" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="240" spans="1:4">
+      <c r="F239">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
       <c r="A240">
         <v>860</v>
       </c>
@@ -8393,8 +9485,12 @@
       <c r="D240" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="241" spans="1:4">
+      <c r="F240">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
       <c r="A241">
         <v>548</v>
       </c>
@@ -8407,8 +9503,12 @@
       <c r="D241" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="242" spans="1:4">
+      <c r="F241">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
       <c r="A242">
         <v>862</v>
       </c>
@@ -8421,8 +9521,12 @@
       <c r="D242" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="243" spans="1:4">
+      <c r="F242">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
       <c r="A243">
         <v>704</v>
       </c>
@@ -8435,8 +9539,12 @@
       <c r="D243" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="244" spans="1:4">
+      <c r="F243">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
       <c r="A244">
         <v>92</v>
       </c>
@@ -8449,8 +9557,12 @@
       <c r="D244" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="245" spans="1:4">
+      <c r="F244">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
       <c r="A245">
         <v>850</v>
       </c>
@@ -8463,8 +9575,12 @@
       <c r="D245" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="246" spans="1:4">
+      <c r="F245">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
       <c r="A246">
         <v>876</v>
       </c>
@@ -8477,8 +9593,12 @@
       <c r="D246" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="247" spans="1:4">
+      <c r="F246">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
       <c r="A247">
         <v>732</v>
       </c>
@@ -8491,8 +9611,12 @@
       <c r="D247" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="248" spans="1:4">
+      <c r="F247">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
       <c r="A248">
         <v>887</v>
       </c>
@@ -8505,8 +9629,12 @@
       <c r="D248" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="249" spans="1:4">
+      <c r="F248">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
       <c r="A249">
         <v>894</v>
       </c>
@@ -8519,8 +9647,12 @@
       <c r="D249" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="250" spans="1:4">
+      <c r="F249">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
       <c r="A250">
         <v>716</v>
       </c>
@@ -8533,8 +9665,12 @@
       <c r="D250" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="251" spans="1:4">
+      <c r="F250">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
       <c r="A251">
         <v>248</v>
       </c>
@@ -8546,6 +9682,10 @@
       </c>
       <c r="D251" t="s">
         <v>894</v>
+      </c>
+      <c r="F251">
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/DB_ImportFields.xlsx
+++ b/DB_ImportFields.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="860" windowWidth="24720" windowHeight="16580" tabRatio="678" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="880" yWindow="860" windowWidth="24720" windowHeight="16580" tabRatio="678" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="allg" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="919">
   <si>
     <t>People</t>
   </si>
@@ -467,9 +467,6 @@
     <t>Operations in oppressive regimes</t>
   </si>
   <si>
-    <t>Tax evasion and use of tax havens</t>
-  </si>
-  <si>
     <t>bribery and corruption</t>
   </si>
   <si>
@@ -2753,9 +2750,6 @@
     <t>Dangerous Working Conditions (toxics)</t>
   </si>
   <si>
-    <t>human rights abuses through collab.</t>
-  </si>
-  <si>
     <t>Emissions contr. to climate change</t>
   </si>
   <si>
@@ -2768,9 +2762,6 @@
     <t>13</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -2780,10 +2771,34 @@
     <t>11</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>10;1</t>
+  </si>
+  <si>
+    <t>1;4;7</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Human Rights abuses through collab.</t>
+  </si>
+  <si>
+    <t>Excessive 'directors’ remuneration</t>
+  </si>
+  <si>
+    <t>Price fixing</t>
+  </si>
+  <si>
+    <t>Bribery and Corruption</t>
+  </si>
+  <si>
+    <t>Tax avoidance</t>
+  </si>
+  <si>
+    <t>incl. Tax evasion and use of tax havens</t>
   </si>
 </sst>
 </file>
@@ -2924,10 +2939,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="142">
+  <cellStyleXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3154,7 +3172,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="142">
+  <cellStyles count="145">
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
@@ -3294,6 +3312,9 @@
     <cellStyle name="Besuchter Link" xfId="139" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1"/>
@@ -4186,8 +4207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -4554,12 +4575,12 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -4580,10 +4601,10 @@
         <v>132</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>7</v>
@@ -4605,7 +4626,9 @@
       <c r="B3" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="15" t="s">
+        <v>910</v>
+      </c>
       <c r="D3" s="15" t="s">
         <v>138</v>
       </c>
@@ -4620,11 +4643,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="15"/>
+        <v>146</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>910</v>
+      </c>
       <c r="D4" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E4" s="15"/>
       <c r="G4" s="7">
@@ -4640,7 +4665,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>23</v>
@@ -4659,7 +4684,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>24</v>
@@ -4675,13 +4700,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>60</v>
@@ -4699,7 +4724,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>13</v>
@@ -4718,7 +4743,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>18</v>
@@ -4737,7 +4762,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>20</v>
@@ -4756,7 +4781,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>19</v>
@@ -4775,7 +4800,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>8</v>
@@ -4794,10 +4819,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E13" s="15"/>
       <c r="G13" s="7">
@@ -4813,10 +4838,10 @@
         <v>21</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="7">
@@ -4832,10 +4857,10 @@
         <v>22</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E15" s="15"/>
       <c r="G15" s="7">
@@ -4851,7 +4876,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>37</v>
@@ -4870,7 +4895,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>9</v>
@@ -4889,7 +4914,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>14</v>
@@ -4908,7 +4933,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>10</v>
@@ -4927,7 +4952,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>15</v>
@@ -4943,10 +4968,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>17</v>
@@ -4965,7 +4990,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>11</v>
@@ -4981,18 +5006,18 @@
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>141</v>
+        <v>917</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>141</v>
+        <v>918</v>
       </c>
       <c r="E23" s="15"/>
       <c r="G23" s="7">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5000,13 +5025,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>142</v>
+        <v>916</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E24" s="15"/>
       <c r="G24" s="7">
@@ -5019,13 +5044,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E25" s="15"/>
       <c r="G25" s="7">
@@ -5038,13 +5063,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E26" s="15"/>
       <c r="G26" s="7">
@@ -5057,13 +5082,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>145</v>
+        <v>915</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E27" s="15"/>
       <c r="G27" s="7">
@@ -5076,13 +5101,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>146</v>
+        <v>914</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="7">
@@ -5095,13 +5120,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E29" s="15"/>
       <c r="G29" s="7">
@@ -5114,10 +5139,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>59</v>
@@ -5196,10 +5221,10 @@
         <v>132</v>
       </c>
       <c r="C1" t="s">
+        <v>894</v>
+      </c>
+      <c r="D1" t="s">
         <v>895</v>
-      </c>
-      <c r="D1" t="s">
-        <v>896</v>
       </c>
       <c r="F1">
         <f>MAX(F3:F276)</f>
@@ -5211,16 +5236,16 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" t="s">
         <v>148</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>149</v>
       </c>
-      <c r="D3" t="s">
-        <v>150</v>
-      </c>
       <c r="F3">
-        <f t="shared" ref="F2:F65" si="0">LEN(B3)</f>
+        <f t="shared" ref="F3:F65" si="0">LEN(B3)</f>
         <v>12</v>
       </c>
     </row>
@@ -5229,13 +5254,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
         <v>151</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>152</v>
-      </c>
-      <c r="D4" t="s">
-        <v>153</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -5247,13 +5272,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" t="s">
         <v>154</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>155</v>
-      </c>
-      <c r="D5" t="s">
-        <v>156</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -5265,13 +5290,13 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" t="s">
         <v>157</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>158</v>
-      </c>
-      <c r="D6" t="s">
-        <v>159</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -5283,13 +5308,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" t="s">
         <v>160</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>161</v>
-      </c>
-      <c r="D7" t="s">
-        <v>162</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -5301,13 +5326,13 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" t="s">
         <v>163</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>164</v>
-      </c>
-      <c r="D8" t="s">
-        <v>165</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -5319,13 +5344,13 @@
         <v>660</v>
       </c>
       <c r="B9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" t="s">
         <v>166</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>167</v>
-      </c>
-      <c r="D9" t="s">
-        <v>168</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -5337,13 +5362,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" t="s">
         <v>169</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>170</v>
-      </c>
-      <c r="D10" t="s">
-        <v>171</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -5355,13 +5380,13 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" t="s">
         <v>172</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>173</v>
-      </c>
-      <c r="D11" t="s">
-        <v>174</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -5373,13 +5398,13 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" t="s">
         <v>175</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>176</v>
-      </c>
-      <c r="D12" t="s">
-        <v>177</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -5391,13 +5416,13 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" t="s">
         <v>178</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>179</v>
-      </c>
-      <c r="D13" t="s">
-        <v>180</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -5409,13 +5434,13 @@
         <v>533</v>
       </c>
       <c r="B14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" t="s">
         <v>181</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>182</v>
-      </c>
-      <c r="D14" t="s">
-        <v>183</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -5427,13 +5452,13 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" t="s">
         <v>184</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>185</v>
-      </c>
-      <c r="D15" t="s">
-        <v>186</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -5445,13 +5470,13 @@
         <v>40</v>
       </c>
       <c r="B16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" t="s">
         <v>187</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>188</v>
-      </c>
-      <c r="D16" t="s">
-        <v>189</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -5463,13 +5488,13 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" t="s">
         <v>190</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>191</v>
-      </c>
-      <c r="D17" t="s">
-        <v>192</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -5481,13 +5506,13 @@
         <v>44</v>
       </c>
       <c r="B18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" t="s">
         <v>193</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>194</v>
-      </c>
-      <c r="D18" t="s">
-        <v>195</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
@@ -5499,13 +5524,13 @@
         <v>48</v>
       </c>
       <c r="B19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" t="s">
         <v>196</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>197</v>
-      </c>
-      <c r="D19" t="s">
-        <v>198</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
@@ -5517,13 +5542,13 @@
         <v>50</v>
       </c>
       <c r="B20" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" t="s">
         <v>199</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>200</v>
-      </c>
-      <c r="D20" t="s">
-        <v>201</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
@@ -5535,13 +5560,13 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" t="s">
         <v>202</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>203</v>
-      </c>
-      <c r="D21" t="s">
-        <v>204</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
@@ -5553,13 +5578,13 @@
         <v>112</v>
       </c>
       <c r="B22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" t="s">
         <v>205</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>206</v>
-      </c>
-      <c r="D22" t="s">
-        <v>207</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
@@ -5571,13 +5596,13 @@
         <v>56</v>
       </c>
       <c r="B23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" t="s">
         <v>208</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>209</v>
-      </c>
-      <c r="D23" t="s">
-        <v>210</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
@@ -5589,13 +5614,13 @@
         <v>84</v>
       </c>
       <c r="B24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" t="s">
         <v>211</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>212</v>
-      </c>
-      <c r="D24" t="s">
-        <v>213</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
@@ -5607,13 +5632,13 @@
         <v>204</v>
       </c>
       <c r="B25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C25" t="s">
         <v>214</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>215</v>
-      </c>
-      <c r="D25" t="s">
-        <v>216</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
@@ -5625,13 +5650,13 @@
         <v>60</v>
       </c>
       <c r="B26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" t="s">
         <v>217</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>218</v>
-      </c>
-      <c r="D26" t="s">
-        <v>219</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
@@ -5643,13 +5668,13 @@
         <v>64</v>
       </c>
       <c r="B27" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" t="s">
         <v>220</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>221</v>
-      </c>
-      <c r="D27" t="s">
-        <v>222</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
@@ -5661,13 +5686,13 @@
         <v>68</v>
       </c>
       <c r="B28" t="s">
+        <v>222</v>
+      </c>
+      <c r="C28" t="s">
         <v>223</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>224</v>
-      </c>
-      <c r="D28" t="s">
-        <v>225</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
@@ -5679,13 +5704,13 @@
         <v>535</v>
       </c>
       <c r="B29" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" t="s">
         <v>226</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>227</v>
-      </c>
-      <c r="D29" t="s">
-        <v>228</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
@@ -5697,13 +5722,13 @@
         <v>70</v>
       </c>
       <c r="B30" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" t="s">
         <v>229</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>230</v>
-      </c>
-      <c r="D30" t="s">
-        <v>231</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
@@ -5715,13 +5740,13 @@
         <v>72</v>
       </c>
       <c r="B31" t="s">
+        <v>231</v>
+      </c>
+      <c r="C31" t="s">
         <v>232</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>233</v>
-      </c>
-      <c r="D31" t="s">
-        <v>234</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
@@ -5733,13 +5758,13 @@
         <v>74</v>
       </c>
       <c r="B32" t="s">
+        <v>234</v>
+      </c>
+      <c r="C32" t="s">
         <v>235</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>236</v>
-      </c>
-      <c r="D32" t="s">
-        <v>237</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
@@ -5751,13 +5776,13 @@
         <v>76</v>
       </c>
       <c r="B33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" t="s">
         <v>238</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>239</v>
-      </c>
-      <c r="D33" t="s">
-        <v>240</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
@@ -5769,13 +5794,13 @@
         <v>86</v>
       </c>
       <c r="B34" t="s">
+        <v>240</v>
+      </c>
+      <c r="C34" t="s">
         <v>241</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>242</v>
-      </c>
-      <c r="D34" t="s">
-        <v>243</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
@@ -5787,13 +5812,13 @@
         <v>96</v>
       </c>
       <c r="B35" t="s">
+        <v>243</v>
+      </c>
+      <c r="C35" t="s">
         <v>244</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>245</v>
-      </c>
-      <c r="D35" t="s">
-        <v>246</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
@@ -5805,13 +5830,13 @@
         <v>100</v>
       </c>
       <c r="B36" t="s">
+        <v>246</v>
+      </c>
+      <c r="C36" t="s">
         <v>247</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>248</v>
-      </c>
-      <c r="D36" t="s">
-        <v>249</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
@@ -5823,13 +5848,13 @@
         <v>854</v>
       </c>
       <c r="B37" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" t="s">
         <v>250</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>251</v>
-      </c>
-      <c r="D37" t="s">
-        <v>252</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
@@ -5841,13 +5866,13 @@
         <v>108</v>
       </c>
       <c r="B38" t="s">
+        <v>252</v>
+      </c>
+      <c r="C38" t="s">
         <v>253</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>254</v>
-      </c>
-      <c r="D38" t="s">
-        <v>255</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
@@ -5859,13 +5884,13 @@
         <v>132</v>
       </c>
       <c r="B39" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" t="s">
         <v>256</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>257</v>
-      </c>
-      <c r="D39" t="s">
-        <v>258</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
@@ -5877,13 +5902,13 @@
         <v>116</v>
       </c>
       <c r="B40" t="s">
+        <v>258</v>
+      </c>
+      <c r="C40" t="s">
         <v>259</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>260</v>
-      </c>
-      <c r="D40" t="s">
-        <v>261</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
@@ -5895,13 +5920,13 @@
         <v>120</v>
       </c>
       <c r="B41" t="s">
+        <v>261</v>
+      </c>
+      <c r="C41" t="s">
         <v>262</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>263</v>
-      </c>
-      <c r="D41" t="s">
-        <v>264</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
@@ -5913,13 +5938,13 @@
         <v>124</v>
       </c>
       <c r="B42" t="s">
+        <v>264</v>
+      </c>
+      <c r="C42" t="s">
         <v>265</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>266</v>
-      </c>
-      <c r="D42" t="s">
-        <v>267</v>
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
@@ -5931,13 +5956,13 @@
         <v>136</v>
       </c>
       <c r="B43" t="s">
+        <v>267</v>
+      </c>
+      <c r="C43" t="s">
         <v>268</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>269</v>
-      </c>
-      <c r="D43" t="s">
-        <v>270</v>
       </c>
       <c r="F43">
         <f t="shared" si="0"/>
@@ -5949,13 +5974,13 @@
         <v>140</v>
       </c>
       <c r="B44" t="s">
+        <v>270</v>
+      </c>
+      <c r="C44" t="s">
         <v>271</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>272</v>
-      </c>
-      <c r="D44" t="s">
-        <v>273</v>
       </c>
       <c r="F44">
         <f t="shared" si="0"/>
@@ -5967,13 +5992,13 @@
         <v>148</v>
       </c>
       <c r="B45" t="s">
+        <v>273</v>
+      </c>
+      <c r="C45" t="s">
         <v>274</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>275</v>
-      </c>
-      <c r="D45" t="s">
-        <v>276</v>
       </c>
       <c r="F45">
         <f t="shared" si="0"/>
@@ -5985,13 +6010,13 @@
         <v>152</v>
       </c>
       <c r="B46" t="s">
+        <v>276</v>
+      </c>
+      <c r="C46" t="s">
         <v>277</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>278</v>
-      </c>
-      <c r="D46" t="s">
-        <v>279</v>
       </c>
       <c r="F46">
         <f t="shared" si="0"/>
@@ -6003,13 +6028,13 @@
         <v>156</v>
       </c>
       <c r="B47" t="s">
+        <v>279</v>
+      </c>
+      <c r="C47" t="s">
         <v>280</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>281</v>
-      </c>
-      <c r="D47" t="s">
-        <v>282</v>
       </c>
       <c r="F47">
         <f t="shared" si="0"/>
@@ -6021,13 +6046,13 @@
         <v>162</v>
       </c>
       <c r="B48" t="s">
+        <v>282</v>
+      </c>
+      <c r="C48" t="s">
         <v>283</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>284</v>
-      </c>
-      <c r="D48" t="s">
-        <v>285</v>
       </c>
       <c r="F48">
         <f t="shared" si="0"/>
@@ -6039,13 +6064,13 @@
         <v>166</v>
       </c>
       <c r="B49" t="s">
+        <v>285</v>
+      </c>
+      <c r="C49" t="s">
         <v>286</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>287</v>
-      </c>
-      <c r="D49" t="s">
-        <v>288</v>
       </c>
       <c r="F49">
         <f t="shared" si="0"/>
@@ -6057,13 +6082,13 @@
         <v>170</v>
       </c>
       <c r="B50" t="s">
+        <v>288</v>
+      </c>
+      <c r="C50" t="s">
         <v>289</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>290</v>
-      </c>
-      <c r="D50" t="s">
-        <v>291</v>
       </c>
       <c r="F50">
         <f t="shared" si="0"/>
@@ -6075,13 +6100,13 @@
         <v>174</v>
       </c>
       <c r="B51" t="s">
+        <v>291</v>
+      </c>
+      <c r="C51" t="s">
         <v>292</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>293</v>
-      </c>
-      <c r="D51" t="s">
-        <v>294</v>
       </c>
       <c r="F51">
         <f t="shared" si="0"/>
@@ -6093,13 +6118,13 @@
         <v>180</v>
       </c>
       <c r="B52" t="s">
+        <v>294</v>
+      </c>
+      <c r="C52" t="s">
         <v>295</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>296</v>
-      </c>
-      <c r="D52" t="s">
-        <v>297</v>
       </c>
       <c r="F52">
         <f t="shared" si="0"/>
@@ -6111,13 +6136,13 @@
         <v>178</v>
       </c>
       <c r="B53" t="s">
+        <v>297</v>
+      </c>
+      <c r="C53" t="s">
         <v>298</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>299</v>
-      </c>
-      <c r="D53" t="s">
-        <v>300</v>
       </c>
       <c r="F53">
         <f t="shared" si="0"/>
@@ -6129,13 +6154,13 @@
         <v>184</v>
       </c>
       <c r="B54" t="s">
+        <v>300</v>
+      </c>
+      <c r="C54" t="s">
         <v>301</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>302</v>
-      </c>
-      <c r="D54" t="s">
-        <v>303</v>
       </c>
       <c r="F54">
         <f t="shared" si="0"/>
@@ -6147,13 +6172,13 @@
         <v>188</v>
       </c>
       <c r="B55" t="s">
+        <v>303</v>
+      </c>
+      <c r="C55" t="s">
         <v>304</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>305</v>
-      </c>
-      <c r="D55" t="s">
-        <v>306</v>
       </c>
       <c r="F55">
         <f t="shared" si="0"/>
@@ -6165,13 +6190,13 @@
         <v>191</v>
       </c>
       <c r="B56" t="s">
+        <v>306</v>
+      </c>
+      <c r="C56" t="s">
         <v>307</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>308</v>
-      </c>
-      <c r="D56" t="s">
-        <v>309</v>
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
@@ -6183,13 +6208,13 @@
         <v>192</v>
       </c>
       <c r="B57" t="s">
+        <v>309</v>
+      </c>
+      <c r="C57" t="s">
         <v>310</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>311</v>
-      </c>
-      <c r="D57" t="s">
-        <v>312</v>
       </c>
       <c r="F57">
         <f t="shared" si="0"/>
@@ -6201,13 +6226,13 @@
         <v>531</v>
       </c>
       <c r="B58" t="s">
+        <v>312</v>
+      </c>
+      <c r="C58" t="s">
         <v>313</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>314</v>
-      </c>
-      <c r="D58" t="s">
-        <v>315</v>
       </c>
       <c r="F58">
         <f t="shared" si="0"/>
@@ -6219,13 +6244,13 @@
         <v>196</v>
       </c>
       <c r="B59" t="s">
+        <v>315</v>
+      </c>
+      <c r="C59" t="s">
         <v>316</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>317</v>
-      </c>
-      <c r="D59" t="s">
-        <v>318</v>
       </c>
       <c r="F59">
         <f t="shared" si="0"/>
@@ -6237,13 +6262,13 @@
         <v>203</v>
       </c>
       <c r="B60" t="s">
+        <v>318</v>
+      </c>
+      <c r="C60" t="s">
         <v>319</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>320</v>
-      </c>
-      <c r="D60" t="s">
-        <v>321</v>
       </c>
       <c r="F60">
         <f t="shared" si="0"/>
@@ -6255,13 +6280,13 @@
         <v>384</v>
       </c>
       <c r="B61" t="s">
+        <v>321</v>
+      </c>
+      <c r="C61" t="s">
         <v>322</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>323</v>
-      </c>
-      <c r="D61" t="s">
-        <v>324</v>
       </c>
       <c r="F61">
         <f t="shared" si="0"/>
@@ -6273,13 +6298,13 @@
         <v>208</v>
       </c>
       <c r="B62" t="s">
+        <v>324</v>
+      </c>
+      <c r="C62" t="s">
         <v>325</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>326</v>
-      </c>
-      <c r="D62" t="s">
-        <v>327</v>
       </c>
       <c r="F62">
         <f t="shared" si="0"/>
@@ -6291,13 +6316,13 @@
         <v>262</v>
       </c>
       <c r="B63" t="s">
+        <v>327</v>
+      </c>
+      <c r="C63" t="s">
         <v>328</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>329</v>
-      </c>
-      <c r="D63" t="s">
-        <v>330</v>
       </c>
       <c r="F63">
         <f t="shared" si="0"/>
@@ -6309,13 +6334,13 @@
         <v>212</v>
       </c>
       <c r="B64" t="s">
+        <v>330</v>
+      </c>
+      <c r="C64" t="s">
         <v>331</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>332</v>
-      </c>
-      <c r="D64" t="s">
-        <v>333</v>
       </c>
       <c r="F64">
         <f t="shared" si="0"/>
@@ -6327,13 +6352,13 @@
         <v>214</v>
       </c>
       <c r="B65" t="s">
+        <v>333</v>
+      </c>
+      <c r="C65" t="s">
         <v>334</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>335</v>
-      </c>
-      <c r="D65" t="s">
-        <v>336</v>
       </c>
       <c r="F65">
         <f t="shared" si="0"/>
@@ -6345,13 +6370,13 @@
         <v>218</v>
       </c>
       <c r="B66" t="s">
+        <v>336</v>
+      </c>
+      <c r="C66" t="s">
         <v>337</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>338</v>
-      </c>
-      <c r="D66" t="s">
-        <v>339</v>
       </c>
       <c r="F66">
         <f t="shared" ref="F66:F129" si="1">LEN(B66)</f>
@@ -6363,13 +6388,13 @@
         <v>818</v>
       </c>
       <c r="B67" t="s">
+        <v>339</v>
+      </c>
+      <c r="C67" t="s">
         <v>340</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>341</v>
-      </c>
-      <c r="D67" t="s">
-        <v>342</v>
       </c>
       <c r="F67">
         <f t="shared" si="1"/>
@@ -6381,13 +6406,13 @@
         <v>222</v>
       </c>
       <c r="B68" t="s">
+        <v>342</v>
+      </c>
+      <c r="C68" t="s">
         <v>343</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>344</v>
-      </c>
-      <c r="D68" t="s">
-        <v>345</v>
       </c>
       <c r="F68">
         <f t="shared" si="1"/>
@@ -6399,13 +6424,13 @@
         <v>226</v>
       </c>
       <c r="B69" t="s">
+        <v>345</v>
+      </c>
+      <c r="C69" t="s">
         <v>346</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>347</v>
-      </c>
-      <c r="D69" t="s">
-        <v>348</v>
       </c>
       <c r="F69">
         <f t="shared" si="1"/>
@@ -6417,13 +6442,13 @@
         <v>232</v>
       </c>
       <c r="B70" t="s">
+        <v>348</v>
+      </c>
+      <c r="C70" t="s">
         <v>349</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>350</v>
-      </c>
-      <c r="D70" t="s">
-        <v>351</v>
       </c>
       <c r="F70">
         <f t="shared" si="1"/>
@@ -6435,13 +6460,13 @@
         <v>233</v>
       </c>
       <c r="B71" t="s">
+        <v>351</v>
+      </c>
+      <c r="C71" t="s">
         <v>352</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>353</v>
-      </c>
-      <c r="D71" t="s">
-        <v>354</v>
       </c>
       <c r="F71">
         <f t="shared" si="1"/>
@@ -6453,13 +6478,13 @@
         <v>748</v>
       </c>
       <c r="B72" t="s">
+        <v>354</v>
+      </c>
+      <c r="C72" t="s">
         <v>355</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>356</v>
-      </c>
-      <c r="D72" t="s">
-        <v>357</v>
       </c>
       <c r="F72">
         <f t="shared" si="1"/>
@@ -6471,13 +6496,13 @@
         <v>231</v>
       </c>
       <c r="B73" t="s">
+        <v>357</v>
+      </c>
+      <c r="C73" t="s">
         <v>358</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>359</v>
-      </c>
-      <c r="D73" t="s">
-        <v>360</v>
       </c>
       <c r="F73">
         <f t="shared" si="1"/>
@@ -6489,13 +6514,13 @@
         <v>238</v>
       </c>
       <c r="B74" t="s">
+        <v>360</v>
+      </c>
+      <c r="C74" t="s">
         <v>361</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>362</v>
-      </c>
-      <c r="D74" t="s">
-        <v>363</v>
       </c>
       <c r="F74">
         <f t="shared" si="1"/>
@@ -6507,13 +6532,13 @@
         <v>234</v>
       </c>
       <c r="B75" t="s">
+        <v>363</v>
+      </c>
+      <c r="C75" t="s">
         <v>364</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>365</v>
-      </c>
-      <c r="D75" t="s">
-        <v>366</v>
       </c>
       <c r="F75">
         <f t="shared" si="1"/>
@@ -6525,13 +6550,13 @@
         <v>242</v>
       </c>
       <c r="B76" t="s">
+        <v>366</v>
+      </c>
+      <c r="C76" t="s">
         <v>367</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>368</v>
-      </c>
-      <c r="D76" t="s">
-        <v>369</v>
       </c>
       <c r="F76">
         <f t="shared" si="1"/>
@@ -6543,13 +6568,13 @@
         <v>246</v>
       </c>
       <c r="B77" t="s">
+        <v>369</v>
+      </c>
+      <c r="C77" t="s">
         <v>370</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>371</v>
-      </c>
-      <c r="D77" t="s">
-        <v>372</v>
       </c>
       <c r="F77">
         <f t="shared" si="1"/>
@@ -6561,13 +6586,13 @@
         <v>250</v>
       </c>
       <c r="B78" t="s">
+        <v>372</v>
+      </c>
+      <c r="C78" t="s">
         <v>373</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>374</v>
-      </c>
-      <c r="D78" t="s">
-        <v>375</v>
       </c>
       <c r="F78">
         <f t="shared" si="1"/>
@@ -6579,13 +6604,13 @@
         <v>254</v>
       </c>
       <c r="B79" t="s">
+        <v>375</v>
+      </c>
+      <c r="C79" t="s">
         <v>376</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>377</v>
-      </c>
-      <c r="D79" t="s">
-        <v>378</v>
       </c>
       <c r="F79">
         <f t="shared" si="1"/>
@@ -6597,13 +6622,13 @@
         <v>258</v>
       </c>
       <c r="B80" t="s">
+        <v>378</v>
+      </c>
+      <c r="C80" t="s">
         <v>379</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>380</v>
-      </c>
-      <c r="D80" t="s">
-        <v>381</v>
       </c>
       <c r="F80">
         <f t="shared" si="1"/>
@@ -6615,13 +6640,13 @@
         <v>260</v>
       </c>
       <c r="B81" t="s">
+        <v>381</v>
+      </c>
+      <c r="C81" t="s">
         <v>382</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>383</v>
-      </c>
-      <c r="D81" t="s">
-        <v>384</v>
       </c>
       <c r="F81">
         <f t="shared" si="1"/>
@@ -6633,13 +6658,13 @@
         <v>266</v>
       </c>
       <c r="B82" t="s">
+        <v>384</v>
+      </c>
+      <c r="C82" t="s">
         <v>385</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>386</v>
-      </c>
-      <c r="D82" t="s">
-        <v>387</v>
       </c>
       <c r="F82">
         <f t="shared" si="1"/>
@@ -6651,13 +6676,13 @@
         <v>270</v>
       </c>
       <c r="B83" t="s">
+        <v>387</v>
+      </c>
+      <c r="C83" t="s">
         <v>388</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>389</v>
-      </c>
-      <c r="D83" t="s">
-        <v>390</v>
       </c>
       <c r="F83">
         <f t="shared" si="1"/>
@@ -6669,13 +6694,13 @@
         <v>268</v>
       </c>
       <c r="B84" t="s">
+        <v>390</v>
+      </c>
+      <c r="C84" t="s">
         <v>391</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>392</v>
-      </c>
-      <c r="D84" t="s">
-        <v>393</v>
       </c>
       <c r="F84">
         <f t="shared" si="1"/>
@@ -6687,13 +6712,13 @@
         <v>276</v>
       </c>
       <c r="B85" t="s">
+        <v>393</v>
+      </c>
+      <c r="C85" t="s">
         <v>394</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>395</v>
-      </c>
-      <c r="D85" t="s">
-        <v>396</v>
       </c>
       <c r="F85">
         <f t="shared" si="1"/>
@@ -6705,13 +6730,13 @@
         <v>288</v>
       </c>
       <c r="B86" t="s">
+        <v>396</v>
+      </c>
+      <c r="C86" t="s">
         <v>397</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>398</v>
-      </c>
-      <c r="D86" t="s">
-        <v>399</v>
       </c>
       <c r="F86">
         <f t="shared" si="1"/>
@@ -6723,13 +6748,13 @@
         <v>292</v>
       </c>
       <c r="B87" t="s">
+        <v>399</v>
+      </c>
+      <c r="C87" t="s">
         <v>400</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>401</v>
-      </c>
-      <c r="D87" t="s">
-        <v>402</v>
       </c>
       <c r="F87">
         <f t="shared" si="1"/>
@@ -6741,13 +6766,13 @@
         <v>300</v>
       </c>
       <c r="B88" t="s">
+        <v>402</v>
+      </c>
+      <c r="C88" t="s">
         <v>403</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>404</v>
-      </c>
-      <c r="D88" t="s">
-        <v>405</v>
       </c>
       <c r="F88">
         <f t="shared" si="1"/>
@@ -6759,13 +6784,13 @@
         <v>304</v>
       </c>
       <c r="B89" t="s">
+        <v>405</v>
+      </c>
+      <c r="C89" t="s">
         <v>406</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>407</v>
-      </c>
-      <c r="D89" t="s">
-        <v>408</v>
       </c>
       <c r="F89">
         <f t="shared" si="1"/>
@@ -6777,13 +6802,13 @@
         <v>308</v>
       </c>
       <c r="B90" t="s">
+        <v>408</v>
+      </c>
+      <c r="C90" t="s">
         <v>409</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>410</v>
-      </c>
-      <c r="D90" t="s">
-        <v>411</v>
       </c>
       <c r="F90">
         <f t="shared" si="1"/>
@@ -6795,13 +6820,13 @@
         <v>312</v>
       </c>
       <c r="B91" t="s">
+        <v>411</v>
+      </c>
+      <c r="C91" t="s">
         <v>412</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>413</v>
-      </c>
-      <c r="D91" t="s">
-        <v>414</v>
       </c>
       <c r="F91">
         <f t="shared" si="1"/>
@@ -6813,13 +6838,13 @@
         <v>316</v>
       </c>
       <c r="B92" t="s">
+        <v>414</v>
+      </c>
+      <c r="C92" t="s">
         <v>415</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>416</v>
-      </c>
-      <c r="D92" t="s">
-        <v>417</v>
       </c>
       <c r="F92">
         <f t="shared" si="1"/>
@@ -6831,13 +6856,13 @@
         <v>320</v>
       </c>
       <c r="B93" t="s">
+        <v>417</v>
+      </c>
+      <c r="C93" t="s">
         <v>418</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>419</v>
-      </c>
-      <c r="D93" t="s">
-        <v>420</v>
       </c>
       <c r="F93">
         <f t="shared" si="1"/>
@@ -6849,13 +6874,13 @@
         <v>831</v>
       </c>
       <c r="B94" t="s">
+        <v>420</v>
+      </c>
+      <c r="C94" t="s">
         <v>421</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>422</v>
-      </c>
-      <c r="D94" t="s">
-        <v>423</v>
       </c>
       <c r="F94">
         <f t="shared" si="1"/>
@@ -6867,13 +6892,13 @@
         <v>324</v>
       </c>
       <c r="B95" t="s">
+        <v>423</v>
+      </c>
+      <c r="C95" t="s">
         <v>424</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>425</v>
-      </c>
-      <c r="D95" t="s">
-        <v>426</v>
       </c>
       <c r="F95">
         <f t="shared" si="1"/>
@@ -6885,13 +6910,13 @@
         <v>624</v>
       </c>
       <c r="B96" t="s">
+        <v>426</v>
+      </c>
+      <c r="C96" t="s">
         <v>427</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>428</v>
-      </c>
-      <c r="D96" t="s">
-        <v>429</v>
       </c>
       <c r="F96">
         <f t="shared" si="1"/>
@@ -6903,13 +6928,13 @@
         <v>328</v>
       </c>
       <c r="B97" t="s">
+        <v>429</v>
+      </c>
+      <c r="C97" t="s">
         <v>430</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>431</v>
-      </c>
-      <c r="D97" t="s">
-        <v>432</v>
       </c>
       <c r="F97">
         <f t="shared" si="1"/>
@@ -6921,13 +6946,13 @@
         <v>332</v>
       </c>
       <c r="B98" t="s">
+        <v>432</v>
+      </c>
+      <c r="C98" t="s">
         <v>433</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>434</v>
-      </c>
-      <c r="D98" t="s">
-        <v>435</v>
       </c>
       <c r="F98">
         <f t="shared" si="1"/>
@@ -6939,13 +6964,13 @@
         <v>334</v>
       </c>
       <c r="B99" t="s">
+        <v>435</v>
+      </c>
+      <c r="C99" t="s">
         <v>436</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>437</v>
-      </c>
-      <c r="D99" t="s">
-        <v>438</v>
       </c>
       <c r="F99">
         <f t="shared" si="1"/>
@@ -6957,13 +6982,13 @@
         <v>336</v>
       </c>
       <c r="B100" t="s">
+        <v>438</v>
+      </c>
+      <c r="C100" t="s">
         <v>439</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>440</v>
-      </c>
-      <c r="D100" t="s">
-        <v>441</v>
       </c>
       <c r="F100">
         <f t="shared" si="1"/>
@@ -6975,13 +7000,13 @@
         <v>340</v>
       </c>
       <c r="B101" t="s">
+        <v>441</v>
+      </c>
+      <c r="C101" t="s">
         <v>442</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>443</v>
-      </c>
-      <c r="D101" t="s">
-        <v>444</v>
       </c>
       <c r="F101">
         <f t="shared" si="1"/>
@@ -6993,13 +7018,13 @@
         <v>344</v>
       </c>
       <c r="B102" t="s">
+        <v>444</v>
+      </c>
+      <c r="C102" t="s">
         <v>445</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>446</v>
-      </c>
-      <c r="D102" t="s">
-        <v>447</v>
       </c>
       <c r="F102">
         <f t="shared" si="1"/>
@@ -7011,13 +7036,13 @@
         <v>348</v>
       </c>
       <c r="B103" t="s">
+        <v>447</v>
+      </c>
+      <c r="C103" t="s">
         <v>448</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>449</v>
-      </c>
-      <c r="D103" t="s">
-        <v>450</v>
       </c>
       <c r="F103">
         <f t="shared" si="1"/>
@@ -7029,13 +7054,13 @@
         <v>352</v>
       </c>
       <c r="B104" t="s">
+        <v>450</v>
+      </c>
+      <c r="C104" t="s">
         <v>451</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>452</v>
-      </c>
-      <c r="D104" t="s">
-        <v>453</v>
       </c>
       <c r="F104">
         <f t="shared" si="1"/>
@@ -7047,13 +7072,13 @@
         <v>356</v>
       </c>
       <c r="B105" t="s">
+        <v>453</v>
+      </c>
+      <c r="C105" t="s">
         <v>454</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>455</v>
-      </c>
-      <c r="D105" t="s">
-        <v>456</v>
       </c>
       <c r="F105">
         <f t="shared" si="1"/>
@@ -7065,13 +7090,13 @@
         <v>360</v>
       </c>
       <c r="B106" t="s">
+        <v>456</v>
+      </c>
+      <c r="C106" t="s">
         <v>457</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>458</v>
-      </c>
-      <c r="D106" t="s">
-        <v>459</v>
       </c>
       <c r="F106">
         <f t="shared" si="1"/>
@@ -7083,13 +7108,13 @@
         <v>364</v>
       </c>
       <c r="B107" t="s">
+        <v>459</v>
+      </c>
+      <c r="C107" t="s">
         <v>460</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>461</v>
-      </c>
-      <c r="D107" t="s">
-        <v>462</v>
       </c>
       <c r="F107">
         <f t="shared" si="1"/>
@@ -7101,13 +7126,13 @@
         <v>368</v>
       </c>
       <c r="B108" t="s">
+        <v>462</v>
+      </c>
+      <c r="C108" t="s">
         <v>463</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>464</v>
-      </c>
-      <c r="D108" t="s">
-        <v>465</v>
       </c>
       <c r="F108">
         <f t="shared" si="1"/>
@@ -7119,13 +7144,13 @@
         <v>372</v>
       </c>
       <c r="B109" t="s">
+        <v>465</v>
+      </c>
+      <c r="C109" t="s">
         <v>466</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>467</v>
-      </c>
-      <c r="D109" t="s">
-        <v>468</v>
       </c>
       <c r="F109">
         <f t="shared" si="1"/>
@@ -7137,13 +7162,13 @@
         <v>833</v>
       </c>
       <c r="B110" t="s">
+        <v>468</v>
+      </c>
+      <c r="C110" t="s">
         <v>469</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>470</v>
-      </c>
-      <c r="D110" t="s">
-        <v>471</v>
       </c>
       <c r="F110">
         <f t="shared" si="1"/>
@@ -7155,13 +7180,13 @@
         <v>376</v>
       </c>
       <c r="B111" t="s">
+        <v>471</v>
+      </c>
+      <c r="C111" t="s">
         <v>472</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>473</v>
-      </c>
-      <c r="D111" t="s">
-        <v>474</v>
       </c>
       <c r="F111">
         <f t="shared" si="1"/>
@@ -7173,13 +7198,13 @@
         <v>380</v>
       </c>
       <c r="B112" t="s">
+        <v>474</v>
+      </c>
+      <c r="C112" t="s">
         <v>475</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>476</v>
-      </c>
-      <c r="D112" t="s">
-        <v>477</v>
       </c>
       <c r="F112">
         <f t="shared" si="1"/>
@@ -7191,13 +7216,13 @@
         <v>388</v>
       </c>
       <c r="B113" t="s">
+        <v>477</v>
+      </c>
+      <c r="C113" t="s">
         <v>478</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>479</v>
-      </c>
-      <c r="D113" t="s">
-        <v>480</v>
       </c>
       <c r="F113">
         <f t="shared" si="1"/>
@@ -7209,13 +7234,13 @@
         <v>392</v>
       </c>
       <c r="B114" t="s">
+        <v>480</v>
+      </c>
+      <c r="C114" t="s">
         <v>481</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>482</v>
-      </c>
-      <c r="D114" t="s">
-        <v>483</v>
       </c>
       <c r="F114">
         <f t="shared" si="1"/>
@@ -7227,13 +7252,13 @@
         <v>832</v>
       </c>
       <c r="B115" t="s">
+        <v>483</v>
+      </c>
+      <c r="C115" t="s">
         <v>484</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>485</v>
-      </c>
-      <c r="D115" t="s">
-        <v>486</v>
       </c>
       <c r="F115">
         <f t="shared" si="1"/>
@@ -7245,13 +7270,13 @@
         <v>400</v>
       </c>
       <c r="B116" t="s">
+        <v>486</v>
+      </c>
+      <c r="C116" t="s">
         <v>487</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>488</v>
-      </c>
-      <c r="D116" t="s">
-        <v>489</v>
       </c>
       <c r="F116">
         <f t="shared" si="1"/>
@@ -7263,13 +7288,13 @@
         <v>398</v>
       </c>
       <c r="B117" t="s">
+        <v>489</v>
+      </c>
+      <c r="C117" t="s">
         <v>490</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>491</v>
-      </c>
-      <c r="D117" t="s">
-        <v>492</v>
       </c>
       <c r="F117">
         <f t="shared" si="1"/>
@@ -7281,13 +7306,13 @@
         <v>404</v>
       </c>
       <c r="B118" t="s">
+        <v>492</v>
+      </c>
+      <c r="C118" t="s">
         <v>493</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>494</v>
-      </c>
-      <c r="D118" t="s">
-        <v>495</v>
       </c>
       <c r="F118">
         <f t="shared" si="1"/>
@@ -7299,13 +7324,13 @@
         <v>296</v>
       </c>
       <c r="B119" t="s">
+        <v>495</v>
+      </c>
+      <c r="C119" t="s">
         <v>496</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>497</v>
-      </c>
-      <c r="D119" t="s">
-        <v>498</v>
       </c>
       <c r="F119">
         <f t="shared" si="1"/>
@@ -7317,13 +7342,13 @@
         <v>408</v>
       </c>
       <c r="B120" t="s">
+        <v>498</v>
+      </c>
+      <c r="C120" t="s">
         <v>499</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>500</v>
-      </c>
-      <c r="D120" t="s">
-        <v>501</v>
       </c>
       <c r="F120">
         <f t="shared" si="1"/>
@@ -7335,13 +7360,13 @@
         <v>410</v>
       </c>
       <c r="B121" t="s">
+        <v>501</v>
+      </c>
+      <c r="C121" t="s">
         <v>502</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>503</v>
-      </c>
-      <c r="D121" t="s">
-        <v>504</v>
       </c>
       <c r="F121">
         <f t="shared" si="1"/>
@@ -7353,13 +7378,13 @@
         <v>414</v>
       </c>
       <c r="B122" t="s">
+        <v>504</v>
+      </c>
+      <c r="C122" t="s">
         <v>505</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>506</v>
-      </c>
-      <c r="D122" t="s">
-        <v>507</v>
       </c>
       <c r="F122">
         <f t="shared" si="1"/>
@@ -7371,13 +7396,13 @@
         <v>417</v>
       </c>
       <c r="B123" t="s">
+        <v>507</v>
+      </c>
+      <c r="C123" t="s">
         <v>508</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>509</v>
-      </c>
-      <c r="D123" t="s">
-        <v>510</v>
       </c>
       <c r="F123">
         <f t="shared" si="1"/>
@@ -7389,13 +7414,13 @@
         <v>418</v>
       </c>
       <c r="B124" t="s">
+        <v>510</v>
+      </c>
+      <c r="C124" t="s">
         <v>511</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>512</v>
-      </c>
-      <c r="D124" t="s">
-        <v>513</v>
       </c>
       <c r="F124">
         <f t="shared" si="1"/>
@@ -7407,13 +7432,13 @@
         <v>428</v>
       </c>
       <c r="B125" t="s">
+        <v>513</v>
+      </c>
+      <c r="C125" t="s">
         <v>514</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>515</v>
-      </c>
-      <c r="D125" t="s">
-        <v>516</v>
       </c>
       <c r="F125">
         <f t="shared" si="1"/>
@@ -7425,13 +7450,13 @@
         <v>422</v>
       </c>
       <c r="B126" t="s">
+        <v>516</v>
+      </c>
+      <c r="C126" t="s">
         <v>517</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>518</v>
-      </c>
-      <c r="D126" t="s">
-        <v>519</v>
       </c>
       <c r="F126">
         <f t="shared" si="1"/>
@@ -7443,13 +7468,13 @@
         <v>426</v>
       </c>
       <c r="B127" t="s">
+        <v>519</v>
+      </c>
+      <c r="C127" t="s">
         <v>520</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>521</v>
-      </c>
-      <c r="D127" t="s">
-        <v>522</v>
       </c>
       <c r="F127">
         <f t="shared" si="1"/>
@@ -7461,13 +7486,13 @@
         <v>430</v>
       </c>
       <c r="B128" t="s">
+        <v>522</v>
+      </c>
+      <c r="C128" t="s">
         <v>523</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>524</v>
-      </c>
-      <c r="D128" t="s">
-        <v>525</v>
       </c>
       <c r="F128">
         <f t="shared" si="1"/>
@@ -7479,13 +7504,13 @@
         <v>434</v>
       </c>
       <c r="B129" t="s">
+        <v>525</v>
+      </c>
+      <c r="C129" t="s">
         <v>526</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>527</v>
-      </c>
-      <c r="D129" t="s">
-        <v>528</v>
       </c>
       <c r="F129">
         <f t="shared" si="1"/>
@@ -7497,13 +7522,13 @@
         <v>438</v>
       </c>
       <c r="B130" t="s">
+        <v>528</v>
+      </c>
+      <c r="C130" t="s">
         <v>529</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>530</v>
-      </c>
-      <c r="D130" t="s">
-        <v>531</v>
       </c>
       <c r="F130">
         <f t="shared" ref="F130:F193" si="2">LEN(B130)</f>
@@ -7515,13 +7540,13 @@
         <v>440</v>
       </c>
       <c r="B131" t="s">
+        <v>531</v>
+      </c>
+      <c r="C131" t="s">
         <v>532</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>533</v>
-      </c>
-      <c r="D131" t="s">
-        <v>534</v>
       </c>
       <c r="F131">
         <f t="shared" si="2"/>
@@ -7533,13 +7558,13 @@
         <v>442</v>
       </c>
       <c r="B132" t="s">
+        <v>534</v>
+      </c>
+      <c r="C132" t="s">
         <v>535</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>536</v>
-      </c>
-      <c r="D132" t="s">
-        <v>537</v>
       </c>
       <c r="F132">
         <f t="shared" si="2"/>
@@ -7551,13 +7576,13 @@
         <v>446</v>
       </c>
       <c r="B133" t="s">
+        <v>537</v>
+      </c>
+      <c r="C133" t="s">
         <v>538</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>539</v>
-      </c>
-      <c r="D133" t="s">
-        <v>540</v>
       </c>
       <c r="F133">
         <f t="shared" si="2"/>
@@ -7569,13 +7594,13 @@
         <v>450</v>
       </c>
       <c r="B134" t="s">
+        <v>540</v>
+      </c>
+      <c r="C134" t="s">
         <v>541</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>542</v>
-      </c>
-      <c r="D134" t="s">
-        <v>543</v>
       </c>
       <c r="F134">
         <f t="shared" si="2"/>
@@ -7587,13 +7612,13 @@
         <v>454</v>
       </c>
       <c r="B135" t="s">
+        <v>543</v>
+      </c>
+      <c r="C135" t="s">
         <v>544</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>545</v>
-      </c>
-      <c r="D135" t="s">
-        <v>546</v>
       </c>
       <c r="F135">
         <f t="shared" si="2"/>
@@ -7605,13 +7630,13 @@
         <v>458</v>
       </c>
       <c r="B136" t="s">
+        <v>546</v>
+      </c>
+      <c r="C136" t="s">
         <v>547</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>548</v>
-      </c>
-      <c r="D136" t="s">
-        <v>549</v>
       </c>
       <c r="F136">
         <f t="shared" si="2"/>
@@ -7623,13 +7648,13 @@
         <v>462</v>
       </c>
       <c r="B137" t="s">
+        <v>549</v>
+      </c>
+      <c r="C137" t="s">
         <v>550</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>551</v>
-      </c>
-      <c r="D137" t="s">
-        <v>552</v>
       </c>
       <c r="F137">
         <f t="shared" si="2"/>
@@ -7641,13 +7666,13 @@
         <v>466</v>
       </c>
       <c r="B138" t="s">
+        <v>552</v>
+      </c>
+      <c r="C138" t="s">
         <v>553</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>554</v>
-      </c>
-      <c r="D138" t="s">
-        <v>555</v>
       </c>
       <c r="F138">
         <f t="shared" si="2"/>
@@ -7659,13 +7684,13 @@
         <v>470</v>
       </c>
       <c r="B139" t="s">
+        <v>555</v>
+      </c>
+      <c r="C139" t="s">
         <v>556</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>557</v>
-      </c>
-      <c r="D139" t="s">
-        <v>558</v>
       </c>
       <c r="F139">
         <f t="shared" si="2"/>
@@ -7677,13 +7702,13 @@
         <v>584</v>
       </c>
       <c r="B140" t="s">
+        <v>558</v>
+      </c>
+      <c r="C140" t="s">
         <v>559</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>560</v>
-      </c>
-      <c r="D140" t="s">
-        <v>561</v>
       </c>
       <c r="F140">
         <f t="shared" si="2"/>
@@ -7695,13 +7720,13 @@
         <v>474</v>
       </c>
       <c r="B141" t="s">
+        <v>561</v>
+      </c>
+      <c r="C141" t="s">
         <v>562</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>563</v>
-      </c>
-      <c r="D141" t="s">
-        <v>564</v>
       </c>
       <c r="F141">
         <f t="shared" si="2"/>
@@ -7713,13 +7738,13 @@
         <v>478</v>
       </c>
       <c r="B142" t="s">
+        <v>564</v>
+      </c>
+      <c r="C142" t="s">
         <v>565</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>566</v>
-      </c>
-      <c r="D142" t="s">
-        <v>567</v>
       </c>
       <c r="F142">
         <f t="shared" si="2"/>
@@ -7731,13 +7756,13 @@
         <v>480</v>
       </c>
       <c r="B143" t="s">
+        <v>567</v>
+      </c>
+      <c r="C143" t="s">
         <v>568</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>569</v>
-      </c>
-      <c r="D143" t="s">
-        <v>570</v>
       </c>
       <c r="F143">
         <f t="shared" si="2"/>
@@ -7749,13 +7774,13 @@
         <v>175</v>
       </c>
       <c r="B144" t="s">
+        <v>570</v>
+      </c>
+      <c r="C144" t="s">
         <v>571</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>572</v>
-      </c>
-      <c r="D144" t="s">
-        <v>573</v>
       </c>
       <c r="F144">
         <f t="shared" si="2"/>
@@ -7767,13 +7792,13 @@
         <v>484</v>
       </c>
       <c r="B145" t="s">
+        <v>573</v>
+      </c>
+      <c r="C145" t="s">
         <v>574</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>575</v>
-      </c>
-      <c r="D145" t="s">
-        <v>576</v>
       </c>
       <c r="F145">
         <f t="shared" si="2"/>
@@ -7785,13 +7810,13 @@
         <v>583</v>
       </c>
       <c r="B146" t="s">
+        <v>576</v>
+      </c>
+      <c r="C146" t="s">
         <v>577</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>578</v>
-      </c>
-      <c r="D146" t="s">
-        <v>579</v>
       </c>
       <c r="F146">
         <f t="shared" si="2"/>
@@ -7803,13 +7828,13 @@
         <v>498</v>
       </c>
       <c r="B147" t="s">
+        <v>579</v>
+      </c>
+      <c r="C147" t="s">
         <v>580</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>581</v>
-      </c>
-      <c r="D147" t="s">
-        <v>582</v>
       </c>
       <c r="F147">
         <f t="shared" si="2"/>
@@ -7821,13 +7846,13 @@
         <v>492</v>
       </c>
       <c r="B148" t="s">
+        <v>582</v>
+      </c>
+      <c r="C148" t="s">
         <v>583</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>584</v>
-      </c>
-      <c r="D148" t="s">
-        <v>585</v>
       </c>
       <c r="F148">
         <f t="shared" si="2"/>
@@ -7839,13 +7864,13 @@
         <v>496</v>
       </c>
       <c r="B149" t="s">
+        <v>585</v>
+      </c>
+      <c r="C149" t="s">
         <v>586</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>587</v>
-      </c>
-      <c r="D149" t="s">
-        <v>588</v>
       </c>
       <c r="F149">
         <f t="shared" si="2"/>
@@ -7857,13 +7882,13 @@
         <v>499</v>
       </c>
       <c r="B150" t="s">
+        <v>588</v>
+      </c>
+      <c r="C150" t="s">
         <v>589</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>590</v>
-      </c>
-      <c r="D150" t="s">
-        <v>591</v>
       </c>
       <c r="F150">
         <f t="shared" si="2"/>
@@ -7875,13 +7900,13 @@
         <v>500</v>
       </c>
       <c r="B151" t="s">
+        <v>591</v>
+      </c>
+      <c r="C151" t="s">
         <v>592</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>593</v>
-      </c>
-      <c r="D151" t="s">
-        <v>594</v>
       </c>
       <c r="F151">
         <f t="shared" si="2"/>
@@ -7893,13 +7918,13 @@
         <v>504</v>
       </c>
       <c r="B152" t="s">
+        <v>594</v>
+      </c>
+      <c r="C152" t="s">
         <v>595</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>596</v>
-      </c>
-      <c r="D152" t="s">
-        <v>597</v>
       </c>
       <c r="F152">
         <f t="shared" si="2"/>
@@ -7911,13 +7936,13 @@
         <v>508</v>
       </c>
       <c r="B153" t="s">
+        <v>597</v>
+      </c>
+      <c r="C153" t="s">
         <v>598</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>599</v>
-      </c>
-      <c r="D153" t="s">
-        <v>600</v>
       </c>
       <c r="F153">
         <f t="shared" si="2"/>
@@ -7929,13 +7954,13 @@
         <v>104</v>
       </c>
       <c r="B154" t="s">
+        <v>600</v>
+      </c>
+      <c r="C154" t="s">
         <v>601</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>602</v>
-      </c>
-      <c r="D154" t="s">
-        <v>603</v>
       </c>
       <c r="F154">
         <f t="shared" si="2"/>
@@ -7947,13 +7972,13 @@
         <v>516</v>
       </c>
       <c r="B155" t="s">
+        <v>603</v>
+      </c>
+      <c r="C155" t="s">
         <v>604</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>605</v>
-      </c>
-      <c r="D155" t="s">
-        <v>606</v>
       </c>
       <c r="F155">
         <f t="shared" si="2"/>
@@ -7965,13 +7990,13 @@
         <v>520</v>
       </c>
       <c r="B156" t="s">
+        <v>606</v>
+      </c>
+      <c r="C156" t="s">
         <v>607</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>608</v>
-      </c>
-      <c r="D156" t="s">
-        <v>609</v>
       </c>
       <c r="F156">
         <f t="shared" si="2"/>
@@ -7983,13 +8008,13 @@
         <v>524</v>
       </c>
       <c r="B157" t="s">
+        <v>609</v>
+      </c>
+      <c r="C157" t="s">
         <v>610</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>611</v>
-      </c>
-      <c r="D157" t="s">
-        <v>612</v>
       </c>
       <c r="F157">
         <f t="shared" si="2"/>
@@ -8001,13 +8026,13 @@
         <v>528</v>
       </c>
       <c r="B158" t="s">
+        <v>612</v>
+      </c>
+      <c r="C158" t="s">
         <v>613</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>614</v>
-      </c>
-      <c r="D158" t="s">
-        <v>615</v>
       </c>
       <c r="F158">
         <f t="shared" si="2"/>
@@ -8019,13 +8044,13 @@
         <v>540</v>
       </c>
       <c r="B159" t="s">
+        <v>615</v>
+      </c>
+      <c r="C159" t="s">
         <v>616</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>617</v>
-      </c>
-      <c r="D159" t="s">
-        <v>618</v>
       </c>
       <c r="F159">
         <f t="shared" si="2"/>
@@ -8037,13 +8062,13 @@
         <v>554</v>
       </c>
       <c r="B160" t="s">
+        <v>618</v>
+      </c>
+      <c r="C160" t="s">
         <v>619</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>620</v>
-      </c>
-      <c r="D160" t="s">
-        <v>621</v>
       </c>
       <c r="F160">
         <f t="shared" si="2"/>
@@ -8055,13 +8080,13 @@
         <v>558</v>
       </c>
       <c r="B161" t="s">
+        <v>621</v>
+      </c>
+      <c r="C161" t="s">
         <v>622</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>623</v>
-      </c>
-      <c r="D161" t="s">
-        <v>624</v>
       </c>
       <c r="F161">
         <f t="shared" si="2"/>
@@ -8073,13 +8098,13 @@
         <v>562</v>
       </c>
       <c r="B162" t="s">
+        <v>624</v>
+      </c>
+      <c r="C162" t="s">
         <v>625</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>626</v>
-      </c>
-      <c r="D162" t="s">
-        <v>627</v>
       </c>
       <c r="F162">
         <f t="shared" si="2"/>
@@ -8091,13 +8116,13 @@
         <v>566</v>
       </c>
       <c r="B163" t="s">
+        <v>627</v>
+      </c>
+      <c r="C163" t="s">
         <v>628</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>629</v>
-      </c>
-      <c r="D163" t="s">
-        <v>630</v>
       </c>
       <c r="F163">
         <f t="shared" si="2"/>
@@ -8109,13 +8134,13 @@
         <v>570</v>
       </c>
       <c r="B164" t="s">
+        <v>630</v>
+      </c>
+      <c r="C164" t="s">
         <v>631</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>632</v>
-      </c>
-      <c r="D164" t="s">
-        <v>633</v>
       </c>
       <c r="F164">
         <f t="shared" si="2"/>
@@ -8127,13 +8152,13 @@
         <v>574</v>
       </c>
       <c r="B165" t="s">
+        <v>633</v>
+      </c>
+      <c r="C165" t="s">
         <v>634</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>635</v>
-      </c>
-      <c r="D165" t="s">
-        <v>636</v>
       </c>
       <c r="F165">
         <f t="shared" si="2"/>
@@ -8145,13 +8170,13 @@
         <v>580</v>
       </c>
       <c r="B166" t="s">
+        <v>636</v>
+      </c>
+      <c r="C166" t="s">
         <v>637</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>638</v>
-      </c>
-      <c r="D166" t="s">
-        <v>639</v>
       </c>
       <c r="F166">
         <f t="shared" si="2"/>
@@ -8163,13 +8188,13 @@
         <v>578</v>
       </c>
       <c r="B167" t="s">
+        <v>639</v>
+      </c>
+      <c r="C167" t="s">
         <v>640</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>641</v>
-      </c>
-      <c r="D167" t="s">
-        <v>642</v>
       </c>
       <c r="F167">
         <f t="shared" si="2"/>
@@ -8181,13 +8206,13 @@
         <v>512</v>
       </c>
       <c r="B168" t="s">
+        <v>642</v>
+      </c>
+      <c r="C168" t="s">
         <v>643</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>644</v>
-      </c>
-      <c r="D168" t="s">
-        <v>645</v>
       </c>
       <c r="F168">
         <f t="shared" si="2"/>
@@ -8199,13 +8224,13 @@
         <v>586</v>
       </c>
       <c r="B169" t="s">
+        <v>645</v>
+      </c>
+      <c r="C169" t="s">
         <v>646</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>647</v>
-      </c>
-      <c r="D169" t="s">
-        <v>648</v>
       </c>
       <c r="F169">
         <f t="shared" si="2"/>
@@ -8217,13 +8242,13 @@
         <v>585</v>
       </c>
       <c r="B170" t="s">
+        <v>648</v>
+      </c>
+      <c r="C170" t="s">
         <v>649</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>650</v>
-      </c>
-      <c r="D170" t="s">
-        <v>651</v>
       </c>
       <c r="F170">
         <f t="shared" si="2"/>
@@ -8235,13 +8260,13 @@
         <v>275</v>
       </c>
       <c r="B171" t="s">
+        <v>651</v>
+      </c>
+      <c r="C171" t="s">
         <v>652</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>653</v>
-      </c>
-      <c r="D171" t="s">
-        <v>654</v>
       </c>
       <c r="F171">
         <f t="shared" si="2"/>
@@ -8253,13 +8278,13 @@
         <v>591</v>
       </c>
       <c r="B172" t="s">
+        <v>654</v>
+      </c>
+      <c r="C172" t="s">
         <v>655</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>656</v>
-      </c>
-      <c r="D172" t="s">
-        <v>657</v>
       </c>
       <c r="F172">
         <f t="shared" si="2"/>
@@ -8271,13 +8296,13 @@
         <v>598</v>
       </c>
       <c r="B173" t="s">
+        <v>657</v>
+      </c>
+      <c r="C173" t="s">
         <v>658</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>659</v>
-      </c>
-      <c r="D173" t="s">
-        <v>660</v>
       </c>
       <c r="F173">
         <f t="shared" si="2"/>
@@ -8289,13 +8314,13 @@
         <v>600</v>
       </c>
       <c r="B174" t="s">
+        <v>660</v>
+      </c>
+      <c r="C174" t="s">
         <v>661</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>662</v>
-      </c>
-      <c r="D174" t="s">
-        <v>663</v>
       </c>
       <c r="F174">
         <f t="shared" si="2"/>
@@ -8307,13 +8332,13 @@
         <v>604</v>
       </c>
       <c r="B175" t="s">
+        <v>663</v>
+      </c>
+      <c r="C175" t="s">
         <v>664</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>665</v>
-      </c>
-      <c r="D175" t="s">
-        <v>666</v>
       </c>
       <c r="F175">
         <f t="shared" si="2"/>
@@ -8325,13 +8350,13 @@
         <v>608</v>
       </c>
       <c r="B176" t="s">
+        <v>666</v>
+      </c>
+      <c r="C176" t="s">
         <v>667</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
         <v>668</v>
-      </c>
-      <c r="D176" t="s">
-        <v>669</v>
       </c>
       <c r="F176">
         <f t="shared" si="2"/>
@@ -8343,13 +8368,13 @@
         <v>612</v>
       </c>
       <c r="B177" t="s">
+        <v>669</v>
+      </c>
+      <c r="C177" t="s">
         <v>670</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
         <v>671</v>
-      </c>
-      <c r="D177" t="s">
-        <v>672</v>
       </c>
       <c r="F177">
         <f t="shared" si="2"/>
@@ -8361,13 +8386,13 @@
         <v>616</v>
       </c>
       <c r="B178" t="s">
+        <v>672</v>
+      </c>
+      <c r="C178" t="s">
         <v>673</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>674</v>
-      </c>
-      <c r="D178" t="s">
-        <v>675</v>
       </c>
       <c r="F178">
         <f t="shared" si="2"/>
@@ -8379,13 +8404,13 @@
         <v>620</v>
       </c>
       <c r="B179" t="s">
+        <v>675</v>
+      </c>
+      <c r="C179" t="s">
         <v>676</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>677</v>
-      </c>
-      <c r="D179" t="s">
-        <v>678</v>
       </c>
       <c r="F179">
         <f t="shared" si="2"/>
@@ -8397,13 +8422,13 @@
         <v>630</v>
       </c>
       <c r="B180" t="s">
+        <v>678</v>
+      </c>
+      <c r="C180" t="s">
         <v>679</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>680</v>
-      </c>
-      <c r="D180" t="s">
-        <v>681</v>
       </c>
       <c r="F180">
         <f t="shared" si="2"/>
@@ -8415,13 +8440,13 @@
         <v>634</v>
       </c>
       <c r="B181" t="s">
+        <v>681</v>
+      </c>
+      <c r="C181" t="s">
         <v>682</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>683</v>
-      </c>
-      <c r="D181" t="s">
-        <v>684</v>
       </c>
       <c r="F181">
         <f t="shared" si="2"/>
@@ -8433,13 +8458,13 @@
         <v>807</v>
       </c>
       <c r="B182" t="s">
+        <v>684</v>
+      </c>
+      <c r="C182" t="s">
         <v>685</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
         <v>686</v>
-      </c>
-      <c r="D182" t="s">
-        <v>687</v>
       </c>
       <c r="F182">
         <f t="shared" si="2"/>
@@ -8451,13 +8476,13 @@
         <v>642</v>
       </c>
       <c r="B183" t="s">
+        <v>687</v>
+      </c>
+      <c r="C183" t="s">
         <v>688</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>689</v>
-      </c>
-      <c r="D183" t="s">
-        <v>690</v>
       </c>
       <c r="F183">
         <f t="shared" si="2"/>
@@ -8469,13 +8494,13 @@
         <v>643</v>
       </c>
       <c r="B184" t="s">
+        <v>690</v>
+      </c>
+      <c r="C184" t="s">
         <v>691</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>692</v>
-      </c>
-      <c r="D184" t="s">
-        <v>693</v>
       </c>
       <c r="F184">
         <f t="shared" si="2"/>
@@ -8487,13 +8512,13 @@
         <v>646</v>
       </c>
       <c r="B185" t="s">
+        <v>693</v>
+      </c>
+      <c r="C185" t="s">
         <v>694</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>695</v>
-      </c>
-      <c r="D185" t="s">
-        <v>696</v>
       </c>
       <c r="F185">
         <f t="shared" si="2"/>
@@ -8505,13 +8530,13 @@
         <v>638</v>
       </c>
       <c r="B186" t="s">
+        <v>696</v>
+      </c>
+      <c r="C186" t="s">
         <v>697</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>698</v>
-      </c>
-      <c r="D186" t="s">
-        <v>699</v>
       </c>
       <c r="F186">
         <f t="shared" si="2"/>
@@ -8523,13 +8548,13 @@
         <v>652</v>
       </c>
       <c r="B187" t="s">
+        <v>699</v>
+      </c>
+      <c r="C187" t="s">
         <v>700</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>701</v>
-      </c>
-      <c r="D187" t="s">
-        <v>702</v>
       </c>
       <c r="F187">
         <f t="shared" si="2"/>
@@ -8541,13 +8566,13 @@
         <v>654</v>
       </c>
       <c r="B188" t="s">
+        <v>702</v>
+      </c>
+      <c r="C188" t="s">
         <v>703</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>704</v>
-      </c>
-      <c r="D188" t="s">
-        <v>705</v>
       </c>
       <c r="F188">
         <f t="shared" si="2"/>
@@ -8559,13 +8584,13 @@
         <v>659</v>
       </c>
       <c r="B189" t="s">
+        <v>705</v>
+      </c>
+      <c r="C189" t="s">
         <v>706</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>707</v>
-      </c>
-      <c r="D189" t="s">
-        <v>708</v>
       </c>
       <c r="F189">
         <f t="shared" si="2"/>
@@ -8577,13 +8602,13 @@
         <v>662</v>
       </c>
       <c r="B190" t="s">
+        <v>708</v>
+      </c>
+      <c r="C190" t="s">
         <v>709</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>710</v>
-      </c>
-      <c r="D190" t="s">
-        <v>711</v>
       </c>
       <c r="F190">
         <f t="shared" si="2"/>
@@ -8595,13 +8620,13 @@
         <v>663</v>
       </c>
       <c r="B191" t="s">
+        <v>711</v>
+      </c>
+      <c r="C191" t="s">
         <v>712</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>713</v>
-      </c>
-      <c r="D191" t="s">
-        <v>714</v>
       </c>
       <c r="F191">
         <f t="shared" si="2"/>
@@ -8613,13 +8638,13 @@
         <v>666</v>
       </c>
       <c r="B192" t="s">
+        <v>714</v>
+      </c>
+      <c r="C192" t="s">
         <v>715</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
         <v>716</v>
-      </c>
-      <c r="D192" t="s">
-        <v>717</v>
       </c>
       <c r="F192">
         <f t="shared" si="2"/>
@@ -8631,13 +8656,13 @@
         <v>670</v>
       </c>
       <c r="B193" t="s">
+        <v>717</v>
+      </c>
+      <c r="C193" t="s">
         <v>718</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>719</v>
-      </c>
-      <c r="D193" t="s">
-        <v>720</v>
       </c>
       <c r="F193">
         <f t="shared" si="2"/>
@@ -8649,13 +8674,13 @@
         <v>882</v>
       </c>
       <c r="B194" t="s">
+        <v>720</v>
+      </c>
+      <c r="C194" t="s">
         <v>721</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D194" t="s">
         <v>722</v>
-      </c>
-      <c r="D194" t="s">
-        <v>723</v>
       </c>
       <c r="F194">
         <f t="shared" ref="F194:F251" si="3">LEN(B194)</f>
@@ -8667,13 +8692,13 @@
         <v>674</v>
       </c>
       <c r="B195" t="s">
+        <v>723</v>
+      </c>
+      <c r="C195" t="s">
         <v>724</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
         <v>725</v>
-      </c>
-      <c r="D195" t="s">
-        <v>726</v>
       </c>
       <c r="F195">
         <f t="shared" si="3"/>
@@ -8685,13 +8710,13 @@
         <v>678</v>
       </c>
       <c r="B196" t="s">
+        <v>726</v>
+      </c>
+      <c r="C196" t="s">
         <v>727</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
         <v>728</v>
-      </c>
-      <c r="D196" t="s">
-        <v>729</v>
       </c>
       <c r="F196">
         <f t="shared" si="3"/>
@@ -8703,13 +8728,13 @@
         <v>682</v>
       </c>
       <c r="B197" t="s">
+        <v>729</v>
+      </c>
+      <c r="C197" t="s">
         <v>730</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
         <v>731</v>
-      </c>
-      <c r="D197" t="s">
-        <v>732</v>
       </c>
       <c r="F197">
         <f t="shared" si="3"/>
@@ -8721,13 +8746,13 @@
         <v>686</v>
       </c>
       <c r="B198" t="s">
+        <v>732</v>
+      </c>
+      <c r="C198" t="s">
         <v>733</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
         <v>734</v>
-      </c>
-      <c r="D198" t="s">
-        <v>735</v>
       </c>
       <c r="F198">
         <f t="shared" si="3"/>
@@ -8739,13 +8764,13 @@
         <v>688</v>
       </c>
       <c r="B199" t="s">
+        <v>735</v>
+      </c>
+      <c r="C199" t="s">
         <v>736</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
         <v>737</v>
-      </c>
-      <c r="D199" t="s">
-        <v>738</v>
       </c>
       <c r="F199">
         <f t="shared" si="3"/>
@@ -8757,13 +8782,13 @@
         <v>690</v>
       </c>
       <c r="B200" t="s">
+        <v>738</v>
+      </c>
+      <c r="C200" t="s">
         <v>739</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D200" t="s">
         <v>740</v>
-      </c>
-      <c r="D200" t="s">
-        <v>741</v>
       </c>
       <c r="F200">
         <f t="shared" si="3"/>
@@ -8775,13 +8800,13 @@
         <v>694</v>
       </c>
       <c r="B201" t="s">
+        <v>741</v>
+      </c>
+      <c r="C201" t="s">
         <v>742</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>743</v>
-      </c>
-      <c r="D201" t="s">
-        <v>744</v>
       </c>
       <c r="F201">
         <f t="shared" si="3"/>
@@ -8793,13 +8818,13 @@
         <v>702</v>
       </c>
       <c r="B202" t="s">
+        <v>744</v>
+      </c>
+      <c r="C202" t="s">
         <v>745</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>746</v>
-      </c>
-      <c r="D202" t="s">
-        <v>747</v>
       </c>
       <c r="F202">
         <f t="shared" si="3"/>
@@ -8811,13 +8836,13 @@
         <v>534</v>
       </c>
       <c r="B203" t="s">
+        <v>747</v>
+      </c>
+      <c r="C203" t="s">
         <v>748</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>749</v>
-      </c>
-      <c r="D203" t="s">
-        <v>750</v>
       </c>
       <c r="F203">
         <f t="shared" si="3"/>
@@ -8829,13 +8854,13 @@
         <v>703</v>
       </c>
       <c r="B204" t="s">
+        <v>750</v>
+      </c>
+      <c r="C204" t="s">
         <v>751</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>752</v>
-      </c>
-      <c r="D204" t="s">
-        <v>753</v>
       </c>
       <c r="F204">
         <f t="shared" si="3"/>
@@ -8847,13 +8872,13 @@
         <v>705</v>
       </c>
       <c r="B205" t="s">
+        <v>753</v>
+      </c>
+      <c r="C205" t="s">
         <v>754</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>755</v>
-      </c>
-      <c r="D205" t="s">
-        <v>756</v>
       </c>
       <c r="F205">
         <f t="shared" si="3"/>
@@ -8865,13 +8890,13 @@
         <v>90</v>
       </c>
       <c r="B206" t="s">
+        <v>756</v>
+      </c>
+      <c r="C206" t="s">
         <v>757</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>758</v>
-      </c>
-      <c r="D206" t="s">
-        <v>759</v>
       </c>
       <c r="F206">
         <f t="shared" si="3"/>
@@ -8883,13 +8908,13 @@
         <v>706</v>
       </c>
       <c r="B207" t="s">
+        <v>759</v>
+      </c>
+      <c r="C207" t="s">
         <v>760</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
         <v>761</v>
-      </c>
-      <c r="D207" t="s">
-        <v>762</v>
       </c>
       <c r="F207">
         <f t="shared" si="3"/>
@@ -8901,13 +8926,13 @@
         <v>710</v>
       </c>
       <c r="B208" t="s">
+        <v>762</v>
+      </c>
+      <c r="C208" t="s">
         <v>763</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>764</v>
-      </c>
-      <c r="D208" t="s">
-        <v>765</v>
       </c>
       <c r="F208">
         <f t="shared" si="3"/>
@@ -8919,13 +8944,13 @@
         <v>239</v>
       </c>
       <c r="B209" t="s">
+        <v>765</v>
+      </c>
+      <c r="C209" t="s">
         <v>766</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
         <v>767</v>
-      </c>
-      <c r="D209" t="s">
-        <v>768</v>
       </c>
       <c r="F209">
         <f t="shared" si="3"/>
@@ -8937,13 +8962,13 @@
         <v>728</v>
       </c>
       <c r="B210" t="s">
+        <v>768</v>
+      </c>
+      <c r="C210" t="s">
         <v>769</v>
       </c>
-      <c r="C210" t="s">
+      <c r="D210" t="s">
         <v>770</v>
-      </c>
-      <c r="D210" t="s">
-        <v>771</v>
       </c>
       <c r="F210">
         <f t="shared" si="3"/>
@@ -8955,13 +8980,13 @@
         <v>724</v>
       </c>
       <c r="B211" t="s">
+        <v>771</v>
+      </c>
+      <c r="C211" t="s">
         <v>772</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>773</v>
-      </c>
-      <c r="D211" t="s">
-        <v>774</v>
       </c>
       <c r="F211">
         <f t="shared" si="3"/>
@@ -8973,13 +8998,13 @@
         <v>144</v>
       </c>
       <c r="B212" t="s">
+        <v>774</v>
+      </c>
+      <c r="C212" t="s">
         <v>775</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
         <v>776</v>
-      </c>
-      <c r="D212" t="s">
-        <v>777</v>
       </c>
       <c r="F212">
         <f t="shared" si="3"/>
@@ -8991,13 +9016,13 @@
         <v>729</v>
       </c>
       <c r="B213" t="s">
+        <v>777</v>
+      </c>
+      <c r="C213" t="s">
         <v>778</v>
       </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
         <v>779</v>
-      </c>
-      <c r="D213" t="s">
-        <v>780</v>
       </c>
       <c r="F213">
         <f t="shared" si="3"/>
@@ -9009,13 +9034,13 @@
         <v>740</v>
       </c>
       <c r="B214" t="s">
+        <v>780</v>
+      </c>
+      <c r="C214" t="s">
         <v>781</v>
       </c>
-      <c r="C214" t="s">
+      <c r="D214" t="s">
         <v>782</v>
-      </c>
-      <c r="D214" t="s">
-        <v>783</v>
       </c>
       <c r="F214">
         <f t="shared" si="3"/>
@@ -9027,13 +9052,13 @@
         <v>744</v>
       </c>
       <c r="B215" t="s">
+        <v>783</v>
+      </c>
+      <c r="C215" t="s">
         <v>784</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>785</v>
-      </c>
-      <c r="D215" t="s">
-        <v>786</v>
       </c>
       <c r="F215">
         <f t="shared" si="3"/>
@@ -9045,13 +9070,13 @@
         <v>752</v>
       </c>
       <c r="B216" t="s">
+        <v>786</v>
+      </c>
+      <c r="C216" t="s">
         <v>787</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>788</v>
-      </c>
-      <c r="D216" t="s">
-        <v>789</v>
       </c>
       <c r="F216">
         <f t="shared" si="3"/>
@@ -9063,13 +9088,13 @@
         <v>756</v>
       </c>
       <c r="B217" t="s">
+        <v>789</v>
+      </c>
+      <c r="C217" t="s">
         <v>790</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>791</v>
-      </c>
-      <c r="D217" t="s">
-        <v>792</v>
       </c>
       <c r="F217">
         <f t="shared" si="3"/>
@@ -9081,13 +9106,13 @@
         <v>760</v>
       </c>
       <c r="B218" t="s">
+        <v>792</v>
+      </c>
+      <c r="C218" t="s">
         <v>793</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
         <v>794</v>
-      </c>
-      <c r="D218" t="s">
-        <v>795</v>
       </c>
       <c r="F218">
         <f t="shared" si="3"/>
@@ -9099,13 +9124,13 @@
         <v>158</v>
       </c>
       <c r="B219" t="s">
+        <v>795</v>
+      </c>
+      <c r="C219" t="s">
         <v>796</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
         <v>797</v>
-      </c>
-      <c r="D219" t="s">
-        <v>798</v>
       </c>
       <c r="F219">
         <f t="shared" si="3"/>
@@ -9117,13 +9142,13 @@
         <v>762</v>
       </c>
       <c r="B220" t="s">
+        <v>798</v>
+      </c>
+      <c r="C220" t="s">
         <v>799</v>
       </c>
-      <c r="C220" t="s">
+      <c r="D220" t="s">
         <v>800</v>
-      </c>
-      <c r="D220" t="s">
-        <v>801</v>
       </c>
       <c r="F220">
         <f t="shared" si="3"/>
@@ -9135,13 +9160,13 @@
         <v>834</v>
       </c>
       <c r="B221" t="s">
+        <v>801</v>
+      </c>
+      <c r="C221" t="s">
         <v>802</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
         <v>803</v>
-      </c>
-      <c r="D221" t="s">
-        <v>804</v>
       </c>
       <c r="F221">
         <f t="shared" si="3"/>
@@ -9153,13 +9178,13 @@
         <v>764</v>
       </c>
       <c r="B222" t="s">
+        <v>804</v>
+      </c>
+      <c r="C222" t="s">
         <v>805</v>
       </c>
-      <c r="C222" t="s">
+      <c r="D222" t="s">
         <v>806</v>
-      </c>
-      <c r="D222" t="s">
-        <v>807</v>
       </c>
       <c r="F222">
         <f t="shared" si="3"/>
@@ -9171,13 +9196,13 @@
         <v>626</v>
       </c>
       <c r="B223" t="s">
+        <v>807</v>
+      </c>
+      <c r="C223" t="s">
         <v>808</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>809</v>
-      </c>
-      <c r="D223" t="s">
-        <v>810</v>
       </c>
       <c r="F223">
         <f t="shared" si="3"/>
@@ -9189,13 +9214,13 @@
         <v>768</v>
       </c>
       <c r="B224" t="s">
+        <v>810</v>
+      </c>
+      <c r="C224" t="s">
         <v>811</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
         <v>812</v>
-      </c>
-      <c r="D224" t="s">
-        <v>813</v>
       </c>
       <c r="F224">
         <f t="shared" si="3"/>
@@ -9207,13 +9232,13 @@
         <v>772</v>
       </c>
       <c r="B225" t="s">
+        <v>813</v>
+      </c>
+      <c r="C225" t="s">
         <v>814</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>815</v>
-      </c>
-      <c r="D225" t="s">
-        <v>816</v>
       </c>
       <c r="F225">
         <f t="shared" si="3"/>
@@ -9225,13 +9250,13 @@
         <v>776</v>
       </c>
       <c r="B226" t="s">
+        <v>816</v>
+      </c>
+      <c r="C226" t="s">
         <v>817</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>818</v>
-      </c>
-      <c r="D226" t="s">
-        <v>819</v>
       </c>
       <c r="F226">
         <f t="shared" si="3"/>
@@ -9243,13 +9268,13 @@
         <v>780</v>
       </c>
       <c r="B227" t="s">
+        <v>819</v>
+      </c>
+      <c r="C227" t="s">
         <v>820</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>821</v>
-      </c>
-      <c r="D227" t="s">
-        <v>822</v>
       </c>
       <c r="F227">
         <f t="shared" si="3"/>
@@ -9261,13 +9286,13 @@
         <v>788</v>
       </c>
       <c r="B228" t="s">
+        <v>822</v>
+      </c>
+      <c r="C228" t="s">
         <v>823</v>
       </c>
-      <c r="C228" t="s">
+      <c r="D228" t="s">
         <v>824</v>
-      </c>
-      <c r="D228" t="s">
-        <v>825</v>
       </c>
       <c r="F228">
         <f t="shared" si="3"/>
@@ -9279,13 +9304,13 @@
         <v>792</v>
       </c>
       <c r="B229" t="s">
+        <v>825</v>
+      </c>
+      <c r="C229" t="s">
         <v>826</v>
       </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>827</v>
-      </c>
-      <c r="D229" t="s">
-        <v>828</v>
       </c>
       <c r="F229">
         <f t="shared" si="3"/>
@@ -9297,13 +9322,13 @@
         <v>795</v>
       </c>
       <c r="B230" t="s">
+        <v>828</v>
+      </c>
+      <c r="C230" t="s">
         <v>829</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
         <v>830</v>
-      </c>
-      <c r="D230" t="s">
-        <v>831</v>
       </c>
       <c r="F230">
         <f t="shared" si="3"/>
@@ -9315,13 +9340,13 @@
         <v>796</v>
       </c>
       <c r="B231" t="s">
+        <v>831</v>
+      </c>
+      <c r="C231" t="s">
         <v>832</v>
       </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
         <v>833</v>
-      </c>
-      <c r="D231" t="s">
-        <v>834</v>
       </c>
       <c r="F231">
         <f t="shared" si="3"/>
@@ -9333,13 +9358,13 @@
         <v>798</v>
       </c>
       <c r="B232" t="s">
+        <v>834</v>
+      </c>
+      <c r="C232" t="s">
         <v>835</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>836</v>
-      </c>
-      <c r="D232" t="s">
-        <v>837</v>
       </c>
       <c r="F232">
         <f t="shared" si="3"/>
@@ -9351,13 +9376,13 @@
         <v>800</v>
       </c>
       <c r="B233" t="s">
+        <v>837</v>
+      </c>
+      <c r="C233" t="s">
         <v>838</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
         <v>839</v>
-      </c>
-      <c r="D233" t="s">
-        <v>840</v>
       </c>
       <c r="F233">
         <f t="shared" si="3"/>
@@ -9369,13 +9394,13 @@
         <v>804</v>
       </c>
       <c r="B234" t="s">
+        <v>840</v>
+      </c>
+      <c r="C234" t="s">
         <v>841</v>
       </c>
-      <c r="C234" t="s">
+      <c r="D234" t="s">
         <v>842</v>
-      </c>
-      <c r="D234" t="s">
-        <v>843</v>
       </c>
       <c r="F234">
         <f t="shared" si="3"/>
@@ -9387,13 +9412,13 @@
         <v>784</v>
       </c>
       <c r="B235" t="s">
+        <v>843</v>
+      </c>
+      <c r="C235" t="s">
         <v>844</v>
       </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
         <v>845</v>
-      </c>
-      <c r="D235" t="s">
-        <v>846</v>
       </c>
       <c r="F235">
         <f t="shared" si="3"/>
@@ -9405,13 +9430,13 @@
         <v>826</v>
       </c>
       <c r="B236" t="s">
+        <v>846</v>
+      </c>
+      <c r="C236" t="s">
         <v>847</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
         <v>848</v>
-      </c>
-      <c r="D236" t="s">
-        <v>849</v>
       </c>
       <c r="F236">
         <f t="shared" si="3"/>
@@ -9423,13 +9448,13 @@
         <v>581</v>
       </c>
       <c r="B237" t="s">
+        <v>849</v>
+      </c>
+      <c r="C237" t="s">
         <v>850</v>
       </c>
-      <c r="C237" t="s">
+      <c r="D237" t="s">
         <v>851</v>
-      </c>
-      <c r="D237" t="s">
-        <v>852</v>
       </c>
       <c r="F237">
         <f t="shared" si="3"/>
@@ -9441,13 +9466,13 @@
         <v>840</v>
       </c>
       <c r="B238" t="s">
+        <v>852</v>
+      </c>
+      <c r="C238" t="s">
         <v>853</v>
       </c>
-      <c r="C238" t="s">
+      <c r="D238" t="s">
         <v>854</v>
-      </c>
-      <c r="D238" t="s">
-        <v>855</v>
       </c>
       <c r="F238">
         <f t="shared" si="3"/>
@@ -9459,13 +9484,13 @@
         <v>858</v>
       </c>
       <c r="B239" t="s">
+        <v>855</v>
+      </c>
+      <c r="C239" t="s">
         <v>856</v>
       </c>
-      <c r="C239" t="s">
+      <c r="D239" t="s">
         <v>857</v>
-      </c>
-      <c r="D239" t="s">
-        <v>858</v>
       </c>
       <c r="F239">
         <f t="shared" si="3"/>
@@ -9477,13 +9502,13 @@
         <v>860</v>
       </c>
       <c r="B240" t="s">
+        <v>858</v>
+      </c>
+      <c r="C240" t="s">
         <v>859</v>
       </c>
-      <c r="C240" t="s">
+      <c r="D240" t="s">
         <v>860</v>
-      </c>
-      <c r="D240" t="s">
-        <v>861</v>
       </c>
       <c r="F240">
         <f t="shared" si="3"/>
@@ -9495,13 +9520,13 @@
         <v>548</v>
       </c>
       <c r="B241" t="s">
+        <v>861</v>
+      </c>
+      <c r="C241" t="s">
         <v>862</v>
       </c>
-      <c r="C241" t="s">
+      <c r="D241" t="s">
         <v>863</v>
-      </c>
-      <c r="D241" t="s">
-        <v>864</v>
       </c>
       <c r="F241">
         <f t="shared" si="3"/>
@@ -9513,13 +9538,13 @@
         <v>862</v>
       </c>
       <c r="B242" t="s">
+        <v>864</v>
+      </c>
+      <c r="C242" t="s">
         <v>865</v>
       </c>
-      <c r="C242" t="s">
+      <c r="D242" t="s">
         <v>866</v>
-      </c>
-      <c r="D242" t="s">
-        <v>867</v>
       </c>
       <c r="F242">
         <f t="shared" si="3"/>
@@ -9531,13 +9556,13 @@
         <v>704</v>
       </c>
       <c r="B243" t="s">
+        <v>867</v>
+      </c>
+      <c r="C243" t="s">
         <v>868</v>
       </c>
-      <c r="C243" t="s">
+      <c r="D243" t="s">
         <v>869</v>
-      </c>
-      <c r="D243" t="s">
-        <v>870</v>
       </c>
       <c r="F243">
         <f t="shared" si="3"/>
@@ -9549,13 +9574,13 @@
         <v>92</v>
       </c>
       <c r="B244" t="s">
+        <v>870</v>
+      </c>
+      <c r="C244" t="s">
         <v>871</v>
       </c>
-      <c r="C244" t="s">
+      <c r="D244" t="s">
         <v>872</v>
-      </c>
-      <c r="D244" t="s">
-        <v>873</v>
       </c>
       <c r="F244">
         <f t="shared" si="3"/>
@@ -9567,13 +9592,13 @@
         <v>850</v>
       </c>
       <c r="B245" t="s">
+        <v>873</v>
+      </c>
+      <c r="C245" t="s">
         <v>874</v>
       </c>
-      <c r="C245" t="s">
+      <c r="D245" t="s">
         <v>875</v>
-      </c>
-      <c r="D245" t="s">
-        <v>876</v>
       </c>
       <c r="F245">
         <f t="shared" si="3"/>
@@ -9585,13 +9610,13 @@
         <v>876</v>
       </c>
       <c r="B246" t="s">
+        <v>876</v>
+      </c>
+      <c r="C246" t="s">
         <v>877</v>
       </c>
-      <c r="C246" t="s">
+      <c r="D246" t="s">
         <v>878</v>
-      </c>
-      <c r="D246" t="s">
-        <v>879</v>
       </c>
       <c r="F246">
         <f t="shared" si="3"/>
@@ -9603,13 +9628,13 @@
         <v>732</v>
       </c>
       <c r="B247" t="s">
+        <v>879</v>
+      </c>
+      <c r="C247" t="s">
         <v>880</v>
       </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
         <v>881</v>
-      </c>
-      <c r="D247" t="s">
-        <v>882</v>
       </c>
       <c r="F247">
         <f t="shared" si="3"/>
@@ -9621,13 +9646,13 @@
         <v>887</v>
       </c>
       <c r="B248" t="s">
+        <v>882</v>
+      </c>
+      <c r="C248" t="s">
         <v>883</v>
       </c>
-      <c r="C248" t="s">
+      <c r="D248" t="s">
         <v>884</v>
-      </c>
-      <c r="D248" t="s">
-        <v>885</v>
       </c>
       <c r="F248">
         <f t="shared" si="3"/>
@@ -9639,13 +9664,13 @@
         <v>894</v>
       </c>
       <c r="B249" t="s">
+        <v>885</v>
+      </c>
+      <c r="C249" t="s">
         <v>886</v>
       </c>
-      <c r="C249" t="s">
+      <c r="D249" t="s">
         <v>887</v>
-      </c>
-      <c r="D249" t="s">
-        <v>888</v>
       </c>
       <c r="F249">
         <f t="shared" si="3"/>
@@ -9657,13 +9682,13 @@
         <v>716</v>
       </c>
       <c r="B250" t="s">
+        <v>888</v>
+      </c>
+      <c r="C250" t="s">
         <v>889</v>
       </c>
-      <c r="C250" t="s">
+      <c r="D250" t="s">
         <v>890</v>
-      </c>
-      <c r="D250" t="s">
-        <v>891</v>
       </c>
       <c r="F250">
         <f t="shared" si="3"/>
@@ -9675,13 +9700,13 @@
         <v>248</v>
       </c>
       <c r="B251" t="s">
+        <v>891</v>
+      </c>
+      <c r="C251" t="s">
         <v>892</v>
       </c>
-      <c r="C251" t="s">
+      <c r="D251" t="s">
         <v>893</v>
-      </c>
-      <c r="D251" t="s">
-        <v>894</v>
       </c>
       <c r="F251">
         <f t="shared" si="3"/>

--- a/DB_ImportFields.xlsx
+++ b/DB_ImportFields.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="860" windowWidth="24720" windowHeight="16580" tabRatio="678" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="880" yWindow="860" windowWidth="24720" windowHeight="16580" tabRatio="678" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="allg" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="927">
   <si>
     <t>People</t>
   </si>
@@ -470,12 +470,6 @@
     <t>bribery and corruption</t>
   </si>
   <si>
-    <t>insider share dealing</t>
-  </si>
-  <si>
-    <t>involvement in third World debt</t>
-  </si>
-  <si>
     <t>price fixing</t>
   </si>
   <si>
@@ -2799,6 +2793,36 @@
   </si>
   <si>
     <t>incl. Tax evasion and use of tax havens</t>
+  </si>
+  <si>
+    <t>Negative Effect on the Environment</t>
+  </si>
+  <si>
+    <t>11;14</t>
+  </si>
+  <si>
+    <t>Negative Effect on Animals</t>
+  </si>
+  <si>
+    <t>Negative Effect on People</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Synonyme</t>
+  </si>
+  <si>
+    <t>Organisieren von Tags wie bei Stackoverflow: Jeder user kann Tag hinzufügen beim Erfassen. Priviligierte User kann Tag als Synonym kennzeichnen</t>
+  </si>
+  <si>
+    <t>Abusing Dominant Market Position</t>
+  </si>
+  <si>
+    <t>Insider Share Dealing</t>
+  </si>
+  <si>
+    <t>Involvement In third World Debt</t>
   </si>
 </sst>
 </file>
@@ -2939,10 +2963,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="145">
+  <cellStyleXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3172,7 +3210,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="145">
+  <cellStyles count="159">
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
@@ -3315,6 +3353,20 @@
     <cellStyle name="Besuchter Link" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="143" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1"/>
@@ -3646,11 +3698,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -4013,7 +4065,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" ht="26">
+    <row r="15" spans="1:10" ht="39">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -4024,84 +4076,76 @@
         <v>46</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>44</v>
+        <v>921</v>
       </c>
       <c r="G15" s="8"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>922</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>923</v>
+      </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="26">
+    <row r="16" spans="1:10">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="8"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" ht="26">
+    <row r="17" spans="1:10">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="8"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="26">
+    <row r="18" spans="1:10">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="8"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="26">
+    <row r="19" spans="1:10">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4208,10 +4252,13 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -4573,14 +4620,14 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -4601,10 +4648,10 @@
         <v>132</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>7</v>
@@ -4627,7 +4674,7 @@
         <v>138</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>138</v>
@@ -4643,13 +4690,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E4" s="15"/>
       <c r="G4" s="7">
@@ -4665,7 +4712,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>23</v>
@@ -4684,7 +4731,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>24</v>
@@ -4700,13 +4747,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>60</v>
@@ -4724,7 +4771,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>13</v>
@@ -4743,7 +4790,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>18</v>
@@ -4762,7 +4809,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>20</v>
@@ -4781,7 +4828,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>19</v>
@@ -4800,7 +4847,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>8</v>
@@ -4819,10 +4866,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E13" s="15"/>
       <c r="G13" s="7">
@@ -4838,10 +4885,10 @@
         <v>21</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="7">
@@ -4857,10 +4904,10 @@
         <v>22</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E15" s="15"/>
       <c r="G15" s="7">
@@ -4876,7 +4923,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>37</v>
@@ -4895,7 +4942,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>9</v>
@@ -4914,7 +4961,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>14</v>
@@ -4933,7 +4980,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>10</v>
@@ -4952,7 +4999,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>15</v>
@@ -4968,10 +5015,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>17</v>
@@ -4990,7 +5037,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>11</v>
@@ -5006,13 +5053,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E23" s="15"/>
       <c r="G23" s="7">
@@ -5025,10 +5072,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>141</v>
@@ -5044,13 +5091,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>142</v>
+        <v>925</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>142</v>
+        <v>925</v>
       </c>
       <c r="E25" s="15"/>
       <c r="G25" s="7">
@@ -5063,13 +5110,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>143</v>
+        <v>926</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>143</v>
+        <v>926</v>
       </c>
       <c r="E26" s="15"/>
       <c r="G26" s="7">
@@ -5082,13 +5129,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E27" s="15"/>
       <c r="G27" s="7">
@@ -5101,13 +5148,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="7">
@@ -5120,13 +5167,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E29" s="15"/>
       <c r="G29" s="7">
@@ -5139,10 +5186,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>59</v>
@@ -5161,7 +5208,7 @@
         <v>12</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>12</v>
@@ -5180,7 +5227,7 @@
         <v>140</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>140</v>
@@ -5190,6 +5237,192 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="41">
+        <v>31</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>919</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>918</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>919</v>
+      </c>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="41">
+        <v>32</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>917</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>918</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>917</v>
+      </c>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="41">
+        <v>33</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>920</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>918</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>920</v>
+      </c>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="41">
+        <v>34</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>906</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="41"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="41"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="41"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="41"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="41"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="41"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="41"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="41"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="41"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="41"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="41"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="41"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="41"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="41"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="41"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="41"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="41"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="41"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E32"/>
@@ -5221,10 +5454,10 @@
         <v>132</v>
       </c>
       <c r="C1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F1">
         <f>MAX(F3:F276)</f>
@@ -5236,13 +5469,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" t="s">
         <v>147</v>
-      </c>
-      <c r="C3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" t="s">
-        <v>149</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F65" si="0">LEN(B3)</f>
@@ -5254,13 +5487,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" t="s">
         <v>150</v>
-      </c>
-      <c r="C4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" t="s">
-        <v>152</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -5272,13 +5505,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" t="s">
         <v>153</v>
-      </c>
-      <c r="C5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" t="s">
-        <v>155</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -5290,13 +5523,13 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" t="s">
         <v>156</v>
-      </c>
-      <c r="C6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" t="s">
-        <v>158</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -5308,13 +5541,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" t="s">
         <v>159</v>
-      </c>
-      <c r="C7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" t="s">
-        <v>161</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -5326,13 +5559,13 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" t="s">
         <v>162</v>
-      </c>
-      <c r="C8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D8" t="s">
-        <v>164</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -5344,13 +5577,13 @@
         <v>660</v>
       </c>
       <c r="B9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" t="s">
         <v>165</v>
-      </c>
-      <c r="C9" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" t="s">
-        <v>167</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -5362,13 +5595,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" t="s">
         <v>168</v>
-      </c>
-      <c r="C10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" t="s">
-        <v>170</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -5380,13 +5613,13 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" t="s">
         <v>171</v>
-      </c>
-      <c r="C11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D11" t="s">
-        <v>173</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -5398,13 +5631,13 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" t="s">
         <v>174</v>
-      </c>
-      <c r="C12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D12" t="s">
-        <v>176</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -5416,13 +5649,13 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" t="s">
         <v>177</v>
-      </c>
-      <c r="C13" t="s">
-        <v>178</v>
-      </c>
-      <c r="D13" t="s">
-        <v>179</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -5434,13 +5667,13 @@
         <v>533</v>
       </c>
       <c r="B14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" t="s">
         <v>180</v>
-      </c>
-      <c r="C14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D14" t="s">
-        <v>182</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -5452,13 +5685,13 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" t="s">
         <v>183</v>
-      </c>
-      <c r="C15" t="s">
-        <v>184</v>
-      </c>
-      <c r="D15" t="s">
-        <v>185</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -5470,13 +5703,13 @@
         <v>40</v>
       </c>
       <c r="B16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" t="s">
         <v>186</v>
-      </c>
-      <c r="C16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D16" t="s">
-        <v>188</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -5488,13 +5721,13 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" t="s">
         <v>189</v>
-      </c>
-      <c r="C17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D17" t="s">
-        <v>191</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -5506,13 +5739,13 @@
         <v>44</v>
       </c>
       <c r="B18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" t="s">
         <v>192</v>
-      </c>
-      <c r="C18" t="s">
-        <v>193</v>
-      </c>
-      <c r="D18" t="s">
-        <v>194</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
@@ -5524,13 +5757,13 @@
         <v>48</v>
       </c>
       <c r="B19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" t="s">
         <v>195</v>
-      </c>
-      <c r="C19" t="s">
-        <v>196</v>
-      </c>
-      <c r="D19" t="s">
-        <v>197</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
@@ -5542,13 +5775,13 @@
         <v>50</v>
       </c>
       <c r="B20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" t="s">
         <v>198</v>
-      </c>
-      <c r="C20" t="s">
-        <v>199</v>
-      </c>
-      <c r="D20" t="s">
-        <v>200</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
@@ -5560,13 +5793,13 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" t="s">
         <v>201</v>
-      </c>
-      <c r="C21" t="s">
-        <v>202</v>
-      </c>
-      <c r="D21" t="s">
-        <v>203</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
@@ -5578,13 +5811,13 @@
         <v>112</v>
       </c>
       <c r="B22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" t="s">
         <v>204</v>
-      </c>
-      <c r="C22" t="s">
-        <v>205</v>
-      </c>
-      <c r="D22" t="s">
-        <v>206</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
@@ -5596,13 +5829,13 @@
         <v>56</v>
       </c>
       <c r="B23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" t="s">
         <v>207</v>
-      </c>
-      <c r="C23" t="s">
-        <v>208</v>
-      </c>
-      <c r="D23" t="s">
-        <v>209</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
@@ -5614,13 +5847,13 @@
         <v>84</v>
       </c>
       <c r="B24" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" t="s">
         <v>210</v>
-      </c>
-      <c r="C24" t="s">
-        <v>211</v>
-      </c>
-      <c r="D24" t="s">
-        <v>212</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
@@ -5632,13 +5865,13 @@
         <v>204</v>
       </c>
       <c r="B25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D25" t="s">
         <v>213</v>
-      </c>
-      <c r="C25" t="s">
-        <v>214</v>
-      </c>
-      <c r="D25" t="s">
-        <v>215</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
@@ -5650,13 +5883,13 @@
         <v>60</v>
       </c>
       <c r="B26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" t="s">
+        <v>215</v>
+      </c>
+      <c r="D26" t="s">
         <v>216</v>
-      </c>
-      <c r="C26" t="s">
-        <v>217</v>
-      </c>
-      <c r="D26" t="s">
-        <v>218</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
@@ -5668,13 +5901,13 @@
         <v>64</v>
       </c>
       <c r="B27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" t="s">
+        <v>218</v>
+      </c>
+      <c r="D27" t="s">
         <v>219</v>
-      </c>
-      <c r="C27" t="s">
-        <v>220</v>
-      </c>
-      <c r="D27" t="s">
-        <v>221</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
@@ -5686,13 +5919,13 @@
         <v>68</v>
       </c>
       <c r="B28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D28" t="s">
         <v>222</v>
-      </c>
-      <c r="C28" t="s">
-        <v>223</v>
-      </c>
-      <c r="D28" t="s">
-        <v>224</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
@@ -5704,13 +5937,13 @@
         <v>535</v>
       </c>
       <c r="B29" t="s">
+        <v>223</v>
+      </c>
+      <c r="C29" t="s">
+        <v>224</v>
+      </c>
+      <c r="D29" t="s">
         <v>225</v>
-      </c>
-      <c r="C29" t="s">
-        <v>226</v>
-      </c>
-      <c r="D29" t="s">
-        <v>227</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
@@ -5722,13 +5955,13 @@
         <v>70</v>
       </c>
       <c r="B30" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" t="s">
         <v>228</v>
-      </c>
-      <c r="C30" t="s">
-        <v>229</v>
-      </c>
-      <c r="D30" t="s">
-        <v>230</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
@@ -5740,13 +5973,13 @@
         <v>72</v>
       </c>
       <c r="B31" t="s">
+        <v>229</v>
+      </c>
+      <c r="C31" t="s">
+        <v>230</v>
+      </c>
+      <c r="D31" t="s">
         <v>231</v>
-      </c>
-      <c r="C31" t="s">
-        <v>232</v>
-      </c>
-      <c r="D31" t="s">
-        <v>233</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
@@ -5758,13 +5991,13 @@
         <v>74</v>
       </c>
       <c r="B32" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" t="s">
+        <v>233</v>
+      </c>
+      <c r="D32" t="s">
         <v>234</v>
-      </c>
-      <c r="C32" t="s">
-        <v>235</v>
-      </c>
-      <c r="D32" t="s">
-        <v>236</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
@@ -5776,13 +6009,13 @@
         <v>76</v>
       </c>
       <c r="B33" t="s">
+        <v>235</v>
+      </c>
+      <c r="C33" t="s">
+        <v>236</v>
+      </c>
+      <c r="D33" t="s">
         <v>237</v>
-      </c>
-      <c r="C33" t="s">
-        <v>238</v>
-      </c>
-      <c r="D33" t="s">
-        <v>239</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
@@ -5794,13 +6027,13 @@
         <v>86</v>
       </c>
       <c r="B34" t="s">
+        <v>238</v>
+      </c>
+      <c r="C34" t="s">
+        <v>239</v>
+      </c>
+      <c r="D34" t="s">
         <v>240</v>
-      </c>
-      <c r="C34" t="s">
-        <v>241</v>
-      </c>
-      <c r="D34" t="s">
-        <v>242</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
@@ -5812,13 +6045,13 @@
         <v>96</v>
       </c>
       <c r="B35" t="s">
+        <v>241</v>
+      </c>
+      <c r="C35" t="s">
+        <v>242</v>
+      </c>
+      <c r="D35" t="s">
         <v>243</v>
-      </c>
-      <c r="C35" t="s">
-        <v>244</v>
-      </c>
-      <c r="D35" t="s">
-        <v>245</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
@@ -5830,13 +6063,13 @@
         <v>100</v>
       </c>
       <c r="B36" t="s">
+        <v>244</v>
+      </c>
+      <c r="C36" t="s">
+        <v>245</v>
+      </c>
+      <c r="D36" t="s">
         <v>246</v>
-      </c>
-      <c r="C36" t="s">
-        <v>247</v>
-      </c>
-      <c r="D36" t="s">
-        <v>248</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
@@ -5848,13 +6081,13 @@
         <v>854</v>
       </c>
       <c r="B37" t="s">
+        <v>247</v>
+      </c>
+      <c r="C37" t="s">
+        <v>248</v>
+      </c>
+      <c r="D37" t="s">
         <v>249</v>
-      </c>
-      <c r="C37" t="s">
-        <v>250</v>
-      </c>
-      <c r="D37" t="s">
-        <v>251</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
@@ -5866,13 +6099,13 @@
         <v>108</v>
       </c>
       <c r="B38" t="s">
+        <v>250</v>
+      </c>
+      <c r="C38" t="s">
+        <v>251</v>
+      </c>
+      <c r="D38" t="s">
         <v>252</v>
-      </c>
-      <c r="C38" t="s">
-        <v>253</v>
-      </c>
-      <c r="D38" t="s">
-        <v>254</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
@@ -5884,13 +6117,13 @@
         <v>132</v>
       </c>
       <c r="B39" t="s">
+        <v>253</v>
+      </c>
+      <c r="C39" t="s">
+        <v>254</v>
+      </c>
+      <c r="D39" t="s">
         <v>255</v>
-      </c>
-      <c r="C39" t="s">
-        <v>256</v>
-      </c>
-      <c r="D39" t="s">
-        <v>257</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
@@ -5902,13 +6135,13 @@
         <v>116</v>
       </c>
       <c r="B40" t="s">
+        <v>256</v>
+      </c>
+      <c r="C40" t="s">
+        <v>257</v>
+      </c>
+      <c r="D40" t="s">
         <v>258</v>
-      </c>
-      <c r="C40" t="s">
-        <v>259</v>
-      </c>
-      <c r="D40" t="s">
-        <v>260</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
@@ -5920,13 +6153,13 @@
         <v>120</v>
       </c>
       <c r="B41" t="s">
+        <v>259</v>
+      </c>
+      <c r="C41" t="s">
+        <v>260</v>
+      </c>
+      <c r="D41" t="s">
         <v>261</v>
-      </c>
-      <c r="C41" t="s">
-        <v>262</v>
-      </c>
-      <c r="D41" t="s">
-        <v>263</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
@@ -5938,13 +6171,13 @@
         <v>124</v>
       </c>
       <c r="B42" t="s">
+        <v>262</v>
+      </c>
+      <c r="C42" t="s">
+        <v>263</v>
+      </c>
+      <c r="D42" t="s">
         <v>264</v>
-      </c>
-      <c r="C42" t="s">
-        <v>265</v>
-      </c>
-      <c r="D42" t="s">
-        <v>266</v>
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
@@ -5956,13 +6189,13 @@
         <v>136</v>
       </c>
       <c r="B43" t="s">
+        <v>265</v>
+      </c>
+      <c r="C43" t="s">
+        <v>266</v>
+      </c>
+      <c r="D43" t="s">
         <v>267</v>
-      </c>
-      <c r="C43" t="s">
-        <v>268</v>
-      </c>
-      <c r="D43" t="s">
-        <v>269</v>
       </c>
       <c r="F43">
         <f t="shared" si="0"/>
@@ -5974,13 +6207,13 @@
         <v>140</v>
       </c>
       <c r="B44" t="s">
+        <v>268</v>
+      </c>
+      <c r="C44" t="s">
+        <v>269</v>
+      </c>
+      <c r="D44" t="s">
         <v>270</v>
-      </c>
-      <c r="C44" t="s">
-        <v>271</v>
-      </c>
-      <c r="D44" t="s">
-        <v>272</v>
       </c>
       <c r="F44">
         <f t="shared" si="0"/>
@@ -5992,13 +6225,13 @@
         <v>148</v>
       </c>
       <c r="B45" t="s">
+        <v>271</v>
+      </c>
+      <c r="C45" t="s">
+        <v>272</v>
+      </c>
+      <c r="D45" t="s">
         <v>273</v>
-      </c>
-      <c r="C45" t="s">
-        <v>274</v>
-      </c>
-      <c r="D45" t="s">
-        <v>275</v>
       </c>
       <c r="F45">
         <f t="shared" si="0"/>
@@ -6010,13 +6243,13 @@
         <v>152</v>
       </c>
       <c r="B46" t="s">
+        <v>274</v>
+      </c>
+      <c r="C46" t="s">
+        <v>275</v>
+      </c>
+      <c r="D46" t="s">
         <v>276</v>
-      </c>
-      <c r="C46" t="s">
-        <v>277</v>
-      </c>
-      <c r="D46" t="s">
-        <v>278</v>
       </c>
       <c r="F46">
         <f t="shared" si="0"/>
@@ -6028,13 +6261,13 @@
         <v>156</v>
       </c>
       <c r="B47" t="s">
+        <v>277</v>
+      </c>
+      <c r="C47" t="s">
+        <v>278</v>
+      </c>
+      <c r="D47" t="s">
         <v>279</v>
-      </c>
-      <c r="C47" t="s">
-        <v>280</v>
-      </c>
-      <c r="D47" t="s">
-        <v>281</v>
       </c>
       <c r="F47">
         <f t="shared" si="0"/>
@@ -6046,13 +6279,13 @@
         <v>162</v>
       </c>
       <c r="B48" t="s">
+        <v>280</v>
+      </c>
+      <c r="C48" t="s">
+        <v>281</v>
+      </c>
+      <c r="D48" t="s">
         <v>282</v>
-      </c>
-      <c r="C48" t="s">
-        <v>283</v>
-      </c>
-      <c r="D48" t="s">
-        <v>284</v>
       </c>
       <c r="F48">
         <f t="shared" si="0"/>
@@ -6064,13 +6297,13 @@
         <v>166</v>
       </c>
       <c r="B49" t="s">
+        <v>283</v>
+      </c>
+      <c r="C49" t="s">
+        <v>284</v>
+      </c>
+      <c r="D49" t="s">
         <v>285</v>
-      </c>
-      <c r="C49" t="s">
-        <v>286</v>
-      </c>
-      <c r="D49" t="s">
-        <v>287</v>
       </c>
       <c r="F49">
         <f t="shared" si="0"/>
@@ -6082,13 +6315,13 @@
         <v>170</v>
       </c>
       <c r="B50" t="s">
+        <v>286</v>
+      </c>
+      <c r="C50" t="s">
+        <v>287</v>
+      </c>
+      <c r="D50" t="s">
         <v>288</v>
-      </c>
-      <c r="C50" t="s">
-        <v>289</v>
-      </c>
-      <c r="D50" t="s">
-        <v>290</v>
       </c>
       <c r="F50">
         <f t="shared" si="0"/>
@@ -6100,13 +6333,13 @@
         <v>174</v>
       </c>
       <c r="B51" t="s">
+        <v>289</v>
+      </c>
+      <c r="C51" t="s">
+        <v>290</v>
+      </c>
+      <c r="D51" t="s">
         <v>291</v>
-      </c>
-      <c r="C51" t="s">
-        <v>292</v>
-      </c>
-      <c r="D51" t="s">
-        <v>293</v>
       </c>
       <c r="F51">
         <f t="shared" si="0"/>
@@ -6118,13 +6351,13 @@
         <v>180</v>
       </c>
       <c r="B52" t="s">
+        <v>292</v>
+      </c>
+      <c r="C52" t="s">
+        <v>293</v>
+      </c>
+      <c r="D52" t="s">
         <v>294</v>
-      </c>
-      <c r="C52" t="s">
-        <v>295</v>
-      </c>
-      <c r="D52" t="s">
-        <v>296</v>
       </c>
       <c r="F52">
         <f t="shared" si="0"/>
@@ -6136,13 +6369,13 @@
         <v>178</v>
       </c>
       <c r="B53" t="s">
+        <v>295</v>
+      </c>
+      <c r="C53" t="s">
+        <v>296</v>
+      </c>
+      <c r="D53" t="s">
         <v>297</v>
-      </c>
-      <c r="C53" t="s">
-        <v>298</v>
-      </c>
-      <c r="D53" t="s">
-        <v>299</v>
       </c>
       <c r="F53">
         <f t="shared" si="0"/>
@@ -6154,13 +6387,13 @@
         <v>184</v>
       </c>
       <c r="B54" t="s">
+        <v>298</v>
+      </c>
+      <c r="C54" t="s">
+        <v>299</v>
+      </c>
+      <c r="D54" t="s">
         <v>300</v>
-      </c>
-      <c r="C54" t="s">
-        <v>301</v>
-      </c>
-      <c r="D54" t="s">
-        <v>302</v>
       </c>
       <c r="F54">
         <f t="shared" si="0"/>
@@ -6172,13 +6405,13 @@
         <v>188</v>
       </c>
       <c r="B55" t="s">
+        <v>301</v>
+      </c>
+      <c r="C55" t="s">
+        <v>302</v>
+      </c>
+      <c r="D55" t="s">
         <v>303</v>
-      </c>
-      <c r="C55" t="s">
-        <v>304</v>
-      </c>
-      <c r="D55" t="s">
-        <v>305</v>
       </c>
       <c r="F55">
         <f t="shared" si="0"/>
@@ -6190,13 +6423,13 @@
         <v>191</v>
       </c>
       <c r="B56" t="s">
+        <v>304</v>
+      </c>
+      <c r="C56" t="s">
+        <v>305</v>
+      </c>
+      <c r="D56" t="s">
         <v>306</v>
-      </c>
-      <c r="C56" t="s">
-        <v>307</v>
-      </c>
-      <c r="D56" t="s">
-        <v>308</v>
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
@@ -6208,13 +6441,13 @@
         <v>192</v>
       </c>
       <c r="B57" t="s">
+        <v>307</v>
+      </c>
+      <c r="C57" t="s">
+        <v>308</v>
+      </c>
+      <c r="D57" t="s">
         <v>309</v>
-      </c>
-      <c r="C57" t="s">
-        <v>310</v>
-      </c>
-      <c r="D57" t="s">
-        <v>311</v>
       </c>
       <c r="F57">
         <f t="shared" si="0"/>
@@ -6226,13 +6459,13 @@
         <v>531</v>
       </c>
       <c r="B58" t="s">
+        <v>310</v>
+      </c>
+      <c r="C58" t="s">
+        <v>311</v>
+      </c>
+      <c r="D58" t="s">
         <v>312</v>
-      </c>
-      <c r="C58" t="s">
-        <v>313</v>
-      </c>
-      <c r="D58" t="s">
-        <v>314</v>
       </c>
       <c r="F58">
         <f t="shared" si="0"/>
@@ -6244,13 +6477,13 @@
         <v>196</v>
       </c>
       <c r="B59" t="s">
+        <v>313</v>
+      </c>
+      <c r="C59" t="s">
+        <v>314</v>
+      </c>
+      <c r="D59" t="s">
         <v>315</v>
-      </c>
-      <c r="C59" t="s">
-        <v>316</v>
-      </c>
-      <c r="D59" t="s">
-        <v>317</v>
       </c>
       <c r="F59">
         <f t="shared" si="0"/>
@@ -6262,13 +6495,13 @@
         <v>203</v>
       </c>
       <c r="B60" t="s">
+        <v>316</v>
+      </c>
+      <c r="C60" t="s">
+        <v>317</v>
+      </c>
+      <c r="D60" t="s">
         <v>318</v>
-      </c>
-      <c r="C60" t="s">
-        <v>319</v>
-      </c>
-      <c r="D60" t="s">
-        <v>320</v>
       </c>
       <c r="F60">
         <f t="shared" si="0"/>
@@ -6280,13 +6513,13 @@
         <v>384</v>
       </c>
       <c r="B61" t="s">
+        <v>319</v>
+      </c>
+      <c r="C61" t="s">
+        <v>320</v>
+      </c>
+      <c r="D61" t="s">
         <v>321</v>
-      </c>
-      <c r="C61" t="s">
-        <v>322</v>
-      </c>
-      <c r="D61" t="s">
-        <v>323</v>
       </c>
       <c r="F61">
         <f t="shared" si="0"/>
@@ -6298,13 +6531,13 @@
         <v>208</v>
       </c>
       <c r="B62" t="s">
+        <v>322</v>
+      </c>
+      <c r="C62" t="s">
+        <v>323</v>
+      </c>
+      <c r="D62" t="s">
         <v>324</v>
-      </c>
-      <c r="C62" t="s">
-        <v>325</v>
-      </c>
-      <c r="D62" t="s">
-        <v>326</v>
       </c>
       <c r="F62">
         <f t="shared" si="0"/>
@@ -6316,13 +6549,13 @@
         <v>262</v>
       </c>
       <c r="B63" t="s">
+        <v>325</v>
+      </c>
+      <c r="C63" t="s">
+        <v>326</v>
+      </c>
+      <c r="D63" t="s">
         <v>327</v>
-      </c>
-      <c r="C63" t="s">
-        <v>328</v>
-      </c>
-      <c r="D63" t="s">
-        <v>329</v>
       </c>
       <c r="F63">
         <f t="shared" si="0"/>
@@ -6334,13 +6567,13 @@
         <v>212</v>
       </c>
       <c r="B64" t="s">
+        <v>328</v>
+      </c>
+      <c r="C64" t="s">
+        <v>329</v>
+      </c>
+      <c r="D64" t="s">
         <v>330</v>
-      </c>
-      <c r="C64" t="s">
-        <v>331</v>
-      </c>
-      <c r="D64" t="s">
-        <v>332</v>
       </c>
       <c r="F64">
         <f t="shared" si="0"/>
@@ -6352,13 +6585,13 @@
         <v>214</v>
       </c>
       <c r="B65" t="s">
+        <v>331</v>
+      </c>
+      <c r="C65" t="s">
+        <v>332</v>
+      </c>
+      <c r="D65" t="s">
         <v>333</v>
-      </c>
-      <c r="C65" t="s">
-        <v>334</v>
-      </c>
-      <c r="D65" t="s">
-        <v>335</v>
       </c>
       <c r="F65">
         <f t="shared" si="0"/>
@@ -6370,13 +6603,13 @@
         <v>218</v>
       </c>
       <c r="B66" t="s">
+        <v>334</v>
+      </c>
+      <c r="C66" t="s">
+        <v>335</v>
+      </c>
+      <c r="D66" t="s">
         <v>336</v>
-      </c>
-      <c r="C66" t="s">
-        <v>337</v>
-      </c>
-      <c r="D66" t="s">
-        <v>338</v>
       </c>
       <c r="F66">
         <f t="shared" ref="F66:F129" si="1">LEN(B66)</f>
@@ -6388,13 +6621,13 @@
         <v>818</v>
       </c>
       <c r="B67" t="s">
+        <v>337</v>
+      </c>
+      <c r="C67" t="s">
+        <v>338</v>
+      </c>
+      <c r="D67" t="s">
         <v>339</v>
-      </c>
-      <c r="C67" t="s">
-        <v>340</v>
-      </c>
-      <c r="D67" t="s">
-        <v>341</v>
       </c>
       <c r="F67">
         <f t="shared" si="1"/>
@@ -6406,13 +6639,13 @@
         <v>222</v>
       </c>
       <c r="B68" t="s">
+        <v>340</v>
+      </c>
+      <c r="C68" t="s">
+        <v>341</v>
+      </c>
+      <c r="D68" t="s">
         <v>342</v>
-      </c>
-      <c r="C68" t="s">
-        <v>343</v>
-      </c>
-      <c r="D68" t="s">
-        <v>344</v>
       </c>
       <c r="F68">
         <f t="shared" si="1"/>
@@ -6424,13 +6657,13 @@
         <v>226</v>
       </c>
       <c r="B69" t="s">
+        <v>343</v>
+      </c>
+      <c r="C69" t="s">
+        <v>344</v>
+      </c>
+      <c r="D69" t="s">
         <v>345</v>
-      </c>
-      <c r="C69" t="s">
-        <v>346</v>
-      </c>
-      <c r="D69" t="s">
-        <v>347</v>
       </c>
       <c r="F69">
         <f t="shared" si="1"/>
@@ -6442,13 +6675,13 @@
         <v>232</v>
       </c>
       <c r="B70" t="s">
+        <v>346</v>
+      </c>
+      <c r="C70" t="s">
+        <v>347</v>
+      </c>
+      <c r="D70" t="s">
         <v>348</v>
-      </c>
-      <c r="C70" t="s">
-        <v>349</v>
-      </c>
-      <c r="D70" t="s">
-        <v>350</v>
       </c>
       <c r="F70">
         <f t="shared" si="1"/>
@@ -6460,13 +6693,13 @@
         <v>233</v>
       </c>
       <c r="B71" t="s">
+        <v>349</v>
+      </c>
+      <c r="C71" t="s">
+        <v>350</v>
+      </c>
+      <c r="D71" t="s">
         <v>351</v>
-      </c>
-      <c r="C71" t="s">
-        <v>352</v>
-      </c>
-      <c r="D71" t="s">
-        <v>353</v>
       </c>
       <c r="F71">
         <f t="shared" si="1"/>
@@ -6478,13 +6711,13 @@
         <v>748</v>
       </c>
       <c r="B72" t="s">
+        <v>352</v>
+      </c>
+      <c r="C72" t="s">
+        <v>353</v>
+      </c>
+      <c r="D72" t="s">
         <v>354</v>
-      </c>
-      <c r="C72" t="s">
-        <v>355</v>
-      </c>
-      <c r="D72" t="s">
-        <v>356</v>
       </c>
       <c r="F72">
         <f t="shared" si="1"/>
@@ -6496,13 +6729,13 @@
         <v>231</v>
       </c>
       <c r="B73" t="s">
+        <v>355</v>
+      </c>
+      <c r="C73" t="s">
+        <v>356</v>
+      </c>
+      <c r="D73" t="s">
         <v>357</v>
-      </c>
-      <c r="C73" t="s">
-        <v>358</v>
-      </c>
-      <c r="D73" t="s">
-        <v>359</v>
       </c>
       <c r="F73">
         <f t="shared" si="1"/>
@@ -6514,13 +6747,13 @@
         <v>238</v>
       </c>
       <c r="B74" t="s">
+        <v>358</v>
+      </c>
+      <c r="C74" t="s">
+        <v>359</v>
+      </c>
+      <c r="D74" t="s">
         <v>360</v>
-      </c>
-      <c r="C74" t="s">
-        <v>361</v>
-      </c>
-      <c r="D74" t="s">
-        <v>362</v>
       </c>
       <c r="F74">
         <f t="shared" si="1"/>
@@ -6532,13 +6765,13 @@
         <v>234</v>
       </c>
       <c r="B75" t="s">
+        <v>361</v>
+      </c>
+      <c r="C75" t="s">
+        <v>362</v>
+      </c>
+      <c r="D75" t="s">
         <v>363</v>
-      </c>
-      <c r="C75" t="s">
-        <v>364</v>
-      </c>
-      <c r="D75" t="s">
-        <v>365</v>
       </c>
       <c r="F75">
         <f t="shared" si="1"/>
@@ -6550,13 +6783,13 @@
         <v>242</v>
       </c>
       <c r="B76" t="s">
+        <v>364</v>
+      </c>
+      <c r="C76" t="s">
+        <v>365</v>
+      </c>
+      <c r="D76" t="s">
         <v>366</v>
-      </c>
-      <c r="C76" t="s">
-        <v>367</v>
-      </c>
-      <c r="D76" t="s">
-        <v>368</v>
       </c>
       <c r="F76">
         <f t="shared" si="1"/>
@@ -6568,13 +6801,13 @@
         <v>246</v>
       </c>
       <c r="B77" t="s">
+        <v>367</v>
+      </c>
+      <c r="C77" t="s">
+        <v>368</v>
+      </c>
+      <c r="D77" t="s">
         <v>369</v>
-      </c>
-      <c r="C77" t="s">
-        <v>370</v>
-      </c>
-      <c r="D77" t="s">
-        <v>371</v>
       </c>
       <c r="F77">
         <f t="shared" si="1"/>
@@ -6586,13 +6819,13 @@
         <v>250</v>
       </c>
       <c r="B78" t="s">
+        <v>370</v>
+      </c>
+      <c r="C78" t="s">
+        <v>371</v>
+      </c>
+      <c r="D78" t="s">
         <v>372</v>
-      </c>
-      <c r="C78" t="s">
-        <v>373</v>
-      </c>
-      <c r="D78" t="s">
-        <v>374</v>
       </c>
       <c r="F78">
         <f t="shared" si="1"/>
@@ -6604,13 +6837,13 @@
         <v>254</v>
       </c>
       <c r="B79" t="s">
+        <v>373</v>
+      </c>
+      <c r="C79" t="s">
+        <v>374</v>
+      </c>
+      <c r="D79" t="s">
         <v>375</v>
-      </c>
-      <c r="C79" t="s">
-        <v>376</v>
-      </c>
-      <c r="D79" t="s">
-        <v>377</v>
       </c>
       <c r="F79">
         <f t="shared" si="1"/>
@@ -6622,13 +6855,13 @@
         <v>258</v>
       </c>
       <c r="B80" t="s">
+        <v>376</v>
+      </c>
+      <c r="C80" t="s">
+        <v>377</v>
+      </c>
+      <c r="D80" t="s">
         <v>378</v>
-      </c>
-      <c r="C80" t="s">
-        <v>379</v>
-      </c>
-      <c r="D80" t="s">
-        <v>380</v>
       </c>
       <c r="F80">
         <f t="shared" si="1"/>
@@ -6640,13 +6873,13 @@
         <v>260</v>
       </c>
       <c r="B81" t="s">
+        <v>379</v>
+      </c>
+      <c r="C81" t="s">
+        <v>380</v>
+      </c>
+      <c r="D81" t="s">
         <v>381</v>
-      </c>
-      <c r="C81" t="s">
-        <v>382</v>
-      </c>
-      <c r="D81" t="s">
-        <v>383</v>
       </c>
       <c r="F81">
         <f t="shared" si="1"/>
@@ -6658,13 +6891,13 @@
         <v>266</v>
       </c>
       <c r="B82" t="s">
+        <v>382</v>
+      </c>
+      <c r="C82" t="s">
+        <v>383</v>
+      </c>
+      <c r="D82" t="s">
         <v>384</v>
-      </c>
-      <c r="C82" t="s">
-        <v>385</v>
-      </c>
-      <c r="D82" t="s">
-        <v>386</v>
       </c>
       <c r="F82">
         <f t="shared" si="1"/>
@@ -6676,13 +6909,13 @@
         <v>270</v>
       </c>
       <c r="B83" t="s">
+        <v>385</v>
+      </c>
+      <c r="C83" t="s">
+        <v>386</v>
+      </c>
+      <c r="D83" t="s">
         <v>387</v>
-      </c>
-      <c r="C83" t="s">
-        <v>388</v>
-      </c>
-      <c r="D83" t="s">
-        <v>389</v>
       </c>
       <c r="F83">
         <f t="shared" si="1"/>
@@ -6694,13 +6927,13 @@
         <v>268</v>
       </c>
       <c r="B84" t="s">
+        <v>388</v>
+      </c>
+      <c r="C84" t="s">
+        <v>389</v>
+      </c>
+      <c r="D84" t="s">
         <v>390</v>
-      </c>
-      <c r="C84" t="s">
-        <v>391</v>
-      </c>
-      <c r="D84" t="s">
-        <v>392</v>
       </c>
       <c r="F84">
         <f t="shared" si="1"/>
@@ -6712,13 +6945,13 @@
         <v>276</v>
       </c>
       <c r="B85" t="s">
+        <v>391</v>
+      </c>
+      <c r="C85" t="s">
+        <v>392</v>
+      </c>
+      <c r="D85" t="s">
         <v>393</v>
-      </c>
-      <c r="C85" t="s">
-        <v>394</v>
-      </c>
-      <c r="D85" t="s">
-        <v>395</v>
       </c>
       <c r="F85">
         <f t="shared" si="1"/>
@@ -6730,13 +6963,13 @@
         <v>288</v>
       </c>
       <c r="B86" t="s">
+        <v>394</v>
+      </c>
+      <c r="C86" t="s">
+        <v>395</v>
+      </c>
+      <c r="D86" t="s">
         <v>396</v>
-      </c>
-      <c r="C86" t="s">
-        <v>397</v>
-      </c>
-      <c r="D86" t="s">
-        <v>398</v>
       </c>
       <c r="F86">
         <f t="shared" si="1"/>
@@ -6748,13 +6981,13 @@
         <v>292</v>
       </c>
       <c r="B87" t="s">
+        <v>397</v>
+      </c>
+      <c r="C87" t="s">
+        <v>398</v>
+      </c>
+      <c r="D87" t="s">
         <v>399</v>
-      </c>
-      <c r="C87" t="s">
-        <v>400</v>
-      </c>
-      <c r="D87" t="s">
-        <v>401</v>
       </c>
       <c r="F87">
         <f t="shared" si="1"/>
@@ -6766,13 +6999,13 @@
         <v>300</v>
       </c>
       <c r="B88" t="s">
+        <v>400</v>
+      </c>
+      <c r="C88" t="s">
+        <v>401</v>
+      </c>
+      <c r="D88" t="s">
         <v>402</v>
-      </c>
-      <c r="C88" t="s">
-        <v>403</v>
-      </c>
-      <c r="D88" t="s">
-        <v>404</v>
       </c>
       <c r="F88">
         <f t="shared" si="1"/>
@@ -6784,13 +7017,13 @@
         <v>304</v>
       </c>
       <c r="B89" t="s">
+        <v>403</v>
+      </c>
+      <c r="C89" t="s">
+        <v>404</v>
+      </c>
+      <c r="D89" t="s">
         <v>405</v>
-      </c>
-      <c r="C89" t="s">
-        <v>406</v>
-      </c>
-      <c r="D89" t="s">
-        <v>407</v>
       </c>
       <c r="F89">
         <f t="shared" si="1"/>
@@ -6802,13 +7035,13 @@
         <v>308</v>
       </c>
       <c r="B90" t="s">
+        <v>406</v>
+      </c>
+      <c r="C90" t="s">
+        <v>407</v>
+      </c>
+      <c r="D90" t="s">
         <v>408</v>
-      </c>
-      <c r="C90" t="s">
-        <v>409</v>
-      </c>
-      <c r="D90" t="s">
-        <v>410</v>
       </c>
       <c r="F90">
         <f t="shared" si="1"/>
@@ -6820,13 +7053,13 @@
         <v>312</v>
       </c>
       <c r="B91" t="s">
+        <v>409</v>
+      </c>
+      <c r="C91" t="s">
+        <v>410</v>
+      </c>
+      <c r="D91" t="s">
         <v>411</v>
-      </c>
-      <c r="C91" t="s">
-        <v>412</v>
-      </c>
-      <c r="D91" t="s">
-        <v>413</v>
       </c>
       <c r="F91">
         <f t="shared" si="1"/>
@@ -6838,13 +7071,13 @@
         <v>316</v>
       </c>
       <c r="B92" t="s">
+        <v>412</v>
+      </c>
+      <c r="C92" t="s">
+        <v>413</v>
+      </c>
+      <c r="D92" t="s">
         <v>414</v>
-      </c>
-      <c r="C92" t="s">
-        <v>415</v>
-      </c>
-      <c r="D92" t="s">
-        <v>416</v>
       </c>
       <c r="F92">
         <f t="shared" si="1"/>
@@ -6856,13 +7089,13 @@
         <v>320</v>
       </c>
       <c r="B93" t="s">
+        <v>415</v>
+      </c>
+      <c r="C93" t="s">
+        <v>416</v>
+      </c>
+      <c r="D93" t="s">
         <v>417</v>
-      </c>
-      <c r="C93" t="s">
-        <v>418</v>
-      </c>
-      <c r="D93" t="s">
-        <v>419</v>
       </c>
       <c r="F93">
         <f t="shared" si="1"/>
@@ -6874,13 +7107,13 @@
         <v>831</v>
       </c>
       <c r="B94" t="s">
+        <v>418</v>
+      </c>
+      <c r="C94" t="s">
+        <v>419</v>
+      </c>
+      <c r="D94" t="s">
         <v>420</v>
-      </c>
-      <c r="C94" t="s">
-        <v>421</v>
-      </c>
-      <c r="D94" t="s">
-        <v>422</v>
       </c>
       <c r="F94">
         <f t="shared" si="1"/>
@@ -6892,13 +7125,13 @@
         <v>324</v>
       </c>
       <c r="B95" t="s">
+        <v>421</v>
+      </c>
+      <c r="C95" t="s">
+        <v>422</v>
+      </c>
+      <c r="D95" t="s">
         <v>423</v>
-      </c>
-      <c r="C95" t="s">
-        <v>424</v>
-      </c>
-      <c r="D95" t="s">
-        <v>425</v>
       </c>
       <c r="F95">
         <f t="shared" si="1"/>
@@ -6910,13 +7143,13 @@
         <v>624</v>
       </c>
       <c r="B96" t="s">
+        <v>424</v>
+      </c>
+      <c r="C96" t="s">
+        <v>425</v>
+      </c>
+      <c r="D96" t="s">
         <v>426</v>
-      </c>
-      <c r="C96" t="s">
-        <v>427</v>
-      </c>
-      <c r="D96" t="s">
-        <v>428</v>
       </c>
       <c r="F96">
         <f t="shared" si="1"/>
@@ -6928,13 +7161,13 @@
         <v>328</v>
       </c>
       <c r="B97" t="s">
+        <v>427</v>
+      </c>
+      <c r="C97" t="s">
+        <v>428</v>
+      </c>
+      <c r="D97" t="s">
         <v>429</v>
-      </c>
-      <c r="C97" t="s">
-        <v>430</v>
-      </c>
-      <c r="D97" t="s">
-        <v>431</v>
       </c>
       <c r="F97">
         <f t="shared" si="1"/>
@@ -6946,13 +7179,13 @@
         <v>332</v>
       </c>
       <c r="B98" t="s">
+        <v>430</v>
+      </c>
+      <c r="C98" t="s">
+        <v>431</v>
+      </c>
+      <c r="D98" t="s">
         <v>432</v>
-      </c>
-      <c r="C98" t="s">
-        <v>433</v>
-      </c>
-      <c r="D98" t="s">
-        <v>434</v>
       </c>
       <c r="F98">
         <f t="shared" si="1"/>
@@ -6964,13 +7197,13 @@
         <v>334</v>
       </c>
       <c r="B99" t="s">
+        <v>433</v>
+      </c>
+      <c r="C99" t="s">
+        <v>434</v>
+      </c>
+      <c r="D99" t="s">
         <v>435</v>
-      </c>
-      <c r="C99" t="s">
-        <v>436</v>
-      </c>
-      <c r="D99" t="s">
-        <v>437</v>
       </c>
       <c r="F99">
         <f t="shared" si="1"/>
@@ -6982,13 +7215,13 @@
         <v>336</v>
       </c>
       <c r="B100" t="s">
+        <v>436</v>
+      </c>
+      <c r="C100" t="s">
+        <v>437</v>
+      </c>
+      <c r="D100" t="s">
         <v>438</v>
-      </c>
-      <c r="C100" t="s">
-        <v>439</v>
-      </c>
-      <c r="D100" t="s">
-        <v>440</v>
       </c>
       <c r="F100">
         <f t="shared" si="1"/>
@@ -7000,13 +7233,13 @@
         <v>340</v>
       </c>
       <c r="B101" t="s">
+        <v>439</v>
+      </c>
+      <c r="C101" t="s">
+        <v>440</v>
+      </c>
+      <c r="D101" t="s">
         <v>441</v>
-      </c>
-      <c r="C101" t="s">
-        <v>442</v>
-      </c>
-      <c r="D101" t="s">
-        <v>443</v>
       </c>
       <c r="F101">
         <f t="shared" si="1"/>
@@ -7018,13 +7251,13 @@
         <v>344</v>
       </c>
       <c r="B102" t="s">
+        <v>442</v>
+      </c>
+      <c r="C102" t="s">
+        <v>443</v>
+      </c>
+      <c r="D102" t="s">
         <v>444</v>
-      </c>
-      <c r="C102" t="s">
-        <v>445</v>
-      </c>
-      <c r="D102" t="s">
-        <v>446</v>
       </c>
       <c r="F102">
         <f t="shared" si="1"/>
@@ -7036,13 +7269,13 @@
         <v>348</v>
       </c>
       <c r="B103" t="s">
+        <v>445</v>
+      </c>
+      <c r="C103" t="s">
+        <v>446</v>
+      </c>
+      <c r="D103" t="s">
         <v>447</v>
-      </c>
-      <c r="C103" t="s">
-        <v>448</v>
-      </c>
-      <c r="D103" t="s">
-        <v>449</v>
       </c>
       <c r="F103">
         <f t="shared" si="1"/>
@@ -7054,13 +7287,13 @@
         <v>352</v>
       </c>
       <c r="B104" t="s">
+        <v>448</v>
+      </c>
+      <c r="C104" t="s">
+        <v>449</v>
+      </c>
+      <c r="D104" t="s">
         <v>450</v>
-      </c>
-      <c r="C104" t="s">
-        <v>451</v>
-      </c>
-      <c r="D104" t="s">
-        <v>452</v>
       </c>
       <c r="F104">
         <f t="shared" si="1"/>
@@ -7072,13 +7305,13 @@
         <v>356</v>
       </c>
       <c r="B105" t="s">
+        <v>451</v>
+      </c>
+      <c r="C105" t="s">
+        <v>452</v>
+      </c>
+      <c r="D105" t="s">
         <v>453</v>
-      </c>
-      <c r="C105" t="s">
-        <v>454</v>
-      </c>
-      <c r="D105" t="s">
-        <v>455</v>
       </c>
       <c r="F105">
         <f t="shared" si="1"/>
@@ -7090,13 +7323,13 @@
         <v>360</v>
       </c>
       <c r="B106" t="s">
+        <v>454</v>
+      </c>
+      <c r="C106" t="s">
+        <v>455</v>
+      </c>
+      <c r="D106" t="s">
         <v>456</v>
-      </c>
-      <c r="C106" t="s">
-        <v>457</v>
-      </c>
-      <c r="D106" t="s">
-        <v>458</v>
       </c>
       <c r="F106">
         <f t="shared" si="1"/>
@@ -7108,13 +7341,13 @@
         <v>364</v>
       </c>
       <c r="B107" t="s">
+        <v>457</v>
+      </c>
+      <c r="C107" t="s">
+        <v>458</v>
+      </c>
+      <c r="D107" t="s">
         <v>459</v>
-      </c>
-      <c r="C107" t="s">
-        <v>460</v>
-      </c>
-      <c r="D107" t="s">
-        <v>461</v>
       </c>
       <c r="F107">
         <f t="shared" si="1"/>
@@ -7126,13 +7359,13 @@
         <v>368</v>
       </c>
       <c r="B108" t="s">
+        <v>460</v>
+      </c>
+      <c r="C108" t="s">
+        <v>461</v>
+      </c>
+      <c r="D108" t="s">
         <v>462</v>
-      </c>
-      <c r="C108" t="s">
-        <v>463</v>
-      </c>
-      <c r="D108" t="s">
-        <v>464</v>
       </c>
       <c r="F108">
         <f t="shared" si="1"/>
@@ -7144,13 +7377,13 @@
         <v>372</v>
       </c>
       <c r="B109" t="s">
+        <v>463</v>
+      </c>
+      <c r="C109" t="s">
+        <v>464</v>
+      </c>
+      <c r="D109" t="s">
         <v>465</v>
-      </c>
-      <c r="C109" t="s">
-        <v>466</v>
-      </c>
-      <c r="D109" t="s">
-        <v>467</v>
       </c>
       <c r="F109">
         <f t="shared" si="1"/>
@@ -7162,13 +7395,13 @@
         <v>833</v>
       </c>
       <c r="B110" t="s">
+        <v>466</v>
+      </c>
+      <c r="C110" t="s">
+        <v>467</v>
+      </c>
+      <c r="D110" t="s">
         <v>468</v>
-      </c>
-      <c r="C110" t="s">
-        <v>469</v>
-      </c>
-      <c r="D110" t="s">
-        <v>470</v>
       </c>
       <c r="F110">
         <f t="shared" si="1"/>
@@ -7180,13 +7413,13 @@
         <v>376</v>
       </c>
       <c r="B111" t="s">
+        <v>469</v>
+      </c>
+      <c r="C111" t="s">
+        <v>470</v>
+      </c>
+      <c r="D111" t="s">
         <v>471</v>
-      </c>
-      <c r="C111" t="s">
-        <v>472</v>
-      </c>
-      <c r="D111" t="s">
-        <v>473</v>
       </c>
       <c r="F111">
         <f t="shared" si="1"/>
@@ -7198,13 +7431,13 @@
         <v>380</v>
       </c>
       <c r="B112" t="s">
+        <v>472</v>
+      </c>
+      <c r="C112" t="s">
+        <v>473</v>
+      </c>
+      <c r="D112" t="s">
         <v>474</v>
-      </c>
-      <c r="C112" t="s">
-        <v>475</v>
-      </c>
-      <c r="D112" t="s">
-        <v>476</v>
       </c>
       <c r="F112">
         <f t="shared" si="1"/>
@@ -7216,13 +7449,13 @@
         <v>388</v>
       </c>
       <c r="B113" t="s">
+        <v>475</v>
+      </c>
+      <c r="C113" t="s">
+        <v>476</v>
+      </c>
+      <c r="D113" t="s">
         <v>477</v>
-      </c>
-      <c r="C113" t="s">
-        <v>478</v>
-      </c>
-      <c r="D113" t="s">
-        <v>479</v>
       </c>
       <c r="F113">
         <f t="shared" si="1"/>
@@ -7234,13 +7467,13 @@
         <v>392</v>
       </c>
       <c r="B114" t="s">
+        <v>478</v>
+      </c>
+      <c r="C114" t="s">
+        <v>479</v>
+      </c>
+      <c r="D114" t="s">
         <v>480</v>
-      </c>
-      <c r="C114" t="s">
-        <v>481</v>
-      </c>
-      <c r="D114" t="s">
-        <v>482</v>
       </c>
       <c r="F114">
         <f t="shared" si="1"/>
@@ -7252,13 +7485,13 @@
         <v>832</v>
       </c>
       <c r="B115" t="s">
+        <v>481</v>
+      </c>
+      <c r="C115" t="s">
+        <v>482</v>
+      </c>
+      <c r="D115" t="s">
         <v>483</v>
-      </c>
-      <c r="C115" t="s">
-        <v>484</v>
-      </c>
-      <c r="D115" t="s">
-        <v>485</v>
       </c>
       <c r="F115">
         <f t="shared" si="1"/>
@@ -7270,13 +7503,13 @@
         <v>400</v>
       </c>
       <c r="B116" t="s">
+        <v>484</v>
+      </c>
+      <c r="C116" t="s">
+        <v>485</v>
+      </c>
+      <c r="D116" t="s">
         <v>486</v>
-      </c>
-      <c r="C116" t="s">
-        <v>487</v>
-      </c>
-      <c r="D116" t="s">
-        <v>488</v>
       </c>
       <c r="F116">
         <f t="shared" si="1"/>
@@ -7288,13 +7521,13 @@
         <v>398</v>
       </c>
       <c r="B117" t="s">
+        <v>487</v>
+      </c>
+      <c r="C117" t="s">
+        <v>488</v>
+      </c>
+      <c r="D117" t="s">
         <v>489</v>
-      </c>
-      <c r="C117" t="s">
-        <v>490</v>
-      </c>
-      <c r="D117" t="s">
-        <v>491</v>
       </c>
       <c r="F117">
         <f t="shared" si="1"/>
@@ -7306,13 +7539,13 @@
         <v>404</v>
       </c>
       <c r="B118" t="s">
+        <v>490</v>
+      </c>
+      <c r="C118" t="s">
+        <v>491</v>
+      </c>
+      <c r="D118" t="s">
         <v>492</v>
-      </c>
-      <c r="C118" t="s">
-        <v>493</v>
-      </c>
-      <c r="D118" t="s">
-        <v>494</v>
       </c>
       <c r="F118">
         <f t="shared" si="1"/>
@@ -7324,13 +7557,13 @@
         <v>296</v>
       </c>
       <c r="B119" t="s">
+        <v>493</v>
+      </c>
+      <c r="C119" t="s">
+        <v>494</v>
+      </c>
+      <c r="D119" t="s">
         <v>495</v>
-      </c>
-      <c r="C119" t="s">
-        <v>496</v>
-      </c>
-      <c r="D119" t="s">
-        <v>497</v>
       </c>
       <c r="F119">
         <f t="shared" si="1"/>
@@ -7342,13 +7575,13 @@
         <v>408</v>
       </c>
       <c r="B120" t="s">
+        <v>496</v>
+      </c>
+      <c r="C120" t="s">
+        <v>497</v>
+      </c>
+      <c r="D120" t="s">
         <v>498</v>
-      </c>
-      <c r="C120" t="s">
-        <v>499</v>
-      </c>
-      <c r="D120" t="s">
-        <v>500</v>
       </c>
       <c r="F120">
         <f t="shared" si="1"/>
@@ -7360,13 +7593,13 @@
         <v>410</v>
       </c>
       <c r="B121" t="s">
+        <v>499</v>
+      </c>
+      <c r="C121" t="s">
+        <v>500</v>
+      </c>
+      <c r="D121" t="s">
         <v>501</v>
-      </c>
-      <c r="C121" t="s">
-        <v>502</v>
-      </c>
-      <c r="D121" t="s">
-        <v>503</v>
       </c>
       <c r="F121">
         <f t="shared" si="1"/>
@@ -7378,13 +7611,13 @@
         <v>414</v>
       </c>
       <c r="B122" t="s">
+        <v>502</v>
+      </c>
+      <c r="C122" t="s">
+        <v>503</v>
+      </c>
+      <c r="D122" t="s">
         <v>504</v>
-      </c>
-      <c r="C122" t="s">
-        <v>505</v>
-      </c>
-      <c r="D122" t="s">
-        <v>506</v>
       </c>
       <c r="F122">
         <f t="shared" si="1"/>
@@ -7396,13 +7629,13 @@
         <v>417</v>
       </c>
       <c r="B123" t="s">
+        <v>505</v>
+      </c>
+      <c r="C123" t="s">
+        <v>506</v>
+      </c>
+      <c r="D123" t="s">
         <v>507</v>
-      </c>
-      <c r="C123" t="s">
-        <v>508</v>
-      </c>
-      <c r="D123" t="s">
-        <v>509</v>
       </c>
       <c r="F123">
         <f t="shared" si="1"/>
@@ -7414,13 +7647,13 @@
         <v>418</v>
       </c>
       <c r="B124" t="s">
+        <v>508</v>
+      </c>
+      <c r="C124" t="s">
+        <v>509</v>
+      </c>
+      <c r="D124" t="s">
         <v>510</v>
-      </c>
-      <c r="C124" t="s">
-        <v>511</v>
-      </c>
-      <c r="D124" t="s">
-        <v>512</v>
       </c>
       <c r="F124">
         <f t="shared" si="1"/>
@@ -7432,13 +7665,13 @@
         <v>428</v>
       </c>
       <c r="B125" t="s">
+        <v>511</v>
+      </c>
+      <c r="C125" t="s">
+        <v>512</v>
+      </c>
+      <c r="D125" t="s">
         <v>513</v>
-      </c>
-      <c r="C125" t="s">
-        <v>514</v>
-      </c>
-      <c r="D125" t="s">
-        <v>515</v>
       </c>
       <c r="F125">
         <f t="shared" si="1"/>
@@ -7450,13 +7683,13 @@
         <v>422</v>
       </c>
       <c r="B126" t="s">
+        <v>514</v>
+      </c>
+      <c r="C126" t="s">
+        <v>515</v>
+      </c>
+      <c r="D126" t="s">
         <v>516</v>
-      </c>
-      <c r="C126" t="s">
-        <v>517</v>
-      </c>
-      <c r="D126" t="s">
-        <v>518</v>
       </c>
       <c r="F126">
         <f t="shared" si="1"/>
@@ -7468,13 +7701,13 @@
         <v>426</v>
       </c>
       <c r="B127" t="s">
+        <v>517</v>
+      </c>
+      <c r="C127" t="s">
+        <v>518</v>
+      </c>
+      <c r="D127" t="s">
         <v>519</v>
-      </c>
-      <c r="C127" t="s">
-        <v>520</v>
-      </c>
-      <c r="D127" t="s">
-        <v>521</v>
       </c>
       <c r="F127">
         <f t="shared" si="1"/>
@@ -7486,13 +7719,13 @@
         <v>430</v>
       </c>
       <c r="B128" t="s">
+        <v>520</v>
+      </c>
+      <c r="C128" t="s">
+        <v>521</v>
+      </c>
+      <c r="D128" t="s">
         <v>522</v>
-      </c>
-      <c r="C128" t="s">
-        <v>523</v>
-      </c>
-      <c r="D128" t="s">
-        <v>524</v>
       </c>
       <c r="F128">
         <f t="shared" si="1"/>
@@ -7504,13 +7737,13 @@
         <v>434</v>
       </c>
       <c r="B129" t="s">
+        <v>523</v>
+      </c>
+      <c r="C129" t="s">
+        <v>524</v>
+      </c>
+      <c r="D129" t="s">
         <v>525</v>
-      </c>
-      <c r="C129" t="s">
-        <v>526</v>
-      </c>
-      <c r="D129" t="s">
-        <v>527</v>
       </c>
       <c r="F129">
         <f t="shared" si="1"/>
@@ -7522,13 +7755,13 @@
         <v>438</v>
       </c>
       <c r="B130" t="s">
+        <v>526</v>
+      </c>
+      <c r="C130" t="s">
+        <v>527</v>
+      </c>
+      <c r="D130" t="s">
         <v>528</v>
-      </c>
-      <c r="C130" t="s">
-        <v>529</v>
-      </c>
-      <c r="D130" t="s">
-        <v>530</v>
       </c>
       <c r="F130">
         <f t="shared" ref="F130:F193" si="2">LEN(B130)</f>
@@ -7540,13 +7773,13 @@
         <v>440</v>
       </c>
       <c r="B131" t="s">
+        <v>529</v>
+      </c>
+      <c r="C131" t="s">
+        <v>530</v>
+      </c>
+      <c r="D131" t="s">
         <v>531</v>
-      </c>
-      <c r="C131" t="s">
-        <v>532</v>
-      </c>
-      <c r="D131" t="s">
-        <v>533</v>
       </c>
       <c r="F131">
         <f t="shared" si="2"/>
@@ -7558,13 +7791,13 @@
         <v>442</v>
       </c>
       <c r="B132" t="s">
+        <v>532</v>
+      </c>
+      <c r="C132" t="s">
+        <v>533</v>
+      </c>
+      <c r="D132" t="s">
         <v>534</v>
-      </c>
-      <c r="C132" t="s">
-        <v>535</v>
-      </c>
-      <c r="D132" t="s">
-        <v>536</v>
       </c>
       <c r="F132">
         <f t="shared" si="2"/>
@@ -7576,13 +7809,13 @@
         <v>446</v>
       </c>
       <c r="B133" t="s">
+        <v>535</v>
+      </c>
+      <c r="C133" t="s">
+        <v>536</v>
+      </c>
+      <c r="D133" t="s">
         <v>537</v>
-      </c>
-      <c r="C133" t="s">
-        <v>538</v>
-      </c>
-      <c r="D133" t="s">
-        <v>539</v>
       </c>
       <c r="F133">
         <f t="shared" si="2"/>
@@ -7594,13 +7827,13 @@
         <v>450</v>
       </c>
       <c r="B134" t="s">
+        <v>538</v>
+      </c>
+      <c r="C134" t="s">
+        <v>539</v>
+      </c>
+      <c r="D134" t="s">
         <v>540</v>
-      </c>
-      <c r="C134" t="s">
-        <v>541</v>
-      </c>
-      <c r="D134" t="s">
-        <v>542</v>
       </c>
       <c r="F134">
         <f t="shared" si="2"/>
@@ -7612,13 +7845,13 @@
         <v>454</v>
       </c>
       <c r="B135" t="s">
+        <v>541</v>
+      </c>
+      <c r="C135" t="s">
+        <v>542</v>
+      </c>
+      <c r="D135" t="s">
         <v>543</v>
-      </c>
-      <c r="C135" t="s">
-        <v>544</v>
-      </c>
-      <c r="D135" t="s">
-        <v>545</v>
       </c>
       <c r="F135">
         <f t="shared" si="2"/>
@@ -7630,13 +7863,13 @@
         <v>458</v>
       </c>
       <c r="B136" t="s">
+        <v>544</v>
+      </c>
+      <c r="C136" t="s">
+        <v>545</v>
+      </c>
+      <c r="D136" t="s">
         <v>546</v>
-      </c>
-      <c r="C136" t="s">
-        <v>547</v>
-      </c>
-      <c r="D136" t="s">
-        <v>548</v>
       </c>
       <c r="F136">
         <f t="shared" si="2"/>
@@ -7648,13 +7881,13 @@
         <v>462</v>
       </c>
       <c r="B137" t="s">
+        <v>547</v>
+      </c>
+      <c r="C137" t="s">
+        <v>548</v>
+      </c>
+      <c r="D137" t="s">
         <v>549</v>
-      </c>
-      <c r="C137" t="s">
-        <v>550</v>
-      </c>
-      <c r="D137" t="s">
-        <v>551</v>
       </c>
       <c r="F137">
         <f t="shared" si="2"/>
@@ -7666,13 +7899,13 @@
         <v>466</v>
       </c>
       <c r="B138" t="s">
+        <v>550</v>
+      </c>
+      <c r="C138" t="s">
+        <v>551</v>
+      </c>
+      <c r="D138" t="s">
         <v>552</v>
-      </c>
-      <c r="C138" t="s">
-        <v>553</v>
-      </c>
-      <c r="D138" t="s">
-        <v>554</v>
       </c>
       <c r="F138">
         <f t="shared" si="2"/>
@@ -7684,13 +7917,13 @@
         <v>470</v>
       </c>
       <c r="B139" t="s">
+        <v>553</v>
+      </c>
+      <c r="C139" t="s">
+        <v>554</v>
+      </c>
+      <c r="D139" t="s">
         <v>555</v>
-      </c>
-      <c r="C139" t="s">
-        <v>556</v>
-      </c>
-      <c r="D139" t="s">
-        <v>557</v>
       </c>
       <c r="F139">
         <f t="shared" si="2"/>
@@ -7702,13 +7935,13 @@
         <v>584</v>
       </c>
       <c r="B140" t="s">
+        <v>556</v>
+      </c>
+      <c r="C140" t="s">
+        <v>557</v>
+      </c>
+      <c r="D140" t="s">
         <v>558</v>
-      </c>
-      <c r="C140" t="s">
-        <v>559</v>
-      </c>
-      <c r="D140" t="s">
-        <v>560</v>
       </c>
       <c r="F140">
         <f t="shared" si="2"/>
@@ -7720,13 +7953,13 @@
         <v>474</v>
       </c>
       <c r="B141" t="s">
+        <v>559</v>
+      </c>
+      <c r="C141" t="s">
+        <v>560</v>
+      </c>
+      <c r="D141" t="s">
         <v>561</v>
-      </c>
-      <c r="C141" t="s">
-        <v>562</v>
-      </c>
-      <c r="D141" t="s">
-        <v>563</v>
       </c>
       <c r="F141">
         <f t="shared" si="2"/>
@@ -7738,13 +7971,13 @@
         <v>478</v>
       </c>
       <c r="B142" t="s">
+        <v>562</v>
+      </c>
+      <c r="C142" t="s">
+        <v>563</v>
+      </c>
+      <c r="D142" t="s">
         <v>564</v>
-      </c>
-      <c r="C142" t="s">
-        <v>565</v>
-      </c>
-      <c r="D142" t="s">
-        <v>566</v>
       </c>
       <c r="F142">
         <f t="shared" si="2"/>
@@ -7756,13 +7989,13 @@
         <v>480</v>
       </c>
       <c r="B143" t="s">
+        <v>565</v>
+      </c>
+      <c r="C143" t="s">
+        <v>566</v>
+      </c>
+      <c r="D143" t="s">
         <v>567</v>
-      </c>
-      <c r="C143" t="s">
-        <v>568</v>
-      </c>
-      <c r="D143" t="s">
-        <v>569</v>
       </c>
       <c r="F143">
         <f t="shared" si="2"/>
@@ -7774,13 +8007,13 @@
         <v>175</v>
       </c>
       <c r="B144" t="s">
+        <v>568</v>
+      </c>
+      <c r="C144" t="s">
+        <v>569</v>
+      </c>
+      <c r="D144" t="s">
         <v>570</v>
-      </c>
-      <c r="C144" t="s">
-        <v>571</v>
-      </c>
-      <c r="D144" t="s">
-        <v>572</v>
       </c>
       <c r="F144">
         <f t="shared" si="2"/>
@@ -7792,13 +8025,13 @@
         <v>484</v>
       </c>
       <c r="B145" t="s">
+        <v>571</v>
+      </c>
+      <c r="C145" t="s">
+        <v>572</v>
+      </c>
+      <c r="D145" t="s">
         <v>573</v>
-      </c>
-      <c r="C145" t="s">
-        <v>574</v>
-      </c>
-      <c r="D145" t="s">
-        <v>575</v>
       </c>
       <c r="F145">
         <f t="shared" si="2"/>
@@ -7810,13 +8043,13 @@
         <v>583</v>
       </c>
       <c r="B146" t="s">
+        <v>574</v>
+      </c>
+      <c r="C146" t="s">
+        <v>575</v>
+      </c>
+      <c r="D146" t="s">
         <v>576</v>
-      </c>
-      <c r="C146" t="s">
-        <v>577</v>
-      </c>
-      <c r="D146" t="s">
-        <v>578</v>
       </c>
       <c r="F146">
         <f t="shared" si="2"/>
@@ -7828,13 +8061,13 @@
         <v>498</v>
       </c>
       <c r="B147" t="s">
+        <v>577</v>
+      </c>
+      <c r="C147" t="s">
+        <v>578</v>
+      </c>
+      <c r="D147" t="s">
         <v>579</v>
-      </c>
-      <c r="C147" t="s">
-        <v>580</v>
-      </c>
-      <c r="D147" t="s">
-        <v>581</v>
       </c>
       <c r="F147">
         <f t="shared" si="2"/>
@@ -7846,13 +8079,13 @@
         <v>492</v>
       </c>
       <c r="B148" t="s">
+        <v>580</v>
+      </c>
+      <c r="C148" t="s">
+        <v>581</v>
+      </c>
+      <c r="D148" t="s">
         <v>582</v>
-      </c>
-      <c r="C148" t="s">
-        <v>583</v>
-      </c>
-      <c r="D148" t="s">
-        <v>584</v>
       </c>
       <c r="F148">
         <f t="shared" si="2"/>
@@ -7864,13 +8097,13 @@
         <v>496</v>
       </c>
       <c r="B149" t="s">
+        <v>583</v>
+      </c>
+      <c r="C149" t="s">
+        <v>584</v>
+      </c>
+      <c r="D149" t="s">
         <v>585</v>
-      </c>
-      <c r="C149" t="s">
-        <v>586</v>
-      </c>
-      <c r="D149" t="s">
-        <v>587</v>
       </c>
       <c r="F149">
         <f t="shared" si="2"/>
@@ -7882,13 +8115,13 @@
         <v>499</v>
       </c>
       <c r="B150" t="s">
+        <v>586</v>
+      </c>
+      <c r="C150" t="s">
+        <v>587</v>
+      </c>
+      <c r="D150" t="s">
         <v>588</v>
-      </c>
-      <c r="C150" t="s">
-        <v>589</v>
-      </c>
-      <c r="D150" t="s">
-        <v>590</v>
       </c>
       <c r="F150">
         <f t="shared" si="2"/>
@@ -7900,13 +8133,13 @@
         <v>500</v>
       </c>
       <c r="B151" t="s">
+        <v>589</v>
+      </c>
+      <c r="C151" t="s">
+        <v>590</v>
+      </c>
+      <c r="D151" t="s">
         <v>591</v>
-      </c>
-      <c r="C151" t="s">
-        <v>592</v>
-      </c>
-      <c r="D151" t="s">
-        <v>593</v>
       </c>
       <c r="F151">
         <f t="shared" si="2"/>
@@ -7918,13 +8151,13 @@
         <v>504</v>
       </c>
       <c r="B152" t="s">
+        <v>592</v>
+      </c>
+      <c r="C152" t="s">
+        <v>593</v>
+      </c>
+      <c r="D152" t="s">
         <v>594</v>
-      </c>
-      <c r="C152" t="s">
-        <v>595</v>
-      </c>
-      <c r="D152" t="s">
-        <v>596</v>
       </c>
       <c r="F152">
         <f t="shared" si="2"/>
@@ -7936,13 +8169,13 @@
         <v>508</v>
       </c>
       <c r="B153" t="s">
+        <v>595</v>
+      </c>
+      <c r="C153" t="s">
+        <v>596</v>
+      </c>
+      <c r="D153" t="s">
         <v>597</v>
-      </c>
-      <c r="C153" t="s">
-        <v>598</v>
-      </c>
-      <c r="D153" t="s">
-        <v>599</v>
       </c>
       <c r="F153">
         <f t="shared" si="2"/>
@@ -7954,13 +8187,13 @@
         <v>104</v>
       </c>
       <c r="B154" t="s">
+        <v>598</v>
+      </c>
+      <c r="C154" t="s">
+        <v>599</v>
+      </c>
+      <c r="D154" t="s">
         <v>600</v>
-      </c>
-      <c r="C154" t="s">
-        <v>601</v>
-      </c>
-      <c r="D154" t="s">
-        <v>602</v>
       </c>
       <c r="F154">
         <f t="shared" si="2"/>
@@ -7972,13 +8205,13 @@
         <v>516</v>
       </c>
       <c r="B155" t="s">
+        <v>601</v>
+      </c>
+      <c r="C155" t="s">
+        <v>602</v>
+      </c>
+      <c r="D155" t="s">
         <v>603</v>
-      </c>
-      <c r="C155" t="s">
-        <v>604</v>
-      </c>
-      <c r="D155" t="s">
-        <v>605</v>
       </c>
       <c r="F155">
         <f t="shared" si="2"/>
@@ -7990,13 +8223,13 @@
         <v>520</v>
       </c>
       <c r="B156" t="s">
+        <v>604</v>
+      </c>
+      <c r="C156" t="s">
+        <v>605</v>
+      </c>
+      <c r="D156" t="s">
         <v>606</v>
-      </c>
-      <c r="C156" t="s">
-        <v>607</v>
-      </c>
-      <c r="D156" t="s">
-        <v>608</v>
       </c>
       <c r="F156">
         <f t="shared" si="2"/>
@@ -8008,13 +8241,13 @@
         <v>524</v>
       </c>
       <c r="B157" t="s">
+        <v>607</v>
+      </c>
+      <c r="C157" t="s">
+        <v>608</v>
+      </c>
+      <c r="D157" t="s">
         <v>609</v>
-      </c>
-      <c r="C157" t="s">
-        <v>610</v>
-      </c>
-      <c r="D157" t="s">
-        <v>611</v>
       </c>
       <c r="F157">
         <f t="shared" si="2"/>
@@ -8026,13 +8259,13 @@
         <v>528</v>
       </c>
       <c r="B158" t="s">
+        <v>610</v>
+      </c>
+      <c r="C158" t="s">
+        <v>611</v>
+      </c>
+      <c r="D158" t="s">
         <v>612</v>
-      </c>
-      <c r="C158" t="s">
-        <v>613</v>
-      </c>
-      <c r="D158" t="s">
-        <v>614</v>
       </c>
       <c r="F158">
         <f t="shared" si="2"/>
@@ -8044,13 +8277,13 @@
         <v>540</v>
       </c>
       <c r="B159" t="s">
+        <v>613</v>
+      </c>
+      <c r="C159" t="s">
+        <v>614</v>
+      </c>
+      <c r="D159" t="s">
         <v>615</v>
-      </c>
-      <c r="C159" t="s">
-        <v>616</v>
-      </c>
-      <c r="D159" t="s">
-        <v>617</v>
       </c>
       <c r="F159">
         <f t="shared" si="2"/>
@@ -8062,13 +8295,13 @@
         <v>554</v>
       </c>
       <c r="B160" t="s">
+        <v>616</v>
+      </c>
+      <c r="C160" t="s">
+        <v>617</v>
+      </c>
+      <c r="D160" t="s">
         <v>618</v>
-      </c>
-      <c r="C160" t="s">
-        <v>619</v>
-      </c>
-      <c r="D160" t="s">
-        <v>620</v>
       </c>
       <c r="F160">
         <f t="shared" si="2"/>
@@ -8080,13 +8313,13 @@
         <v>558</v>
       </c>
       <c r="B161" t="s">
+        <v>619</v>
+      </c>
+      <c r="C161" t="s">
+        <v>620</v>
+      </c>
+      <c r="D161" t="s">
         <v>621</v>
-      </c>
-      <c r="C161" t="s">
-        <v>622</v>
-      </c>
-      <c r="D161" t="s">
-        <v>623</v>
       </c>
       <c r="F161">
         <f t="shared" si="2"/>
@@ -8098,13 +8331,13 @@
         <v>562</v>
       </c>
       <c r="B162" t="s">
+        <v>622</v>
+      </c>
+      <c r="C162" t="s">
+        <v>623</v>
+      </c>
+      <c r="D162" t="s">
         <v>624</v>
-      </c>
-      <c r="C162" t="s">
-        <v>625</v>
-      </c>
-      <c r="D162" t="s">
-        <v>626</v>
       </c>
       <c r="F162">
         <f t="shared" si="2"/>
@@ -8116,13 +8349,13 @@
         <v>566</v>
       </c>
       <c r="B163" t="s">
+        <v>625</v>
+      </c>
+      <c r="C163" t="s">
+        <v>626</v>
+      </c>
+      <c r="D163" t="s">
         <v>627</v>
-      </c>
-      <c r="C163" t="s">
-        <v>628</v>
-      </c>
-      <c r="D163" t="s">
-        <v>629</v>
       </c>
       <c r="F163">
         <f t="shared" si="2"/>
@@ -8134,13 +8367,13 @@
         <v>570</v>
       </c>
       <c r="B164" t="s">
+        <v>628</v>
+      </c>
+      <c r="C164" t="s">
+        <v>629</v>
+      </c>
+      <c r="D164" t="s">
         <v>630</v>
-      </c>
-      <c r="C164" t="s">
-        <v>631</v>
-      </c>
-      <c r="D164" t="s">
-        <v>632</v>
       </c>
       <c r="F164">
         <f t="shared" si="2"/>
@@ -8152,13 +8385,13 @@
         <v>574</v>
       </c>
       <c r="B165" t="s">
+        <v>631</v>
+      </c>
+      <c r="C165" t="s">
+        <v>632</v>
+      </c>
+      <c r="D165" t="s">
         <v>633</v>
-      </c>
-      <c r="C165" t="s">
-        <v>634</v>
-      </c>
-      <c r="D165" t="s">
-        <v>635</v>
       </c>
       <c r="F165">
         <f t="shared" si="2"/>
@@ -8170,13 +8403,13 @@
         <v>580</v>
       </c>
       <c r="B166" t="s">
+        <v>634</v>
+      </c>
+      <c r="C166" t="s">
+        <v>635</v>
+      </c>
+      <c r="D166" t="s">
         <v>636</v>
-      </c>
-      <c r="C166" t="s">
-        <v>637</v>
-      </c>
-      <c r="D166" t="s">
-        <v>638</v>
       </c>
       <c r="F166">
         <f t="shared" si="2"/>
@@ -8188,13 +8421,13 @@
         <v>578</v>
       </c>
       <c r="B167" t="s">
+        <v>637</v>
+      </c>
+      <c r="C167" t="s">
+        <v>638</v>
+      </c>
+      <c r="D167" t="s">
         <v>639</v>
-      </c>
-      <c r="C167" t="s">
-        <v>640</v>
-      </c>
-      <c r="D167" t="s">
-        <v>641</v>
       </c>
       <c r="F167">
         <f t="shared" si="2"/>
@@ -8206,13 +8439,13 @@
         <v>512</v>
       </c>
       <c r="B168" t="s">
+        <v>640</v>
+      </c>
+      <c r="C168" t="s">
+        <v>641</v>
+      </c>
+      <c r="D168" t="s">
         <v>642</v>
-      </c>
-      <c r="C168" t="s">
-        <v>643</v>
-      </c>
-      <c r="D168" t="s">
-        <v>644</v>
       </c>
       <c r="F168">
         <f t="shared" si="2"/>
@@ -8224,13 +8457,13 @@
         <v>586</v>
       </c>
       <c r="B169" t="s">
+        <v>643</v>
+      </c>
+      <c r="C169" t="s">
+        <v>644</v>
+      </c>
+      <c r="D169" t="s">
         <v>645</v>
-      </c>
-      <c r="C169" t="s">
-        <v>646</v>
-      </c>
-      <c r="D169" t="s">
-        <v>647</v>
       </c>
       <c r="F169">
         <f t="shared" si="2"/>
@@ -8242,13 +8475,13 @@
         <v>585</v>
       </c>
       <c r="B170" t="s">
+        <v>646</v>
+      </c>
+      <c r="C170" t="s">
+        <v>647</v>
+      </c>
+      <c r="D170" t="s">
         <v>648</v>
-      </c>
-      <c r="C170" t="s">
-        <v>649</v>
-      </c>
-      <c r="D170" t="s">
-        <v>650</v>
       </c>
       <c r="F170">
         <f t="shared" si="2"/>
@@ -8260,13 +8493,13 @@
         <v>275</v>
       </c>
       <c r="B171" t="s">
+        <v>649</v>
+      </c>
+      <c r="C171" t="s">
+        <v>650</v>
+      </c>
+      <c r="D171" t="s">
         <v>651</v>
-      </c>
-      <c r="C171" t="s">
-        <v>652</v>
-      </c>
-      <c r="D171" t="s">
-        <v>653</v>
       </c>
       <c r="F171">
         <f t="shared" si="2"/>
@@ -8278,13 +8511,13 @@
         <v>591</v>
       </c>
       <c r="B172" t="s">
+        <v>652</v>
+      </c>
+      <c r="C172" t="s">
+        <v>653</v>
+      </c>
+      <c r="D172" t="s">
         <v>654</v>
-      </c>
-      <c r="C172" t="s">
-        <v>655</v>
-      </c>
-      <c r="D172" t="s">
-        <v>656</v>
       </c>
       <c r="F172">
         <f t="shared" si="2"/>
@@ -8296,13 +8529,13 @@
         <v>598</v>
       </c>
       <c r="B173" t="s">
+        <v>655</v>
+      </c>
+      <c r="C173" t="s">
+        <v>656</v>
+      </c>
+      <c r="D173" t="s">
         <v>657</v>
-      </c>
-      <c r="C173" t="s">
-        <v>658</v>
-      </c>
-      <c r="D173" t="s">
-        <v>659</v>
       </c>
       <c r="F173">
         <f t="shared" si="2"/>
@@ -8314,13 +8547,13 @@
         <v>600</v>
       </c>
       <c r="B174" t="s">
+        <v>658</v>
+      </c>
+      <c r="C174" t="s">
+        <v>659</v>
+      </c>
+      <c r="D174" t="s">
         <v>660</v>
-      </c>
-      <c r="C174" t="s">
-        <v>661</v>
-      </c>
-      <c r="D174" t="s">
-        <v>662</v>
       </c>
       <c r="F174">
         <f t="shared" si="2"/>
@@ -8332,13 +8565,13 @@
         <v>604</v>
       </c>
       <c r="B175" t="s">
+        <v>661</v>
+      </c>
+      <c r="C175" t="s">
+        <v>662</v>
+      </c>
+      <c r="D175" t="s">
         <v>663</v>
-      </c>
-      <c r="C175" t="s">
-        <v>664</v>
-      </c>
-      <c r="D175" t="s">
-        <v>665</v>
       </c>
       <c r="F175">
         <f t="shared" si="2"/>
@@ -8350,13 +8583,13 @@
         <v>608</v>
       </c>
       <c r="B176" t="s">
+        <v>664</v>
+      </c>
+      <c r="C176" t="s">
+        <v>665</v>
+      </c>
+      <c r="D176" t="s">
         <v>666</v>
-      </c>
-      <c r="C176" t="s">
-        <v>667</v>
-      </c>
-      <c r="D176" t="s">
-        <v>668</v>
       </c>
       <c r="F176">
         <f t="shared" si="2"/>
@@ -8368,13 +8601,13 @@
         <v>612</v>
       </c>
       <c r="B177" t="s">
+        <v>667</v>
+      </c>
+      <c r="C177" t="s">
+        <v>668</v>
+      </c>
+      <c r="D177" t="s">
         <v>669</v>
-      </c>
-      <c r="C177" t="s">
-        <v>670</v>
-      </c>
-      <c r="D177" t="s">
-        <v>671</v>
       </c>
       <c r="F177">
         <f t="shared" si="2"/>
@@ -8386,13 +8619,13 @@
         <v>616</v>
       </c>
       <c r="B178" t="s">
+        <v>670</v>
+      </c>
+      <c r="C178" t="s">
+        <v>671</v>
+      </c>
+      <c r="D178" t="s">
         <v>672</v>
-      </c>
-      <c r="C178" t="s">
-        <v>673</v>
-      </c>
-      <c r="D178" t="s">
-        <v>674</v>
       </c>
       <c r="F178">
         <f t="shared" si="2"/>
@@ -8404,13 +8637,13 @@
         <v>620</v>
       </c>
       <c r="B179" t="s">
+        <v>673</v>
+      </c>
+      <c r="C179" t="s">
+        <v>674</v>
+      </c>
+      <c r="D179" t="s">
         <v>675</v>
-      </c>
-      <c r="C179" t="s">
-        <v>676</v>
-      </c>
-      <c r="D179" t="s">
-        <v>677</v>
       </c>
       <c r="F179">
         <f t="shared" si="2"/>
@@ -8422,13 +8655,13 @@
         <v>630</v>
       </c>
       <c r="B180" t="s">
+        <v>676</v>
+      </c>
+      <c r="C180" t="s">
+        <v>677</v>
+      </c>
+      <c r="D180" t="s">
         <v>678</v>
-      </c>
-      <c r="C180" t="s">
-        <v>679</v>
-      </c>
-      <c r="D180" t="s">
-        <v>680</v>
       </c>
       <c r="F180">
         <f t="shared" si="2"/>
@@ -8440,13 +8673,13 @@
         <v>634</v>
       </c>
       <c r="B181" t="s">
+        <v>679</v>
+      </c>
+      <c r="C181" t="s">
+        <v>680</v>
+      </c>
+      <c r="D181" t="s">
         <v>681</v>
-      </c>
-      <c r="C181" t="s">
-        <v>682</v>
-      </c>
-      <c r="D181" t="s">
-        <v>683</v>
       </c>
       <c r="F181">
         <f t="shared" si="2"/>
@@ -8458,13 +8691,13 @@
         <v>807</v>
       </c>
       <c r="B182" t="s">
+        <v>682</v>
+      </c>
+      <c r="C182" t="s">
+        <v>683</v>
+      </c>
+      <c r="D182" t="s">
         <v>684</v>
-      </c>
-      <c r="C182" t="s">
-        <v>685</v>
-      </c>
-      <c r="D182" t="s">
-        <v>686</v>
       </c>
       <c r="F182">
         <f t="shared" si="2"/>
@@ -8476,13 +8709,13 @@
         <v>642</v>
       </c>
       <c r="B183" t="s">
+        <v>685</v>
+      </c>
+      <c r="C183" t="s">
+        <v>686</v>
+      </c>
+      <c r="D183" t="s">
         <v>687</v>
-      </c>
-      <c r="C183" t="s">
-        <v>688</v>
-      </c>
-      <c r="D183" t="s">
-        <v>689</v>
       </c>
       <c r="F183">
         <f t="shared" si="2"/>
@@ -8494,13 +8727,13 @@
         <v>643</v>
       </c>
       <c r="B184" t="s">
+        <v>688</v>
+      </c>
+      <c r="C184" t="s">
+        <v>689</v>
+      </c>
+      <c r="D184" t="s">
         <v>690</v>
-      </c>
-      <c r="C184" t="s">
-        <v>691</v>
-      </c>
-      <c r="D184" t="s">
-        <v>692</v>
       </c>
       <c r="F184">
         <f t="shared" si="2"/>
@@ -8512,13 +8745,13 @@
         <v>646</v>
       </c>
       <c r="B185" t="s">
+        <v>691</v>
+      </c>
+      <c r="C185" t="s">
+        <v>692</v>
+      </c>
+      <c r="D185" t="s">
         <v>693</v>
-      </c>
-      <c r="C185" t="s">
-        <v>694</v>
-      </c>
-      <c r="D185" t="s">
-        <v>695</v>
       </c>
       <c r="F185">
         <f t="shared" si="2"/>
@@ -8530,13 +8763,13 @@
         <v>638</v>
       </c>
       <c r="B186" t="s">
+        <v>694</v>
+      </c>
+      <c r="C186" t="s">
+        <v>695</v>
+      </c>
+      <c r="D186" t="s">
         <v>696</v>
-      </c>
-      <c r="C186" t="s">
-        <v>697</v>
-      </c>
-      <c r="D186" t="s">
-        <v>698</v>
       </c>
       <c r="F186">
         <f t="shared" si="2"/>
@@ -8548,13 +8781,13 @@
         <v>652</v>
       </c>
       <c r="B187" t="s">
+        <v>697</v>
+      </c>
+      <c r="C187" t="s">
+        <v>698</v>
+      </c>
+      <c r="D187" t="s">
         <v>699</v>
-      </c>
-      <c r="C187" t="s">
-        <v>700</v>
-      </c>
-      <c r="D187" t="s">
-        <v>701</v>
       </c>
       <c r="F187">
         <f t="shared" si="2"/>
@@ -8566,13 +8799,13 @@
         <v>654</v>
       </c>
       <c r="B188" t="s">
+        <v>700</v>
+      </c>
+      <c r="C188" t="s">
+        <v>701</v>
+      </c>
+      <c r="D188" t="s">
         <v>702</v>
-      </c>
-      <c r="C188" t="s">
-        <v>703</v>
-      </c>
-      <c r="D188" t="s">
-        <v>704</v>
       </c>
       <c r="F188">
         <f t="shared" si="2"/>
@@ -8584,13 +8817,13 @@
         <v>659</v>
       </c>
       <c r="B189" t="s">
+        <v>703</v>
+      </c>
+      <c r="C189" t="s">
+        <v>704</v>
+      </c>
+      <c r="D189" t="s">
         <v>705</v>
-      </c>
-      <c r="C189" t="s">
-        <v>706</v>
-      </c>
-      <c r="D189" t="s">
-        <v>707</v>
       </c>
       <c r="F189">
         <f t="shared" si="2"/>
@@ -8602,13 +8835,13 @@
         <v>662</v>
       </c>
       <c r="B190" t="s">
+        <v>706</v>
+      </c>
+      <c r="C190" t="s">
+        <v>707</v>
+      </c>
+      <c r="D190" t="s">
         <v>708</v>
-      </c>
-      <c r="C190" t="s">
-        <v>709</v>
-      </c>
-      <c r="D190" t="s">
-        <v>710</v>
       </c>
       <c r="F190">
         <f t="shared" si="2"/>
@@ -8620,13 +8853,13 @@
         <v>663</v>
       </c>
       <c r="B191" t="s">
+        <v>709</v>
+      </c>
+      <c r="C191" t="s">
+        <v>710</v>
+      </c>
+      <c r="D191" t="s">
         <v>711</v>
-      </c>
-      <c r="C191" t="s">
-        <v>712</v>
-      </c>
-      <c r="D191" t="s">
-        <v>713</v>
       </c>
       <c r="F191">
         <f t="shared" si="2"/>
@@ -8638,13 +8871,13 @@
         <v>666</v>
       </c>
       <c r="B192" t="s">
+        <v>712</v>
+      </c>
+      <c r="C192" t="s">
+        <v>713</v>
+      </c>
+      <c r="D192" t="s">
         <v>714</v>
-      </c>
-      <c r="C192" t="s">
-        <v>715</v>
-      </c>
-      <c r="D192" t="s">
-        <v>716</v>
       </c>
       <c r="F192">
         <f t="shared" si="2"/>
@@ -8656,13 +8889,13 @@
         <v>670</v>
       </c>
       <c r="B193" t="s">
+        <v>715</v>
+      </c>
+      <c r="C193" t="s">
+        <v>716</v>
+      </c>
+      <c r="D193" t="s">
         <v>717</v>
-      </c>
-      <c r="C193" t="s">
-        <v>718</v>
-      </c>
-      <c r="D193" t="s">
-        <v>719</v>
       </c>
       <c r="F193">
         <f t="shared" si="2"/>
@@ -8674,13 +8907,13 @@
         <v>882</v>
       </c>
       <c r="B194" t="s">
+        <v>718</v>
+      </c>
+      <c r="C194" t="s">
+        <v>719</v>
+      </c>
+      <c r="D194" t="s">
         <v>720</v>
-      </c>
-      <c r="C194" t="s">
-        <v>721</v>
-      </c>
-      <c r="D194" t="s">
-        <v>722</v>
       </c>
       <c r="F194">
         <f t="shared" ref="F194:F251" si="3">LEN(B194)</f>
@@ -8692,13 +8925,13 @@
         <v>674</v>
       </c>
       <c r="B195" t="s">
+        <v>721</v>
+      </c>
+      <c r="C195" t="s">
+        <v>722</v>
+      </c>
+      <c r="D195" t="s">
         <v>723</v>
-      </c>
-      <c r="C195" t="s">
-        <v>724</v>
-      </c>
-      <c r="D195" t="s">
-        <v>725</v>
       </c>
       <c r="F195">
         <f t="shared" si="3"/>
@@ -8710,13 +8943,13 @@
         <v>678</v>
       </c>
       <c r="B196" t="s">
+        <v>724</v>
+      </c>
+      <c r="C196" t="s">
+        <v>725</v>
+      </c>
+      <c r="D196" t="s">
         <v>726</v>
-      </c>
-      <c r="C196" t="s">
-        <v>727</v>
-      </c>
-      <c r="D196" t="s">
-        <v>728</v>
       </c>
       <c r="F196">
         <f t="shared" si="3"/>
@@ -8728,13 +8961,13 @@
         <v>682</v>
       </c>
       <c r="B197" t="s">
+        <v>727</v>
+      </c>
+      <c r="C197" t="s">
+        <v>728</v>
+      </c>
+      <c r="D197" t="s">
         <v>729</v>
-      </c>
-      <c r="C197" t="s">
-        <v>730</v>
-      </c>
-      <c r="D197" t="s">
-        <v>731</v>
       </c>
       <c r="F197">
         <f t="shared" si="3"/>
@@ -8746,13 +8979,13 @@
         <v>686</v>
       </c>
       <c r="B198" t="s">
+        <v>730</v>
+      </c>
+      <c r="C198" t="s">
+        <v>731</v>
+      </c>
+      <c r="D198" t="s">
         <v>732</v>
-      </c>
-      <c r="C198" t="s">
-        <v>733</v>
-      </c>
-      <c r="D198" t="s">
-        <v>734</v>
       </c>
       <c r="F198">
         <f t="shared" si="3"/>
@@ -8764,13 +8997,13 @@
         <v>688</v>
       </c>
       <c r="B199" t="s">
+        <v>733</v>
+      </c>
+      <c r="C199" t="s">
+        <v>734</v>
+      </c>
+      <c r="D199" t="s">
         <v>735</v>
-      </c>
-      <c r="C199" t="s">
-        <v>736</v>
-      </c>
-      <c r="D199" t="s">
-        <v>737</v>
       </c>
       <c r="F199">
         <f t="shared" si="3"/>
@@ -8782,13 +9015,13 @@
         <v>690</v>
       </c>
       <c r="B200" t="s">
+        <v>736</v>
+      </c>
+      <c r="C200" t="s">
+        <v>737</v>
+      </c>
+      <c r="D200" t="s">
         <v>738</v>
-      </c>
-      <c r="C200" t="s">
-        <v>739</v>
-      </c>
-      <c r="D200" t="s">
-        <v>740</v>
       </c>
       <c r="F200">
         <f t="shared" si="3"/>
@@ -8800,13 +9033,13 @@
         <v>694</v>
       </c>
       <c r="B201" t="s">
+        <v>739</v>
+      </c>
+      <c r="C201" t="s">
+        <v>740</v>
+      </c>
+      <c r="D201" t="s">
         <v>741</v>
-      </c>
-      <c r="C201" t="s">
-        <v>742</v>
-      </c>
-      <c r="D201" t="s">
-        <v>743</v>
       </c>
       <c r="F201">
         <f t="shared" si="3"/>
@@ -8818,13 +9051,13 @@
         <v>702</v>
       </c>
       <c r="B202" t="s">
+        <v>742</v>
+      </c>
+      <c r="C202" t="s">
+        <v>743</v>
+      </c>
+      <c r="D202" t="s">
         <v>744</v>
-      </c>
-      <c r="C202" t="s">
-        <v>745</v>
-      </c>
-      <c r="D202" t="s">
-        <v>746</v>
       </c>
       <c r="F202">
         <f t="shared" si="3"/>
@@ -8836,13 +9069,13 @@
         <v>534</v>
       </c>
       <c r="B203" t="s">
+        <v>745</v>
+      </c>
+      <c r="C203" t="s">
+        <v>746</v>
+      </c>
+      <c r="D203" t="s">
         <v>747</v>
-      </c>
-      <c r="C203" t="s">
-        <v>748</v>
-      </c>
-      <c r="D203" t="s">
-        <v>749</v>
       </c>
       <c r="F203">
         <f t="shared" si="3"/>
@@ -8854,13 +9087,13 @@
         <v>703</v>
       </c>
       <c r="B204" t="s">
+        <v>748</v>
+      </c>
+      <c r="C204" t="s">
+        <v>749</v>
+      </c>
+      <c r="D204" t="s">
         <v>750</v>
-      </c>
-      <c r="C204" t="s">
-        <v>751</v>
-      </c>
-      <c r="D204" t="s">
-        <v>752</v>
       </c>
       <c r="F204">
         <f t="shared" si="3"/>
@@ -8872,13 +9105,13 @@
         <v>705</v>
       </c>
       <c r="B205" t="s">
+        <v>751</v>
+      </c>
+      <c r="C205" t="s">
+        <v>752</v>
+      </c>
+      <c r="D205" t="s">
         <v>753</v>
-      </c>
-      <c r="C205" t="s">
-        <v>754</v>
-      </c>
-      <c r="D205" t="s">
-        <v>755</v>
       </c>
       <c r="F205">
         <f t="shared" si="3"/>
@@ -8890,13 +9123,13 @@
         <v>90</v>
       </c>
       <c r="B206" t="s">
+        <v>754</v>
+      </c>
+      <c r="C206" t="s">
+        <v>755</v>
+      </c>
+      <c r="D206" t="s">
         <v>756</v>
-      </c>
-      <c r="C206" t="s">
-        <v>757</v>
-      </c>
-      <c r="D206" t="s">
-        <v>758</v>
       </c>
       <c r="F206">
         <f t="shared" si="3"/>
@@ -8908,13 +9141,13 @@
         <v>706</v>
       </c>
       <c r="B207" t="s">
+        <v>757</v>
+      </c>
+      <c r="C207" t="s">
+        <v>758</v>
+      </c>
+      <c r="D207" t="s">
         <v>759</v>
-      </c>
-      <c r="C207" t="s">
-        <v>760</v>
-      </c>
-      <c r="D207" t="s">
-        <v>761</v>
       </c>
       <c r="F207">
         <f t="shared" si="3"/>
@@ -8926,13 +9159,13 @@
         <v>710</v>
       </c>
       <c r="B208" t="s">
+        <v>760</v>
+      </c>
+      <c r="C208" t="s">
+        <v>761</v>
+      </c>
+      <c r="D208" t="s">
         <v>762</v>
-      </c>
-      <c r="C208" t="s">
-        <v>763</v>
-      </c>
-      <c r="D208" t="s">
-        <v>764</v>
       </c>
       <c r="F208">
         <f t="shared" si="3"/>
@@ -8944,13 +9177,13 @@
         <v>239</v>
       </c>
       <c r="B209" t="s">
+        <v>763</v>
+      </c>
+      <c r="C209" t="s">
+        <v>764</v>
+      </c>
+      <c r="D209" t="s">
         <v>765</v>
-      </c>
-      <c r="C209" t="s">
-        <v>766</v>
-      </c>
-      <c r="D209" t="s">
-        <v>767</v>
       </c>
       <c r="F209">
         <f t="shared" si="3"/>
@@ -8962,13 +9195,13 @@
         <v>728</v>
       </c>
       <c r="B210" t="s">
+        <v>766</v>
+      </c>
+      <c r="C210" t="s">
+        <v>767</v>
+      </c>
+      <c r="D210" t="s">
         <v>768</v>
-      </c>
-      <c r="C210" t="s">
-        <v>769</v>
-      </c>
-      <c r="D210" t="s">
-        <v>770</v>
       </c>
       <c r="F210">
         <f t="shared" si="3"/>
@@ -8980,13 +9213,13 @@
         <v>724</v>
       </c>
       <c r="B211" t="s">
+        <v>769</v>
+      </c>
+      <c r="C211" t="s">
+        <v>770</v>
+      </c>
+      <c r="D211" t="s">
         <v>771</v>
-      </c>
-      <c r="C211" t="s">
-        <v>772</v>
-      </c>
-      <c r="D211" t="s">
-        <v>773</v>
       </c>
       <c r="F211">
         <f t="shared" si="3"/>
@@ -8998,13 +9231,13 @@
         <v>144</v>
       </c>
       <c r="B212" t="s">
+        <v>772</v>
+      </c>
+      <c r="C212" t="s">
+        <v>773</v>
+      </c>
+      <c r="D212" t="s">
         <v>774</v>
-      </c>
-      <c r="C212" t="s">
-        <v>775</v>
-      </c>
-      <c r="D212" t="s">
-        <v>776</v>
       </c>
       <c r="F212">
         <f t="shared" si="3"/>
@@ -9016,13 +9249,13 @@
         <v>729</v>
       </c>
       <c r="B213" t="s">
+        <v>775</v>
+      </c>
+      <c r="C213" t="s">
+        <v>776</v>
+      </c>
+      <c r="D213" t="s">
         <v>777</v>
-      </c>
-      <c r="C213" t="s">
-        <v>778</v>
-      </c>
-      <c r="D213" t="s">
-        <v>779</v>
       </c>
       <c r="F213">
         <f t="shared" si="3"/>
@@ -9034,13 +9267,13 @@
         <v>740</v>
       </c>
       <c r="B214" t="s">
+        <v>778</v>
+      </c>
+      <c r="C214" t="s">
+        <v>779</v>
+      </c>
+      <c r="D214" t="s">
         <v>780</v>
-      </c>
-      <c r="C214" t="s">
-        <v>781</v>
-      </c>
-      <c r="D214" t="s">
-        <v>782</v>
       </c>
       <c r="F214">
         <f t="shared" si="3"/>
@@ -9052,13 +9285,13 @@
         <v>744</v>
       </c>
       <c r="B215" t="s">
+        <v>781</v>
+      </c>
+      <c r="C215" t="s">
+        <v>782</v>
+      </c>
+      <c r="D215" t="s">
         <v>783</v>
-      </c>
-      <c r="C215" t="s">
-        <v>784</v>
-      </c>
-      <c r="D215" t="s">
-        <v>785</v>
       </c>
       <c r="F215">
         <f t="shared" si="3"/>
@@ -9070,13 +9303,13 @@
         <v>752</v>
       </c>
       <c r="B216" t="s">
+        <v>784</v>
+      </c>
+      <c r="C216" t="s">
+        <v>785</v>
+      </c>
+      <c r="D216" t="s">
         <v>786</v>
-      </c>
-      <c r="C216" t="s">
-        <v>787</v>
-      </c>
-      <c r="D216" t="s">
-        <v>788</v>
       </c>
       <c r="F216">
         <f t="shared" si="3"/>
@@ -9088,13 +9321,13 @@
         <v>756</v>
       </c>
       <c r="B217" t="s">
+        <v>787</v>
+      </c>
+      <c r="C217" t="s">
+        <v>788</v>
+      </c>
+      <c r="D217" t="s">
         <v>789</v>
-      </c>
-      <c r="C217" t="s">
-        <v>790</v>
-      </c>
-      <c r="D217" t="s">
-        <v>791</v>
       </c>
       <c r="F217">
         <f t="shared" si="3"/>
@@ -9106,13 +9339,13 @@
         <v>760</v>
       </c>
       <c r="B218" t="s">
+        <v>790</v>
+      </c>
+      <c r="C218" t="s">
+        <v>791</v>
+      </c>
+      <c r="D218" t="s">
         <v>792</v>
-      </c>
-      <c r="C218" t="s">
-        <v>793</v>
-      </c>
-      <c r="D218" t="s">
-        <v>794</v>
       </c>
       <c r="F218">
         <f t="shared" si="3"/>
@@ -9124,13 +9357,13 @@
         <v>158</v>
       </c>
       <c r="B219" t="s">
+        <v>793</v>
+      </c>
+      <c r="C219" t="s">
+        <v>794</v>
+      </c>
+      <c r="D219" t="s">
         <v>795</v>
-      </c>
-      <c r="C219" t="s">
-        <v>796</v>
-      </c>
-      <c r="D219" t="s">
-        <v>797</v>
       </c>
       <c r="F219">
         <f t="shared" si="3"/>
@@ -9142,13 +9375,13 @@
         <v>762</v>
       </c>
       <c r="B220" t="s">
+        <v>796</v>
+      </c>
+      <c r="C220" t="s">
+        <v>797</v>
+      </c>
+      <c r="D220" t="s">
         <v>798</v>
-      </c>
-      <c r="C220" t="s">
-        <v>799</v>
-      </c>
-      <c r="D220" t="s">
-        <v>800</v>
       </c>
       <c r="F220">
         <f t="shared" si="3"/>
@@ -9160,13 +9393,13 @@
         <v>834</v>
       </c>
       <c r="B221" t="s">
+        <v>799</v>
+      </c>
+      <c r="C221" t="s">
+        <v>800</v>
+      </c>
+      <c r="D221" t="s">
         <v>801</v>
-      </c>
-      <c r="C221" t="s">
-        <v>802</v>
-      </c>
-      <c r="D221" t="s">
-        <v>803</v>
       </c>
       <c r="F221">
         <f t="shared" si="3"/>
@@ -9178,13 +9411,13 @@
         <v>764</v>
       </c>
       <c r="B222" t="s">
+        <v>802</v>
+      </c>
+      <c r="C222" t="s">
+        <v>803</v>
+      </c>
+      <c r="D222" t="s">
         <v>804</v>
-      </c>
-      <c r="C222" t="s">
-        <v>805</v>
-      </c>
-      <c r="D222" t="s">
-        <v>806</v>
       </c>
       <c r="F222">
         <f t="shared" si="3"/>
@@ -9196,13 +9429,13 @@
         <v>626</v>
       </c>
       <c r="B223" t="s">
+        <v>805</v>
+      </c>
+      <c r="C223" t="s">
+        <v>806</v>
+      </c>
+      <c r="D223" t="s">
         <v>807</v>
-      </c>
-      <c r="C223" t="s">
-        <v>808</v>
-      </c>
-      <c r="D223" t="s">
-        <v>809</v>
       </c>
       <c r="F223">
         <f t="shared" si="3"/>
@@ -9214,13 +9447,13 @@
         <v>768</v>
       </c>
       <c r="B224" t="s">
+        <v>808</v>
+      </c>
+      <c r="C224" t="s">
+        <v>809</v>
+      </c>
+      <c r="D224" t="s">
         <v>810</v>
-      </c>
-      <c r="C224" t="s">
-        <v>811</v>
-      </c>
-      <c r="D224" t="s">
-        <v>812</v>
       </c>
       <c r="F224">
         <f t="shared" si="3"/>
@@ -9232,13 +9465,13 @@
         <v>772</v>
       </c>
       <c r="B225" t="s">
+        <v>811</v>
+      </c>
+      <c r="C225" t="s">
+        <v>812</v>
+      </c>
+      <c r="D225" t="s">
         <v>813</v>
-      </c>
-      <c r="C225" t="s">
-        <v>814</v>
-      </c>
-      <c r="D225" t="s">
-        <v>815</v>
       </c>
       <c r="F225">
         <f t="shared" si="3"/>
@@ -9250,13 +9483,13 @@
         <v>776</v>
       </c>
       <c r="B226" t="s">
+        <v>814</v>
+      </c>
+      <c r="C226" t="s">
+        <v>815</v>
+      </c>
+      <c r="D226" t="s">
         <v>816</v>
-      </c>
-      <c r="C226" t="s">
-        <v>817</v>
-      </c>
-      <c r="D226" t="s">
-        <v>818</v>
       </c>
       <c r="F226">
         <f t="shared" si="3"/>
@@ -9268,13 +9501,13 @@
         <v>780</v>
       </c>
       <c r="B227" t="s">
+        <v>817</v>
+      </c>
+      <c r="C227" t="s">
+        <v>818</v>
+      </c>
+      <c r="D227" t="s">
         <v>819</v>
-      </c>
-      <c r="C227" t="s">
-        <v>820</v>
-      </c>
-      <c r="D227" t="s">
-        <v>821</v>
       </c>
       <c r="F227">
         <f t="shared" si="3"/>
@@ -9286,13 +9519,13 @@
         <v>788</v>
       </c>
       <c r="B228" t="s">
+        <v>820</v>
+      </c>
+      <c r="C228" t="s">
+        <v>821</v>
+      </c>
+      <c r="D228" t="s">
         <v>822</v>
-      </c>
-      <c r="C228" t="s">
-        <v>823</v>
-      </c>
-      <c r="D228" t="s">
-        <v>824</v>
       </c>
       <c r="F228">
         <f t="shared" si="3"/>
@@ -9304,13 +9537,13 @@
         <v>792</v>
       </c>
       <c r="B229" t="s">
+        <v>823</v>
+      </c>
+      <c r="C229" t="s">
+        <v>824</v>
+      </c>
+      <c r="D229" t="s">
         <v>825</v>
-      </c>
-      <c r="C229" t="s">
-        <v>826</v>
-      </c>
-      <c r="D229" t="s">
-        <v>827</v>
       </c>
       <c r="F229">
         <f t="shared" si="3"/>
@@ -9322,13 +9555,13 @@
         <v>795</v>
       </c>
       <c r="B230" t="s">
+        <v>826</v>
+      </c>
+      <c r="C230" t="s">
+        <v>827</v>
+      </c>
+      <c r="D230" t="s">
         <v>828</v>
-      </c>
-      <c r="C230" t="s">
-        <v>829</v>
-      </c>
-      <c r="D230" t="s">
-        <v>830</v>
       </c>
       <c r="F230">
         <f t="shared" si="3"/>
@@ -9340,13 +9573,13 @@
         <v>796</v>
       </c>
       <c r="B231" t="s">
+        <v>829</v>
+      </c>
+      <c r="C231" t="s">
+        <v>830</v>
+      </c>
+      <c r="D231" t="s">
         <v>831</v>
-      </c>
-      <c r="C231" t="s">
-        <v>832</v>
-      </c>
-      <c r="D231" t="s">
-        <v>833</v>
       </c>
       <c r="F231">
         <f t="shared" si="3"/>
@@ -9358,13 +9591,13 @@
         <v>798</v>
       </c>
       <c r="B232" t="s">
+        <v>832</v>
+      </c>
+      <c r="C232" t="s">
+        <v>833</v>
+      </c>
+      <c r="D232" t="s">
         <v>834</v>
-      </c>
-      <c r="C232" t="s">
-        <v>835</v>
-      </c>
-      <c r="D232" t="s">
-        <v>836</v>
       </c>
       <c r="F232">
         <f t="shared" si="3"/>
@@ -9376,13 +9609,13 @@
         <v>800</v>
       </c>
       <c r="B233" t="s">
+        <v>835</v>
+      </c>
+      <c r="C233" t="s">
+        <v>836</v>
+      </c>
+      <c r="D233" t="s">
         <v>837</v>
-      </c>
-      <c r="C233" t="s">
-        <v>838</v>
-      </c>
-      <c r="D233" t="s">
-        <v>839</v>
       </c>
       <c r="F233">
         <f t="shared" si="3"/>
@@ -9394,13 +9627,13 @@
         <v>804</v>
       </c>
       <c r="B234" t="s">
+        <v>838</v>
+      </c>
+      <c r="C234" t="s">
+        <v>839</v>
+      </c>
+      <c r="D234" t="s">
         <v>840</v>
-      </c>
-      <c r="C234" t="s">
-        <v>841</v>
-      </c>
-      <c r="D234" t="s">
-        <v>842</v>
       </c>
       <c r="F234">
         <f t="shared" si="3"/>
@@ -9412,13 +9645,13 @@
         <v>784</v>
       </c>
       <c r="B235" t="s">
+        <v>841</v>
+      </c>
+      <c r="C235" t="s">
+        <v>842</v>
+      </c>
+      <c r="D235" t="s">
         <v>843</v>
-      </c>
-      <c r="C235" t="s">
-        <v>844</v>
-      </c>
-      <c r="D235" t="s">
-        <v>845</v>
       </c>
       <c r="F235">
         <f t="shared" si="3"/>
@@ -9430,13 +9663,13 @@
         <v>826</v>
       </c>
       <c r="B236" t="s">
+        <v>844</v>
+      </c>
+      <c r="C236" t="s">
+        <v>845</v>
+      </c>
+      <c r="D236" t="s">
         <v>846</v>
-      </c>
-      <c r="C236" t="s">
-        <v>847</v>
-      </c>
-      <c r="D236" t="s">
-        <v>848</v>
       </c>
       <c r="F236">
         <f t="shared" si="3"/>
@@ -9448,13 +9681,13 @@
         <v>581</v>
       </c>
       <c r="B237" t="s">
+        <v>847</v>
+      </c>
+      <c r="C237" t="s">
+        <v>848</v>
+      </c>
+      <c r="D237" t="s">
         <v>849</v>
-      </c>
-      <c r="C237" t="s">
-        <v>850</v>
-      </c>
-      <c r="D237" t="s">
-        <v>851</v>
       </c>
       <c r="F237">
         <f t="shared" si="3"/>
@@ -9466,13 +9699,13 @@
         <v>840</v>
       </c>
       <c r="B238" t="s">
+        <v>850</v>
+      </c>
+      <c r="C238" t="s">
+        <v>851</v>
+      </c>
+      <c r="D238" t="s">
         <v>852</v>
-      </c>
-      <c r="C238" t="s">
-        <v>853</v>
-      </c>
-      <c r="D238" t="s">
-        <v>854</v>
       </c>
       <c r="F238">
         <f t="shared" si="3"/>
@@ -9484,13 +9717,13 @@
         <v>858</v>
       </c>
       <c r="B239" t="s">
+        <v>853</v>
+      </c>
+      <c r="C239" t="s">
+        <v>854</v>
+      </c>
+      <c r="D239" t="s">
         <v>855</v>
-      </c>
-      <c r="C239" t="s">
-        <v>856</v>
-      </c>
-      <c r="D239" t="s">
-        <v>857</v>
       </c>
       <c r="F239">
         <f t="shared" si="3"/>
@@ -9502,13 +9735,13 @@
         <v>860</v>
       </c>
       <c r="B240" t="s">
+        <v>856</v>
+      </c>
+      <c r="C240" t="s">
+        <v>857</v>
+      </c>
+      <c r="D240" t="s">
         <v>858</v>
-      </c>
-      <c r="C240" t="s">
-        <v>859</v>
-      </c>
-      <c r="D240" t="s">
-        <v>860</v>
       </c>
       <c r="F240">
         <f t="shared" si="3"/>
@@ -9520,13 +9753,13 @@
         <v>548</v>
       </c>
       <c r="B241" t="s">
+        <v>859</v>
+      </c>
+      <c r="C241" t="s">
+        <v>860</v>
+      </c>
+      <c r="D241" t="s">
         <v>861</v>
-      </c>
-      <c r="C241" t="s">
-        <v>862</v>
-      </c>
-      <c r="D241" t="s">
-        <v>863</v>
       </c>
       <c r="F241">
         <f t="shared" si="3"/>
@@ -9538,13 +9771,13 @@
         <v>862</v>
       </c>
       <c r="B242" t="s">
+        <v>862</v>
+      </c>
+      <c r="C242" t="s">
+        <v>863</v>
+      </c>
+      <c r="D242" t="s">
         <v>864</v>
-      </c>
-      <c r="C242" t="s">
-        <v>865</v>
-      </c>
-      <c r="D242" t="s">
-        <v>866</v>
       </c>
       <c r="F242">
         <f t="shared" si="3"/>
@@ -9556,13 +9789,13 @@
         <v>704</v>
       </c>
       <c r="B243" t="s">
+        <v>865</v>
+      </c>
+      <c r="C243" t="s">
+        <v>866</v>
+      </c>
+      <c r="D243" t="s">
         <v>867</v>
-      </c>
-      <c r="C243" t="s">
-        <v>868</v>
-      </c>
-      <c r="D243" t="s">
-        <v>869</v>
       </c>
       <c r="F243">
         <f t="shared" si="3"/>
@@ -9574,13 +9807,13 @@
         <v>92</v>
       </c>
       <c r="B244" t="s">
+        <v>868</v>
+      </c>
+      <c r="C244" t="s">
+        <v>869</v>
+      </c>
+      <c r="D244" t="s">
         <v>870</v>
-      </c>
-      <c r="C244" t="s">
-        <v>871</v>
-      </c>
-      <c r="D244" t="s">
-        <v>872</v>
       </c>
       <c r="F244">
         <f t="shared" si="3"/>
@@ -9592,13 +9825,13 @@
         <v>850</v>
       </c>
       <c r="B245" t="s">
+        <v>871</v>
+      </c>
+      <c r="C245" t="s">
+        <v>872</v>
+      </c>
+      <c r="D245" t="s">
         <v>873</v>
-      </c>
-      <c r="C245" t="s">
-        <v>874</v>
-      </c>
-      <c r="D245" t="s">
-        <v>875</v>
       </c>
       <c r="F245">
         <f t="shared" si="3"/>
@@ -9610,13 +9843,13 @@
         <v>876</v>
       </c>
       <c r="B246" t="s">
+        <v>874</v>
+      </c>
+      <c r="C246" t="s">
+        <v>875</v>
+      </c>
+      <c r="D246" t="s">
         <v>876</v>
-      </c>
-      <c r="C246" t="s">
-        <v>877</v>
-      </c>
-      <c r="D246" t="s">
-        <v>878</v>
       </c>
       <c r="F246">
         <f t="shared" si="3"/>
@@ -9628,13 +9861,13 @@
         <v>732</v>
       </c>
       <c r="B247" t="s">
+        <v>877</v>
+      </c>
+      <c r="C247" t="s">
+        <v>878</v>
+      </c>
+      <c r="D247" t="s">
         <v>879</v>
-      </c>
-      <c r="C247" t="s">
-        <v>880</v>
-      </c>
-      <c r="D247" t="s">
-        <v>881</v>
       </c>
       <c r="F247">
         <f t="shared" si="3"/>
@@ -9646,13 +9879,13 @@
         <v>887</v>
       </c>
       <c r="B248" t="s">
+        <v>880</v>
+      </c>
+      <c r="C248" t="s">
+        <v>881</v>
+      </c>
+      <c r="D248" t="s">
         <v>882</v>
-      </c>
-      <c r="C248" t="s">
-        <v>883</v>
-      </c>
-      <c r="D248" t="s">
-        <v>884</v>
       </c>
       <c r="F248">
         <f t="shared" si="3"/>
@@ -9664,13 +9897,13 @@
         <v>894</v>
       </c>
       <c r="B249" t="s">
+        <v>883</v>
+      </c>
+      <c r="C249" t="s">
+        <v>884</v>
+      </c>
+      <c r="D249" t="s">
         <v>885</v>
-      </c>
-      <c r="C249" t="s">
-        <v>886</v>
-      </c>
-      <c r="D249" t="s">
-        <v>887</v>
       </c>
       <c r="F249">
         <f t="shared" si="3"/>
@@ -9682,13 +9915,13 @@
         <v>716</v>
       </c>
       <c r="B250" t="s">
+        <v>886</v>
+      </c>
+      <c r="C250" t="s">
+        <v>887</v>
+      </c>
+      <c r="D250" t="s">
         <v>888</v>
-      </c>
-      <c r="C250" t="s">
-        <v>889</v>
-      </c>
-      <c r="D250" t="s">
-        <v>890</v>
       </c>
       <c r="F250">
         <f t="shared" si="3"/>
@@ -9700,13 +9933,13 @@
         <v>248</v>
       </c>
       <c r="B251" t="s">
+        <v>889</v>
+      </c>
+      <c r="C251" t="s">
+        <v>890</v>
+      </c>
+      <c r="D251" t="s">
         <v>891</v>
-      </c>
-      <c r="C251" t="s">
-        <v>892</v>
-      </c>
-      <c r="D251" t="s">
-        <v>893</v>
       </c>
       <c r="F251">
         <f t="shared" si="3"/>
@@ -9732,7 +9965,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3:A30"/>
       <selection pane="topRight" activeCell="A3" sqref="A3:A30"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3:A30"/>

--- a/DB_ImportFields.xlsx
+++ b/DB_ImportFields.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="860" windowWidth="24720" windowHeight="16580" tabRatio="678" activeTab="3"/>
+    <workbookView xWindow="880" yWindow="860" windowWidth="24720" windowHeight="16580" tabRatio="678" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="allg" sheetId="8" r:id="rId1"/>
-    <sheet name="SustDomain" sheetId="17" r:id="rId2"/>
-    <sheet name="SustCat" sheetId="15" r:id="rId3"/>
-    <sheet name="Tags" sheetId="4" r:id="rId4"/>
-    <sheet name="Country" sheetId="26" r:id="rId5"/>
-    <sheet name="Subcat_DE" sheetId="14" r:id="rId6"/>
+    <sheet name="SustTendency" sheetId="27" r:id="rId2"/>
+    <sheet name="SustDomain" sheetId="17" r:id="rId3"/>
+    <sheet name="SustCat" sheetId="15" r:id="rId4"/>
+    <sheet name="Tags" sheetId="4" r:id="rId5"/>
+    <sheet name="Country" sheetId="26" r:id="rId6"/>
+    <sheet name="Subcat_DE" sheetId="14" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Subcat_DE!$A$1:$F$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Tags!$A$1:$E$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">Subcat_DE!$B:$D</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Subcat_DE!$A$1:$F$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Tags!$A$1:$E$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">Subcat_DE!$B:$D</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="928">
   <si>
     <t>People</t>
   </si>
@@ -2823,6 +2824,9 @@
   </si>
   <si>
     <t>Involvement In third World Debt</t>
+  </si>
+  <si>
+    <t>Controversial</t>
   </si>
 </sst>
 </file>
@@ -4160,10 +4164,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -4181,11 +4185,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D6" si="0">LEN(B3)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4193,11 +4197,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4205,35 +4209,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>927</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7">
-        <f>LEN(B7)</f>
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4249,359 +4229,80 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>133</v>
       </c>
       <c r="B1" t="s">
         <v>132</v>
       </c>
-      <c r="C1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" t="s">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <f>LEN(B3)</f>
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <f>LEN(C3)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <f t="shared" ref="D3:D6" si="0">LEN(B3)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ref="F4:G16" si="0">LEN(B4)</f>
-        <v>14</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="F17">
-        <f>LEN(B17)</f>
-        <v>31</v>
-      </c>
-      <c r="G17">
-        <f>LEN(C17)</f>
-        <v>31</v>
+        <f>LEN(B7)</f>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -4617,17 +4318,385 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>LEN(B3)</f>
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <f>LEN(C3)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:G16" si="0">LEN(B4)</f>
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <f>LEN(B17)</f>
+        <v>31</v>
+      </c>
+      <c r="G17">
+        <f>LEN(C17)</f>
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -5298,132 +5367,6 @@
       </c>
       <c r="E36" s="15"/>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="41"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="41"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="41"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="41"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="41"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="41"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="41"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="41"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="41"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="41"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="41"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="41"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="41"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="41"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="41"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="41"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="41"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="41"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:E32"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5436,7 +5379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F251"/>
   <sheetViews>
@@ -9956,7 +9899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>

--- a/DB_ImportFields.xlsx
+++ b/DB_ImportFields.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="860" windowWidth="24720" windowHeight="16580" tabRatio="678" activeTab="4"/>
+    <workbookView xWindow="880" yWindow="860" windowWidth="24720" windowHeight="16580" tabRatio="678" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="allg" sheetId="8" r:id="rId1"/>
@@ -396,48 +396,18 @@
     <t>Umwelt positiv allgemein</t>
   </si>
   <si>
-    <t>People positiv</t>
-  </si>
-  <si>
-    <t>People negativ</t>
-  </si>
-  <si>
     <t>People controversial</t>
   </si>
   <si>
-    <t>Animal positiv</t>
-  </si>
-  <si>
-    <t>Animal negativ</t>
-  </si>
-  <si>
     <t>Animal controversial</t>
   </si>
   <si>
-    <t>Environment positiv</t>
-  </si>
-  <si>
-    <t>Environment negativ</t>
-  </si>
-  <si>
     <t>Environment controversial</t>
   </si>
   <si>
-    <t>Politics positiv</t>
-  </si>
-  <si>
-    <t>Politics negativ</t>
-  </si>
-  <si>
     <t>Politics controversial</t>
   </si>
   <si>
-    <t>Products&amp;Services positiv</t>
-  </si>
-  <si>
-    <t>Products&amp;Services negativ</t>
-  </si>
-  <si>
     <t>Products&amp;Services controversial</t>
   </si>
   <si>
@@ -2827,6 +2797,36 @@
   </si>
   <si>
     <t>Controversial</t>
+  </si>
+  <si>
+    <t>People positive</t>
+  </si>
+  <si>
+    <t>Animal positive</t>
+  </si>
+  <si>
+    <t>Environment positive</t>
+  </si>
+  <si>
+    <t>Politics positive</t>
+  </si>
+  <si>
+    <t>Products&amp;Services positive</t>
+  </si>
+  <si>
+    <t>People negative</t>
+  </si>
+  <si>
+    <t>Animal negative</t>
+  </si>
+  <si>
+    <t>Environment negative</t>
+  </si>
+  <si>
+    <t>Politics negative</t>
+  </si>
+  <si>
+    <t>Products&amp;Services negative</t>
   </si>
 </sst>
 </file>
@@ -4080,14 +4080,14 @@
         <v>46</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="6" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="J15" s="6"/>
     </row>
@@ -4174,10 +4174,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4188,7 +4188,7 @@
         <v>65</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D6" si="0">LEN(B3)</f>
+        <f t="shared" ref="D3:D5" si="0">LEN(B3)</f>
         <v>7</v>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
@@ -4239,10 +4239,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4262,7 +4262,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
@@ -4298,7 +4298,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D7">
         <f>LEN(B7)</f>
@@ -4320,8 +4320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -4331,16 +4331,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4348,21 +4348,21 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>918</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>918</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="F3">
         <f>LEN(B3)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <f>LEN(C3)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4370,21 +4370,21 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>923</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>923</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:G16" si="0">LEN(B4)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4392,10 +4392,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4414,21 +4414,21 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>919</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>919</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4436,21 +4436,21 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>924</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>924</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4458,10 +4458,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -4480,21 +4480,21 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>920</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>920</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4502,21 +4502,21 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>925</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>925</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4524,10 +4524,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -4546,21 +4546,21 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>921</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>921</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4568,21 +4568,21 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>926</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>926</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4590,10 +4590,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D14">
         <v>4</v>
@@ -4612,21 +4612,21 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>922</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>922</v>
       </c>
       <c r="D15">
         <v>5</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4634,21 +4634,21 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>927</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>927</v>
       </c>
       <c r="D16">
         <v>5</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4656,10 +4656,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -4691,7 +4691,7 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:XFD2"/>
@@ -4711,16 +4711,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="16" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>7</v>
@@ -4730,7 +4730,7 @@
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
       <c r="C2" s="37" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="39"/>
@@ -4740,13 +4740,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E3" s="15"/>
       <c r="G3" s="7">
@@ -4759,13 +4759,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E4" s="15"/>
       <c r="G4" s="7">
@@ -4781,7 +4781,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>23</v>
@@ -4800,7 +4800,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>24</v>
@@ -4816,13 +4816,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>60</v>
@@ -4840,7 +4840,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>13</v>
@@ -4859,7 +4859,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>18</v>
@@ -4878,7 +4878,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>20</v>
@@ -4897,7 +4897,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>19</v>
@@ -4916,7 +4916,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>8</v>
@@ -4935,10 +4935,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="E13" s="15"/>
       <c r="G13" s="7">
@@ -4954,10 +4954,10 @@
         <v>21</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="7">
@@ -4973,10 +4973,10 @@
         <v>22</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="E15" s="15"/>
       <c r="G15" s="7">
@@ -4992,7 +4992,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>37</v>
@@ -5011,7 +5011,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>9</v>
@@ -5030,7 +5030,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>14</v>
@@ -5049,7 +5049,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>10</v>
@@ -5068,7 +5068,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>15</v>
@@ -5084,10 +5084,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>17</v>
@@ -5106,7 +5106,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>11</v>
@@ -5122,13 +5122,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="C23" s="15" t="s">
+        <v>896</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>906</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>916</v>
       </c>
       <c r="E23" s="15"/>
       <c r="G23" s="7">
@@ -5141,13 +5141,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E24" s="15"/>
       <c r="G24" s="7">
@@ -5160,13 +5160,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="E25" s="15"/>
       <c r="G25" s="7">
@@ -5179,13 +5179,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="E26" s="15"/>
       <c r="G26" s="7">
@@ -5198,13 +5198,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E27" s="15"/>
       <c r="G27" s="7">
@@ -5217,13 +5217,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="7">
@@ -5236,13 +5236,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="E29" s="15"/>
       <c r="G29" s="7">
@@ -5255,10 +5255,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>59</v>
@@ -5277,7 +5277,7 @@
         <v>12</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>12</v>
@@ -5293,13 +5293,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E32" s="15"/>
       <c r="G32" s="7">
@@ -5312,13 +5312,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="E33" s="15"/>
     </row>
@@ -5327,13 +5327,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="E34" s="15"/>
     </row>
@@ -5342,13 +5342,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="E35" s="15"/>
     </row>
@@ -5357,13 +5357,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="E36" s="15"/>
     </row>
@@ -5391,16 +5391,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="D1" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="F1">
         <f>MAX(F3:F276)</f>
@@ -5412,13 +5412,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F65" si="0">LEN(B3)</f>
@@ -5430,13 +5430,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -5448,13 +5448,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -5466,13 +5466,13 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -5484,13 +5484,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -5502,13 +5502,13 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -5520,13 +5520,13 @@
         <v>660</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -5538,13 +5538,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D10" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -5556,13 +5556,13 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -5574,13 +5574,13 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D12" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -5592,13 +5592,13 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C13" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -5610,13 +5610,13 @@
         <v>533</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C14" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D14" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -5628,13 +5628,13 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -5646,13 +5646,13 @@
         <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C16" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D16" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -5664,13 +5664,13 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D17" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -5682,13 +5682,13 @@
         <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C18" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D18" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
@@ -5700,13 +5700,13 @@
         <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C19" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D19" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
@@ -5718,13 +5718,13 @@
         <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C20" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D20" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
@@ -5736,13 +5736,13 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C21" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D21" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
@@ -5754,13 +5754,13 @@
         <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C22" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D22" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
@@ -5772,13 +5772,13 @@
         <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C23" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D23" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
@@ -5790,13 +5790,13 @@
         <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C24" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D24" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
@@ -5808,13 +5808,13 @@
         <v>204</v>
       </c>
       <c r="B25" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C25" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D25" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
@@ -5826,13 +5826,13 @@
         <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C26" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D26" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
@@ -5844,13 +5844,13 @@
         <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C27" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D27" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
@@ -5862,13 +5862,13 @@
         <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C28" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D28" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
@@ -5880,13 +5880,13 @@
         <v>535</v>
       </c>
       <c r="B29" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C29" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D29" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
@@ -5898,13 +5898,13 @@
         <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C30" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D30" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
@@ -5916,13 +5916,13 @@
         <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C31" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D31" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
@@ -5934,13 +5934,13 @@
         <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C32" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D32" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
@@ -5952,13 +5952,13 @@
         <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C33" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D33" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
@@ -5970,13 +5970,13 @@
         <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C34" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D34" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
@@ -5988,13 +5988,13 @@
         <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C35" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D35" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
@@ -6006,13 +6006,13 @@
         <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C36" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D36" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
@@ -6024,13 +6024,13 @@
         <v>854</v>
       </c>
       <c r="B37" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C37" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D37" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
@@ -6042,13 +6042,13 @@
         <v>108</v>
       </c>
       <c r="B38" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C38" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D38" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
@@ -6060,13 +6060,13 @@
         <v>132</v>
       </c>
       <c r="B39" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C39" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D39" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
@@ -6078,13 +6078,13 @@
         <v>116</v>
       </c>
       <c r="B40" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C40" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D40" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
@@ -6096,13 +6096,13 @@
         <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C41" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D41" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
@@ -6114,13 +6114,13 @@
         <v>124</v>
       </c>
       <c r="B42" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C42" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D42" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
@@ -6132,13 +6132,13 @@
         <v>136</v>
       </c>
       <c r="B43" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C43" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D43" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="F43">
         <f t="shared" si="0"/>
@@ -6150,13 +6150,13 @@
         <v>140</v>
       </c>
       <c r="B44" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C44" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D44" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F44">
         <f t="shared" si="0"/>
@@ -6168,13 +6168,13 @@
         <v>148</v>
       </c>
       <c r="B45" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C45" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D45" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F45">
         <f t="shared" si="0"/>
@@ -6186,13 +6186,13 @@
         <v>152</v>
       </c>
       <c r="B46" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C46" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D46" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="F46">
         <f t="shared" si="0"/>
@@ -6204,13 +6204,13 @@
         <v>156</v>
       </c>
       <c r="B47" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C47" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D47" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="F47">
         <f t="shared" si="0"/>
@@ -6222,13 +6222,13 @@
         <v>162</v>
       </c>
       <c r="B48" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C48" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D48" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F48">
         <f t="shared" si="0"/>
@@ -6240,13 +6240,13 @@
         <v>166</v>
       </c>
       <c r="B49" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C49" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D49" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F49">
         <f t="shared" si="0"/>
@@ -6258,13 +6258,13 @@
         <v>170</v>
       </c>
       <c r="B50" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C50" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D50" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="F50">
         <f t="shared" si="0"/>
@@ -6276,13 +6276,13 @@
         <v>174</v>
       </c>
       <c r="B51" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C51" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D51" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="F51">
         <f t="shared" si="0"/>
@@ -6294,13 +6294,13 @@
         <v>180</v>
       </c>
       <c r="B52" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C52" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D52" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="F52">
         <f t="shared" si="0"/>
@@ -6312,13 +6312,13 @@
         <v>178</v>
       </c>
       <c r="B53" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C53" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D53" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F53">
         <f t="shared" si="0"/>
@@ -6330,13 +6330,13 @@
         <v>184</v>
       </c>
       <c r="B54" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C54" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D54" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F54">
         <f t="shared" si="0"/>
@@ -6348,13 +6348,13 @@
         <v>188</v>
       </c>
       <c r="B55" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C55" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D55" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F55">
         <f t="shared" si="0"/>
@@ -6366,13 +6366,13 @@
         <v>191</v>
       </c>
       <c r="B56" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C56" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D56" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
@@ -6384,13 +6384,13 @@
         <v>192</v>
       </c>
       <c r="B57" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C57" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="D57" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="F57">
         <f t="shared" si="0"/>
@@ -6402,13 +6402,13 @@
         <v>531</v>
       </c>
       <c r="B58" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C58" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D58" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F58">
         <f t="shared" si="0"/>
@@ -6420,13 +6420,13 @@
         <v>196</v>
       </c>
       <c r="B59" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C59" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="D59" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F59">
         <f t="shared" si="0"/>
@@ -6438,13 +6438,13 @@
         <v>203</v>
       </c>
       <c r="B60" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C60" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="D60" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F60">
         <f t="shared" si="0"/>
@@ -6456,13 +6456,13 @@
         <v>384</v>
       </c>
       <c r="B61" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C61" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D61" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F61">
         <f t="shared" si="0"/>
@@ -6474,13 +6474,13 @@
         <v>208</v>
       </c>
       <c r="B62" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C62" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="D62" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F62">
         <f t="shared" si="0"/>
@@ -6492,13 +6492,13 @@
         <v>262</v>
       </c>
       <c r="B63" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C63" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="D63" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F63">
         <f t="shared" si="0"/>
@@ -6510,13 +6510,13 @@
         <v>212</v>
       </c>
       <c r="B64" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C64" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D64" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="F64">
         <f t="shared" si="0"/>
@@ -6528,13 +6528,13 @@
         <v>214</v>
       </c>
       <c r="B65" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C65" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D65" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="F65">
         <f t="shared" si="0"/>
@@ -6546,13 +6546,13 @@
         <v>218</v>
       </c>
       <c r="B66" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C66" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D66" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="F66">
         <f t="shared" ref="F66:F129" si="1">LEN(B66)</f>
@@ -6564,13 +6564,13 @@
         <v>818</v>
       </c>
       <c r="B67" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C67" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="D67" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="F67">
         <f t="shared" si="1"/>
@@ -6582,13 +6582,13 @@
         <v>222</v>
       </c>
       <c r="B68" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C68" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="D68" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="F68">
         <f t="shared" si="1"/>
@@ -6600,13 +6600,13 @@
         <v>226</v>
       </c>
       <c r="B69" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C69" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D69" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="F69">
         <f t="shared" si="1"/>
@@ -6618,13 +6618,13 @@
         <v>232</v>
       </c>
       <c r="B70" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C70" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D70" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="F70">
         <f t="shared" si="1"/>
@@ -6636,13 +6636,13 @@
         <v>233</v>
       </c>
       <c r="B71" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C71" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D71" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="F71">
         <f t="shared" si="1"/>
@@ -6654,13 +6654,13 @@
         <v>748</v>
       </c>
       <c r="B72" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C72" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D72" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="F72">
         <f t="shared" si="1"/>
@@ -6672,13 +6672,13 @@
         <v>231</v>
       </c>
       <c r="B73" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C73" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D73" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="F73">
         <f t="shared" si="1"/>
@@ -6690,13 +6690,13 @@
         <v>238</v>
       </c>
       <c r="B74" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C74" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D74" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="F74">
         <f t="shared" si="1"/>
@@ -6708,13 +6708,13 @@
         <v>234</v>
       </c>
       <c r="B75" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C75" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="D75" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="F75">
         <f t="shared" si="1"/>
@@ -6726,13 +6726,13 @@
         <v>242</v>
       </c>
       <c r="B76" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C76" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D76" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="F76">
         <f t="shared" si="1"/>
@@ -6744,13 +6744,13 @@
         <v>246</v>
       </c>
       <c r="B77" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C77" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D77" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="F77">
         <f t="shared" si="1"/>
@@ -6762,13 +6762,13 @@
         <v>250</v>
       </c>
       <c r="B78" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C78" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="D78" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="F78">
         <f t="shared" si="1"/>
@@ -6780,13 +6780,13 @@
         <v>254</v>
       </c>
       <c r="B79" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C79" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D79" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="F79">
         <f t="shared" si="1"/>
@@ -6798,13 +6798,13 @@
         <v>258</v>
       </c>
       <c r="B80" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C80" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="D80" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="F80">
         <f t="shared" si="1"/>
@@ -6816,13 +6816,13 @@
         <v>260</v>
       </c>
       <c r="B81" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C81" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D81" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="F81">
         <f t="shared" si="1"/>
@@ -6834,13 +6834,13 @@
         <v>266</v>
       </c>
       <c r="B82" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C82" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D82" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F82">
         <f t="shared" si="1"/>
@@ -6852,13 +6852,13 @@
         <v>270</v>
       </c>
       <c r="B83" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C83" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D83" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F83">
         <f t="shared" si="1"/>
@@ -6870,13 +6870,13 @@
         <v>268</v>
       </c>
       <c r="B84" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="C84" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D84" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F84">
         <f t="shared" si="1"/>
@@ -6888,13 +6888,13 @@
         <v>276</v>
       </c>
       <c r="B85" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C85" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D85" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="F85">
         <f t="shared" si="1"/>
@@ -6906,13 +6906,13 @@
         <v>288</v>
       </c>
       <c r="B86" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C86" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D86" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="F86">
         <f t="shared" si="1"/>
@@ -6924,13 +6924,13 @@
         <v>292</v>
       </c>
       <c r="B87" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C87" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D87" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="F87">
         <f t="shared" si="1"/>
@@ -6942,13 +6942,13 @@
         <v>300</v>
       </c>
       <c r="B88" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C88" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="D88" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="F88">
         <f t="shared" si="1"/>
@@ -6960,13 +6960,13 @@
         <v>304</v>
       </c>
       <c r="B89" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C89" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="D89" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F89">
         <f t="shared" si="1"/>
@@ -6978,13 +6978,13 @@
         <v>308</v>
       </c>
       <c r="B90" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="C90" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D90" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="F90">
         <f t="shared" si="1"/>
@@ -6996,13 +6996,13 @@
         <v>312</v>
       </c>
       <c r="B91" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C91" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="D91" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F91">
         <f t="shared" si="1"/>
@@ -7014,13 +7014,13 @@
         <v>316</v>
       </c>
       <c r="B92" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C92" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D92" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="F92">
         <f t="shared" si="1"/>
@@ -7032,13 +7032,13 @@
         <v>320</v>
       </c>
       <c r="B93" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C93" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="D93" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F93">
         <f t="shared" si="1"/>
@@ -7050,13 +7050,13 @@
         <v>831</v>
       </c>
       <c r="B94" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C94" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="D94" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="F94">
         <f t="shared" si="1"/>
@@ -7068,13 +7068,13 @@
         <v>324</v>
       </c>
       <c r="B95" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="C95" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="D95" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="F95">
         <f t="shared" si="1"/>
@@ -7086,13 +7086,13 @@
         <v>624</v>
       </c>
       <c r="B96" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="C96" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="D96" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="F96">
         <f t="shared" si="1"/>
@@ -7104,13 +7104,13 @@
         <v>328</v>
       </c>
       <c r="B97" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="C97" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="D97" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="F97">
         <f t="shared" si="1"/>
@@ -7122,13 +7122,13 @@
         <v>332</v>
       </c>
       <c r="B98" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C98" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D98" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="F98">
         <f t="shared" si="1"/>
@@ -7140,13 +7140,13 @@
         <v>334</v>
       </c>
       <c r="B99" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C99" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D99" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="F99">
         <f t="shared" si="1"/>
@@ -7158,13 +7158,13 @@
         <v>336</v>
       </c>
       <c r="B100" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="C100" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="D100" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="F100">
         <f t="shared" si="1"/>
@@ -7176,13 +7176,13 @@
         <v>340</v>
       </c>
       <c r="B101" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="C101" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D101" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="F101">
         <f t="shared" si="1"/>
@@ -7194,13 +7194,13 @@
         <v>344</v>
       </c>
       <c r="B102" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C102" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="D102" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="F102">
         <f t="shared" si="1"/>
@@ -7212,13 +7212,13 @@
         <v>348</v>
       </c>
       <c r="B103" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="C103" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="D103" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="F103">
         <f t="shared" si="1"/>
@@ -7230,13 +7230,13 @@
         <v>352</v>
       </c>
       <c r="B104" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="C104" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="D104" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="F104">
         <f t="shared" si="1"/>
@@ -7248,13 +7248,13 @@
         <v>356</v>
       </c>
       <c r="B105" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C105" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="D105" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="F105">
         <f t="shared" si="1"/>
@@ -7266,13 +7266,13 @@
         <v>360</v>
       </c>
       <c r="B106" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C106" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="D106" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="F106">
         <f t="shared" si="1"/>
@@ -7284,13 +7284,13 @@
         <v>364</v>
       </c>
       <c r="B107" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="C107" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="D107" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F107">
         <f t="shared" si="1"/>
@@ -7302,13 +7302,13 @@
         <v>368</v>
       </c>
       <c r="B108" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="C108" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="D108" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="F108">
         <f t="shared" si="1"/>
@@ -7320,13 +7320,13 @@
         <v>372</v>
       </c>
       <c r="B109" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C109" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="D109" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="F109">
         <f t="shared" si="1"/>
@@ -7338,13 +7338,13 @@
         <v>833</v>
       </c>
       <c r="B110" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="C110" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D110" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="F110">
         <f t="shared" si="1"/>
@@ -7356,13 +7356,13 @@
         <v>376</v>
       </c>
       <c r="B111" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="C111" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="D111" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="F111">
         <f t="shared" si="1"/>
@@ -7374,13 +7374,13 @@
         <v>380</v>
       </c>
       <c r="B112" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="C112" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="D112" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="F112">
         <f t="shared" si="1"/>
@@ -7392,13 +7392,13 @@
         <v>388</v>
       </c>
       <c r="B113" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C113" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="D113" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="F113">
         <f t="shared" si="1"/>
@@ -7410,13 +7410,13 @@
         <v>392</v>
       </c>
       <c r="B114" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="C114" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="D114" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="F114">
         <f t="shared" si="1"/>
@@ -7428,13 +7428,13 @@
         <v>832</v>
       </c>
       <c r="B115" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="C115" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="D115" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F115">
         <f t="shared" si="1"/>
@@ -7446,13 +7446,13 @@
         <v>400</v>
       </c>
       <c r="B116" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C116" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D116" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="F116">
         <f t="shared" si="1"/>
@@ -7464,13 +7464,13 @@
         <v>398</v>
       </c>
       <c r="B117" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="C117" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="D117" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="F117">
         <f t="shared" si="1"/>
@@ -7482,13 +7482,13 @@
         <v>404</v>
       </c>
       <c r="B118" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="C118" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D118" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="F118">
         <f t="shared" si="1"/>
@@ -7500,13 +7500,13 @@
         <v>296</v>
       </c>
       <c r="B119" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="C119" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="D119" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="F119">
         <f t="shared" si="1"/>
@@ -7518,13 +7518,13 @@
         <v>408</v>
       </c>
       <c r="B120" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="C120" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D120" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="F120">
         <f t="shared" si="1"/>
@@ -7536,13 +7536,13 @@
         <v>410</v>
       </c>
       <c r="B121" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="C121" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="D121" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="F121">
         <f t="shared" si="1"/>
@@ -7554,13 +7554,13 @@
         <v>414</v>
       </c>
       <c r="B122" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C122" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="D122" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F122">
         <f t="shared" si="1"/>
@@ -7572,13 +7572,13 @@
         <v>417</v>
       </c>
       <c r="B123" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="C123" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="D123" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F123">
         <f t="shared" si="1"/>
@@ -7590,13 +7590,13 @@
         <v>418</v>
       </c>
       <c r="B124" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="C124" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="D124" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="F124">
         <f t="shared" si="1"/>
@@ -7608,13 +7608,13 @@
         <v>428</v>
       </c>
       <c r="B125" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="C125" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="D125" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="F125">
         <f t="shared" si="1"/>
@@ -7626,13 +7626,13 @@
         <v>422</v>
       </c>
       <c r="B126" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="C126" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="D126" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="F126">
         <f t="shared" si="1"/>
@@ -7644,13 +7644,13 @@
         <v>426</v>
       </c>
       <c r="B127" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="C127" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="D127" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="F127">
         <f t="shared" si="1"/>
@@ -7662,13 +7662,13 @@
         <v>430</v>
       </c>
       <c r="B128" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="C128" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="D128" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="F128">
         <f t="shared" si="1"/>
@@ -7680,13 +7680,13 @@
         <v>434</v>
       </c>
       <c r="B129" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C129" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="D129" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="F129">
         <f t="shared" si="1"/>
@@ -7698,13 +7698,13 @@
         <v>438</v>
       </c>
       <c r="B130" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="C130" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="D130" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="F130">
         <f t="shared" ref="F130:F193" si="2">LEN(B130)</f>
@@ -7716,13 +7716,13 @@
         <v>440</v>
       </c>
       <c r="B131" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="C131" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="D131" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="F131">
         <f t="shared" si="2"/>
@@ -7734,13 +7734,13 @@
         <v>442</v>
       </c>
       <c r="B132" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="C132" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="D132" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="F132">
         <f t="shared" si="2"/>
@@ -7752,13 +7752,13 @@
         <v>446</v>
       </c>
       <c r="B133" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="C133" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="D133" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F133">
         <f t="shared" si="2"/>
@@ -7770,13 +7770,13 @@
         <v>450</v>
       </c>
       <c r="B134" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="C134" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="D134" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="F134">
         <f t="shared" si="2"/>
@@ -7788,13 +7788,13 @@
         <v>454</v>
       </c>
       <c r="B135" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="C135" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="D135" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="F135">
         <f t="shared" si="2"/>
@@ -7806,13 +7806,13 @@
         <v>458</v>
       </c>
       <c r="B136" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="C136" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="D136" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="F136">
         <f t="shared" si="2"/>
@@ -7824,13 +7824,13 @@
         <v>462</v>
       </c>
       <c r="B137" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="C137" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="D137" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="F137">
         <f t="shared" si="2"/>
@@ -7842,13 +7842,13 @@
         <v>466</v>
       </c>
       <c r="B138" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="C138" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="D138" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="F138">
         <f t="shared" si="2"/>
@@ -7860,13 +7860,13 @@
         <v>470</v>
       </c>
       <c r="B139" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="C139" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="D139" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="F139">
         <f t="shared" si="2"/>
@@ -7878,13 +7878,13 @@
         <v>584</v>
       </c>
       <c r="B140" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="C140" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="D140" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="F140">
         <f t="shared" si="2"/>
@@ -7896,13 +7896,13 @@
         <v>474</v>
       </c>
       <c r="B141" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="C141" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="D141" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="F141">
         <f t="shared" si="2"/>
@@ -7914,13 +7914,13 @@
         <v>478</v>
       </c>
       <c r="B142" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="C142" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="D142" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="F142">
         <f t="shared" si="2"/>
@@ -7932,13 +7932,13 @@
         <v>480</v>
       </c>
       <c r="B143" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="C143" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="D143" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="F143">
         <f t="shared" si="2"/>
@@ -7950,13 +7950,13 @@
         <v>175</v>
       </c>
       <c r="B144" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="C144" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="D144" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="F144">
         <f t="shared" si="2"/>
@@ -7968,13 +7968,13 @@
         <v>484</v>
       </c>
       <c r="B145" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="C145" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="D145" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="F145">
         <f t="shared" si="2"/>
@@ -7986,13 +7986,13 @@
         <v>583</v>
       </c>
       <c r="B146" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="C146" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="D146" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="F146">
         <f t="shared" si="2"/>
@@ -8004,13 +8004,13 @@
         <v>498</v>
       </c>
       <c r="B147" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="C147" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="D147" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="F147">
         <f t="shared" si="2"/>
@@ -8022,13 +8022,13 @@
         <v>492</v>
       </c>
       <c r="B148" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="C148" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="D148" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="F148">
         <f t="shared" si="2"/>
@@ -8040,13 +8040,13 @@
         <v>496</v>
       </c>
       <c r="B149" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="C149" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="D149" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="F149">
         <f t="shared" si="2"/>
@@ -8058,13 +8058,13 @@
         <v>499</v>
       </c>
       <c r="B150" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="C150" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="D150" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="F150">
         <f t="shared" si="2"/>
@@ -8076,13 +8076,13 @@
         <v>500</v>
       </c>
       <c r="B151" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="C151" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="D151" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="F151">
         <f t="shared" si="2"/>
@@ -8094,13 +8094,13 @@
         <v>504</v>
       </c>
       <c r="B152" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C152" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="D152" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="F152">
         <f t="shared" si="2"/>
@@ -8112,13 +8112,13 @@
         <v>508</v>
       </c>
       <c r="B153" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="C153" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="D153" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="F153">
         <f t="shared" si="2"/>
@@ -8130,13 +8130,13 @@
         <v>104</v>
       </c>
       <c r="B154" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="C154" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="D154" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="F154">
         <f t="shared" si="2"/>
@@ -8148,13 +8148,13 @@
         <v>516</v>
       </c>
       <c r="B155" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="C155" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="D155" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="F155">
         <f t="shared" si="2"/>
@@ -8166,13 +8166,13 @@
         <v>520</v>
       </c>
       <c r="B156" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="C156" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="D156" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="F156">
         <f t="shared" si="2"/>
@@ -8184,13 +8184,13 @@
         <v>524</v>
       </c>
       <c r="B157" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="C157" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="D157" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="F157">
         <f t="shared" si="2"/>
@@ -8202,13 +8202,13 @@
         <v>528</v>
       </c>
       <c r="B158" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="C158" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="D158" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="F158">
         <f t="shared" si="2"/>
@@ -8220,13 +8220,13 @@
         <v>540</v>
       </c>
       <c r="B159" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="C159" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="D159" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="F159">
         <f t="shared" si="2"/>
@@ -8238,13 +8238,13 @@
         <v>554</v>
       </c>
       <c r="B160" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="C160" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="D160" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="F160">
         <f t="shared" si="2"/>
@@ -8256,13 +8256,13 @@
         <v>558</v>
       </c>
       <c r="B161" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="C161" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="D161" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="F161">
         <f t="shared" si="2"/>
@@ -8274,13 +8274,13 @@
         <v>562</v>
       </c>
       <c r="B162" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="C162" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="D162" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="F162">
         <f t="shared" si="2"/>
@@ -8292,13 +8292,13 @@
         <v>566</v>
       </c>
       <c r="B163" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="C163" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="D163" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="F163">
         <f t="shared" si="2"/>
@@ -8310,13 +8310,13 @@
         <v>570</v>
       </c>
       <c r="B164" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="C164" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="D164" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="F164">
         <f t="shared" si="2"/>
@@ -8328,13 +8328,13 @@
         <v>574</v>
       </c>
       <c r="B165" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="C165" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="D165" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="F165">
         <f t="shared" si="2"/>
@@ -8346,13 +8346,13 @@
         <v>580</v>
       </c>
       <c r="B166" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="C166" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="D166" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="F166">
         <f t="shared" si="2"/>
@@ -8364,13 +8364,13 @@
         <v>578</v>
       </c>
       <c r="B167" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="C167" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="D167" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="F167">
         <f t="shared" si="2"/>
@@ -8382,13 +8382,13 @@
         <v>512</v>
       </c>
       <c r="B168" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="C168" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="D168" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="F168">
         <f t="shared" si="2"/>
@@ -8400,13 +8400,13 @@
         <v>586</v>
       </c>
       <c r="B169" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="C169" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D169" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="F169">
         <f t="shared" si="2"/>
@@ -8418,13 +8418,13 @@
         <v>585</v>
       </c>
       <c r="B170" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="C170" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="D170" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="F170">
         <f t="shared" si="2"/>
@@ -8436,13 +8436,13 @@
         <v>275</v>
       </c>
       <c r="B171" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="C171" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="D171" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="F171">
         <f t="shared" si="2"/>
@@ -8454,13 +8454,13 @@
         <v>591</v>
       </c>
       <c r="B172" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="C172" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="D172" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="F172">
         <f t="shared" si="2"/>
@@ -8472,13 +8472,13 @@
         <v>598</v>
       </c>
       <c r="B173" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="C173" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="D173" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="F173">
         <f t="shared" si="2"/>
@@ -8490,13 +8490,13 @@
         <v>600</v>
       </c>
       <c r="B174" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="C174" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="D174" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="F174">
         <f t="shared" si="2"/>
@@ -8508,13 +8508,13 @@
         <v>604</v>
       </c>
       <c r="B175" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="C175" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="D175" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="F175">
         <f t="shared" si="2"/>
@@ -8526,13 +8526,13 @@
         <v>608</v>
       </c>
       <c r="B176" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="C176" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="D176" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="F176">
         <f t="shared" si="2"/>
@@ -8544,13 +8544,13 @@
         <v>612</v>
       </c>
       <c r="B177" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="C177" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="D177" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="F177">
         <f t="shared" si="2"/>
@@ -8562,13 +8562,13 @@
         <v>616</v>
       </c>
       <c r="B178" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="C178" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="D178" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="F178">
         <f t="shared" si="2"/>
@@ -8580,13 +8580,13 @@
         <v>620</v>
       </c>
       <c r="B179" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="C179" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="D179" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="F179">
         <f t="shared" si="2"/>
@@ -8598,13 +8598,13 @@
         <v>630</v>
       </c>
       <c r="B180" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="C180" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="D180" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="F180">
         <f t="shared" si="2"/>
@@ -8616,13 +8616,13 @@
         <v>634</v>
       </c>
       <c r="B181" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="C181" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="D181" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="F181">
         <f t="shared" si="2"/>
@@ -8634,13 +8634,13 @@
         <v>807</v>
       </c>
       <c r="B182" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="C182" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="D182" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="F182">
         <f t="shared" si="2"/>
@@ -8652,13 +8652,13 @@
         <v>642</v>
       </c>
       <c r="B183" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="C183" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="D183" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="F183">
         <f t="shared" si="2"/>
@@ -8670,13 +8670,13 @@
         <v>643</v>
       </c>
       <c r="B184" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="C184" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="D184" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="F184">
         <f t="shared" si="2"/>
@@ -8688,13 +8688,13 @@
         <v>646</v>
       </c>
       <c r="B185" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="C185" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="D185" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="F185">
         <f t="shared" si="2"/>
@@ -8706,13 +8706,13 @@
         <v>638</v>
       </c>
       <c r="B186" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C186" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="D186" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="F186">
         <f t="shared" si="2"/>
@@ -8724,13 +8724,13 @@
         <v>652</v>
       </c>
       <c r="B187" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="C187" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="D187" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="F187">
         <f t="shared" si="2"/>
@@ -8742,13 +8742,13 @@
         <v>654</v>
       </c>
       <c r="B188" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="C188" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="D188" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="F188">
         <f t="shared" si="2"/>
@@ -8760,13 +8760,13 @@
         <v>659</v>
       </c>
       <c r="B189" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="C189" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="D189" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="F189">
         <f t="shared" si="2"/>
@@ -8778,13 +8778,13 @@
         <v>662</v>
       </c>
       <c r="B190" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="C190" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="D190" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="F190">
         <f t="shared" si="2"/>
@@ -8796,13 +8796,13 @@
         <v>663</v>
       </c>
       <c r="B191" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="C191" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="D191" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="F191">
         <f t="shared" si="2"/>
@@ -8814,13 +8814,13 @@
         <v>666</v>
       </c>
       <c r="B192" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="C192" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="D192" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="F192">
         <f t="shared" si="2"/>
@@ -8832,13 +8832,13 @@
         <v>670</v>
       </c>
       <c r="B193" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="C193" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="D193" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="F193">
         <f t="shared" si="2"/>
@@ -8850,13 +8850,13 @@
         <v>882</v>
       </c>
       <c r="B194" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C194" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="D194" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="F194">
         <f t="shared" ref="F194:F251" si="3">LEN(B194)</f>
@@ -8868,13 +8868,13 @@
         <v>674</v>
       </c>
       <c r="B195" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="C195" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="D195" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="F195">
         <f t="shared" si="3"/>
@@ -8886,13 +8886,13 @@
         <v>678</v>
       </c>
       <c r="B196" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="C196" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="D196" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="F196">
         <f t="shared" si="3"/>
@@ -8904,13 +8904,13 @@
         <v>682</v>
       </c>
       <c r="B197" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="C197" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="D197" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="F197">
         <f t="shared" si="3"/>
@@ -8922,13 +8922,13 @@
         <v>686</v>
       </c>
       <c r="B198" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="C198" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="D198" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="F198">
         <f t="shared" si="3"/>
@@ -8940,13 +8940,13 @@
         <v>688</v>
       </c>
       <c r="B199" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="C199" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="D199" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="F199">
         <f t="shared" si="3"/>
@@ -8958,13 +8958,13 @@
         <v>690</v>
       </c>
       <c r="B200" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="C200" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="D200" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="F200">
         <f t="shared" si="3"/>
@@ -8976,13 +8976,13 @@
         <v>694</v>
       </c>
       <c r="B201" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="C201" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="D201" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="F201">
         <f t="shared" si="3"/>
@@ -8994,13 +8994,13 @@
         <v>702</v>
       </c>
       <c r="B202" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C202" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="D202" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="F202">
         <f t="shared" si="3"/>
@@ -9012,13 +9012,13 @@
         <v>534</v>
       </c>
       <c r="B203" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="C203" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="D203" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="F203">
         <f t="shared" si="3"/>
@@ -9030,13 +9030,13 @@
         <v>703</v>
       </c>
       <c r="B204" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="C204" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="D204" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="F204">
         <f t="shared" si="3"/>
@@ -9048,13 +9048,13 @@
         <v>705</v>
       </c>
       <c r="B205" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="C205" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="D205" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="F205">
         <f t="shared" si="3"/>
@@ -9066,13 +9066,13 @@
         <v>90</v>
       </c>
       <c r="B206" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="C206" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="D206" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="F206">
         <f t="shared" si="3"/>
@@ -9084,13 +9084,13 @@
         <v>706</v>
       </c>
       <c r="B207" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="C207" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="D207" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="F207">
         <f t="shared" si="3"/>
@@ -9102,13 +9102,13 @@
         <v>710</v>
       </c>
       <c r="B208" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="C208" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="D208" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="F208">
         <f t="shared" si="3"/>
@@ -9120,13 +9120,13 @@
         <v>239</v>
       </c>
       <c r="B209" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="C209" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="D209" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="F209">
         <f t="shared" si="3"/>
@@ -9138,13 +9138,13 @@
         <v>728</v>
       </c>
       <c r="B210" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="C210" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="D210" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="F210">
         <f t="shared" si="3"/>
@@ -9156,13 +9156,13 @@
         <v>724</v>
       </c>
       <c r="B211" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="C211" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="D211" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="F211">
         <f t="shared" si="3"/>
@@ -9174,13 +9174,13 @@
         <v>144</v>
       </c>
       <c r="B212" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="C212" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="D212" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="F212">
         <f t="shared" si="3"/>
@@ -9192,13 +9192,13 @@
         <v>729</v>
       </c>
       <c r="B213" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="C213" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="D213" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="F213">
         <f t="shared" si="3"/>
@@ -9210,13 +9210,13 @@
         <v>740</v>
       </c>
       <c r="B214" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="C214" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="D214" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="F214">
         <f t="shared" si="3"/>
@@ -9228,13 +9228,13 @@
         <v>744</v>
       </c>
       <c r="B215" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="C215" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="D215" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="F215">
         <f t="shared" si="3"/>
@@ -9246,13 +9246,13 @@
         <v>752</v>
       </c>
       <c r="B216" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="C216" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="D216" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="F216">
         <f t="shared" si="3"/>
@@ -9264,13 +9264,13 @@
         <v>756</v>
       </c>
       <c r="B217" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="C217" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="D217" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="F217">
         <f t="shared" si="3"/>
@@ -9282,13 +9282,13 @@
         <v>760</v>
       </c>
       <c r="B218" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="C218" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="D218" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="F218">
         <f t="shared" si="3"/>
@@ -9300,13 +9300,13 @@
         <v>158</v>
       </c>
       <c r="B219" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="C219" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="D219" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="F219">
         <f t="shared" si="3"/>
@@ -9318,13 +9318,13 @@
         <v>762</v>
       </c>
       <c r="B220" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="C220" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="D220" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="F220">
         <f t="shared" si="3"/>
@@ -9336,13 +9336,13 @@
         <v>834</v>
       </c>
       <c r="B221" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="C221" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="D221" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="F221">
         <f t="shared" si="3"/>
@@ -9354,13 +9354,13 @@
         <v>764</v>
       </c>
       <c r="B222" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="C222" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="D222" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="F222">
         <f t="shared" si="3"/>
@@ -9372,13 +9372,13 @@
         <v>626</v>
       </c>
       <c r="B223" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="C223" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="D223" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="F223">
         <f t="shared" si="3"/>
@@ -9390,13 +9390,13 @@
         <v>768</v>
       </c>
       <c r="B224" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="C224" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="D224" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="F224">
         <f t="shared" si="3"/>
@@ -9408,13 +9408,13 @@
         <v>772</v>
       </c>
       <c r="B225" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="C225" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="D225" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="F225">
         <f t="shared" si="3"/>
@@ -9426,13 +9426,13 @@
         <v>776</v>
       </c>
       <c r="B226" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="C226" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="D226" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="F226">
         <f t="shared" si="3"/>
@@ -9444,13 +9444,13 @@
         <v>780</v>
       </c>
       <c r="B227" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="C227" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="D227" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="F227">
         <f t="shared" si="3"/>
@@ -9462,13 +9462,13 @@
         <v>788</v>
       </c>
       <c r="B228" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="C228" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="D228" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="F228">
         <f t="shared" si="3"/>
@@ -9480,13 +9480,13 @@
         <v>792</v>
       </c>
       <c r="B229" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="C229" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="D229" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="F229">
         <f t="shared" si="3"/>
@@ -9498,13 +9498,13 @@
         <v>795</v>
       </c>
       <c r="B230" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="C230" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="D230" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="F230">
         <f t="shared" si="3"/>
@@ -9516,13 +9516,13 @@
         <v>796</v>
       </c>
       <c r="B231" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="C231" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="D231" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="F231">
         <f t="shared" si="3"/>
@@ -9534,13 +9534,13 @@
         <v>798</v>
       </c>
       <c r="B232" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="C232" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="D232" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="F232">
         <f t="shared" si="3"/>
@@ -9552,13 +9552,13 @@
         <v>800</v>
       </c>
       <c r="B233" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="C233" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="D233" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="F233">
         <f t="shared" si="3"/>
@@ -9570,13 +9570,13 @@
         <v>804</v>
       </c>
       <c r="B234" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="C234" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="D234" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="F234">
         <f t="shared" si="3"/>
@@ -9588,13 +9588,13 @@
         <v>784</v>
       </c>
       <c r="B235" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="C235" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="D235" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="F235">
         <f t="shared" si="3"/>
@@ -9606,13 +9606,13 @@
         <v>826</v>
       </c>
       <c r="B236" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="C236" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="D236" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="F236">
         <f t="shared" si="3"/>
@@ -9624,13 +9624,13 @@
         <v>581</v>
       </c>
       <c r="B237" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="C237" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="D237" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="F237">
         <f t="shared" si="3"/>
@@ -9642,13 +9642,13 @@
         <v>840</v>
       </c>
       <c r="B238" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="C238" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="D238" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="F238">
         <f t="shared" si="3"/>
@@ -9660,13 +9660,13 @@
         <v>858</v>
       </c>
       <c r="B239" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="C239" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="D239" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="F239">
         <f t="shared" si="3"/>
@@ -9678,13 +9678,13 @@
         <v>860</v>
       </c>
       <c r="B240" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="C240" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="D240" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="F240">
         <f t="shared" si="3"/>
@@ -9696,13 +9696,13 @@
         <v>548</v>
       </c>
       <c r="B241" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="C241" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="D241" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="F241">
         <f t="shared" si="3"/>
@@ -9714,13 +9714,13 @@
         <v>862</v>
       </c>
       <c r="B242" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="C242" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="D242" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="F242">
         <f t="shared" si="3"/>
@@ -9732,13 +9732,13 @@
         <v>704</v>
       </c>
       <c r="B243" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="C243" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="D243" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="F243">
         <f t="shared" si="3"/>
@@ -9750,13 +9750,13 @@
         <v>92</v>
       </c>
       <c r="B244" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="C244" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="D244" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="F244">
         <f t="shared" si="3"/>
@@ -9768,13 +9768,13 @@
         <v>850</v>
       </c>
       <c r="B245" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="C245" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="D245" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="F245">
         <f t="shared" si="3"/>
@@ -9786,13 +9786,13 @@
         <v>876</v>
       </c>
       <c r="B246" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="C246" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="D246" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="F246">
         <f t="shared" si="3"/>
@@ -9804,13 +9804,13 @@
         <v>732</v>
       </c>
       <c r="B247" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="C247" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="D247" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="F247">
         <f t="shared" si="3"/>
@@ -9822,13 +9822,13 @@
         <v>887</v>
       </c>
       <c r="B248" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="C248" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="D248" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="F248">
         <f t="shared" si="3"/>
@@ -9840,13 +9840,13 @@
         <v>894</v>
       </c>
       <c r="B249" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="C249" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="D249" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="F249">
         <f t="shared" si="3"/>
@@ -9858,13 +9858,13 @@
         <v>716</v>
       </c>
       <c r="B250" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="C250" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="D250" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="F250">
         <f t="shared" si="3"/>
@@ -9876,13 +9876,13 @@
         <v>248</v>
       </c>
       <c r="B251" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="C251" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="D251" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="F251">
         <f t="shared" si="3"/>

--- a/DB_ImportFields.xlsx
+++ b/DB_ImportFields.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="860" windowWidth="24720" windowHeight="16580" tabRatio="678" activeTab="3"/>
+    <workbookView xWindow="580" yWindow="0" windowWidth="24720" windowHeight="16580" tabRatio="678" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="allg" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="927">
   <si>
     <t>People</t>
   </si>
@@ -2734,9 +2734,6 @@
   </si>
   <si>
     <t>11</t>
-  </si>
-  <si>
-    <t>10;1</t>
   </si>
   <si>
     <t>1;4;7</t>
@@ -4080,14 +4077,14 @@
         <v>46</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>912</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>913</v>
       </c>
       <c r="J15" s="6"/>
     </row>
@@ -4209,7 +4206,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
@@ -4320,7 +4317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -4348,10 +4345,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4370,10 +4367,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4414,10 +4411,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -4436,10 +4433,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C7" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -4480,10 +4477,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C9" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -4502,10 +4499,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C10" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -4546,10 +4543,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C12" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -4568,10 +4565,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C13" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -4612,10 +4609,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C15" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -4634,10 +4631,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C16" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -4691,12 +4688,12 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -4743,7 +4740,7 @@
         <v>128</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>128</v>
@@ -4762,7 +4759,7 @@
         <v>134</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>134</v>
@@ -4781,7 +4778,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>23</v>
@@ -4819,7 +4816,7 @@
         <v>892</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>892</v>
@@ -4840,7 +4837,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>13</v>
@@ -4859,7 +4856,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>18</v>
@@ -4878,7 +4875,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>20</v>
@@ -4897,7 +4894,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>19</v>
@@ -4916,7 +4913,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>8</v>
@@ -4935,7 +4932,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>887</v>
@@ -4954,7 +4951,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>888</v>
@@ -4973,7 +4970,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>889</v>
@@ -5122,13 +5119,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>896</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E23" s="15"/>
       <c r="G23" s="7">
@@ -5141,7 +5138,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>896</v>
@@ -5160,13 +5157,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>896</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E25" s="15"/>
       <c r="G25" s="7">
@@ -5179,13 +5176,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>896</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E26" s="15"/>
       <c r="G26" s="7">
@@ -5198,7 +5195,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>896</v>
@@ -5217,7 +5214,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>896</v>
@@ -5236,7 +5233,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>896</v>
@@ -5277,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>12</v>
@@ -5312,13 +5309,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C33" s="15" t="s">
+        <v>907</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>908</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>909</v>
       </c>
       <c r="E33" s="15"/>
     </row>
@@ -5327,13 +5324,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="15" t="s">
+        <v>906</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>907</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>908</v>
-      </c>
       <c r="D34" s="15" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E34" s="15"/>
     </row>
@@ -5342,13 +5339,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E35" s="15"/>
     </row>
@@ -5357,13 +5354,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>896</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E36" s="15"/>
     </row>

--- a/DB_ImportFields.xlsx
+++ b/DB_ImportFields.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="0" windowWidth="24720" windowHeight="16580" tabRatio="678" activeTab="4"/>
+    <workbookView xWindow="580" yWindow="0" windowWidth="24720" windowHeight="16580" tabRatio="678" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="allg" sheetId="8" r:id="rId1"/>
@@ -423,9 +423,6 @@
     <t>Animal</t>
   </si>
   <si>
-    <t>Products&amp;Services</t>
-  </si>
-  <si>
     <t>Sust_Domain</t>
   </si>
   <si>
@@ -2824,6 +2821,9 @@
   </si>
   <si>
     <t>Products&amp;Services negative</t>
+  </si>
+  <si>
+    <t>Products&amp; Services</t>
   </si>
 </sst>
 </file>
@@ -4077,14 +4077,14 @@
         <v>46</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>911</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>912</v>
       </c>
       <c r="J15" s="6"/>
     </row>
@@ -4206,7 +4206,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
@@ -4228,8 +4228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -4295,11 +4295,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>926</v>
       </c>
       <c r="D7">
         <f>LEN(B7)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -4337,7 +4337,7 @@
         <v>124</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4345,10 +4345,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4367,10 +4367,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4411,10 +4411,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -4433,10 +4433,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -4477,10 +4477,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C9" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -4499,10 +4499,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C10" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -4543,10 +4543,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C12" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -4565,10 +4565,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -4609,10 +4609,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C15" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -4631,10 +4631,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C16" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -4688,7 +4688,7 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:XFD2"/>
@@ -4714,10 +4714,10 @@
         <v>122</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>7</v>
@@ -4727,7 +4727,7 @@
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
       <c r="C2" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="39"/>
@@ -4737,13 +4737,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E3" s="15"/>
       <c r="G3" s="7">
@@ -4756,13 +4756,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E4" s="15"/>
       <c r="G4" s="7">
@@ -4778,7 +4778,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>23</v>
@@ -4797,7 +4797,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>24</v>
@@ -4813,13 +4813,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>60</v>
@@ -4837,7 +4837,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>13</v>
@@ -4856,7 +4856,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>18</v>
@@ -4875,7 +4875,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>20</v>
@@ -4894,7 +4894,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>19</v>
@@ -4913,7 +4913,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>8</v>
@@ -4932,10 +4932,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E13" s="15"/>
       <c r="G13" s="7">
@@ -4951,10 +4951,10 @@
         <v>21</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="7">
@@ -4970,10 +4970,10 @@
         <v>22</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E15" s="15"/>
       <c r="G15" s="7">
@@ -4989,7 +4989,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>37</v>
@@ -5008,7 +5008,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>9</v>
@@ -5027,7 +5027,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>14</v>
@@ -5046,7 +5046,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>10</v>
@@ -5065,7 +5065,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>15</v>
@@ -5081,10 +5081,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>17</v>
@@ -5103,7 +5103,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>11</v>
@@ -5119,13 +5119,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>903</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>895</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>904</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>896</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>905</v>
       </c>
       <c r="E23" s="15"/>
       <c r="G23" s="7">
@@ -5138,13 +5138,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E24" s="15"/>
       <c r="G24" s="7">
@@ -5157,13 +5157,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E25" s="15"/>
       <c r="G25" s="7">
@@ -5176,13 +5176,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E26" s="15"/>
       <c r="G26" s="7">
@@ -5195,13 +5195,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E27" s="15"/>
       <c r="G27" s="7">
@@ -5214,13 +5214,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="7">
@@ -5233,13 +5233,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E29" s="15"/>
       <c r="G29" s="7">
@@ -5252,10 +5252,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>59</v>
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>12</v>
@@ -5290,13 +5290,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E32" s="15"/>
       <c r="G32" s="7">
@@ -5309,13 +5309,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C33" s="15" t="s">
+        <v>906</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>907</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>908</v>
       </c>
       <c r="E33" s="15"/>
     </row>
@@ -5324,13 +5324,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="15" t="s">
+        <v>905</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>906</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>907</v>
-      </c>
       <c r="D34" s="15" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E34" s="15"/>
     </row>
@@ -5339,13 +5339,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E35" s="15"/>
     </row>
@@ -5354,13 +5354,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E36" s="15"/>
     </row>
@@ -5394,10 +5394,10 @@
         <v>122</v>
       </c>
       <c r="C1" t="s">
+        <v>881</v>
+      </c>
+      <c r="D1" t="s">
         <v>882</v>
-      </c>
-      <c r="D1" t="s">
-        <v>883</v>
       </c>
       <c r="F1">
         <f>MAX(F3:F276)</f>
@@ -5409,13 +5409,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" t="s">
         <v>135</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>136</v>
-      </c>
-      <c r="D3" t="s">
-        <v>137</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F65" si="0">LEN(B3)</f>
@@ -5427,13 +5427,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="s">
         <v>138</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>139</v>
-      </c>
-      <c r="D4" t="s">
-        <v>140</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -5445,13 +5445,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" t="s">
         <v>141</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>142</v>
-      </c>
-      <c r="D5" t="s">
-        <v>143</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -5463,13 +5463,13 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" t="s">
         <v>144</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>145</v>
-      </c>
-      <c r="D6" t="s">
-        <v>146</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -5481,13 +5481,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" t="s">
         <v>147</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>148</v>
-      </c>
-      <c r="D7" t="s">
-        <v>149</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -5499,13 +5499,13 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" t="s">
         <v>150</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>151</v>
-      </c>
-      <c r="D8" t="s">
-        <v>152</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -5517,13 +5517,13 @@
         <v>660</v>
       </c>
       <c r="B9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" t="s">
         <v>153</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>154</v>
-      </c>
-      <c r="D9" t="s">
-        <v>155</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -5535,13 +5535,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" t="s">
         <v>156</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>157</v>
-      </c>
-      <c r="D10" t="s">
-        <v>158</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -5553,13 +5553,13 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" t="s">
         <v>159</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>160</v>
-      </c>
-      <c r="D11" t="s">
-        <v>161</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -5571,13 +5571,13 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" t="s">
         <v>162</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>163</v>
-      </c>
-      <c r="D12" t="s">
-        <v>164</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -5589,13 +5589,13 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" t="s">
         <v>165</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>166</v>
-      </c>
-      <c r="D13" t="s">
-        <v>167</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -5607,13 +5607,13 @@
         <v>533</v>
       </c>
       <c r="B14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" t="s">
         <v>168</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>169</v>
-      </c>
-      <c r="D14" t="s">
-        <v>170</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -5625,13 +5625,13 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" t="s">
         <v>171</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>172</v>
-      </c>
-      <c r="D15" t="s">
-        <v>173</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -5643,13 +5643,13 @@
         <v>40</v>
       </c>
       <c r="B16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" t="s">
         <v>174</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>175</v>
-      </c>
-      <c r="D16" t="s">
-        <v>176</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -5661,13 +5661,13 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" t="s">
         <v>177</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>178</v>
-      </c>
-      <c r="D17" t="s">
-        <v>179</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -5679,13 +5679,13 @@
         <v>44</v>
       </c>
       <c r="B18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" t="s">
         <v>180</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>181</v>
-      </c>
-      <c r="D18" t="s">
-        <v>182</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
@@ -5697,13 +5697,13 @@
         <v>48</v>
       </c>
       <c r="B19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" t="s">
         <v>183</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>184</v>
-      </c>
-      <c r="D19" t="s">
-        <v>185</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
@@ -5715,13 +5715,13 @@
         <v>50</v>
       </c>
       <c r="B20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" t="s">
         <v>186</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>187</v>
-      </c>
-      <c r="D20" t="s">
-        <v>188</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
@@ -5733,13 +5733,13 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" t="s">
         <v>189</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>190</v>
-      </c>
-      <c r="D21" t="s">
-        <v>191</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
@@ -5751,13 +5751,13 @@
         <v>112</v>
       </c>
       <c r="B22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" t="s">
         <v>192</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>193</v>
-      </c>
-      <c r="D22" t="s">
-        <v>194</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
@@ -5769,13 +5769,13 @@
         <v>56</v>
       </c>
       <c r="B23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" t="s">
         <v>195</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>196</v>
-      </c>
-      <c r="D23" t="s">
-        <v>197</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
@@ -5787,13 +5787,13 @@
         <v>84</v>
       </c>
       <c r="B24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" t="s">
         <v>198</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>199</v>
-      </c>
-      <c r="D24" t="s">
-        <v>200</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
@@ -5805,13 +5805,13 @@
         <v>204</v>
       </c>
       <c r="B25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C25" t="s">
         <v>201</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>202</v>
-      </c>
-      <c r="D25" t="s">
-        <v>203</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
@@ -5823,13 +5823,13 @@
         <v>60</v>
       </c>
       <c r="B26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" t="s">
         <v>204</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>205</v>
-      </c>
-      <c r="D26" t="s">
-        <v>206</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
@@ -5841,13 +5841,13 @@
         <v>64</v>
       </c>
       <c r="B27" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" t="s">
         <v>207</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>208</v>
-      </c>
-      <c r="D27" t="s">
-        <v>209</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
@@ -5859,13 +5859,13 @@
         <v>68</v>
       </c>
       <c r="B28" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" t="s">
         <v>210</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>211</v>
-      </c>
-      <c r="D28" t="s">
-        <v>212</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
@@ -5877,13 +5877,13 @@
         <v>535</v>
       </c>
       <c r="B29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29" t="s">
         <v>213</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>214</v>
-      </c>
-      <c r="D29" t="s">
-        <v>215</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
@@ -5895,13 +5895,13 @@
         <v>70</v>
       </c>
       <c r="B30" t="s">
+        <v>215</v>
+      </c>
+      <c r="C30" t="s">
         <v>216</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>217</v>
-      </c>
-      <c r="D30" t="s">
-        <v>218</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
@@ -5913,13 +5913,13 @@
         <v>72</v>
       </c>
       <c r="B31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" t="s">
         <v>219</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>220</v>
-      </c>
-      <c r="D31" t="s">
-        <v>221</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
@@ -5931,13 +5931,13 @@
         <v>74</v>
       </c>
       <c r="B32" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" t="s">
         <v>222</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>223</v>
-      </c>
-      <c r="D32" t="s">
-        <v>224</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
@@ -5949,13 +5949,13 @@
         <v>76</v>
       </c>
       <c r="B33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C33" t="s">
         <v>225</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>226</v>
-      </c>
-      <c r="D33" t="s">
-        <v>227</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
@@ -5967,13 +5967,13 @@
         <v>86</v>
       </c>
       <c r="B34" t="s">
+        <v>227</v>
+      </c>
+      <c r="C34" t="s">
         <v>228</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>229</v>
-      </c>
-      <c r="D34" t="s">
-        <v>230</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
@@ -5985,13 +5985,13 @@
         <v>96</v>
       </c>
       <c r="B35" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" t="s">
         <v>231</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>232</v>
-      </c>
-      <c r="D35" t="s">
-        <v>233</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
@@ -6003,13 +6003,13 @@
         <v>100</v>
       </c>
       <c r="B36" t="s">
+        <v>233</v>
+      </c>
+      <c r="C36" t="s">
         <v>234</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>235</v>
-      </c>
-      <c r="D36" t="s">
-        <v>236</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
@@ -6021,13 +6021,13 @@
         <v>854</v>
       </c>
       <c r="B37" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37" t="s">
         <v>237</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>238</v>
-      </c>
-      <c r="D37" t="s">
-        <v>239</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
@@ -6039,13 +6039,13 @@
         <v>108</v>
       </c>
       <c r="B38" t="s">
+        <v>239</v>
+      </c>
+      <c r="C38" t="s">
         <v>240</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>241</v>
-      </c>
-      <c r="D38" t="s">
-        <v>242</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
@@ -6057,13 +6057,13 @@
         <v>132</v>
       </c>
       <c r="B39" t="s">
+        <v>242</v>
+      </c>
+      <c r="C39" t="s">
         <v>243</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>244</v>
-      </c>
-      <c r="D39" t="s">
-        <v>245</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
@@ -6075,13 +6075,13 @@
         <v>116</v>
       </c>
       <c r="B40" t="s">
+        <v>245</v>
+      </c>
+      <c r="C40" t="s">
         <v>246</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>247</v>
-      </c>
-      <c r="D40" t="s">
-        <v>248</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
@@ -6093,13 +6093,13 @@
         <v>120</v>
       </c>
       <c r="B41" t="s">
+        <v>248</v>
+      </c>
+      <c r="C41" t="s">
         <v>249</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>250</v>
-      </c>
-      <c r="D41" t="s">
-        <v>251</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
@@ -6111,13 +6111,13 @@
         <v>124</v>
       </c>
       <c r="B42" t="s">
+        <v>251</v>
+      </c>
+      <c r="C42" t="s">
         <v>252</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>253</v>
-      </c>
-      <c r="D42" t="s">
-        <v>254</v>
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
@@ -6129,13 +6129,13 @@
         <v>136</v>
       </c>
       <c r="B43" t="s">
+        <v>254</v>
+      </c>
+      <c r="C43" t="s">
         <v>255</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>256</v>
-      </c>
-      <c r="D43" t="s">
-        <v>257</v>
       </c>
       <c r="F43">
         <f t="shared" si="0"/>
@@ -6147,13 +6147,13 @@
         <v>140</v>
       </c>
       <c r="B44" t="s">
+        <v>257</v>
+      </c>
+      <c r="C44" t="s">
         <v>258</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>259</v>
-      </c>
-      <c r="D44" t="s">
-        <v>260</v>
       </c>
       <c r="F44">
         <f t="shared" si="0"/>
@@ -6165,13 +6165,13 @@
         <v>148</v>
       </c>
       <c r="B45" t="s">
+        <v>260</v>
+      </c>
+      <c r="C45" t="s">
         <v>261</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>262</v>
-      </c>
-      <c r="D45" t="s">
-        <v>263</v>
       </c>
       <c r="F45">
         <f t="shared" si="0"/>
@@ -6183,13 +6183,13 @@
         <v>152</v>
       </c>
       <c r="B46" t="s">
+        <v>263</v>
+      </c>
+      <c r="C46" t="s">
         <v>264</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>265</v>
-      </c>
-      <c r="D46" t="s">
-        <v>266</v>
       </c>
       <c r="F46">
         <f t="shared" si="0"/>
@@ -6201,13 +6201,13 @@
         <v>156</v>
       </c>
       <c r="B47" t="s">
+        <v>266</v>
+      </c>
+      <c r="C47" t="s">
         <v>267</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>268</v>
-      </c>
-      <c r="D47" t="s">
-        <v>269</v>
       </c>
       <c r="F47">
         <f t="shared" si="0"/>
@@ -6219,13 +6219,13 @@
         <v>162</v>
       </c>
       <c r="B48" t="s">
+        <v>269</v>
+      </c>
+      <c r="C48" t="s">
         <v>270</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>271</v>
-      </c>
-      <c r="D48" t="s">
-        <v>272</v>
       </c>
       <c r="F48">
         <f t="shared" si="0"/>
@@ -6237,13 +6237,13 @@
         <v>166</v>
       </c>
       <c r="B49" t="s">
+        <v>272</v>
+      </c>
+      <c r="C49" t="s">
         <v>273</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>274</v>
-      </c>
-      <c r="D49" t="s">
-        <v>275</v>
       </c>
       <c r="F49">
         <f t="shared" si="0"/>
@@ -6255,13 +6255,13 @@
         <v>170</v>
       </c>
       <c r="B50" t="s">
+        <v>275</v>
+      </c>
+      <c r="C50" t="s">
         <v>276</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>277</v>
-      </c>
-      <c r="D50" t="s">
-        <v>278</v>
       </c>
       <c r="F50">
         <f t="shared" si="0"/>
@@ -6273,13 +6273,13 @@
         <v>174</v>
       </c>
       <c r="B51" t="s">
+        <v>278</v>
+      </c>
+      <c r="C51" t="s">
         <v>279</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>280</v>
-      </c>
-      <c r="D51" t="s">
-        <v>281</v>
       </c>
       <c r="F51">
         <f t="shared" si="0"/>
@@ -6291,13 +6291,13 @@
         <v>180</v>
       </c>
       <c r="B52" t="s">
+        <v>281</v>
+      </c>
+      <c r="C52" t="s">
         <v>282</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>283</v>
-      </c>
-      <c r="D52" t="s">
-        <v>284</v>
       </c>
       <c r="F52">
         <f t="shared" si="0"/>
@@ -6309,13 +6309,13 @@
         <v>178</v>
       </c>
       <c r="B53" t="s">
+        <v>284</v>
+      </c>
+      <c r="C53" t="s">
         <v>285</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>286</v>
-      </c>
-      <c r="D53" t="s">
-        <v>287</v>
       </c>
       <c r="F53">
         <f t="shared" si="0"/>
@@ -6327,13 +6327,13 @@
         <v>184</v>
       </c>
       <c r="B54" t="s">
+        <v>287</v>
+      </c>
+      <c r="C54" t="s">
         <v>288</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>289</v>
-      </c>
-      <c r="D54" t="s">
-        <v>290</v>
       </c>
       <c r="F54">
         <f t="shared" si="0"/>
@@ -6345,13 +6345,13 @@
         <v>188</v>
       </c>
       <c r="B55" t="s">
+        <v>290</v>
+      </c>
+      <c r="C55" t="s">
         <v>291</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>292</v>
-      </c>
-      <c r="D55" t="s">
-        <v>293</v>
       </c>
       <c r="F55">
         <f t="shared" si="0"/>
@@ -6363,13 +6363,13 @@
         <v>191</v>
       </c>
       <c r="B56" t="s">
+        <v>293</v>
+      </c>
+      <c r="C56" t="s">
         <v>294</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>295</v>
-      </c>
-      <c r="D56" t="s">
-        <v>296</v>
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
@@ -6381,13 +6381,13 @@
         <v>192</v>
       </c>
       <c r="B57" t="s">
+        <v>296</v>
+      </c>
+      <c r="C57" t="s">
         <v>297</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>298</v>
-      </c>
-      <c r="D57" t="s">
-        <v>299</v>
       </c>
       <c r="F57">
         <f t="shared" si="0"/>
@@ -6399,13 +6399,13 @@
         <v>531</v>
       </c>
       <c r="B58" t="s">
+        <v>299</v>
+      </c>
+      <c r="C58" t="s">
         <v>300</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>301</v>
-      </c>
-      <c r="D58" t="s">
-        <v>302</v>
       </c>
       <c r="F58">
         <f t="shared" si="0"/>
@@ -6417,13 +6417,13 @@
         <v>196</v>
       </c>
       <c r="B59" t="s">
+        <v>302</v>
+      </c>
+      <c r="C59" t="s">
         <v>303</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>304</v>
-      </c>
-      <c r="D59" t="s">
-        <v>305</v>
       </c>
       <c r="F59">
         <f t="shared" si="0"/>
@@ -6435,13 +6435,13 @@
         <v>203</v>
       </c>
       <c r="B60" t="s">
+        <v>305</v>
+      </c>
+      <c r="C60" t="s">
         <v>306</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>307</v>
-      </c>
-      <c r="D60" t="s">
-        <v>308</v>
       </c>
       <c r="F60">
         <f t="shared" si="0"/>
@@ -6453,13 +6453,13 @@
         <v>384</v>
       </c>
       <c r="B61" t="s">
+        <v>308</v>
+      </c>
+      <c r="C61" t="s">
         <v>309</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>310</v>
-      </c>
-      <c r="D61" t="s">
-        <v>311</v>
       </c>
       <c r="F61">
         <f t="shared" si="0"/>
@@ -6471,13 +6471,13 @@
         <v>208</v>
       </c>
       <c r="B62" t="s">
+        <v>311</v>
+      </c>
+      <c r="C62" t="s">
         <v>312</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>313</v>
-      </c>
-      <c r="D62" t="s">
-        <v>314</v>
       </c>
       <c r="F62">
         <f t="shared" si="0"/>
@@ -6489,13 +6489,13 @@
         <v>262</v>
       </c>
       <c r="B63" t="s">
+        <v>314</v>
+      </c>
+      <c r="C63" t="s">
         <v>315</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>316</v>
-      </c>
-      <c r="D63" t="s">
-        <v>317</v>
       </c>
       <c r="F63">
         <f t="shared" si="0"/>
@@ -6507,13 +6507,13 @@
         <v>212</v>
       </c>
       <c r="B64" t="s">
+        <v>317</v>
+      </c>
+      <c r="C64" t="s">
         <v>318</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>319</v>
-      </c>
-      <c r="D64" t="s">
-        <v>320</v>
       </c>
       <c r="F64">
         <f t="shared" si="0"/>
@@ -6525,13 +6525,13 @@
         <v>214</v>
       </c>
       <c r="B65" t="s">
+        <v>320</v>
+      </c>
+      <c r="C65" t="s">
         <v>321</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>322</v>
-      </c>
-      <c r="D65" t="s">
-        <v>323</v>
       </c>
       <c r="F65">
         <f t="shared" si="0"/>
@@ -6543,13 +6543,13 @@
         <v>218</v>
       </c>
       <c r="B66" t="s">
+        <v>323</v>
+      </c>
+      <c r="C66" t="s">
         <v>324</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>325</v>
-      </c>
-      <c r="D66" t="s">
-        <v>326</v>
       </c>
       <c r="F66">
         <f t="shared" ref="F66:F129" si="1">LEN(B66)</f>
@@ -6561,13 +6561,13 @@
         <v>818</v>
       </c>
       <c r="B67" t="s">
+        <v>326</v>
+      </c>
+      <c r="C67" t="s">
         <v>327</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>328</v>
-      </c>
-      <c r="D67" t="s">
-        <v>329</v>
       </c>
       <c r="F67">
         <f t="shared" si="1"/>
@@ -6579,13 +6579,13 @@
         <v>222</v>
       </c>
       <c r="B68" t="s">
+        <v>329</v>
+      </c>
+      <c r="C68" t="s">
         <v>330</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>331</v>
-      </c>
-      <c r="D68" t="s">
-        <v>332</v>
       </c>
       <c r="F68">
         <f t="shared" si="1"/>
@@ -6597,13 +6597,13 @@
         <v>226</v>
       </c>
       <c r="B69" t="s">
+        <v>332</v>
+      </c>
+      <c r="C69" t="s">
         <v>333</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>334</v>
-      </c>
-      <c r="D69" t="s">
-        <v>335</v>
       </c>
       <c r="F69">
         <f t="shared" si="1"/>
@@ -6615,13 +6615,13 @@
         <v>232</v>
       </c>
       <c r="B70" t="s">
+        <v>335</v>
+      </c>
+      <c r="C70" t="s">
         <v>336</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>337</v>
-      </c>
-      <c r="D70" t="s">
-        <v>338</v>
       </c>
       <c r="F70">
         <f t="shared" si="1"/>
@@ -6633,13 +6633,13 @@
         <v>233</v>
       </c>
       <c r="B71" t="s">
+        <v>338</v>
+      </c>
+      <c r="C71" t="s">
         <v>339</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>340</v>
-      </c>
-      <c r="D71" t="s">
-        <v>341</v>
       </c>
       <c r="F71">
         <f t="shared" si="1"/>
@@ -6651,13 +6651,13 @@
         <v>748</v>
       </c>
       <c r="B72" t="s">
+        <v>341</v>
+      </c>
+      <c r="C72" t="s">
         <v>342</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>343</v>
-      </c>
-      <c r="D72" t="s">
-        <v>344</v>
       </c>
       <c r="F72">
         <f t="shared" si="1"/>
@@ -6669,13 +6669,13 @@
         <v>231</v>
       </c>
       <c r="B73" t="s">
+        <v>344</v>
+      </c>
+      <c r="C73" t="s">
         <v>345</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>346</v>
-      </c>
-      <c r="D73" t="s">
-        <v>347</v>
       </c>
       <c r="F73">
         <f t="shared" si="1"/>
@@ -6687,13 +6687,13 @@
         <v>238</v>
       </c>
       <c r="B74" t="s">
+        <v>347</v>
+      </c>
+      <c r="C74" t="s">
         <v>348</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>349</v>
-      </c>
-      <c r="D74" t="s">
-        <v>350</v>
       </c>
       <c r="F74">
         <f t="shared" si="1"/>
@@ -6705,13 +6705,13 @@
         <v>234</v>
       </c>
       <c r="B75" t="s">
+        <v>350</v>
+      </c>
+      <c r="C75" t="s">
         <v>351</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>352</v>
-      </c>
-      <c r="D75" t="s">
-        <v>353</v>
       </c>
       <c r="F75">
         <f t="shared" si="1"/>
@@ -6723,13 +6723,13 @@
         <v>242</v>
       </c>
       <c r="B76" t="s">
+        <v>353</v>
+      </c>
+      <c r="C76" t="s">
         <v>354</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>355</v>
-      </c>
-      <c r="D76" t="s">
-        <v>356</v>
       </c>
       <c r="F76">
         <f t="shared" si="1"/>
@@ -6741,13 +6741,13 @@
         <v>246</v>
       </c>
       <c r="B77" t="s">
+        <v>356</v>
+      </c>
+      <c r="C77" t="s">
         <v>357</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>358</v>
-      </c>
-      <c r="D77" t="s">
-        <v>359</v>
       </c>
       <c r="F77">
         <f t="shared" si="1"/>
@@ -6759,13 +6759,13 @@
         <v>250</v>
       </c>
       <c r="B78" t="s">
+        <v>359</v>
+      </c>
+      <c r="C78" t="s">
         <v>360</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>361</v>
-      </c>
-      <c r="D78" t="s">
-        <v>362</v>
       </c>
       <c r="F78">
         <f t="shared" si="1"/>
@@ -6777,13 +6777,13 @@
         <v>254</v>
       </c>
       <c r="B79" t="s">
+        <v>362</v>
+      </c>
+      <c r="C79" t="s">
         <v>363</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>364</v>
-      </c>
-      <c r="D79" t="s">
-        <v>365</v>
       </c>
       <c r="F79">
         <f t="shared" si="1"/>
@@ -6795,13 +6795,13 @@
         <v>258</v>
       </c>
       <c r="B80" t="s">
+        <v>365</v>
+      </c>
+      <c r="C80" t="s">
         <v>366</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>367</v>
-      </c>
-      <c r="D80" t="s">
-        <v>368</v>
       </c>
       <c r="F80">
         <f t="shared" si="1"/>
@@ -6813,13 +6813,13 @@
         <v>260</v>
       </c>
       <c r="B81" t="s">
+        <v>368</v>
+      </c>
+      <c r="C81" t="s">
         <v>369</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>370</v>
-      </c>
-      <c r="D81" t="s">
-        <v>371</v>
       </c>
       <c r="F81">
         <f t="shared" si="1"/>
@@ -6831,13 +6831,13 @@
         <v>266</v>
       </c>
       <c r="B82" t="s">
+        <v>371</v>
+      </c>
+      <c r="C82" t="s">
         <v>372</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>373</v>
-      </c>
-      <c r="D82" t="s">
-        <v>374</v>
       </c>
       <c r="F82">
         <f t="shared" si="1"/>
@@ -6849,13 +6849,13 @@
         <v>270</v>
       </c>
       <c r="B83" t="s">
+        <v>374</v>
+      </c>
+      <c r="C83" t="s">
         <v>375</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>376</v>
-      </c>
-      <c r="D83" t="s">
-        <v>377</v>
       </c>
       <c r="F83">
         <f t="shared" si="1"/>
@@ -6867,13 +6867,13 @@
         <v>268</v>
       </c>
       <c r="B84" t="s">
+        <v>377</v>
+      </c>
+      <c r="C84" t="s">
         <v>378</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>379</v>
-      </c>
-      <c r="D84" t="s">
-        <v>380</v>
       </c>
       <c r="F84">
         <f t="shared" si="1"/>
@@ -6885,13 +6885,13 @@
         <v>276</v>
       </c>
       <c r="B85" t="s">
+        <v>380</v>
+      </c>
+      <c r="C85" t="s">
         <v>381</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>382</v>
-      </c>
-      <c r="D85" t="s">
-        <v>383</v>
       </c>
       <c r="F85">
         <f t="shared" si="1"/>
@@ -6903,13 +6903,13 @@
         <v>288</v>
       </c>
       <c r="B86" t="s">
+        <v>383</v>
+      </c>
+      <c r="C86" t="s">
         <v>384</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>385</v>
-      </c>
-      <c r="D86" t="s">
-        <v>386</v>
       </c>
       <c r="F86">
         <f t="shared" si="1"/>
@@ -6921,13 +6921,13 @@
         <v>292</v>
       </c>
       <c r="B87" t="s">
+        <v>386</v>
+      </c>
+      <c r="C87" t="s">
         <v>387</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>388</v>
-      </c>
-      <c r="D87" t="s">
-        <v>389</v>
       </c>
       <c r="F87">
         <f t="shared" si="1"/>
@@ -6939,13 +6939,13 @@
         <v>300</v>
       </c>
       <c r="B88" t="s">
+        <v>389</v>
+      </c>
+      <c r="C88" t="s">
         <v>390</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>391</v>
-      </c>
-      <c r="D88" t="s">
-        <v>392</v>
       </c>
       <c r="F88">
         <f t="shared" si="1"/>
@@ -6957,13 +6957,13 @@
         <v>304</v>
       </c>
       <c r="B89" t="s">
+        <v>392</v>
+      </c>
+      <c r="C89" t="s">
         <v>393</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>394</v>
-      </c>
-      <c r="D89" t="s">
-        <v>395</v>
       </c>
       <c r="F89">
         <f t="shared" si="1"/>
@@ -6975,13 +6975,13 @@
         <v>308</v>
       </c>
       <c r="B90" t="s">
+        <v>395</v>
+      </c>
+      <c r="C90" t="s">
         <v>396</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>397</v>
-      </c>
-      <c r="D90" t="s">
-        <v>398</v>
       </c>
       <c r="F90">
         <f t="shared" si="1"/>
@@ -6993,13 +6993,13 @@
         <v>312</v>
       </c>
       <c r="B91" t="s">
+        <v>398</v>
+      </c>
+      <c r="C91" t="s">
         <v>399</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>400</v>
-      </c>
-      <c r="D91" t="s">
-        <v>401</v>
       </c>
       <c r="F91">
         <f t="shared" si="1"/>
@@ -7011,13 +7011,13 @@
         <v>316</v>
       </c>
       <c r="B92" t="s">
+        <v>401</v>
+      </c>
+      <c r="C92" t="s">
         <v>402</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>403</v>
-      </c>
-      <c r="D92" t="s">
-        <v>404</v>
       </c>
       <c r="F92">
         <f t="shared" si="1"/>
@@ -7029,13 +7029,13 @@
         <v>320</v>
       </c>
       <c r="B93" t="s">
+        <v>404</v>
+      </c>
+      <c r="C93" t="s">
         <v>405</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>406</v>
-      </c>
-      <c r="D93" t="s">
-        <v>407</v>
       </c>
       <c r="F93">
         <f t="shared" si="1"/>
@@ -7047,13 +7047,13 @@
         <v>831</v>
       </c>
       <c r="B94" t="s">
+        <v>407</v>
+      </c>
+      <c r="C94" t="s">
         <v>408</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>409</v>
-      </c>
-      <c r="D94" t="s">
-        <v>410</v>
       </c>
       <c r="F94">
         <f t="shared" si="1"/>
@@ -7065,13 +7065,13 @@
         <v>324</v>
       </c>
       <c r="B95" t="s">
+        <v>410</v>
+      </c>
+      <c r="C95" t="s">
         <v>411</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>412</v>
-      </c>
-      <c r="D95" t="s">
-        <v>413</v>
       </c>
       <c r="F95">
         <f t="shared" si="1"/>
@@ -7083,13 +7083,13 @@
         <v>624</v>
       </c>
       <c r="B96" t="s">
+        <v>413</v>
+      </c>
+      <c r="C96" t="s">
         <v>414</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>415</v>
-      </c>
-      <c r="D96" t="s">
-        <v>416</v>
       </c>
       <c r="F96">
         <f t="shared" si="1"/>
@@ -7101,13 +7101,13 @@
         <v>328</v>
       </c>
       <c r="B97" t="s">
+        <v>416</v>
+      </c>
+      <c r="C97" t="s">
         <v>417</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>418</v>
-      </c>
-      <c r="D97" t="s">
-        <v>419</v>
       </c>
       <c r="F97">
         <f t="shared" si="1"/>
@@ -7119,13 +7119,13 @@
         <v>332</v>
       </c>
       <c r="B98" t="s">
+        <v>419</v>
+      </c>
+      <c r="C98" t="s">
         <v>420</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>421</v>
-      </c>
-      <c r="D98" t="s">
-        <v>422</v>
       </c>
       <c r="F98">
         <f t="shared" si="1"/>
@@ -7137,13 +7137,13 @@
         <v>334</v>
       </c>
       <c r="B99" t="s">
+        <v>422</v>
+      </c>
+      <c r="C99" t="s">
         <v>423</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>424</v>
-      </c>
-      <c r="D99" t="s">
-        <v>425</v>
       </c>
       <c r="F99">
         <f t="shared" si="1"/>
@@ -7155,13 +7155,13 @@
         <v>336</v>
       </c>
       <c r="B100" t="s">
+        <v>425</v>
+      </c>
+      <c r="C100" t="s">
         <v>426</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>427</v>
-      </c>
-      <c r="D100" t="s">
-        <v>428</v>
       </c>
       <c r="F100">
         <f t="shared" si="1"/>
@@ -7173,13 +7173,13 @@
         <v>340</v>
       </c>
       <c r="B101" t="s">
+        <v>428</v>
+      </c>
+      <c r="C101" t="s">
         <v>429</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>430</v>
-      </c>
-      <c r="D101" t="s">
-        <v>431</v>
       </c>
       <c r="F101">
         <f t="shared" si="1"/>
@@ -7191,13 +7191,13 @@
         <v>344</v>
       </c>
       <c r="B102" t="s">
+        <v>431</v>
+      </c>
+      <c r="C102" t="s">
         <v>432</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>433</v>
-      </c>
-      <c r="D102" t="s">
-        <v>434</v>
       </c>
       <c r="F102">
         <f t="shared" si="1"/>
@@ -7209,13 +7209,13 @@
         <v>348</v>
       </c>
       <c r="B103" t="s">
+        <v>434</v>
+      </c>
+      <c r="C103" t="s">
         <v>435</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>436</v>
-      </c>
-      <c r="D103" t="s">
-        <v>437</v>
       </c>
       <c r="F103">
         <f t="shared" si="1"/>
@@ -7227,13 +7227,13 @@
         <v>352</v>
       </c>
       <c r="B104" t="s">
+        <v>437</v>
+      </c>
+      <c r="C104" t="s">
         <v>438</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>439</v>
-      </c>
-      <c r="D104" t="s">
-        <v>440</v>
       </c>
       <c r="F104">
         <f t="shared" si="1"/>
@@ -7245,13 +7245,13 @@
         <v>356</v>
       </c>
       <c r="B105" t="s">
+        <v>440</v>
+      </c>
+      <c r="C105" t="s">
         <v>441</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>442</v>
-      </c>
-      <c r="D105" t="s">
-        <v>443</v>
       </c>
       <c r="F105">
         <f t="shared" si="1"/>
@@ -7263,13 +7263,13 @@
         <v>360</v>
       </c>
       <c r="B106" t="s">
+        <v>443</v>
+      </c>
+      <c r="C106" t="s">
         <v>444</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>445</v>
-      </c>
-      <c r="D106" t="s">
-        <v>446</v>
       </c>
       <c r="F106">
         <f t="shared" si="1"/>
@@ -7281,13 +7281,13 @@
         <v>364</v>
       </c>
       <c r="B107" t="s">
+        <v>446</v>
+      </c>
+      <c r="C107" t="s">
         <v>447</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>448</v>
-      </c>
-      <c r="D107" t="s">
-        <v>449</v>
       </c>
       <c r="F107">
         <f t="shared" si="1"/>
@@ -7299,13 +7299,13 @@
         <v>368</v>
       </c>
       <c r="B108" t="s">
+        <v>449</v>
+      </c>
+      <c r="C108" t="s">
         <v>450</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>451</v>
-      </c>
-      <c r="D108" t="s">
-        <v>452</v>
       </c>
       <c r="F108">
         <f t="shared" si="1"/>
@@ -7317,13 +7317,13 @@
         <v>372</v>
       </c>
       <c r="B109" t="s">
+        <v>452</v>
+      </c>
+      <c r="C109" t="s">
         <v>453</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>454</v>
-      </c>
-      <c r="D109" t="s">
-        <v>455</v>
       </c>
       <c r="F109">
         <f t="shared" si="1"/>
@@ -7335,13 +7335,13 @@
         <v>833</v>
       </c>
       <c r="B110" t="s">
+        <v>455</v>
+      </c>
+      <c r="C110" t="s">
         <v>456</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>457</v>
-      </c>
-      <c r="D110" t="s">
-        <v>458</v>
       </c>
       <c r="F110">
         <f t="shared" si="1"/>
@@ -7353,13 +7353,13 @@
         <v>376</v>
       </c>
       <c r="B111" t="s">
+        <v>458</v>
+      </c>
+      <c r="C111" t="s">
         <v>459</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>460</v>
-      </c>
-      <c r="D111" t="s">
-        <v>461</v>
       </c>
       <c r="F111">
         <f t="shared" si="1"/>
@@ -7371,13 +7371,13 @@
         <v>380</v>
       </c>
       <c r="B112" t="s">
+        <v>461</v>
+      </c>
+      <c r="C112" t="s">
         <v>462</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>463</v>
-      </c>
-      <c r="D112" t="s">
-        <v>464</v>
       </c>
       <c r="F112">
         <f t="shared" si="1"/>
@@ -7389,13 +7389,13 @@
         <v>388</v>
       </c>
       <c r="B113" t="s">
+        <v>464</v>
+      </c>
+      <c r="C113" t="s">
         <v>465</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>466</v>
-      </c>
-      <c r="D113" t="s">
-        <v>467</v>
       </c>
       <c r="F113">
         <f t="shared" si="1"/>
@@ -7407,13 +7407,13 @@
         <v>392</v>
       </c>
       <c r="B114" t="s">
+        <v>467</v>
+      </c>
+      <c r="C114" t="s">
         <v>468</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>469</v>
-      </c>
-      <c r="D114" t="s">
-        <v>470</v>
       </c>
       <c r="F114">
         <f t="shared" si="1"/>
@@ -7425,13 +7425,13 @@
         <v>832</v>
       </c>
       <c r="B115" t="s">
+        <v>470</v>
+      </c>
+      <c r="C115" t="s">
         <v>471</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>472</v>
-      </c>
-      <c r="D115" t="s">
-        <v>473</v>
       </c>
       <c r="F115">
         <f t="shared" si="1"/>
@@ -7443,13 +7443,13 @@
         <v>400</v>
       </c>
       <c r="B116" t="s">
+        <v>473</v>
+      </c>
+      <c r="C116" t="s">
         <v>474</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>475</v>
-      </c>
-      <c r="D116" t="s">
-        <v>476</v>
       </c>
       <c r="F116">
         <f t="shared" si="1"/>
@@ -7461,13 +7461,13 @@
         <v>398</v>
       </c>
       <c r="B117" t="s">
+        <v>476</v>
+      </c>
+      <c r="C117" t="s">
         <v>477</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>478</v>
-      </c>
-      <c r="D117" t="s">
-        <v>479</v>
       </c>
       <c r="F117">
         <f t="shared" si="1"/>
@@ -7479,13 +7479,13 @@
         <v>404</v>
       </c>
       <c r="B118" t="s">
+        <v>479</v>
+      </c>
+      <c r="C118" t="s">
         <v>480</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>481</v>
-      </c>
-      <c r="D118" t="s">
-        <v>482</v>
       </c>
       <c r="F118">
         <f t="shared" si="1"/>
@@ -7497,13 +7497,13 @@
         <v>296</v>
       </c>
       <c r="B119" t="s">
+        <v>482</v>
+      </c>
+      <c r="C119" t="s">
         <v>483</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>484</v>
-      </c>
-      <c r="D119" t="s">
-        <v>485</v>
       </c>
       <c r="F119">
         <f t="shared" si="1"/>
@@ -7515,13 +7515,13 @@
         <v>408</v>
       </c>
       <c r="B120" t="s">
+        <v>485</v>
+      </c>
+      <c r="C120" t="s">
         <v>486</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>487</v>
-      </c>
-      <c r="D120" t="s">
-        <v>488</v>
       </c>
       <c r="F120">
         <f t="shared" si="1"/>
@@ -7533,13 +7533,13 @@
         <v>410</v>
       </c>
       <c r="B121" t="s">
+        <v>488</v>
+      </c>
+      <c r="C121" t="s">
         <v>489</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>490</v>
-      </c>
-      <c r="D121" t="s">
-        <v>491</v>
       </c>
       <c r="F121">
         <f t="shared" si="1"/>
@@ -7551,13 +7551,13 @@
         <v>414</v>
       </c>
       <c r="B122" t="s">
+        <v>491</v>
+      </c>
+      <c r="C122" t="s">
         <v>492</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>493</v>
-      </c>
-      <c r="D122" t="s">
-        <v>494</v>
       </c>
       <c r="F122">
         <f t="shared" si="1"/>
@@ -7569,13 +7569,13 @@
         <v>417</v>
       </c>
       <c r="B123" t="s">
+        <v>494</v>
+      </c>
+      <c r="C123" t="s">
         <v>495</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>496</v>
-      </c>
-      <c r="D123" t="s">
-        <v>497</v>
       </c>
       <c r="F123">
         <f t="shared" si="1"/>
@@ -7587,13 +7587,13 @@
         <v>418</v>
       </c>
       <c r="B124" t="s">
+        <v>497</v>
+      </c>
+      <c r="C124" t="s">
         <v>498</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>499</v>
-      </c>
-      <c r="D124" t="s">
-        <v>500</v>
       </c>
       <c r="F124">
         <f t="shared" si="1"/>
@@ -7605,13 +7605,13 @@
         <v>428</v>
       </c>
       <c r="B125" t="s">
+        <v>500</v>
+      </c>
+      <c r="C125" t="s">
         <v>501</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>502</v>
-      </c>
-      <c r="D125" t="s">
-        <v>503</v>
       </c>
       <c r="F125">
         <f t="shared" si="1"/>
@@ -7623,13 +7623,13 @@
         <v>422</v>
       </c>
       <c r="B126" t="s">
+        <v>503</v>
+      </c>
+      <c r="C126" t="s">
         <v>504</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>505</v>
-      </c>
-      <c r="D126" t="s">
-        <v>506</v>
       </c>
       <c r="F126">
         <f t="shared" si="1"/>
@@ -7641,13 +7641,13 @@
         <v>426</v>
       </c>
       <c r="B127" t="s">
+        <v>506</v>
+      </c>
+      <c r="C127" t="s">
         <v>507</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>508</v>
-      </c>
-      <c r="D127" t="s">
-        <v>509</v>
       </c>
       <c r="F127">
         <f t="shared" si="1"/>
@@ -7659,13 +7659,13 @@
         <v>430</v>
       </c>
       <c r="B128" t="s">
+        <v>509</v>
+      </c>
+      <c r="C128" t="s">
         <v>510</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>511</v>
-      </c>
-      <c r="D128" t="s">
-        <v>512</v>
       </c>
       <c r="F128">
         <f t="shared" si="1"/>
@@ -7677,13 +7677,13 @@
         <v>434</v>
       </c>
       <c r="B129" t="s">
+        <v>512</v>
+      </c>
+      <c r="C129" t="s">
         <v>513</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>514</v>
-      </c>
-      <c r="D129" t="s">
-        <v>515</v>
       </c>
       <c r="F129">
         <f t="shared" si="1"/>
@@ -7695,13 +7695,13 @@
         <v>438</v>
       </c>
       <c r="B130" t="s">
+        <v>515</v>
+      </c>
+      <c r="C130" t="s">
         <v>516</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>517</v>
-      </c>
-      <c r="D130" t="s">
-        <v>518</v>
       </c>
       <c r="F130">
         <f t="shared" ref="F130:F193" si="2">LEN(B130)</f>
@@ -7713,13 +7713,13 @@
         <v>440</v>
       </c>
       <c r="B131" t="s">
+        <v>518</v>
+      </c>
+      <c r="C131" t="s">
         <v>519</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>520</v>
-      </c>
-      <c r="D131" t="s">
-        <v>521</v>
       </c>
       <c r="F131">
         <f t="shared" si="2"/>
@@ -7731,13 +7731,13 @@
         <v>442</v>
       </c>
       <c r="B132" t="s">
+        <v>521</v>
+      </c>
+      <c r="C132" t="s">
         <v>522</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>523</v>
-      </c>
-      <c r="D132" t="s">
-        <v>524</v>
       </c>
       <c r="F132">
         <f t="shared" si="2"/>
@@ -7749,13 +7749,13 @@
         <v>446</v>
       </c>
       <c r="B133" t="s">
+        <v>524</v>
+      </c>
+      <c r="C133" t="s">
         <v>525</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>526</v>
-      </c>
-      <c r="D133" t="s">
-        <v>527</v>
       </c>
       <c r="F133">
         <f t="shared" si="2"/>
@@ -7767,13 +7767,13 @@
         <v>450</v>
       </c>
       <c r="B134" t="s">
+        <v>527</v>
+      </c>
+      <c r="C134" t="s">
         <v>528</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>529</v>
-      </c>
-      <c r="D134" t="s">
-        <v>530</v>
       </c>
       <c r="F134">
         <f t="shared" si="2"/>
@@ -7785,13 +7785,13 @@
         <v>454</v>
       </c>
       <c r="B135" t="s">
+        <v>530</v>
+      </c>
+      <c r="C135" t="s">
         <v>531</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>532</v>
-      </c>
-      <c r="D135" t="s">
-        <v>533</v>
       </c>
       <c r="F135">
         <f t="shared" si="2"/>
@@ -7803,13 +7803,13 @@
         <v>458</v>
       </c>
       <c r="B136" t="s">
+        <v>533</v>
+      </c>
+      <c r="C136" t="s">
         <v>534</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>535</v>
-      </c>
-      <c r="D136" t="s">
-        <v>536</v>
       </c>
       <c r="F136">
         <f t="shared" si="2"/>
@@ -7821,13 +7821,13 @@
         <v>462</v>
       </c>
       <c r="B137" t="s">
+        <v>536</v>
+      </c>
+      <c r="C137" t="s">
         <v>537</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>538</v>
-      </c>
-      <c r="D137" t="s">
-        <v>539</v>
       </c>
       <c r="F137">
         <f t="shared" si="2"/>
@@ -7839,13 +7839,13 @@
         <v>466</v>
       </c>
       <c r="B138" t="s">
+        <v>539</v>
+      </c>
+      <c r="C138" t="s">
         <v>540</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>541</v>
-      </c>
-      <c r="D138" t="s">
-        <v>542</v>
       </c>
       <c r="F138">
         <f t="shared" si="2"/>
@@ -7857,13 +7857,13 @@
         <v>470</v>
       </c>
       <c r="B139" t="s">
+        <v>542</v>
+      </c>
+      <c r="C139" t="s">
         <v>543</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>544</v>
-      </c>
-      <c r="D139" t="s">
-        <v>545</v>
       </c>
       <c r="F139">
         <f t="shared" si="2"/>
@@ -7875,13 +7875,13 @@
         <v>584</v>
       </c>
       <c r="B140" t="s">
+        <v>545</v>
+      </c>
+      <c r="C140" t="s">
         <v>546</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>547</v>
-      </c>
-      <c r="D140" t="s">
-        <v>548</v>
       </c>
       <c r="F140">
         <f t="shared" si="2"/>
@@ -7893,13 +7893,13 @@
         <v>474</v>
       </c>
       <c r="B141" t="s">
+        <v>548</v>
+      </c>
+      <c r="C141" t="s">
         <v>549</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>550</v>
-      </c>
-      <c r="D141" t="s">
-        <v>551</v>
       </c>
       <c r="F141">
         <f t="shared" si="2"/>
@@ -7911,13 +7911,13 @@
         <v>478</v>
       </c>
       <c r="B142" t="s">
+        <v>551</v>
+      </c>
+      <c r="C142" t="s">
         <v>552</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>553</v>
-      </c>
-      <c r="D142" t="s">
-        <v>554</v>
       </c>
       <c r="F142">
         <f t="shared" si="2"/>
@@ -7929,13 +7929,13 @@
         <v>480</v>
       </c>
       <c r="B143" t="s">
+        <v>554</v>
+      </c>
+      <c r="C143" t="s">
         <v>555</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>556</v>
-      </c>
-      <c r="D143" t="s">
-        <v>557</v>
       </c>
       <c r="F143">
         <f t="shared" si="2"/>
@@ -7947,13 +7947,13 @@
         <v>175</v>
       </c>
       <c r="B144" t="s">
+        <v>557</v>
+      </c>
+      <c r="C144" t="s">
         <v>558</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>559</v>
-      </c>
-      <c r="D144" t="s">
-        <v>560</v>
       </c>
       <c r="F144">
         <f t="shared" si="2"/>
@@ -7965,13 +7965,13 @@
         <v>484</v>
       </c>
       <c r="B145" t="s">
+        <v>560</v>
+      </c>
+      <c r="C145" t="s">
         <v>561</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>562</v>
-      </c>
-      <c r="D145" t="s">
-        <v>563</v>
       </c>
       <c r="F145">
         <f t="shared" si="2"/>
@@ -7983,13 +7983,13 @@
         <v>583</v>
       </c>
       <c r="B146" t="s">
+        <v>563</v>
+      </c>
+      <c r="C146" t="s">
         <v>564</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>565</v>
-      </c>
-      <c r="D146" t="s">
-        <v>566</v>
       </c>
       <c r="F146">
         <f t="shared" si="2"/>
@@ -8001,13 +8001,13 @@
         <v>498</v>
       </c>
       <c r="B147" t="s">
+        <v>566</v>
+      </c>
+      <c r="C147" t="s">
         <v>567</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>568</v>
-      </c>
-      <c r="D147" t="s">
-        <v>569</v>
       </c>
       <c r="F147">
         <f t="shared" si="2"/>
@@ -8019,13 +8019,13 @@
         <v>492</v>
       </c>
       <c r="B148" t="s">
+        <v>569</v>
+      </c>
+      <c r="C148" t="s">
         <v>570</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>571</v>
-      </c>
-      <c r="D148" t="s">
-        <v>572</v>
       </c>
       <c r="F148">
         <f t="shared" si="2"/>
@@ -8037,13 +8037,13 @@
         <v>496</v>
       </c>
       <c r="B149" t="s">
+        <v>572</v>
+      </c>
+      <c r="C149" t="s">
         <v>573</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>574</v>
-      </c>
-      <c r="D149" t="s">
-        <v>575</v>
       </c>
       <c r="F149">
         <f t="shared" si="2"/>
@@ -8055,13 +8055,13 @@
         <v>499</v>
       </c>
       <c r="B150" t="s">
+        <v>575</v>
+      </c>
+      <c r="C150" t="s">
         <v>576</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>577</v>
-      </c>
-      <c r="D150" t="s">
-        <v>578</v>
       </c>
       <c r="F150">
         <f t="shared" si="2"/>
@@ -8073,13 +8073,13 @@
         <v>500</v>
       </c>
       <c r="B151" t="s">
+        <v>578</v>
+      </c>
+      <c r="C151" t="s">
         <v>579</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>580</v>
-      </c>
-      <c r="D151" t="s">
-        <v>581</v>
       </c>
       <c r="F151">
         <f t="shared" si="2"/>
@@ -8091,13 +8091,13 @@
         <v>504</v>
       </c>
       <c r="B152" t="s">
+        <v>581</v>
+      </c>
+      <c r="C152" t="s">
         <v>582</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>583</v>
-      </c>
-      <c r="D152" t="s">
-        <v>584</v>
       </c>
       <c r="F152">
         <f t="shared" si="2"/>
@@ -8109,13 +8109,13 @@
         <v>508</v>
       </c>
       <c r="B153" t="s">
+        <v>584</v>
+      </c>
+      <c r="C153" t="s">
         <v>585</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>586</v>
-      </c>
-      <c r="D153" t="s">
-        <v>587</v>
       </c>
       <c r="F153">
         <f t="shared" si="2"/>
@@ -8127,13 +8127,13 @@
         <v>104</v>
       </c>
       <c r="B154" t="s">
+        <v>587</v>
+      </c>
+      <c r="C154" t="s">
         <v>588</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>589</v>
-      </c>
-      <c r="D154" t="s">
-        <v>590</v>
       </c>
       <c r="F154">
         <f t="shared" si="2"/>
@@ -8145,13 +8145,13 @@
         <v>516</v>
       </c>
       <c r="B155" t="s">
+        <v>590</v>
+      </c>
+      <c r="C155" t="s">
         <v>591</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>592</v>
-      </c>
-      <c r="D155" t="s">
-        <v>593</v>
       </c>
       <c r="F155">
         <f t="shared" si="2"/>
@@ -8163,13 +8163,13 @@
         <v>520</v>
       </c>
       <c r="B156" t="s">
+        <v>593</v>
+      </c>
+      <c r="C156" t="s">
         <v>594</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>595</v>
-      </c>
-      <c r="D156" t="s">
-        <v>596</v>
       </c>
       <c r="F156">
         <f t="shared" si="2"/>
@@ -8181,13 +8181,13 @@
         <v>524</v>
       </c>
       <c r="B157" t="s">
+        <v>596</v>
+      </c>
+      <c r="C157" t="s">
         <v>597</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>598</v>
-      </c>
-      <c r="D157" t="s">
-        <v>599</v>
       </c>
       <c r="F157">
         <f t="shared" si="2"/>
@@ -8199,13 +8199,13 @@
         <v>528</v>
       </c>
       <c r="B158" t="s">
+        <v>599</v>
+      </c>
+      <c r="C158" t="s">
         <v>600</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>601</v>
-      </c>
-      <c r="D158" t="s">
-        <v>602</v>
       </c>
       <c r="F158">
         <f t="shared" si="2"/>
@@ -8217,13 +8217,13 @@
         <v>540</v>
       </c>
       <c r="B159" t="s">
+        <v>602</v>
+      </c>
+      <c r="C159" t="s">
         <v>603</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>604</v>
-      </c>
-      <c r="D159" t="s">
-        <v>605</v>
       </c>
       <c r="F159">
         <f t="shared" si="2"/>
@@ -8235,13 +8235,13 @@
         <v>554</v>
       </c>
       <c r="B160" t="s">
+        <v>605</v>
+      </c>
+      <c r="C160" t="s">
         <v>606</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>607</v>
-      </c>
-      <c r="D160" t="s">
-        <v>608</v>
       </c>
       <c r="F160">
         <f t="shared" si="2"/>
@@ -8253,13 +8253,13 @@
         <v>558</v>
       </c>
       <c r="B161" t="s">
+        <v>608</v>
+      </c>
+      <c r="C161" t="s">
         <v>609</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>610</v>
-      </c>
-      <c r="D161" t="s">
-        <v>611</v>
       </c>
       <c r="F161">
         <f t="shared" si="2"/>
@@ -8271,13 +8271,13 @@
         <v>562</v>
       </c>
       <c r="B162" t="s">
+        <v>611</v>
+      </c>
+      <c r="C162" t="s">
         <v>612</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>613</v>
-      </c>
-      <c r="D162" t="s">
-        <v>614</v>
       </c>
       <c r="F162">
         <f t="shared" si="2"/>
@@ -8289,13 +8289,13 @@
         <v>566</v>
       </c>
       <c r="B163" t="s">
+        <v>614</v>
+      </c>
+      <c r="C163" t="s">
         <v>615</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>616</v>
-      </c>
-      <c r="D163" t="s">
-        <v>617</v>
       </c>
       <c r="F163">
         <f t="shared" si="2"/>
@@ -8307,13 +8307,13 @@
         <v>570</v>
       </c>
       <c r="B164" t="s">
+        <v>617</v>
+      </c>
+      <c r="C164" t="s">
         <v>618</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>619</v>
-      </c>
-      <c r="D164" t="s">
-        <v>620</v>
       </c>
       <c r="F164">
         <f t="shared" si="2"/>
@@ -8325,13 +8325,13 @@
         <v>574</v>
       </c>
       <c r="B165" t="s">
+        <v>620</v>
+      </c>
+      <c r="C165" t="s">
         <v>621</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>622</v>
-      </c>
-      <c r="D165" t="s">
-        <v>623</v>
       </c>
       <c r="F165">
         <f t="shared" si="2"/>
@@ -8343,13 +8343,13 @@
         <v>580</v>
       </c>
       <c r="B166" t="s">
+        <v>623</v>
+      </c>
+      <c r="C166" t="s">
         <v>624</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>625</v>
-      </c>
-      <c r="D166" t="s">
-        <v>626</v>
       </c>
       <c r="F166">
         <f t="shared" si="2"/>
@@ -8361,13 +8361,13 @@
         <v>578</v>
       </c>
       <c r="B167" t="s">
+        <v>626</v>
+      </c>
+      <c r="C167" t="s">
         <v>627</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>628</v>
-      </c>
-      <c r="D167" t="s">
-        <v>629</v>
       </c>
       <c r="F167">
         <f t="shared" si="2"/>
@@ -8379,13 +8379,13 @@
         <v>512</v>
       </c>
       <c r="B168" t="s">
+        <v>629</v>
+      </c>
+      <c r="C168" t="s">
         <v>630</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>631</v>
-      </c>
-      <c r="D168" t="s">
-        <v>632</v>
       </c>
       <c r="F168">
         <f t="shared" si="2"/>
@@ -8397,13 +8397,13 @@
         <v>586</v>
       </c>
       <c r="B169" t="s">
+        <v>632</v>
+      </c>
+      <c r="C169" t="s">
         <v>633</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>634</v>
-      </c>
-      <c r="D169" t="s">
-        <v>635</v>
       </c>
       <c r="F169">
         <f t="shared" si="2"/>
@@ -8415,13 +8415,13 @@
         <v>585</v>
       </c>
       <c r="B170" t="s">
+        <v>635</v>
+      </c>
+      <c r="C170" t="s">
         <v>636</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>637</v>
-      </c>
-      <c r="D170" t="s">
-        <v>638</v>
       </c>
       <c r="F170">
         <f t="shared" si="2"/>
@@ -8433,13 +8433,13 @@
         <v>275</v>
       </c>
       <c r="B171" t="s">
+        <v>638</v>
+      </c>
+      <c r="C171" t="s">
         <v>639</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>640</v>
-      </c>
-      <c r="D171" t="s">
-        <v>641</v>
       </c>
       <c r="F171">
         <f t="shared" si="2"/>
@@ -8451,13 +8451,13 @@
         <v>591</v>
       </c>
       <c r="B172" t="s">
+        <v>641</v>
+      </c>
+      <c r="C172" t="s">
         <v>642</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>643</v>
-      </c>
-      <c r="D172" t="s">
-        <v>644</v>
       </c>
       <c r="F172">
         <f t="shared" si="2"/>
@@ -8469,13 +8469,13 @@
         <v>598</v>
       </c>
       <c r="B173" t="s">
+        <v>644</v>
+      </c>
+      <c r="C173" t="s">
         <v>645</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>646</v>
-      </c>
-      <c r="D173" t="s">
-        <v>647</v>
       </c>
       <c r="F173">
         <f t="shared" si="2"/>
@@ -8487,13 +8487,13 @@
         <v>600</v>
       </c>
       <c r="B174" t="s">
+        <v>647</v>
+      </c>
+      <c r="C174" t="s">
         <v>648</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>649</v>
-      </c>
-      <c r="D174" t="s">
-        <v>650</v>
       </c>
       <c r="F174">
         <f t="shared" si="2"/>
@@ -8505,13 +8505,13 @@
         <v>604</v>
       </c>
       <c r="B175" t="s">
+        <v>650</v>
+      </c>
+      <c r="C175" t="s">
         <v>651</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>652</v>
-      </c>
-      <c r="D175" t="s">
-        <v>653</v>
       </c>
       <c r="F175">
         <f t="shared" si="2"/>
@@ -8523,13 +8523,13 @@
         <v>608</v>
       </c>
       <c r="B176" t="s">
+        <v>653</v>
+      </c>
+      <c r="C176" t="s">
         <v>654</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
         <v>655</v>
-      </c>
-      <c r="D176" t="s">
-        <v>656</v>
       </c>
       <c r="F176">
         <f t="shared" si="2"/>
@@ -8541,13 +8541,13 @@
         <v>612</v>
       </c>
       <c r="B177" t="s">
+        <v>656</v>
+      </c>
+      <c r="C177" t="s">
         <v>657</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
         <v>658</v>
-      </c>
-      <c r="D177" t="s">
-        <v>659</v>
       </c>
       <c r="F177">
         <f t="shared" si="2"/>
@@ -8559,13 +8559,13 @@
         <v>616</v>
       </c>
       <c r="B178" t="s">
+        <v>659</v>
+      </c>
+      <c r="C178" t="s">
         <v>660</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>661</v>
-      </c>
-      <c r="D178" t="s">
-        <v>662</v>
       </c>
       <c r="F178">
         <f t="shared" si="2"/>
@@ -8577,13 +8577,13 @@
         <v>620</v>
       </c>
       <c r="B179" t="s">
+        <v>662</v>
+      </c>
+      <c r="C179" t="s">
         <v>663</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>664</v>
-      </c>
-      <c r="D179" t="s">
-        <v>665</v>
       </c>
       <c r="F179">
         <f t="shared" si="2"/>
@@ -8595,13 +8595,13 @@
         <v>630</v>
       </c>
       <c r="B180" t="s">
+        <v>665</v>
+      </c>
+      <c r="C180" t="s">
         <v>666</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>667</v>
-      </c>
-      <c r="D180" t="s">
-        <v>668</v>
       </c>
       <c r="F180">
         <f t="shared" si="2"/>
@@ -8613,13 +8613,13 @@
         <v>634</v>
       </c>
       <c r="B181" t="s">
+        <v>668</v>
+      </c>
+      <c r="C181" t="s">
         <v>669</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>670</v>
-      </c>
-      <c r="D181" t="s">
-        <v>671</v>
       </c>
       <c r="F181">
         <f t="shared" si="2"/>
@@ -8631,13 +8631,13 @@
         <v>807</v>
       </c>
       <c r="B182" t="s">
+        <v>671</v>
+      </c>
+      <c r="C182" t="s">
         <v>672</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
         <v>673</v>
-      </c>
-      <c r="D182" t="s">
-        <v>674</v>
       </c>
       <c r="F182">
         <f t="shared" si="2"/>
@@ -8649,13 +8649,13 @@
         <v>642</v>
       </c>
       <c r="B183" t="s">
+        <v>674</v>
+      </c>
+      <c r="C183" t="s">
         <v>675</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>676</v>
-      </c>
-      <c r="D183" t="s">
-        <v>677</v>
       </c>
       <c r="F183">
         <f t="shared" si="2"/>
@@ -8667,13 +8667,13 @@
         <v>643</v>
       </c>
       <c r="B184" t="s">
+        <v>677</v>
+      </c>
+      <c r="C184" t="s">
         <v>678</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>679</v>
-      </c>
-      <c r="D184" t="s">
-        <v>680</v>
       </c>
       <c r="F184">
         <f t="shared" si="2"/>
@@ -8685,13 +8685,13 @@
         <v>646</v>
       </c>
       <c r="B185" t="s">
+        <v>680</v>
+      </c>
+      <c r="C185" t="s">
         <v>681</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>682</v>
-      </c>
-      <c r="D185" t="s">
-        <v>683</v>
       </c>
       <c r="F185">
         <f t="shared" si="2"/>
@@ -8703,13 +8703,13 @@
         <v>638</v>
       </c>
       <c r="B186" t="s">
+        <v>683</v>
+      </c>
+      <c r="C186" t="s">
         <v>684</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>685</v>
-      </c>
-      <c r="D186" t="s">
-        <v>686</v>
       </c>
       <c r="F186">
         <f t="shared" si="2"/>
@@ -8721,13 +8721,13 @@
         <v>652</v>
       </c>
       <c r="B187" t="s">
+        <v>686</v>
+      </c>
+      <c r="C187" t="s">
         <v>687</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>688</v>
-      </c>
-      <c r="D187" t="s">
-        <v>689</v>
       </c>
       <c r="F187">
         <f t="shared" si="2"/>
@@ -8739,13 +8739,13 @@
         <v>654</v>
       </c>
       <c r="B188" t="s">
+        <v>689</v>
+      </c>
+      <c r="C188" t="s">
         <v>690</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>691</v>
-      </c>
-      <c r="D188" t="s">
-        <v>692</v>
       </c>
       <c r="F188">
         <f t="shared" si="2"/>
@@ -8757,13 +8757,13 @@
         <v>659</v>
       </c>
       <c r="B189" t="s">
+        <v>692</v>
+      </c>
+      <c r="C189" t="s">
         <v>693</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>694</v>
-      </c>
-      <c r="D189" t="s">
-        <v>695</v>
       </c>
       <c r="F189">
         <f t="shared" si="2"/>
@@ -8775,13 +8775,13 @@
         <v>662</v>
       </c>
       <c r="B190" t="s">
+        <v>695</v>
+      </c>
+      <c r="C190" t="s">
         <v>696</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>697</v>
-      </c>
-      <c r="D190" t="s">
-        <v>698</v>
       </c>
       <c r="F190">
         <f t="shared" si="2"/>
@@ -8793,13 +8793,13 @@
         <v>663</v>
       </c>
       <c r="B191" t="s">
+        <v>698</v>
+      </c>
+      <c r="C191" t="s">
         <v>699</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>700</v>
-      </c>
-      <c r="D191" t="s">
-        <v>701</v>
       </c>
       <c r="F191">
         <f t="shared" si="2"/>
@@ -8811,13 +8811,13 @@
         <v>666</v>
       </c>
       <c r="B192" t="s">
+        <v>701</v>
+      </c>
+      <c r="C192" t="s">
         <v>702</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
         <v>703</v>
-      </c>
-      <c r="D192" t="s">
-        <v>704</v>
       </c>
       <c r="F192">
         <f t="shared" si="2"/>
@@ -8829,13 +8829,13 @@
         <v>670</v>
       </c>
       <c r="B193" t="s">
+        <v>704</v>
+      </c>
+      <c r="C193" t="s">
         <v>705</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>706</v>
-      </c>
-      <c r="D193" t="s">
-        <v>707</v>
       </c>
       <c r="F193">
         <f t="shared" si="2"/>
@@ -8847,13 +8847,13 @@
         <v>882</v>
       </c>
       <c r="B194" t="s">
+        <v>707</v>
+      </c>
+      <c r="C194" t="s">
         <v>708</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D194" t="s">
         <v>709</v>
-      </c>
-      <c r="D194" t="s">
-        <v>710</v>
       </c>
       <c r="F194">
         <f t="shared" ref="F194:F251" si="3">LEN(B194)</f>
@@ -8865,13 +8865,13 @@
         <v>674</v>
       </c>
       <c r="B195" t="s">
+        <v>710</v>
+      </c>
+      <c r="C195" t="s">
         <v>711</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
         <v>712</v>
-      </c>
-      <c r="D195" t="s">
-        <v>713</v>
       </c>
       <c r="F195">
         <f t="shared" si="3"/>
@@ -8883,13 +8883,13 @@
         <v>678</v>
       </c>
       <c r="B196" t="s">
+        <v>713</v>
+      </c>
+      <c r="C196" t="s">
         <v>714</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
         <v>715</v>
-      </c>
-      <c r="D196" t="s">
-        <v>716</v>
       </c>
       <c r="F196">
         <f t="shared" si="3"/>
@@ -8901,13 +8901,13 @@
         <v>682</v>
       </c>
       <c r="B197" t="s">
+        <v>716</v>
+      </c>
+      <c r="C197" t="s">
         <v>717</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
         <v>718</v>
-      </c>
-      <c r="D197" t="s">
-        <v>719</v>
       </c>
       <c r="F197">
         <f t="shared" si="3"/>
@@ -8919,13 +8919,13 @@
         <v>686</v>
       </c>
       <c r="B198" t="s">
+        <v>719</v>
+      </c>
+      <c r="C198" t="s">
         <v>720</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
         <v>721</v>
-      </c>
-      <c r="D198" t="s">
-        <v>722</v>
       </c>
       <c r="F198">
         <f t="shared" si="3"/>
@@ -8937,13 +8937,13 @@
         <v>688</v>
       </c>
       <c r="B199" t="s">
+        <v>722</v>
+      </c>
+      <c r="C199" t="s">
         <v>723</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
         <v>724</v>
-      </c>
-      <c r="D199" t="s">
-        <v>725</v>
       </c>
       <c r="F199">
         <f t="shared" si="3"/>
@@ -8955,13 +8955,13 @@
         <v>690</v>
       </c>
       <c r="B200" t="s">
+        <v>725</v>
+      </c>
+      <c r="C200" t="s">
         <v>726</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D200" t="s">
         <v>727</v>
-      </c>
-      <c r="D200" t="s">
-        <v>728</v>
       </c>
       <c r="F200">
         <f t="shared" si="3"/>
@@ -8973,13 +8973,13 @@
         <v>694</v>
       </c>
       <c r="B201" t="s">
+        <v>728</v>
+      </c>
+      <c r="C201" t="s">
         <v>729</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>730</v>
-      </c>
-      <c r="D201" t="s">
-        <v>731</v>
       </c>
       <c r="F201">
         <f t="shared" si="3"/>
@@ -8991,13 +8991,13 @@
         <v>702</v>
       </c>
       <c r="B202" t="s">
+        <v>731</v>
+      </c>
+      <c r="C202" t="s">
         <v>732</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>733</v>
-      </c>
-      <c r="D202" t="s">
-        <v>734</v>
       </c>
       <c r="F202">
         <f t="shared" si="3"/>
@@ -9009,13 +9009,13 @@
         <v>534</v>
       </c>
       <c r="B203" t="s">
+        <v>734</v>
+      </c>
+      <c r="C203" t="s">
         <v>735</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>736</v>
-      </c>
-      <c r="D203" t="s">
-        <v>737</v>
       </c>
       <c r="F203">
         <f t="shared" si="3"/>
@@ -9027,13 +9027,13 @@
         <v>703</v>
       </c>
       <c r="B204" t="s">
+        <v>737</v>
+      </c>
+      <c r="C204" t="s">
         <v>738</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>739</v>
-      </c>
-      <c r="D204" t="s">
-        <v>740</v>
       </c>
       <c r="F204">
         <f t="shared" si="3"/>
@@ -9045,13 +9045,13 @@
         <v>705</v>
       </c>
       <c r="B205" t="s">
+        <v>740</v>
+      </c>
+      <c r="C205" t="s">
         <v>741</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>742</v>
-      </c>
-      <c r="D205" t="s">
-        <v>743</v>
       </c>
       <c r="F205">
         <f t="shared" si="3"/>
@@ -9063,13 +9063,13 @@
         <v>90</v>
       </c>
       <c r="B206" t="s">
+        <v>743</v>
+      </c>
+      <c r="C206" t="s">
         <v>744</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>745</v>
-      </c>
-      <c r="D206" t="s">
-        <v>746</v>
       </c>
       <c r="F206">
         <f t="shared" si="3"/>
@@ -9081,13 +9081,13 @@
         <v>706</v>
       </c>
       <c r="B207" t="s">
+        <v>746</v>
+      </c>
+      <c r="C207" t="s">
         <v>747</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
         <v>748</v>
-      </c>
-      <c r="D207" t="s">
-        <v>749</v>
       </c>
       <c r="F207">
         <f t="shared" si="3"/>
@@ -9099,13 +9099,13 @@
         <v>710</v>
       </c>
       <c r="B208" t="s">
+        <v>749</v>
+      </c>
+      <c r="C208" t="s">
         <v>750</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>751</v>
-      </c>
-      <c r="D208" t="s">
-        <v>752</v>
       </c>
       <c r="F208">
         <f t="shared" si="3"/>
@@ -9117,13 +9117,13 @@
         <v>239</v>
       </c>
       <c r="B209" t="s">
+        <v>752</v>
+      </c>
+      <c r="C209" t="s">
         <v>753</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
         <v>754</v>
-      </c>
-      <c r="D209" t="s">
-        <v>755</v>
       </c>
       <c r="F209">
         <f t="shared" si="3"/>
@@ -9135,13 +9135,13 @@
         <v>728</v>
       </c>
       <c r="B210" t="s">
+        <v>755</v>
+      </c>
+      <c r="C210" t="s">
         <v>756</v>
       </c>
-      <c r="C210" t="s">
+      <c r="D210" t="s">
         <v>757</v>
-      </c>
-      <c r="D210" t="s">
-        <v>758</v>
       </c>
       <c r="F210">
         <f t="shared" si="3"/>
@@ -9153,13 +9153,13 @@
         <v>724</v>
       </c>
       <c r="B211" t="s">
+        <v>758</v>
+      </c>
+      <c r="C211" t="s">
         <v>759</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>760</v>
-      </c>
-      <c r="D211" t="s">
-        <v>761</v>
       </c>
       <c r="F211">
         <f t="shared" si="3"/>
@@ -9171,13 +9171,13 @@
         <v>144</v>
       </c>
       <c r="B212" t="s">
+        <v>761</v>
+      </c>
+      <c r="C212" t="s">
         <v>762</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
         <v>763</v>
-      </c>
-      <c r="D212" t="s">
-        <v>764</v>
       </c>
       <c r="F212">
         <f t="shared" si="3"/>
@@ -9189,13 +9189,13 @@
         <v>729</v>
       </c>
       <c r="B213" t="s">
+        <v>764</v>
+      </c>
+      <c r="C213" t="s">
         <v>765</v>
       </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
         <v>766</v>
-      </c>
-      <c r="D213" t="s">
-        <v>767</v>
       </c>
       <c r="F213">
         <f t="shared" si="3"/>
@@ -9207,13 +9207,13 @@
         <v>740</v>
       </c>
       <c r="B214" t="s">
+        <v>767</v>
+      </c>
+      <c r="C214" t="s">
         <v>768</v>
       </c>
-      <c r="C214" t="s">
+      <c r="D214" t="s">
         <v>769</v>
-      </c>
-      <c r="D214" t="s">
-        <v>770</v>
       </c>
       <c r="F214">
         <f t="shared" si="3"/>
@@ -9225,13 +9225,13 @@
         <v>744</v>
       </c>
       <c r="B215" t="s">
+        <v>770</v>
+      </c>
+      <c r="C215" t="s">
         <v>771</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>772</v>
-      </c>
-      <c r="D215" t="s">
-        <v>773</v>
       </c>
       <c r="F215">
         <f t="shared" si="3"/>
@@ -9243,13 +9243,13 @@
         <v>752</v>
       </c>
       <c r="B216" t="s">
+        <v>773</v>
+      </c>
+      <c r="C216" t="s">
         <v>774</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>775</v>
-      </c>
-      <c r="D216" t="s">
-        <v>776</v>
       </c>
       <c r="F216">
         <f t="shared" si="3"/>
@@ -9261,13 +9261,13 @@
         <v>756</v>
       </c>
       <c r="B217" t="s">
+        <v>776</v>
+      </c>
+      <c r="C217" t="s">
         <v>777</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>778</v>
-      </c>
-      <c r="D217" t="s">
-        <v>779</v>
       </c>
       <c r="F217">
         <f t="shared" si="3"/>
@@ -9279,13 +9279,13 @@
         <v>760</v>
       </c>
       <c r="B218" t="s">
+        <v>779</v>
+      </c>
+      <c r="C218" t="s">
         <v>780</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
         <v>781</v>
-      </c>
-      <c r="D218" t="s">
-        <v>782</v>
       </c>
       <c r="F218">
         <f t="shared" si="3"/>
@@ -9297,13 +9297,13 @@
         <v>158</v>
       </c>
       <c r="B219" t="s">
+        <v>782</v>
+      </c>
+      <c r="C219" t="s">
         <v>783</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
         <v>784</v>
-      </c>
-      <c r="D219" t="s">
-        <v>785</v>
       </c>
       <c r="F219">
         <f t="shared" si="3"/>
@@ -9315,13 +9315,13 @@
         <v>762</v>
       </c>
       <c r="B220" t="s">
+        <v>785</v>
+      </c>
+      <c r="C220" t="s">
         <v>786</v>
       </c>
-      <c r="C220" t="s">
+      <c r="D220" t="s">
         <v>787</v>
-      </c>
-      <c r="D220" t="s">
-        <v>788</v>
       </c>
       <c r="F220">
         <f t="shared" si="3"/>
@@ -9333,13 +9333,13 @@
         <v>834</v>
       </c>
       <c r="B221" t="s">
+        <v>788</v>
+      </c>
+      <c r="C221" t="s">
         <v>789</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
         <v>790</v>
-      </c>
-      <c r="D221" t="s">
-        <v>791</v>
       </c>
       <c r="F221">
         <f t="shared" si="3"/>
@@ -9351,13 +9351,13 @@
         <v>764</v>
       </c>
       <c r="B222" t="s">
+        <v>791</v>
+      </c>
+      <c r="C222" t="s">
         <v>792</v>
       </c>
-      <c r="C222" t="s">
+      <c r="D222" t="s">
         <v>793</v>
-      </c>
-      <c r="D222" t="s">
-        <v>794</v>
       </c>
       <c r="F222">
         <f t="shared" si="3"/>
@@ -9369,13 +9369,13 @@
         <v>626</v>
       </c>
       <c r="B223" t="s">
+        <v>794</v>
+      </c>
+      <c r="C223" t="s">
         <v>795</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>796</v>
-      </c>
-      <c r="D223" t="s">
-        <v>797</v>
       </c>
       <c r="F223">
         <f t="shared" si="3"/>
@@ -9387,13 +9387,13 @@
         <v>768</v>
       </c>
       <c r="B224" t="s">
+        <v>797</v>
+      </c>
+      <c r="C224" t="s">
         <v>798</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
         <v>799</v>
-      </c>
-      <c r="D224" t="s">
-        <v>800</v>
       </c>
       <c r="F224">
         <f t="shared" si="3"/>
@@ -9405,13 +9405,13 @@
         <v>772</v>
       </c>
       <c r="B225" t="s">
+        <v>800</v>
+      </c>
+      <c r="C225" t="s">
         <v>801</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>802</v>
-      </c>
-      <c r="D225" t="s">
-        <v>803</v>
       </c>
       <c r="F225">
         <f t="shared" si="3"/>
@@ -9423,13 +9423,13 @@
         <v>776</v>
       </c>
       <c r="B226" t="s">
+        <v>803</v>
+      </c>
+      <c r="C226" t="s">
         <v>804</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>805</v>
-      </c>
-      <c r="D226" t="s">
-        <v>806</v>
       </c>
       <c r="F226">
         <f t="shared" si="3"/>
@@ -9441,13 +9441,13 @@
         <v>780</v>
       </c>
       <c r="B227" t="s">
+        <v>806</v>
+      </c>
+      <c r="C227" t="s">
         <v>807</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>808</v>
-      </c>
-      <c r="D227" t="s">
-        <v>809</v>
       </c>
       <c r="F227">
         <f t="shared" si="3"/>
@@ -9459,13 +9459,13 @@
         <v>788</v>
       </c>
       <c r="B228" t="s">
+        <v>809</v>
+      </c>
+      <c r="C228" t="s">
         <v>810</v>
       </c>
-      <c r="C228" t="s">
+      <c r="D228" t="s">
         <v>811</v>
-      </c>
-      <c r="D228" t="s">
-        <v>812</v>
       </c>
       <c r="F228">
         <f t="shared" si="3"/>
@@ -9477,13 +9477,13 @@
         <v>792</v>
       </c>
       <c r="B229" t="s">
+        <v>812</v>
+      </c>
+      <c r="C229" t="s">
         <v>813</v>
       </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>814</v>
-      </c>
-      <c r="D229" t="s">
-        <v>815</v>
       </c>
       <c r="F229">
         <f t="shared" si="3"/>
@@ -9495,13 +9495,13 @@
         <v>795</v>
       </c>
       <c r="B230" t="s">
+        <v>815</v>
+      </c>
+      <c r="C230" t="s">
         <v>816</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
         <v>817</v>
-      </c>
-      <c r="D230" t="s">
-        <v>818</v>
       </c>
       <c r="F230">
         <f t="shared" si="3"/>
@@ -9513,13 +9513,13 @@
         <v>796</v>
       </c>
       <c r="B231" t="s">
+        <v>818</v>
+      </c>
+      <c r="C231" t="s">
         <v>819</v>
       </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
         <v>820</v>
-      </c>
-      <c r="D231" t="s">
-        <v>821</v>
       </c>
       <c r="F231">
         <f t="shared" si="3"/>
@@ -9531,13 +9531,13 @@
         <v>798</v>
       </c>
       <c r="B232" t="s">
+        <v>821</v>
+      </c>
+      <c r="C232" t="s">
         <v>822</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>823</v>
-      </c>
-      <c r="D232" t="s">
-        <v>824</v>
       </c>
       <c r="F232">
         <f t="shared" si="3"/>
@@ -9549,13 +9549,13 @@
         <v>800</v>
       </c>
       <c r="B233" t="s">
+        <v>824</v>
+      </c>
+      <c r="C233" t="s">
         <v>825</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
         <v>826</v>
-      </c>
-      <c r="D233" t="s">
-        <v>827</v>
       </c>
       <c r="F233">
         <f t="shared" si="3"/>
@@ -9567,13 +9567,13 @@
         <v>804</v>
       </c>
       <c r="B234" t="s">
+        <v>827</v>
+      </c>
+      <c r="C234" t="s">
         <v>828</v>
       </c>
-      <c r="C234" t="s">
+      <c r="D234" t="s">
         <v>829</v>
-      </c>
-      <c r="D234" t="s">
-        <v>830</v>
       </c>
       <c r="F234">
         <f t="shared" si="3"/>
@@ -9585,13 +9585,13 @@
         <v>784</v>
       </c>
       <c r="B235" t="s">
+        <v>830</v>
+      </c>
+      <c r="C235" t="s">
         <v>831</v>
       </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
         <v>832</v>
-      </c>
-      <c r="D235" t="s">
-        <v>833</v>
       </c>
       <c r="F235">
         <f t="shared" si="3"/>
@@ -9603,13 +9603,13 @@
         <v>826</v>
       </c>
       <c r="B236" t="s">
+        <v>833</v>
+      </c>
+      <c r="C236" t="s">
         <v>834</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
         <v>835</v>
-      </c>
-      <c r="D236" t="s">
-        <v>836</v>
       </c>
       <c r="F236">
         <f t="shared" si="3"/>
@@ -9621,13 +9621,13 @@
         <v>581</v>
       </c>
       <c r="B237" t="s">
+        <v>836</v>
+      </c>
+      <c r="C237" t="s">
         <v>837</v>
       </c>
-      <c r="C237" t="s">
+      <c r="D237" t="s">
         <v>838</v>
-      </c>
-      <c r="D237" t="s">
-        <v>839</v>
       </c>
       <c r="F237">
         <f t="shared" si="3"/>
@@ -9639,13 +9639,13 @@
         <v>840</v>
       </c>
       <c r="B238" t="s">
+        <v>839</v>
+      </c>
+      <c r="C238" t="s">
         <v>840</v>
       </c>
-      <c r="C238" t="s">
+      <c r="D238" t="s">
         <v>841</v>
-      </c>
-      <c r="D238" t="s">
-        <v>842</v>
       </c>
       <c r="F238">
         <f t="shared" si="3"/>
@@ -9657,13 +9657,13 @@
         <v>858</v>
       </c>
       <c r="B239" t="s">
+        <v>842</v>
+      </c>
+      <c r="C239" t="s">
         <v>843</v>
       </c>
-      <c r="C239" t="s">
+      <c r="D239" t="s">
         <v>844</v>
-      </c>
-      <c r="D239" t="s">
-        <v>845</v>
       </c>
       <c r="F239">
         <f t="shared" si="3"/>
@@ -9675,13 +9675,13 @@
         <v>860</v>
       </c>
       <c r="B240" t="s">
+        <v>845</v>
+      </c>
+      <c r="C240" t="s">
         <v>846</v>
       </c>
-      <c r="C240" t="s">
+      <c r="D240" t="s">
         <v>847</v>
-      </c>
-      <c r="D240" t="s">
-        <v>848</v>
       </c>
       <c r="F240">
         <f t="shared" si="3"/>
@@ -9693,13 +9693,13 @@
         <v>548</v>
       </c>
       <c r="B241" t="s">
+        <v>848</v>
+      </c>
+      <c r="C241" t="s">
         <v>849</v>
       </c>
-      <c r="C241" t="s">
+      <c r="D241" t="s">
         <v>850</v>
-      </c>
-      <c r="D241" t="s">
-        <v>851</v>
       </c>
       <c r="F241">
         <f t="shared" si="3"/>
@@ -9711,13 +9711,13 @@
         <v>862</v>
       </c>
       <c r="B242" t="s">
+        <v>851</v>
+      </c>
+      <c r="C242" t="s">
         <v>852</v>
       </c>
-      <c r="C242" t="s">
+      <c r="D242" t="s">
         <v>853</v>
-      </c>
-      <c r="D242" t="s">
-        <v>854</v>
       </c>
       <c r="F242">
         <f t="shared" si="3"/>
@@ -9729,13 +9729,13 @@
         <v>704</v>
       </c>
       <c r="B243" t="s">
+        <v>854</v>
+      </c>
+      <c r="C243" t="s">
         <v>855</v>
       </c>
-      <c r="C243" t="s">
+      <c r="D243" t="s">
         <v>856</v>
-      </c>
-      <c r="D243" t="s">
-        <v>857</v>
       </c>
       <c r="F243">
         <f t="shared" si="3"/>
@@ -9747,13 +9747,13 @@
         <v>92</v>
       </c>
       <c r="B244" t="s">
+        <v>857</v>
+      </c>
+      <c r="C244" t="s">
         <v>858</v>
       </c>
-      <c r="C244" t="s">
+      <c r="D244" t="s">
         <v>859</v>
-      </c>
-      <c r="D244" t="s">
-        <v>860</v>
       </c>
       <c r="F244">
         <f t="shared" si="3"/>
@@ -9765,13 +9765,13 @@
         <v>850</v>
       </c>
       <c r="B245" t="s">
+        <v>860</v>
+      </c>
+      <c r="C245" t="s">
         <v>861</v>
       </c>
-      <c r="C245" t="s">
+      <c r="D245" t="s">
         <v>862</v>
-      </c>
-      <c r="D245" t="s">
-        <v>863</v>
       </c>
       <c r="F245">
         <f t="shared" si="3"/>
@@ -9783,13 +9783,13 @@
         <v>876</v>
       </c>
       <c r="B246" t="s">
+        <v>863</v>
+      </c>
+      <c r="C246" t="s">
         <v>864</v>
       </c>
-      <c r="C246" t="s">
+      <c r="D246" t="s">
         <v>865</v>
-      </c>
-      <c r="D246" t="s">
-        <v>866</v>
       </c>
       <c r="F246">
         <f t="shared" si="3"/>
@@ -9801,13 +9801,13 @@
         <v>732</v>
       </c>
       <c r="B247" t="s">
+        <v>866</v>
+      </c>
+      <c r="C247" t="s">
         <v>867</v>
       </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
         <v>868</v>
-      </c>
-      <c r="D247" t="s">
-        <v>869</v>
       </c>
       <c r="F247">
         <f t="shared" si="3"/>
@@ -9819,13 +9819,13 @@
         <v>887</v>
       </c>
       <c r="B248" t="s">
+        <v>869</v>
+      </c>
+      <c r="C248" t="s">
         <v>870</v>
       </c>
-      <c r="C248" t="s">
+      <c r="D248" t="s">
         <v>871</v>
-      </c>
-      <c r="D248" t="s">
-        <v>872</v>
       </c>
       <c r="F248">
         <f t="shared" si="3"/>
@@ -9837,13 +9837,13 @@
         <v>894</v>
       </c>
       <c r="B249" t="s">
+        <v>872</v>
+      </c>
+      <c r="C249" t="s">
         <v>873</v>
       </c>
-      <c r="C249" t="s">
+      <c r="D249" t="s">
         <v>874</v>
-      </c>
-      <c r="D249" t="s">
-        <v>875</v>
       </c>
       <c r="F249">
         <f t="shared" si="3"/>
@@ -9855,13 +9855,13 @@
         <v>716</v>
       </c>
       <c r="B250" t="s">
+        <v>875</v>
+      </c>
+      <c r="C250" t="s">
         <v>876</v>
       </c>
-      <c r="C250" t="s">
+      <c r="D250" t="s">
         <v>877</v>
-      </c>
-      <c r="D250" t="s">
-        <v>878</v>
       </c>
       <c r="F250">
         <f t="shared" si="3"/>
@@ -9873,13 +9873,13 @@
         <v>248</v>
       </c>
       <c r="B251" t="s">
+        <v>878</v>
+      </c>
+      <c r="C251" t="s">
         <v>879</v>
       </c>
-      <c r="C251" t="s">
+      <c r="D251" t="s">
         <v>880</v>
-      </c>
-      <c r="D251" t="s">
-        <v>881</v>
       </c>
       <c r="F251">
         <f t="shared" si="3"/>

--- a/DB_ImportFields.xlsx
+++ b/DB_ImportFields.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="0" windowWidth="24720" windowHeight="16580" tabRatio="678" activeTab="2"/>
+    <workbookView xWindow="580" yWindow="0" windowWidth="24720" windowHeight="16580" tabRatio="678" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="allg" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="929">
   <si>
     <t>People</t>
   </si>
@@ -2824,6 +2824,12 @@
   </si>
   <si>
     <t>Products&amp; Services</t>
+  </si>
+  <si>
+    <t>Fraud</t>
+  </si>
+  <si>
+    <t>Blackmail</t>
   </si>
 </sst>
 </file>
@@ -2964,10 +2970,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="159">
+  <cellStyleXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3211,7 +3218,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="159">
+  <cellStyles count="160">
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
@@ -3368,6 +3375,7 @@
     <cellStyle name="Besuchter Link" xfId="156" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="157" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="159" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1"/>
@@ -4228,7 +4236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -4686,14 +4694,14 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -5353,16 +5361,46 @@
       <c r="A36" s="41">
         <v>34</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="15" t="s">
         <v>912</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>895</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="15" t="s">
         <v>912</v>
       </c>
       <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="41">
+        <v>35</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>927</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>895</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>927</v>
+      </c>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="41">
+        <v>36</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>928</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>895</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>928</v>
+      </c>
+      <c r="E38" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E32"/>

--- a/DB_ImportFields.xlsx
+++ b/DB_ImportFields.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="0" windowWidth="24720" windowHeight="16580" tabRatio="678" activeTab="4"/>
+    <workbookView xWindow="580" yWindow="0" windowWidth="24720" windowHeight="16580" tabRatio="678" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="allg" sheetId="8" r:id="rId1"/>
@@ -420,9 +420,6 @@
     <t>Name_long</t>
   </si>
   <si>
-    <t>Animal</t>
-  </si>
-  <si>
     <t>Sust_Domain</t>
   </si>
   <si>
@@ -2830,6 +2827,9 @@
   </si>
   <si>
     <t>Blackmail</t>
+  </si>
+  <si>
+    <t>Animals</t>
   </si>
 </sst>
 </file>
@@ -4085,14 +4085,14 @@
         <v>46</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>910</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>911</v>
       </c>
       <c r="J15" s="6"/>
     </row>
@@ -4214,7 +4214,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
@@ -4236,8 +4236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -4267,11 +4267,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>928</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4303,7 +4303,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D7">
         <f>LEN(B7)</f>
@@ -4345,7 +4345,7 @@
         <v>124</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4353,10 +4353,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4375,10 +4375,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4419,10 +4419,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -4441,10 +4441,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -4485,10 +4485,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C9" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -4507,10 +4507,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -4551,10 +4551,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C12" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -4573,10 +4573,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C13" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -4617,10 +4617,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C15" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -4639,10 +4639,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -4696,12 +4696,12 @@
   </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -4722,10 +4722,10 @@
         <v>122</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>7</v>
@@ -4735,7 +4735,7 @@
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
       <c r="C2" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="39"/>
@@ -4745,13 +4745,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" s="15"/>
       <c r="G3" s="7">
@@ -4764,13 +4764,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" s="15"/>
       <c r="G4" s="7">
@@ -4786,7 +4786,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>23</v>
@@ -4805,7 +4805,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>24</v>
@@ -4821,13 +4821,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>60</v>
@@ -4845,7 +4845,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>13</v>
@@ -4864,7 +4864,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>18</v>
@@ -4883,7 +4883,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>20</v>
@@ -4902,7 +4902,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>19</v>
@@ -4921,7 +4921,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>8</v>
@@ -4940,10 +4940,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E13" s="15"/>
       <c r="G13" s="7">
@@ -4959,10 +4959,10 @@
         <v>21</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E14" s="15"/>
       <c r="G14" s="7">
@@ -4978,10 +4978,10 @@
         <v>22</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E15" s="15"/>
       <c r="G15" s="7">
@@ -4997,7 +4997,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>37</v>
@@ -5016,7 +5016,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>9</v>
@@ -5035,7 +5035,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>14</v>
@@ -5054,7 +5054,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>10</v>
@@ -5073,7 +5073,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>15</v>
@@ -5089,10 +5089,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>17</v>
@@ -5111,7 +5111,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>11</v>
@@ -5127,13 +5127,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>894</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>903</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>895</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>904</v>
       </c>
       <c r="E23" s="15"/>
       <c r="G23" s="7">
@@ -5146,13 +5146,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E24" s="15"/>
       <c r="G24" s="7">
@@ -5165,13 +5165,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E25" s="15"/>
       <c r="G25" s="7">
@@ -5184,13 +5184,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E26" s="15"/>
       <c r="G26" s="7">
@@ -5203,13 +5203,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E27" s="15"/>
       <c r="G27" s="7">
@@ -5222,13 +5222,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E28" s="15"/>
       <c r="G28" s="7">
@@ -5241,13 +5241,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E29" s="15"/>
       <c r="G29" s="7">
@@ -5260,10 +5260,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>59</v>
@@ -5282,7 +5282,7 @@
         <v>12</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>12</v>
@@ -5298,13 +5298,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E32" s="15"/>
       <c r="G32" s="7">
@@ -5317,13 +5317,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C33" s="15" t="s">
+        <v>905</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>906</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>907</v>
       </c>
       <c r="E33" s="15"/>
     </row>
@@ -5332,13 +5332,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="15" t="s">
+        <v>904</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>905</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>906</v>
-      </c>
       <c r="D34" s="15" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E34" s="15"/>
     </row>
@@ -5347,13 +5347,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E35" s="15"/>
     </row>
@@ -5362,13 +5362,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E36" s="15"/>
     </row>
@@ -5377,13 +5377,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E37" s="15"/>
     </row>
@@ -5392,13 +5392,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E38" s="15"/>
     </row>
@@ -5432,10 +5432,10 @@
         <v>122</v>
       </c>
       <c r="C1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D1" t="s">
         <v>881</v>
-      </c>
-      <c r="D1" t="s">
-        <v>882</v>
       </c>
       <c r="F1">
         <f>MAX(F3:F276)</f>
@@ -5447,13 +5447,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" t="s">
         <v>134</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>135</v>
-      </c>
-      <c r="D3" t="s">
-        <v>136</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F65" si="0">LEN(B3)</f>
@@ -5465,13 +5465,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" t="s">
         <v>137</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>138</v>
-      </c>
-      <c r="D4" t="s">
-        <v>139</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -5483,13 +5483,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
         <v>140</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>141</v>
-      </c>
-      <c r="D5" t="s">
-        <v>142</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -5501,13 +5501,13 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" t="s">
         <v>143</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>144</v>
-      </c>
-      <c r="D6" t="s">
-        <v>145</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -5519,13 +5519,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" t="s">
         <v>146</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>147</v>
-      </c>
-      <c r="D7" t="s">
-        <v>148</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -5537,13 +5537,13 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" t="s">
         <v>149</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>150</v>
-      </c>
-      <c r="D8" t="s">
-        <v>151</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -5555,13 +5555,13 @@
         <v>660</v>
       </c>
       <c r="B9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" t="s">
         <v>152</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>153</v>
-      </c>
-      <c r="D9" t="s">
-        <v>154</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -5573,13 +5573,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" t="s">
         <v>155</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>156</v>
-      </c>
-      <c r="D10" t="s">
-        <v>157</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -5591,13 +5591,13 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" t="s">
         <v>158</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>159</v>
-      </c>
-      <c r="D11" t="s">
-        <v>160</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -5609,13 +5609,13 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" t="s">
         <v>161</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>162</v>
-      </c>
-      <c r="D12" t="s">
-        <v>163</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -5627,13 +5627,13 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" t="s">
         <v>164</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>165</v>
-      </c>
-      <c r="D13" t="s">
-        <v>166</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -5645,13 +5645,13 @@
         <v>533</v>
       </c>
       <c r="B14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" t="s">
         <v>167</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>168</v>
-      </c>
-      <c r="D14" t="s">
-        <v>169</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -5663,13 +5663,13 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" t="s">
         <v>170</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>171</v>
-      </c>
-      <c r="D15" t="s">
-        <v>172</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -5681,13 +5681,13 @@
         <v>40</v>
       </c>
       <c r="B16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" t="s">
         <v>173</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>174</v>
-      </c>
-      <c r="D16" t="s">
-        <v>175</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -5699,13 +5699,13 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" t="s">
         <v>176</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>177</v>
-      </c>
-      <c r="D17" t="s">
-        <v>178</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -5717,13 +5717,13 @@
         <v>44</v>
       </c>
       <c r="B18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" t="s">
         <v>179</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>180</v>
-      </c>
-      <c r="D18" t="s">
-        <v>181</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
@@ -5735,13 +5735,13 @@
         <v>48</v>
       </c>
       <c r="B19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" t="s">
         <v>182</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>183</v>
-      </c>
-      <c r="D19" t="s">
-        <v>184</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
@@ -5753,13 +5753,13 @@
         <v>50</v>
       </c>
       <c r="B20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" t="s">
         <v>185</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>186</v>
-      </c>
-      <c r="D20" t="s">
-        <v>187</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
@@ -5771,13 +5771,13 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" t="s">
         <v>188</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>189</v>
-      </c>
-      <c r="D21" t="s">
-        <v>190</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
@@ -5789,13 +5789,13 @@
         <v>112</v>
       </c>
       <c r="B22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" t="s">
         <v>191</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>192</v>
-      </c>
-      <c r="D22" t="s">
-        <v>193</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
@@ -5807,13 +5807,13 @@
         <v>56</v>
       </c>
       <c r="B23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" t="s">
         <v>194</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>195</v>
-      </c>
-      <c r="D23" t="s">
-        <v>196</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
@@ -5825,13 +5825,13 @@
         <v>84</v>
       </c>
       <c r="B24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C24" t="s">
         <v>197</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>198</v>
-      </c>
-      <c r="D24" t="s">
-        <v>199</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
@@ -5843,13 +5843,13 @@
         <v>204</v>
       </c>
       <c r="B25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" t="s">
         <v>200</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>201</v>
-      </c>
-      <c r="D25" t="s">
-        <v>202</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
@@ -5861,13 +5861,13 @@
         <v>60</v>
       </c>
       <c r="B26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" t="s">
         <v>203</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>204</v>
-      </c>
-      <c r="D26" t="s">
-        <v>205</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
@@ -5879,13 +5879,13 @@
         <v>64</v>
       </c>
       <c r="B27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" t="s">
         <v>206</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>207</v>
-      </c>
-      <c r="D27" t="s">
-        <v>208</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
@@ -5897,13 +5897,13 @@
         <v>68</v>
       </c>
       <c r="B28" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" t="s">
         <v>209</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>210</v>
-      </c>
-      <c r="D28" t="s">
-        <v>211</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
@@ -5915,13 +5915,13 @@
         <v>535</v>
       </c>
       <c r="B29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29" t="s">
         <v>212</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>213</v>
-      </c>
-      <c r="D29" t="s">
-        <v>214</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
@@ -5933,13 +5933,13 @@
         <v>70</v>
       </c>
       <c r="B30" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" t="s">
         <v>215</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>216</v>
-      </c>
-      <c r="D30" t="s">
-        <v>217</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
@@ -5951,13 +5951,13 @@
         <v>72</v>
       </c>
       <c r="B31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" t="s">
         <v>218</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>219</v>
-      </c>
-      <c r="D31" t="s">
-        <v>220</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
@@ -5969,13 +5969,13 @@
         <v>74</v>
       </c>
       <c r="B32" t="s">
+        <v>220</v>
+      </c>
+      <c r="C32" t="s">
         <v>221</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>222</v>
-      </c>
-      <c r="D32" t="s">
-        <v>223</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
@@ -5987,13 +5987,13 @@
         <v>76</v>
       </c>
       <c r="B33" t="s">
+        <v>223</v>
+      </c>
+      <c r="C33" t="s">
         <v>224</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>225</v>
-      </c>
-      <c r="D33" t="s">
-        <v>226</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
@@ -6005,13 +6005,13 @@
         <v>86</v>
       </c>
       <c r="B34" t="s">
+        <v>226</v>
+      </c>
+      <c r="C34" t="s">
         <v>227</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>228</v>
-      </c>
-      <c r="D34" t="s">
-        <v>229</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
@@ -6023,13 +6023,13 @@
         <v>96</v>
       </c>
       <c r="B35" t="s">
+        <v>229</v>
+      </c>
+      <c r="C35" t="s">
         <v>230</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>231</v>
-      </c>
-      <c r="D35" t="s">
-        <v>232</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
@@ -6041,13 +6041,13 @@
         <v>100</v>
       </c>
       <c r="B36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C36" t="s">
         <v>233</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>234</v>
-      </c>
-      <c r="D36" t="s">
-        <v>235</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
@@ -6059,13 +6059,13 @@
         <v>854</v>
       </c>
       <c r="B37" t="s">
+        <v>235</v>
+      </c>
+      <c r="C37" t="s">
         <v>236</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>237</v>
-      </c>
-      <c r="D37" t="s">
-        <v>238</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
@@ -6077,13 +6077,13 @@
         <v>108</v>
       </c>
       <c r="B38" t="s">
+        <v>238</v>
+      </c>
+      <c r="C38" t="s">
         <v>239</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>240</v>
-      </c>
-      <c r="D38" t="s">
-        <v>241</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
@@ -6095,13 +6095,13 @@
         <v>132</v>
       </c>
       <c r="B39" t="s">
+        <v>241</v>
+      </c>
+      <c r="C39" t="s">
         <v>242</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>243</v>
-      </c>
-      <c r="D39" t="s">
-        <v>244</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
@@ -6113,13 +6113,13 @@
         <v>116</v>
       </c>
       <c r="B40" t="s">
+        <v>244</v>
+      </c>
+      <c r="C40" t="s">
         <v>245</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>246</v>
-      </c>
-      <c r="D40" t="s">
-        <v>247</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
@@ -6131,13 +6131,13 @@
         <v>120</v>
       </c>
       <c r="B41" t="s">
+        <v>247</v>
+      </c>
+      <c r="C41" t="s">
         <v>248</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>249</v>
-      </c>
-      <c r="D41" t="s">
-        <v>250</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
@@ -6149,13 +6149,13 @@
         <v>124</v>
       </c>
       <c r="B42" t="s">
+        <v>250</v>
+      </c>
+      <c r="C42" t="s">
         <v>251</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>252</v>
-      </c>
-      <c r="D42" t="s">
-        <v>253</v>
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
@@ -6167,13 +6167,13 @@
         <v>136</v>
       </c>
       <c r="B43" t="s">
+        <v>253</v>
+      </c>
+      <c r="C43" t="s">
         <v>254</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>255</v>
-      </c>
-      <c r="D43" t="s">
-        <v>256</v>
       </c>
       <c r="F43">
         <f t="shared" si="0"/>
@@ -6185,13 +6185,13 @@
         <v>140</v>
       </c>
       <c r="B44" t="s">
+        <v>256</v>
+      </c>
+      <c r="C44" t="s">
         <v>257</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>258</v>
-      </c>
-      <c r="D44" t="s">
-        <v>259</v>
       </c>
       <c r="F44">
         <f t="shared" si="0"/>
@@ -6203,13 +6203,13 @@
         <v>148</v>
       </c>
       <c r="B45" t="s">
+        <v>259</v>
+      </c>
+      <c r="C45" t="s">
         <v>260</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>261</v>
-      </c>
-      <c r="D45" t="s">
-        <v>262</v>
       </c>
       <c r="F45">
         <f t="shared" si="0"/>
@@ -6221,13 +6221,13 @@
         <v>152</v>
       </c>
       <c r="B46" t="s">
+        <v>262</v>
+      </c>
+      <c r="C46" t="s">
         <v>263</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>264</v>
-      </c>
-      <c r="D46" t="s">
-        <v>265</v>
       </c>
       <c r="F46">
         <f t="shared" si="0"/>
@@ -6239,13 +6239,13 @@
         <v>156</v>
       </c>
       <c r="B47" t="s">
+        <v>265</v>
+      </c>
+      <c r="C47" t="s">
         <v>266</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>267</v>
-      </c>
-      <c r="D47" t="s">
-        <v>268</v>
       </c>
       <c r="F47">
         <f t="shared" si="0"/>
@@ -6257,13 +6257,13 @@
         <v>162</v>
       </c>
       <c r="B48" t="s">
+        <v>268</v>
+      </c>
+      <c r="C48" t="s">
         <v>269</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>270</v>
-      </c>
-      <c r="D48" t="s">
-        <v>271</v>
       </c>
       <c r="F48">
         <f t="shared" si="0"/>
@@ -6275,13 +6275,13 @@
         <v>166</v>
       </c>
       <c r="B49" t="s">
+        <v>271</v>
+      </c>
+      <c r="C49" t="s">
         <v>272</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>273</v>
-      </c>
-      <c r="D49" t="s">
-        <v>274</v>
       </c>
       <c r="F49">
         <f t="shared" si="0"/>
@@ -6293,13 +6293,13 @@
         <v>170</v>
       </c>
       <c r="B50" t="s">
+        <v>274</v>
+      </c>
+      <c r="C50" t="s">
         <v>275</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>276</v>
-      </c>
-      <c r="D50" t="s">
-        <v>277</v>
       </c>
       <c r="F50">
         <f t="shared" si="0"/>
@@ -6311,13 +6311,13 @@
         <v>174</v>
       </c>
       <c r="B51" t="s">
+        <v>277</v>
+      </c>
+      <c r="C51" t="s">
         <v>278</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>279</v>
-      </c>
-      <c r="D51" t="s">
-        <v>280</v>
       </c>
       <c r="F51">
         <f t="shared" si="0"/>
@@ -6329,13 +6329,13 @@
         <v>180</v>
       </c>
       <c r="B52" t="s">
+        <v>280</v>
+      </c>
+      <c r="C52" t="s">
         <v>281</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>282</v>
-      </c>
-      <c r="D52" t="s">
-        <v>283</v>
       </c>
       <c r="F52">
         <f t="shared" si="0"/>
@@ -6347,13 +6347,13 @@
         <v>178</v>
       </c>
       <c r="B53" t="s">
+        <v>283</v>
+      </c>
+      <c r="C53" t="s">
         <v>284</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>285</v>
-      </c>
-      <c r="D53" t="s">
-        <v>286</v>
       </c>
       <c r="F53">
         <f t="shared" si="0"/>
@@ -6365,13 +6365,13 @@
         <v>184</v>
       </c>
       <c r="B54" t="s">
+        <v>286</v>
+      </c>
+      <c r="C54" t="s">
         <v>287</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>288</v>
-      </c>
-      <c r="D54" t="s">
-        <v>289</v>
       </c>
       <c r="F54">
         <f t="shared" si="0"/>
@@ -6383,13 +6383,13 @@
         <v>188</v>
       </c>
       <c r="B55" t="s">
+        <v>289</v>
+      </c>
+      <c r="C55" t="s">
         <v>290</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>291</v>
-      </c>
-      <c r="D55" t="s">
-        <v>292</v>
       </c>
       <c r="F55">
         <f t="shared" si="0"/>
@@ -6401,13 +6401,13 @@
         <v>191</v>
       </c>
       <c r="B56" t="s">
+        <v>292</v>
+      </c>
+      <c r="C56" t="s">
         <v>293</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>294</v>
-      </c>
-      <c r="D56" t="s">
-        <v>295</v>
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
@@ -6419,13 +6419,13 @@
         <v>192</v>
       </c>
       <c r="B57" t="s">
+        <v>295</v>
+      </c>
+      <c r="C57" t="s">
         <v>296</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>297</v>
-      </c>
-      <c r="D57" t="s">
-        <v>298</v>
       </c>
       <c r="F57">
         <f t="shared" si="0"/>
@@ -6437,13 +6437,13 @@
         <v>531</v>
       </c>
       <c r="B58" t="s">
+        <v>298</v>
+      </c>
+      <c r="C58" t="s">
         <v>299</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>300</v>
-      </c>
-      <c r="D58" t="s">
-        <v>301</v>
       </c>
       <c r="F58">
         <f t="shared" si="0"/>
@@ -6455,13 +6455,13 @@
         <v>196</v>
       </c>
       <c r="B59" t="s">
+        <v>301</v>
+      </c>
+      <c r="C59" t="s">
         <v>302</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>303</v>
-      </c>
-      <c r="D59" t="s">
-        <v>304</v>
       </c>
       <c r="F59">
         <f t="shared" si="0"/>
@@ -6473,13 +6473,13 @@
         <v>203</v>
       </c>
       <c r="B60" t="s">
+        <v>304</v>
+      </c>
+      <c r="C60" t="s">
         <v>305</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>306</v>
-      </c>
-      <c r="D60" t="s">
-        <v>307</v>
       </c>
       <c r="F60">
         <f t="shared" si="0"/>
@@ -6491,13 +6491,13 @@
         <v>384</v>
       </c>
       <c r="B61" t="s">
+        <v>307</v>
+      </c>
+      <c r="C61" t="s">
         <v>308</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>309</v>
-      </c>
-      <c r="D61" t="s">
-        <v>310</v>
       </c>
       <c r="F61">
         <f t="shared" si="0"/>
@@ -6509,13 +6509,13 @@
         <v>208</v>
       </c>
       <c r="B62" t="s">
+        <v>310</v>
+      </c>
+      <c r="C62" t="s">
         <v>311</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>312</v>
-      </c>
-      <c r="D62" t="s">
-        <v>313</v>
       </c>
       <c r="F62">
         <f t="shared" si="0"/>
@@ -6527,13 +6527,13 @@
         <v>262</v>
       </c>
       <c r="B63" t="s">
+        <v>313</v>
+      </c>
+      <c r="C63" t="s">
         <v>314</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>315</v>
-      </c>
-      <c r="D63" t="s">
-        <v>316</v>
       </c>
       <c r="F63">
         <f t="shared" si="0"/>
@@ -6545,13 +6545,13 @@
         <v>212</v>
       </c>
       <c r="B64" t="s">
+        <v>316</v>
+      </c>
+      <c r="C64" t="s">
         <v>317</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>318</v>
-      </c>
-      <c r="D64" t="s">
-        <v>319</v>
       </c>
       <c r="F64">
         <f t="shared" si="0"/>
@@ -6563,13 +6563,13 @@
         <v>214</v>
       </c>
       <c r="B65" t="s">
+        <v>319</v>
+      </c>
+      <c r="C65" t="s">
         <v>320</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>321</v>
-      </c>
-      <c r="D65" t="s">
-        <v>322</v>
       </c>
       <c r="F65">
         <f t="shared" si="0"/>
@@ -6581,13 +6581,13 @@
         <v>218</v>
       </c>
       <c r="B66" t="s">
+        <v>322</v>
+      </c>
+      <c r="C66" t="s">
         <v>323</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>324</v>
-      </c>
-      <c r="D66" t="s">
-        <v>325</v>
       </c>
       <c r="F66">
         <f t="shared" ref="F66:F129" si="1">LEN(B66)</f>
@@ -6599,13 +6599,13 @@
         <v>818</v>
       </c>
       <c r="B67" t="s">
+        <v>325</v>
+      </c>
+      <c r="C67" t="s">
         <v>326</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>327</v>
-      </c>
-      <c r="D67" t="s">
-        <v>328</v>
       </c>
       <c r="F67">
         <f t="shared" si="1"/>
@@ -6617,13 +6617,13 @@
         <v>222</v>
       </c>
       <c r="B68" t="s">
+        <v>328</v>
+      </c>
+      <c r="C68" t="s">
         <v>329</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>330</v>
-      </c>
-      <c r="D68" t="s">
-        <v>331</v>
       </c>
       <c r="F68">
         <f t="shared" si="1"/>
@@ -6635,13 +6635,13 @@
         <v>226</v>
       </c>
       <c r="B69" t="s">
+        <v>331</v>
+      </c>
+      <c r="C69" t="s">
         <v>332</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>333</v>
-      </c>
-      <c r="D69" t="s">
-        <v>334</v>
       </c>
       <c r="F69">
         <f t="shared" si="1"/>
@@ -6653,13 +6653,13 @@
         <v>232</v>
       </c>
       <c r="B70" t="s">
+        <v>334</v>
+      </c>
+      <c r="C70" t="s">
         <v>335</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>336</v>
-      </c>
-      <c r="D70" t="s">
-        <v>337</v>
       </c>
       <c r="F70">
         <f t="shared" si="1"/>
@@ -6671,13 +6671,13 @@
         <v>233</v>
       </c>
       <c r="B71" t="s">
+        <v>337</v>
+      </c>
+      <c r="C71" t="s">
         <v>338</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>339</v>
-      </c>
-      <c r="D71" t="s">
-        <v>340</v>
       </c>
       <c r="F71">
         <f t="shared" si="1"/>
@@ -6689,13 +6689,13 @@
         <v>748</v>
       </c>
       <c r="B72" t="s">
+        <v>340</v>
+      </c>
+      <c r="C72" t="s">
         <v>341</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>342</v>
-      </c>
-      <c r="D72" t="s">
-        <v>343</v>
       </c>
       <c r="F72">
         <f t="shared" si="1"/>
@@ -6707,13 +6707,13 @@
         <v>231</v>
       </c>
       <c r="B73" t="s">
+        <v>343</v>
+      </c>
+      <c r="C73" t="s">
         <v>344</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>345</v>
-      </c>
-      <c r="D73" t="s">
-        <v>346</v>
       </c>
       <c r="F73">
         <f t="shared" si="1"/>
@@ -6725,13 +6725,13 @@
         <v>238</v>
       </c>
       <c r="B74" t="s">
+        <v>346</v>
+      </c>
+      <c r="C74" t="s">
         <v>347</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>348</v>
-      </c>
-      <c r="D74" t="s">
-        <v>349</v>
       </c>
       <c r="F74">
         <f t="shared" si="1"/>
@@ -6743,13 +6743,13 @@
         <v>234</v>
       </c>
       <c r="B75" t="s">
+        <v>349</v>
+      </c>
+      <c r="C75" t="s">
         <v>350</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>351</v>
-      </c>
-      <c r="D75" t="s">
-        <v>352</v>
       </c>
       <c r="F75">
         <f t="shared" si="1"/>
@@ -6761,13 +6761,13 @@
         <v>242</v>
       </c>
       <c r="B76" t="s">
+        <v>352</v>
+      </c>
+      <c r="C76" t="s">
         <v>353</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>354</v>
-      </c>
-      <c r="D76" t="s">
-        <v>355</v>
       </c>
       <c r="F76">
         <f t="shared" si="1"/>
@@ -6779,13 +6779,13 @@
         <v>246</v>
       </c>
       <c r="B77" t="s">
+        <v>355</v>
+      </c>
+      <c r="C77" t="s">
         <v>356</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>357</v>
-      </c>
-      <c r="D77" t="s">
-        <v>358</v>
       </c>
       <c r="F77">
         <f t="shared" si="1"/>
@@ -6797,13 +6797,13 @@
         <v>250</v>
       </c>
       <c r="B78" t="s">
+        <v>358</v>
+      </c>
+      <c r="C78" t="s">
         <v>359</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>360</v>
-      </c>
-      <c r="D78" t="s">
-        <v>361</v>
       </c>
       <c r="F78">
         <f t="shared" si="1"/>
@@ -6815,13 +6815,13 @@
         <v>254</v>
       </c>
       <c r="B79" t="s">
+        <v>361</v>
+      </c>
+      <c r="C79" t="s">
         <v>362</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>363</v>
-      </c>
-      <c r="D79" t="s">
-        <v>364</v>
       </c>
       <c r="F79">
         <f t="shared" si="1"/>
@@ -6833,13 +6833,13 @@
         <v>258</v>
       </c>
       <c r="B80" t="s">
+        <v>364</v>
+      </c>
+      <c r="C80" t="s">
         <v>365</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>366</v>
-      </c>
-      <c r="D80" t="s">
-        <v>367</v>
       </c>
       <c r="F80">
         <f t="shared" si="1"/>
@@ -6851,13 +6851,13 @@
         <v>260</v>
       </c>
       <c r="B81" t="s">
+        <v>367</v>
+      </c>
+      <c r="C81" t="s">
         <v>368</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>369</v>
-      </c>
-      <c r="D81" t="s">
-        <v>370</v>
       </c>
       <c r="F81">
         <f t="shared" si="1"/>
@@ -6869,13 +6869,13 @@
         <v>266</v>
       </c>
       <c r="B82" t="s">
+        <v>370</v>
+      </c>
+      <c r="C82" t="s">
         <v>371</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>372</v>
-      </c>
-      <c r="D82" t="s">
-        <v>373</v>
       </c>
       <c r="F82">
         <f t="shared" si="1"/>
@@ -6887,13 +6887,13 @@
         <v>270</v>
       </c>
       <c r="B83" t="s">
+        <v>373</v>
+      </c>
+      <c r="C83" t="s">
         <v>374</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>375</v>
-      </c>
-      <c r="D83" t="s">
-        <v>376</v>
       </c>
       <c r="F83">
         <f t="shared" si="1"/>
@@ -6905,13 +6905,13 @@
         <v>268</v>
       </c>
       <c r="B84" t="s">
+        <v>376</v>
+      </c>
+      <c r="C84" t="s">
         <v>377</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>378</v>
-      </c>
-      <c r="D84" t="s">
-        <v>379</v>
       </c>
       <c r="F84">
         <f t="shared" si="1"/>
@@ -6923,13 +6923,13 @@
         <v>276</v>
       </c>
       <c r="B85" t="s">
+        <v>379</v>
+      </c>
+      <c r="C85" t="s">
         <v>380</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>381</v>
-      </c>
-      <c r="D85" t="s">
-        <v>382</v>
       </c>
       <c r="F85">
         <f t="shared" si="1"/>
@@ -6941,13 +6941,13 @@
         <v>288</v>
       </c>
       <c r="B86" t="s">
+        <v>382</v>
+      </c>
+      <c r="C86" t="s">
         <v>383</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>384</v>
-      </c>
-      <c r="D86" t="s">
-        <v>385</v>
       </c>
       <c r="F86">
         <f t="shared" si="1"/>
@@ -6959,13 +6959,13 @@
         <v>292</v>
       </c>
       <c r="B87" t="s">
+        <v>385</v>
+      </c>
+      <c r="C87" t="s">
         <v>386</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>387</v>
-      </c>
-      <c r="D87" t="s">
-        <v>388</v>
       </c>
       <c r="F87">
         <f t="shared" si="1"/>
@@ -6977,13 +6977,13 @@
         <v>300</v>
       </c>
       <c r="B88" t="s">
+        <v>388</v>
+      </c>
+      <c r="C88" t="s">
         <v>389</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>390</v>
-      </c>
-      <c r="D88" t="s">
-        <v>391</v>
       </c>
       <c r="F88">
         <f t="shared" si="1"/>
@@ -6995,13 +6995,13 @@
         <v>304</v>
       </c>
       <c r="B89" t="s">
+        <v>391</v>
+      </c>
+      <c r="C89" t="s">
         <v>392</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>393</v>
-      </c>
-      <c r="D89" t="s">
-        <v>394</v>
       </c>
       <c r="F89">
         <f t="shared" si="1"/>
@@ -7013,13 +7013,13 @@
         <v>308</v>
       </c>
       <c r="B90" t="s">
+        <v>394</v>
+      </c>
+      <c r="C90" t="s">
         <v>395</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>396</v>
-      </c>
-      <c r="D90" t="s">
-        <v>397</v>
       </c>
       <c r="F90">
         <f t="shared" si="1"/>
@@ -7031,13 +7031,13 @@
         <v>312</v>
       </c>
       <c r="B91" t="s">
+        <v>397</v>
+      </c>
+      <c r="C91" t="s">
         <v>398</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>399</v>
-      </c>
-      <c r="D91" t="s">
-        <v>400</v>
       </c>
       <c r="F91">
         <f t="shared" si="1"/>
@@ -7049,13 +7049,13 @@
         <v>316</v>
       </c>
       <c r="B92" t="s">
+        <v>400</v>
+      </c>
+      <c r="C92" t="s">
         <v>401</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>402</v>
-      </c>
-      <c r="D92" t="s">
-        <v>403</v>
       </c>
       <c r="F92">
         <f t="shared" si="1"/>
@@ -7067,13 +7067,13 @@
         <v>320</v>
       </c>
       <c r="B93" t="s">
+        <v>403</v>
+      </c>
+      <c r="C93" t="s">
         <v>404</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>405</v>
-      </c>
-      <c r="D93" t="s">
-        <v>406</v>
       </c>
       <c r="F93">
         <f t="shared" si="1"/>
@@ -7085,13 +7085,13 @@
         <v>831</v>
       </c>
       <c r="B94" t="s">
+        <v>406</v>
+      </c>
+      <c r="C94" t="s">
         <v>407</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>408</v>
-      </c>
-      <c r="D94" t="s">
-        <v>409</v>
       </c>
       <c r="F94">
         <f t="shared" si="1"/>
@@ -7103,13 +7103,13 @@
         <v>324</v>
       </c>
       <c r="B95" t="s">
+        <v>409</v>
+      </c>
+      <c r="C95" t="s">
         <v>410</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>411</v>
-      </c>
-      <c r="D95" t="s">
-        <v>412</v>
       </c>
       <c r="F95">
         <f t="shared" si="1"/>
@@ -7121,13 +7121,13 @@
         <v>624</v>
       </c>
       <c r="B96" t="s">
+        <v>412</v>
+      </c>
+      <c r="C96" t="s">
         <v>413</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>414</v>
-      </c>
-      <c r="D96" t="s">
-        <v>415</v>
       </c>
       <c r="F96">
         <f t="shared" si="1"/>
@@ -7139,13 +7139,13 @@
         <v>328</v>
       </c>
       <c r="B97" t="s">
+        <v>415</v>
+      </c>
+      <c r="C97" t="s">
         <v>416</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>417</v>
-      </c>
-      <c r="D97" t="s">
-        <v>418</v>
       </c>
       <c r="F97">
         <f t="shared" si="1"/>
@@ -7157,13 +7157,13 @@
         <v>332</v>
       </c>
       <c r="B98" t="s">
+        <v>418</v>
+      </c>
+      <c r="C98" t="s">
         <v>419</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>420</v>
-      </c>
-      <c r="D98" t="s">
-        <v>421</v>
       </c>
       <c r="F98">
         <f t="shared" si="1"/>
@@ -7175,13 +7175,13 @@
         <v>334</v>
       </c>
       <c r="B99" t="s">
+        <v>421</v>
+      </c>
+      <c r="C99" t="s">
         <v>422</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>423</v>
-      </c>
-      <c r="D99" t="s">
-        <v>424</v>
       </c>
       <c r="F99">
         <f t="shared" si="1"/>
@@ -7193,13 +7193,13 @@
         <v>336</v>
       </c>
       <c r="B100" t="s">
+        <v>424</v>
+      </c>
+      <c r="C100" t="s">
         <v>425</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>426</v>
-      </c>
-      <c r="D100" t="s">
-        <v>427</v>
       </c>
       <c r="F100">
         <f t="shared" si="1"/>
@@ -7211,13 +7211,13 @@
         <v>340</v>
       </c>
       <c r="B101" t="s">
+        <v>427</v>
+      </c>
+      <c r="C101" t="s">
         <v>428</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>429</v>
-      </c>
-      <c r="D101" t="s">
-        <v>430</v>
       </c>
       <c r="F101">
         <f t="shared" si="1"/>
@@ -7229,13 +7229,13 @@
         <v>344</v>
       </c>
       <c r="B102" t="s">
+        <v>430</v>
+      </c>
+      <c r="C102" t="s">
         <v>431</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>432</v>
-      </c>
-      <c r="D102" t="s">
-        <v>433</v>
       </c>
       <c r="F102">
         <f t="shared" si="1"/>
@@ -7247,13 +7247,13 @@
         <v>348</v>
       </c>
       <c r="B103" t="s">
+        <v>433</v>
+      </c>
+      <c r="C103" t="s">
         <v>434</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>435</v>
-      </c>
-      <c r="D103" t="s">
-        <v>436</v>
       </c>
       <c r="F103">
         <f t="shared" si="1"/>
@@ -7265,13 +7265,13 @@
         <v>352</v>
       </c>
       <c r="B104" t="s">
+        <v>436</v>
+      </c>
+      <c r="C104" t="s">
         <v>437</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>438</v>
-      </c>
-      <c r="D104" t="s">
-        <v>439</v>
       </c>
       <c r="F104">
         <f t="shared" si="1"/>
@@ -7283,13 +7283,13 @@
         <v>356</v>
       </c>
       <c r="B105" t="s">
+        <v>439</v>
+      </c>
+      <c r="C105" t="s">
         <v>440</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>441</v>
-      </c>
-      <c r="D105" t="s">
-        <v>442</v>
       </c>
       <c r="F105">
         <f t="shared" si="1"/>
@@ -7301,13 +7301,13 @@
         <v>360</v>
       </c>
       <c r="B106" t="s">
+        <v>442</v>
+      </c>
+      <c r="C106" t="s">
         <v>443</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>444</v>
-      </c>
-      <c r="D106" t="s">
-        <v>445</v>
       </c>
       <c r="F106">
         <f t="shared" si="1"/>
@@ -7319,13 +7319,13 @@
         <v>364</v>
       </c>
       <c r="B107" t="s">
+        <v>445</v>
+      </c>
+      <c r="C107" t="s">
         <v>446</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>447</v>
-      </c>
-      <c r="D107" t="s">
-        <v>448</v>
       </c>
       <c r="F107">
         <f t="shared" si="1"/>
@@ -7337,13 +7337,13 @@
         <v>368</v>
       </c>
       <c r="B108" t="s">
+        <v>448</v>
+      </c>
+      <c r="C108" t="s">
         <v>449</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>450</v>
-      </c>
-      <c r="D108" t="s">
-        <v>451</v>
       </c>
       <c r="F108">
         <f t="shared" si="1"/>
@@ -7355,13 +7355,13 @@
         <v>372</v>
       </c>
       <c r="B109" t="s">
+        <v>451</v>
+      </c>
+      <c r="C109" t="s">
         <v>452</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>453</v>
-      </c>
-      <c r="D109" t="s">
-        <v>454</v>
       </c>
       <c r="F109">
         <f t="shared" si="1"/>
@@ -7373,13 +7373,13 @@
         <v>833</v>
       </c>
       <c r="B110" t="s">
+        <v>454</v>
+      </c>
+      <c r="C110" t="s">
         <v>455</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>456</v>
-      </c>
-      <c r="D110" t="s">
-        <v>457</v>
       </c>
       <c r="F110">
         <f t="shared" si="1"/>
@@ -7391,13 +7391,13 @@
         <v>376</v>
       </c>
       <c r="B111" t="s">
+        <v>457</v>
+      </c>
+      <c r="C111" t="s">
         <v>458</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>459</v>
-      </c>
-      <c r="D111" t="s">
-        <v>460</v>
       </c>
       <c r="F111">
         <f t="shared" si="1"/>
@@ -7409,13 +7409,13 @@
         <v>380</v>
       </c>
       <c r="B112" t="s">
+        <v>460</v>
+      </c>
+      <c r="C112" t="s">
         <v>461</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>462</v>
-      </c>
-      <c r="D112" t="s">
-        <v>463</v>
       </c>
       <c r="F112">
         <f t="shared" si="1"/>
@@ -7427,13 +7427,13 @@
         <v>388</v>
       </c>
       <c r="B113" t="s">
+        <v>463</v>
+      </c>
+      <c r="C113" t="s">
         <v>464</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>465</v>
-      </c>
-      <c r="D113" t="s">
-        <v>466</v>
       </c>
       <c r="F113">
         <f t="shared" si="1"/>
@@ -7445,13 +7445,13 @@
         <v>392</v>
       </c>
       <c r="B114" t="s">
+        <v>466</v>
+      </c>
+      <c r="C114" t="s">
         <v>467</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>468</v>
-      </c>
-      <c r="D114" t="s">
-        <v>469</v>
       </c>
       <c r="F114">
         <f t="shared" si="1"/>
@@ -7463,13 +7463,13 @@
         <v>832</v>
       </c>
       <c r="B115" t="s">
+        <v>469</v>
+      </c>
+      <c r="C115" t="s">
         <v>470</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>471</v>
-      </c>
-      <c r="D115" t="s">
-        <v>472</v>
       </c>
       <c r="F115">
         <f t="shared" si="1"/>
@@ -7481,13 +7481,13 @@
         <v>400</v>
       </c>
       <c r="B116" t="s">
+        <v>472</v>
+      </c>
+      <c r="C116" t="s">
         <v>473</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>474</v>
-      </c>
-      <c r="D116" t="s">
-        <v>475</v>
       </c>
       <c r="F116">
         <f t="shared" si="1"/>
@@ -7499,13 +7499,13 @@
         <v>398</v>
       </c>
       <c r="B117" t="s">
+        <v>475</v>
+      </c>
+      <c r="C117" t="s">
         <v>476</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>477</v>
-      </c>
-      <c r="D117" t="s">
-        <v>478</v>
       </c>
       <c r="F117">
         <f t="shared" si="1"/>
@@ -7517,13 +7517,13 @@
         <v>404</v>
       </c>
       <c r="B118" t="s">
+        <v>478</v>
+      </c>
+      <c r="C118" t="s">
         <v>479</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>480</v>
-      </c>
-      <c r="D118" t="s">
-        <v>481</v>
       </c>
       <c r="F118">
         <f t="shared" si="1"/>
@@ -7535,13 +7535,13 @@
         <v>296</v>
       </c>
       <c r="B119" t="s">
+        <v>481</v>
+      </c>
+      <c r="C119" t="s">
         <v>482</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>483</v>
-      </c>
-      <c r="D119" t="s">
-        <v>484</v>
       </c>
       <c r="F119">
         <f t="shared" si="1"/>
@@ -7553,13 +7553,13 @@
         <v>408</v>
       </c>
       <c r="B120" t="s">
+        <v>484</v>
+      </c>
+      <c r="C120" t="s">
         <v>485</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>486</v>
-      </c>
-      <c r="D120" t="s">
-        <v>487</v>
       </c>
       <c r="F120">
         <f t="shared" si="1"/>
@@ -7571,13 +7571,13 @@
         <v>410</v>
       </c>
       <c r="B121" t="s">
+        <v>487</v>
+      </c>
+      <c r="C121" t="s">
         <v>488</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>489</v>
-      </c>
-      <c r="D121" t="s">
-        <v>490</v>
       </c>
       <c r="F121">
         <f t="shared" si="1"/>
@@ -7589,13 +7589,13 @@
         <v>414</v>
       </c>
       <c r="B122" t="s">
+        <v>490</v>
+      </c>
+      <c r="C122" t="s">
         <v>491</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>492</v>
-      </c>
-      <c r="D122" t="s">
-        <v>493</v>
       </c>
       <c r="F122">
         <f t="shared" si="1"/>
@@ -7607,13 +7607,13 @@
         <v>417</v>
       </c>
       <c r="B123" t="s">
+        <v>493</v>
+      </c>
+      <c r="C123" t="s">
         <v>494</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>495</v>
-      </c>
-      <c r="D123" t="s">
-        <v>496</v>
       </c>
       <c r="F123">
         <f t="shared" si="1"/>
@@ -7625,13 +7625,13 @@
         <v>418</v>
       </c>
       <c r="B124" t="s">
+        <v>496</v>
+      </c>
+      <c r="C124" t="s">
         <v>497</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>498</v>
-      </c>
-      <c r="D124" t="s">
-        <v>499</v>
       </c>
       <c r="F124">
         <f t="shared" si="1"/>
@@ -7643,13 +7643,13 @@
         <v>428</v>
       </c>
       <c r="B125" t="s">
+        <v>499</v>
+      </c>
+      <c r="C125" t="s">
         <v>500</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>501</v>
-      </c>
-      <c r="D125" t="s">
-        <v>502</v>
       </c>
       <c r="F125">
         <f t="shared" si="1"/>
@@ -7661,13 +7661,13 @@
         <v>422</v>
       </c>
       <c r="B126" t="s">
+        <v>502</v>
+      </c>
+      <c r="C126" t="s">
         <v>503</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>504</v>
-      </c>
-      <c r="D126" t="s">
-        <v>505</v>
       </c>
       <c r="F126">
         <f t="shared" si="1"/>
@@ -7679,13 +7679,13 @@
         <v>426</v>
       </c>
       <c r="B127" t="s">
+        <v>505</v>
+      </c>
+      <c r="C127" t="s">
         <v>506</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>507</v>
-      </c>
-      <c r="D127" t="s">
-        <v>508</v>
       </c>
       <c r="F127">
         <f t="shared" si="1"/>
@@ -7697,13 +7697,13 @@
         <v>430</v>
       </c>
       <c r="B128" t="s">
+        <v>508</v>
+      </c>
+      <c r="C128" t="s">
         <v>509</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>510</v>
-      </c>
-      <c r="D128" t="s">
-        <v>511</v>
       </c>
       <c r="F128">
         <f t="shared" si="1"/>
@@ -7715,13 +7715,13 @@
         <v>434</v>
       </c>
       <c r="B129" t="s">
+        <v>511</v>
+      </c>
+      <c r="C129" t="s">
         <v>512</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>513</v>
-      </c>
-      <c r="D129" t="s">
-        <v>514</v>
       </c>
       <c r="F129">
         <f t="shared" si="1"/>
@@ -7733,13 +7733,13 @@
         <v>438</v>
       </c>
       <c r="B130" t="s">
+        <v>514</v>
+      </c>
+      <c r="C130" t="s">
         <v>515</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>516</v>
-      </c>
-      <c r="D130" t="s">
-        <v>517</v>
       </c>
       <c r="F130">
         <f t="shared" ref="F130:F193" si="2">LEN(B130)</f>
@@ -7751,13 +7751,13 @@
         <v>440</v>
       </c>
       <c r="B131" t="s">
+        <v>517</v>
+      </c>
+      <c r="C131" t="s">
         <v>518</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>519</v>
-      </c>
-      <c r="D131" t="s">
-        <v>520</v>
       </c>
       <c r="F131">
         <f t="shared" si="2"/>
@@ -7769,13 +7769,13 @@
         <v>442</v>
       </c>
       <c r="B132" t="s">
+        <v>520</v>
+      </c>
+      <c r="C132" t="s">
         <v>521</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>522</v>
-      </c>
-      <c r="D132" t="s">
-        <v>523</v>
       </c>
       <c r="F132">
         <f t="shared" si="2"/>
@@ -7787,13 +7787,13 @@
         <v>446</v>
       </c>
       <c r="B133" t="s">
+        <v>523</v>
+      </c>
+      <c r="C133" t="s">
         <v>524</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>525</v>
-      </c>
-      <c r="D133" t="s">
-        <v>526</v>
       </c>
       <c r="F133">
         <f t="shared" si="2"/>
@@ -7805,13 +7805,13 @@
         <v>450</v>
       </c>
       <c r="B134" t="s">
+        <v>526</v>
+      </c>
+      <c r="C134" t="s">
         <v>527</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>528</v>
-      </c>
-      <c r="D134" t="s">
-        <v>529</v>
       </c>
       <c r="F134">
         <f t="shared" si="2"/>
@@ -7823,13 +7823,13 @@
         <v>454</v>
       </c>
       <c r="B135" t="s">
+        <v>529</v>
+      </c>
+      <c r="C135" t="s">
         <v>530</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>531</v>
-      </c>
-      <c r="D135" t="s">
-        <v>532</v>
       </c>
       <c r="F135">
         <f t="shared" si="2"/>
@@ -7841,13 +7841,13 @@
         <v>458</v>
       </c>
       <c r="B136" t="s">
+        <v>532</v>
+      </c>
+      <c r="C136" t="s">
         <v>533</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>534</v>
-      </c>
-      <c r="D136" t="s">
-        <v>535</v>
       </c>
       <c r="F136">
         <f t="shared" si="2"/>
@@ -7859,13 +7859,13 @@
         <v>462</v>
       </c>
       <c r="B137" t="s">
+        <v>535</v>
+      </c>
+      <c r="C137" t="s">
         <v>536</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>537</v>
-      </c>
-      <c r="D137" t="s">
-        <v>538</v>
       </c>
       <c r="F137">
         <f t="shared" si="2"/>
@@ -7877,13 +7877,13 @@
         <v>466</v>
       </c>
       <c r="B138" t="s">
+        <v>538</v>
+      </c>
+      <c r="C138" t="s">
         <v>539</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>540</v>
-      </c>
-      <c r="D138" t="s">
-        <v>541</v>
       </c>
       <c r="F138">
         <f t="shared" si="2"/>
@@ -7895,13 +7895,13 @@
         <v>470</v>
       </c>
       <c r="B139" t="s">
+        <v>541</v>
+      </c>
+      <c r="C139" t="s">
         <v>542</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>543</v>
-      </c>
-      <c r="D139" t="s">
-        <v>544</v>
       </c>
       <c r="F139">
         <f t="shared" si="2"/>
@@ -7913,13 +7913,13 @@
         <v>584</v>
       </c>
       <c r="B140" t="s">
+        <v>544</v>
+      </c>
+      <c r="C140" t="s">
         <v>545</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>546</v>
-      </c>
-      <c r="D140" t="s">
-        <v>547</v>
       </c>
       <c r="F140">
         <f t="shared" si="2"/>
@@ -7931,13 +7931,13 @@
         <v>474</v>
       </c>
       <c r="B141" t="s">
+        <v>547</v>
+      </c>
+      <c r="C141" t="s">
         <v>548</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>549</v>
-      </c>
-      <c r="D141" t="s">
-        <v>550</v>
       </c>
       <c r="F141">
         <f t="shared" si="2"/>
@@ -7949,13 +7949,13 @@
         <v>478</v>
       </c>
       <c r="B142" t="s">
+        <v>550</v>
+      </c>
+      <c r="C142" t="s">
         <v>551</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>552</v>
-      </c>
-      <c r="D142" t="s">
-        <v>553</v>
       </c>
       <c r="F142">
         <f t="shared" si="2"/>
@@ -7967,13 +7967,13 @@
         <v>480</v>
       </c>
       <c r="B143" t="s">
+        <v>553</v>
+      </c>
+      <c r="C143" t="s">
         <v>554</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>555</v>
-      </c>
-      <c r="D143" t="s">
-        <v>556</v>
       </c>
       <c r="F143">
         <f t="shared" si="2"/>
@@ -7985,13 +7985,13 @@
         <v>175</v>
       </c>
       <c r="B144" t="s">
+        <v>556</v>
+      </c>
+      <c r="C144" t="s">
         <v>557</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>558</v>
-      </c>
-      <c r="D144" t="s">
-        <v>559</v>
       </c>
       <c r="F144">
         <f t="shared" si="2"/>
@@ -8003,13 +8003,13 @@
         <v>484</v>
       </c>
       <c r="B145" t="s">
+        <v>559</v>
+      </c>
+      <c r="C145" t="s">
         <v>560</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>561</v>
-      </c>
-      <c r="D145" t="s">
-        <v>562</v>
       </c>
       <c r="F145">
         <f t="shared" si="2"/>
@@ -8021,13 +8021,13 @@
         <v>583</v>
       </c>
       <c r="B146" t="s">
+        <v>562</v>
+      </c>
+      <c r="C146" t="s">
         <v>563</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>564</v>
-      </c>
-      <c r="D146" t="s">
-        <v>565</v>
       </c>
       <c r="F146">
         <f t="shared" si="2"/>
@@ -8039,13 +8039,13 @@
         <v>498</v>
       </c>
       <c r="B147" t="s">
+        <v>565</v>
+      </c>
+      <c r="C147" t="s">
         <v>566</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>567</v>
-      </c>
-      <c r="D147" t="s">
-        <v>568</v>
       </c>
       <c r="F147">
         <f t="shared" si="2"/>
@@ -8057,13 +8057,13 @@
         <v>492</v>
       </c>
       <c r="B148" t="s">
+        <v>568</v>
+      </c>
+      <c r="C148" t="s">
         <v>569</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>570</v>
-      </c>
-      <c r="D148" t="s">
-        <v>571</v>
       </c>
       <c r="F148">
         <f t="shared" si="2"/>
@@ -8075,13 +8075,13 @@
         <v>496</v>
       </c>
       <c r="B149" t="s">
+        <v>571</v>
+      </c>
+      <c r="C149" t="s">
         <v>572</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>573</v>
-      </c>
-      <c r="D149" t="s">
-        <v>574</v>
       </c>
       <c r="F149">
         <f t="shared" si="2"/>
@@ -8093,13 +8093,13 @@
         <v>499</v>
       </c>
       <c r="B150" t="s">
+        <v>574</v>
+      </c>
+      <c r="C150" t="s">
         <v>575</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>576</v>
-      </c>
-      <c r="D150" t="s">
-        <v>577</v>
       </c>
       <c r="F150">
         <f t="shared" si="2"/>
@@ -8111,13 +8111,13 @@
         <v>500</v>
       </c>
       <c r="B151" t="s">
+        <v>577</v>
+      </c>
+      <c r="C151" t="s">
         <v>578</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>579</v>
-      </c>
-      <c r="D151" t="s">
-        <v>580</v>
       </c>
       <c r="F151">
         <f t="shared" si="2"/>
@@ -8129,13 +8129,13 @@
         <v>504</v>
       </c>
       <c r="B152" t="s">
+        <v>580</v>
+      </c>
+      <c r="C152" t="s">
         <v>581</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>582</v>
-      </c>
-      <c r="D152" t="s">
-        <v>583</v>
       </c>
       <c r="F152">
         <f t="shared" si="2"/>
@@ -8147,13 +8147,13 @@
         <v>508</v>
       </c>
       <c r="B153" t="s">
+        <v>583</v>
+      </c>
+      <c r="C153" t="s">
         <v>584</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>585</v>
-      </c>
-      <c r="D153" t="s">
-        <v>586</v>
       </c>
       <c r="F153">
         <f t="shared" si="2"/>
@@ -8165,13 +8165,13 @@
         <v>104</v>
       </c>
       <c r="B154" t="s">
+        <v>586</v>
+      </c>
+      <c r="C154" t="s">
         <v>587</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>588</v>
-      </c>
-      <c r="D154" t="s">
-        <v>589</v>
       </c>
       <c r="F154">
         <f t="shared" si="2"/>
@@ -8183,13 +8183,13 @@
         <v>516</v>
       </c>
       <c r="B155" t="s">
+        <v>589</v>
+      </c>
+      <c r="C155" t="s">
         <v>590</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>591</v>
-      </c>
-      <c r="D155" t="s">
-        <v>592</v>
       </c>
       <c r="F155">
         <f t="shared" si="2"/>
@@ -8201,13 +8201,13 @@
         <v>520</v>
       </c>
       <c r="B156" t="s">
+        <v>592</v>
+      </c>
+      <c r="C156" t="s">
         <v>593</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>594</v>
-      </c>
-      <c r="D156" t="s">
-        <v>595</v>
       </c>
       <c r="F156">
         <f t="shared" si="2"/>
@@ -8219,13 +8219,13 @@
         <v>524</v>
       </c>
       <c r="B157" t="s">
+        <v>595</v>
+      </c>
+      <c r="C157" t="s">
         <v>596</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>597</v>
-      </c>
-      <c r="D157" t="s">
-        <v>598</v>
       </c>
       <c r="F157">
         <f t="shared" si="2"/>
@@ -8237,13 +8237,13 @@
         <v>528</v>
       </c>
       <c r="B158" t="s">
+        <v>598</v>
+      </c>
+      <c r="C158" t="s">
         <v>599</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>600</v>
-      </c>
-      <c r="D158" t="s">
-        <v>601</v>
       </c>
       <c r="F158">
         <f t="shared" si="2"/>
@@ -8255,13 +8255,13 @@
         <v>540</v>
       </c>
       <c r="B159" t="s">
+        <v>601</v>
+      </c>
+      <c r="C159" t="s">
         <v>602</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>603</v>
-      </c>
-      <c r="D159" t="s">
-        <v>604</v>
       </c>
       <c r="F159">
         <f t="shared" si="2"/>
@@ -8273,13 +8273,13 @@
         <v>554</v>
       </c>
       <c r="B160" t="s">
+        <v>604</v>
+      </c>
+      <c r="C160" t="s">
         <v>605</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>606</v>
-      </c>
-      <c r="D160" t="s">
-        <v>607</v>
       </c>
       <c r="F160">
         <f t="shared" si="2"/>
@@ -8291,13 +8291,13 @@
         <v>558</v>
       </c>
       <c r="B161" t="s">
+        <v>607</v>
+      </c>
+      <c r="C161" t="s">
         <v>608</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>609</v>
-      </c>
-      <c r="D161" t="s">
-        <v>610</v>
       </c>
       <c r="F161">
         <f t="shared" si="2"/>
@@ -8309,13 +8309,13 @@
         <v>562</v>
       </c>
       <c r="B162" t="s">
+        <v>610</v>
+      </c>
+      <c r="C162" t="s">
         <v>611</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>612</v>
-      </c>
-      <c r="D162" t="s">
-        <v>613</v>
       </c>
       <c r="F162">
         <f t="shared" si="2"/>
@@ -8327,13 +8327,13 @@
         <v>566</v>
       </c>
       <c r="B163" t="s">
+        <v>613</v>
+      </c>
+      <c r="C163" t="s">
         <v>614</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>615</v>
-      </c>
-      <c r="D163" t="s">
-        <v>616</v>
       </c>
       <c r="F163">
         <f t="shared" si="2"/>
@@ -8345,13 +8345,13 @@
         <v>570</v>
       </c>
       <c r="B164" t="s">
+        <v>616</v>
+      </c>
+      <c r="C164" t="s">
         <v>617</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>618</v>
-      </c>
-      <c r="D164" t="s">
-        <v>619</v>
       </c>
       <c r="F164">
         <f t="shared" si="2"/>
@@ -8363,13 +8363,13 @@
         <v>574</v>
       </c>
       <c r="B165" t="s">
+        <v>619</v>
+      </c>
+      <c r="C165" t="s">
         <v>620</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>621</v>
-      </c>
-      <c r="D165" t="s">
-        <v>622</v>
       </c>
       <c r="F165">
         <f t="shared" si="2"/>
@@ -8381,13 +8381,13 @@
         <v>580</v>
       </c>
       <c r="B166" t="s">
+        <v>622</v>
+      </c>
+      <c r="C166" t="s">
         <v>623</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>624</v>
-      </c>
-      <c r="D166" t="s">
-        <v>625</v>
       </c>
       <c r="F166">
         <f t="shared" si="2"/>
@@ -8399,13 +8399,13 @@
         <v>578</v>
       </c>
       <c r="B167" t="s">
+        <v>625</v>
+      </c>
+      <c r="C167" t="s">
         <v>626</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>627</v>
-      </c>
-      <c r="D167" t="s">
-        <v>628</v>
       </c>
       <c r="F167">
         <f t="shared" si="2"/>
@@ -8417,13 +8417,13 @@
         <v>512</v>
       </c>
       <c r="B168" t="s">
+        <v>628</v>
+      </c>
+      <c r="C168" t="s">
         <v>629</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>630</v>
-      </c>
-      <c r="D168" t="s">
-        <v>631</v>
       </c>
       <c r="F168">
         <f t="shared" si="2"/>
@@ -8435,13 +8435,13 @@
         <v>586</v>
       </c>
       <c r="B169" t="s">
+        <v>631</v>
+      </c>
+      <c r="C169" t="s">
         <v>632</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>633</v>
-      </c>
-      <c r="D169" t="s">
-        <v>634</v>
       </c>
       <c r="F169">
         <f t="shared" si="2"/>
@@ -8453,13 +8453,13 @@
         <v>585</v>
       </c>
       <c r="B170" t="s">
+        <v>634</v>
+      </c>
+      <c r="C170" t="s">
         <v>635</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>636</v>
-      </c>
-      <c r="D170" t="s">
-        <v>637</v>
       </c>
       <c r="F170">
         <f t="shared" si="2"/>
@@ -8471,13 +8471,13 @@
         <v>275</v>
       </c>
       <c r="B171" t="s">
+        <v>637</v>
+      </c>
+      <c r="C171" t="s">
         <v>638</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>639</v>
-      </c>
-      <c r="D171" t="s">
-        <v>640</v>
       </c>
       <c r="F171">
         <f t="shared" si="2"/>
@@ -8489,13 +8489,13 @@
         <v>591</v>
       </c>
       <c r="B172" t="s">
+        <v>640</v>
+      </c>
+      <c r="C172" t="s">
         <v>641</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>642</v>
-      </c>
-      <c r="D172" t="s">
-        <v>643</v>
       </c>
       <c r="F172">
         <f t="shared" si="2"/>
@@ -8507,13 +8507,13 @@
         <v>598</v>
       </c>
       <c r="B173" t="s">
+        <v>643</v>
+      </c>
+      <c r="C173" t="s">
         <v>644</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>645</v>
-      </c>
-      <c r="D173" t="s">
-        <v>646</v>
       </c>
       <c r="F173">
         <f t="shared" si="2"/>
@@ -8525,13 +8525,13 @@
         <v>600</v>
       </c>
       <c r="B174" t="s">
+        <v>646</v>
+      </c>
+      <c r="C174" t="s">
         <v>647</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>648</v>
-      </c>
-      <c r="D174" t="s">
-        <v>649</v>
       </c>
       <c r="F174">
         <f t="shared" si="2"/>
@@ -8543,13 +8543,13 @@
         <v>604</v>
       </c>
       <c r="B175" t="s">
+        <v>649</v>
+      </c>
+      <c r="C175" t="s">
         <v>650</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>651</v>
-      </c>
-      <c r="D175" t="s">
-        <v>652</v>
       </c>
       <c r="F175">
         <f t="shared" si="2"/>
@@ -8561,13 +8561,13 @@
         <v>608</v>
       </c>
       <c r="B176" t="s">
+        <v>652</v>
+      </c>
+      <c r="C176" t="s">
         <v>653</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
         <v>654</v>
-      </c>
-      <c r="D176" t="s">
-        <v>655</v>
       </c>
       <c r="F176">
         <f t="shared" si="2"/>
@@ -8579,13 +8579,13 @@
         <v>612</v>
       </c>
       <c r="B177" t="s">
+        <v>655</v>
+      </c>
+      <c r="C177" t="s">
         <v>656</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
         <v>657</v>
-      </c>
-      <c r="D177" t="s">
-        <v>658</v>
       </c>
       <c r="F177">
         <f t="shared" si="2"/>
@@ -8597,13 +8597,13 @@
         <v>616</v>
       </c>
       <c r="B178" t="s">
+        <v>658</v>
+      </c>
+      <c r="C178" t="s">
         <v>659</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>660</v>
-      </c>
-      <c r="D178" t="s">
-        <v>661</v>
       </c>
       <c r="F178">
         <f t="shared" si="2"/>
@@ -8615,13 +8615,13 @@
         <v>620</v>
       </c>
       <c r="B179" t="s">
+        <v>661</v>
+      </c>
+      <c r="C179" t="s">
         <v>662</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>663</v>
-      </c>
-      <c r="D179" t="s">
-        <v>664</v>
       </c>
       <c r="F179">
         <f t="shared" si="2"/>
@@ -8633,13 +8633,13 @@
         <v>630</v>
       </c>
       <c r="B180" t="s">
+        <v>664</v>
+      </c>
+      <c r="C180" t="s">
         <v>665</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>666</v>
-      </c>
-      <c r="D180" t="s">
-        <v>667</v>
       </c>
       <c r="F180">
         <f t="shared" si="2"/>
@@ -8651,13 +8651,13 @@
         <v>634</v>
       </c>
       <c r="B181" t="s">
+        <v>667</v>
+      </c>
+      <c r="C181" t="s">
         <v>668</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>669</v>
-      </c>
-      <c r="D181" t="s">
-        <v>670</v>
       </c>
       <c r="F181">
         <f t="shared" si="2"/>
@@ -8669,13 +8669,13 @@
         <v>807</v>
       </c>
       <c r="B182" t="s">
+        <v>670</v>
+      </c>
+      <c r="C182" t="s">
         <v>671</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
         <v>672</v>
-      </c>
-      <c r="D182" t="s">
-        <v>673</v>
       </c>
       <c r="F182">
         <f t="shared" si="2"/>
@@ -8687,13 +8687,13 @@
         <v>642</v>
       </c>
       <c r="B183" t="s">
+        <v>673</v>
+      </c>
+      <c r="C183" t="s">
         <v>674</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>675</v>
-      </c>
-      <c r="D183" t="s">
-        <v>676</v>
       </c>
       <c r="F183">
         <f t="shared" si="2"/>
@@ -8705,13 +8705,13 @@
         <v>643</v>
       </c>
       <c r="B184" t="s">
+        <v>676</v>
+      </c>
+      <c r="C184" t="s">
         <v>677</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>678</v>
-      </c>
-      <c r="D184" t="s">
-        <v>679</v>
       </c>
       <c r="F184">
         <f t="shared" si="2"/>
@@ -8723,13 +8723,13 @@
         <v>646</v>
       </c>
       <c r="B185" t="s">
+        <v>679</v>
+      </c>
+      <c r="C185" t="s">
         <v>680</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>681</v>
-      </c>
-      <c r="D185" t="s">
-        <v>682</v>
       </c>
       <c r="F185">
         <f t="shared" si="2"/>
@@ -8741,13 +8741,13 @@
         <v>638</v>
       </c>
       <c r="B186" t="s">
+        <v>682</v>
+      </c>
+      <c r="C186" t="s">
         <v>683</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>684</v>
-      </c>
-      <c r="D186" t="s">
-        <v>685</v>
       </c>
       <c r="F186">
         <f t="shared" si="2"/>
@@ -8759,13 +8759,13 @@
         <v>652</v>
       </c>
       <c r="B187" t="s">
+        <v>685</v>
+      </c>
+      <c r="C187" t="s">
         <v>686</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>687</v>
-      </c>
-      <c r="D187" t="s">
-        <v>688</v>
       </c>
       <c r="F187">
         <f t="shared" si="2"/>
@@ -8777,13 +8777,13 @@
         <v>654</v>
       </c>
       <c r="B188" t="s">
+        <v>688</v>
+      </c>
+      <c r="C188" t="s">
         <v>689</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>690</v>
-      </c>
-      <c r="D188" t="s">
-        <v>691</v>
       </c>
       <c r="F188">
         <f t="shared" si="2"/>
@@ -8795,13 +8795,13 @@
         <v>659</v>
       </c>
       <c r="B189" t="s">
+        <v>691</v>
+      </c>
+      <c r="C189" t="s">
         <v>692</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>693</v>
-      </c>
-      <c r="D189" t="s">
-        <v>694</v>
       </c>
       <c r="F189">
         <f t="shared" si="2"/>
@@ -8813,13 +8813,13 @@
         <v>662</v>
       </c>
       <c r="B190" t="s">
+        <v>694</v>
+      </c>
+      <c r="C190" t="s">
         <v>695</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>696</v>
-      </c>
-      <c r="D190" t="s">
-        <v>697</v>
       </c>
       <c r="F190">
         <f t="shared" si="2"/>
@@ -8831,13 +8831,13 @@
         <v>663</v>
       </c>
       <c r="B191" t="s">
+        <v>697</v>
+      </c>
+      <c r="C191" t="s">
         <v>698</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>699</v>
-      </c>
-      <c r="D191" t="s">
-        <v>700</v>
       </c>
       <c r="F191">
         <f t="shared" si="2"/>
@@ -8849,13 +8849,13 @@
         <v>666</v>
       </c>
       <c r="B192" t="s">
+        <v>700</v>
+      </c>
+      <c r="C192" t="s">
         <v>701</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
         <v>702</v>
-      </c>
-      <c r="D192" t="s">
-        <v>703</v>
       </c>
       <c r="F192">
         <f t="shared" si="2"/>
@@ -8867,13 +8867,13 @@
         <v>670</v>
       </c>
       <c r="B193" t="s">
+        <v>703</v>
+      </c>
+      <c r="C193" t="s">
         <v>704</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>705</v>
-      </c>
-      <c r="D193" t="s">
-        <v>706</v>
       </c>
       <c r="F193">
         <f t="shared" si="2"/>
@@ -8885,13 +8885,13 @@
         <v>882</v>
       </c>
       <c r="B194" t="s">
+        <v>706</v>
+      </c>
+      <c r="C194" t="s">
         <v>707</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D194" t="s">
         <v>708</v>
-      </c>
-      <c r="D194" t="s">
-        <v>709</v>
       </c>
       <c r="F194">
         <f t="shared" ref="F194:F251" si="3">LEN(B194)</f>
@@ -8903,13 +8903,13 @@
         <v>674</v>
       </c>
       <c r="B195" t="s">
+        <v>709</v>
+      </c>
+      <c r="C195" t="s">
         <v>710</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
         <v>711</v>
-      </c>
-      <c r="D195" t="s">
-        <v>712</v>
       </c>
       <c r="F195">
         <f t="shared" si="3"/>
@@ -8921,13 +8921,13 @@
         <v>678</v>
       </c>
       <c r="B196" t="s">
+        <v>712</v>
+      </c>
+      <c r="C196" t="s">
         <v>713</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
         <v>714</v>
-      </c>
-      <c r="D196" t="s">
-        <v>715</v>
       </c>
       <c r="F196">
         <f t="shared" si="3"/>
@@ -8939,13 +8939,13 @@
         <v>682</v>
       </c>
       <c r="B197" t="s">
+        <v>715</v>
+      </c>
+      <c r="C197" t="s">
         <v>716</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
         <v>717</v>
-      </c>
-      <c r="D197" t="s">
-        <v>718</v>
       </c>
       <c r="F197">
         <f t="shared" si="3"/>
@@ -8957,13 +8957,13 @@
         <v>686</v>
       </c>
       <c r="B198" t="s">
+        <v>718</v>
+      </c>
+      <c r="C198" t="s">
         <v>719</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
         <v>720</v>
-      </c>
-      <c r="D198" t="s">
-        <v>721</v>
       </c>
       <c r="F198">
         <f t="shared" si="3"/>
@@ -8975,13 +8975,13 @@
         <v>688</v>
       </c>
       <c r="B199" t="s">
+        <v>721</v>
+      </c>
+      <c r="C199" t="s">
         <v>722</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
         <v>723</v>
-      </c>
-      <c r="D199" t="s">
-        <v>724</v>
       </c>
       <c r="F199">
         <f t="shared" si="3"/>
@@ -8993,13 +8993,13 @@
         <v>690</v>
       </c>
       <c r="B200" t="s">
+        <v>724</v>
+      </c>
+      <c r="C200" t="s">
         <v>725</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D200" t="s">
         <v>726</v>
-      </c>
-      <c r="D200" t="s">
-        <v>727</v>
       </c>
       <c r="F200">
         <f t="shared" si="3"/>
@@ -9011,13 +9011,13 @@
         <v>694</v>
       </c>
       <c r="B201" t="s">
+        <v>727</v>
+      </c>
+      <c r="C201" t="s">
         <v>728</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>729</v>
-      </c>
-      <c r="D201" t="s">
-        <v>730</v>
       </c>
       <c r="F201">
         <f t="shared" si="3"/>
@@ -9029,13 +9029,13 @@
         <v>702</v>
       </c>
       <c r="B202" t="s">
+        <v>730</v>
+      </c>
+      <c r="C202" t="s">
         <v>731</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>732</v>
-      </c>
-      <c r="D202" t="s">
-        <v>733</v>
       </c>
       <c r="F202">
         <f t="shared" si="3"/>
@@ -9047,13 +9047,13 @@
         <v>534</v>
       </c>
       <c r="B203" t="s">
+        <v>733</v>
+      </c>
+      <c r="C203" t="s">
         <v>734</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>735</v>
-      </c>
-      <c r="D203" t="s">
-        <v>736</v>
       </c>
       <c r="F203">
         <f t="shared" si="3"/>
@@ -9065,13 +9065,13 @@
         <v>703</v>
       </c>
       <c r="B204" t="s">
+        <v>736</v>
+      </c>
+      <c r="C204" t="s">
         <v>737</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>738</v>
-      </c>
-      <c r="D204" t="s">
-        <v>739</v>
       </c>
       <c r="F204">
         <f t="shared" si="3"/>
@@ -9083,13 +9083,13 @@
         <v>705</v>
       </c>
       <c r="B205" t="s">
+        <v>739</v>
+      </c>
+      <c r="C205" t="s">
         <v>740</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>741</v>
-      </c>
-      <c r="D205" t="s">
-        <v>742</v>
       </c>
       <c r="F205">
         <f t="shared" si="3"/>
@@ -9101,13 +9101,13 @@
         <v>90</v>
       </c>
       <c r="B206" t="s">
+        <v>742</v>
+      </c>
+      <c r="C206" t="s">
         <v>743</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>744</v>
-      </c>
-      <c r="D206" t="s">
-        <v>745</v>
       </c>
       <c r="F206">
         <f t="shared" si="3"/>
@@ -9119,13 +9119,13 @@
         <v>706</v>
       </c>
       <c r="B207" t="s">
+        <v>745</v>
+      </c>
+      <c r="C207" t="s">
         <v>746</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
         <v>747</v>
-      </c>
-      <c r="D207" t="s">
-        <v>748</v>
       </c>
       <c r="F207">
         <f t="shared" si="3"/>
@@ -9137,13 +9137,13 @@
         <v>710</v>
       </c>
       <c r="B208" t="s">
+        <v>748</v>
+      </c>
+      <c r="C208" t="s">
         <v>749</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>750</v>
-      </c>
-      <c r="D208" t="s">
-        <v>751</v>
       </c>
       <c r="F208">
         <f t="shared" si="3"/>
@@ -9155,13 +9155,13 @@
         <v>239</v>
       </c>
       <c r="B209" t="s">
+        <v>751</v>
+      </c>
+      <c r="C209" t="s">
         <v>752</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
         <v>753</v>
-      </c>
-      <c r="D209" t="s">
-        <v>754</v>
       </c>
       <c r="F209">
         <f t="shared" si="3"/>
@@ -9173,13 +9173,13 @@
         <v>728</v>
       </c>
       <c r="B210" t="s">
+        <v>754</v>
+      </c>
+      <c r="C210" t="s">
         <v>755</v>
       </c>
-      <c r="C210" t="s">
+      <c r="D210" t="s">
         <v>756</v>
-      </c>
-      <c r="D210" t="s">
-        <v>757</v>
       </c>
       <c r="F210">
         <f t="shared" si="3"/>
@@ -9191,13 +9191,13 @@
         <v>724</v>
       </c>
       <c r="B211" t="s">
+        <v>757</v>
+      </c>
+      <c r="C211" t="s">
         <v>758</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>759</v>
-      </c>
-      <c r="D211" t="s">
-        <v>760</v>
       </c>
       <c r="F211">
         <f t="shared" si="3"/>
@@ -9209,13 +9209,13 @@
         <v>144</v>
       </c>
       <c r="B212" t="s">
+        <v>760</v>
+      </c>
+      <c r="C212" t="s">
         <v>761</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
         <v>762</v>
-      </c>
-      <c r="D212" t="s">
-        <v>763</v>
       </c>
       <c r="F212">
         <f t="shared" si="3"/>
@@ -9227,13 +9227,13 @@
         <v>729</v>
       </c>
       <c r="B213" t="s">
+        <v>763</v>
+      </c>
+      <c r="C213" t="s">
         <v>764</v>
       </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
         <v>765</v>
-      </c>
-      <c r="D213" t="s">
-        <v>766</v>
       </c>
       <c r="F213">
         <f t="shared" si="3"/>
@@ -9245,13 +9245,13 @@
         <v>740</v>
       </c>
       <c r="B214" t="s">
+        <v>766</v>
+      </c>
+      <c r="C214" t="s">
         <v>767</v>
       </c>
-      <c r="C214" t="s">
+      <c r="D214" t="s">
         <v>768</v>
-      </c>
-      <c r="D214" t="s">
-        <v>769</v>
       </c>
       <c r="F214">
         <f t="shared" si="3"/>
@@ -9263,13 +9263,13 @@
         <v>744</v>
       </c>
       <c r="B215" t="s">
+        <v>769</v>
+      </c>
+      <c r="C215" t="s">
         <v>770</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>771</v>
-      </c>
-      <c r="D215" t="s">
-        <v>772</v>
       </c>
       <c r="F215">
         <f t="shared" si="3"/>
@@ -9281,13 +9281,13 @@
         <v>752</v>
       </c>
       <c r="B216" t="s">
+        <v>772</v>
+      </c>
+      <c r="C216" t="s">
         <v>773</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>774</v>
-      </c>
-      <c r="D216" t="s">
-        <v>775</v>
       </c>
       <c r="F216">
         <f t="shared" si="3"/>
@@ -9299,13 +9299,13 @@
         <v>756</v>
       </c>
       <c r="B217" t="s">
+        <v>775</v>
+      </c>
+      <c r="C217" t="s">
         <v>776</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>777</v>
-      </c>
-      <c r="D217" t="s">
-        <v>778</v>
       </c>
       <c r="F217">
         <f t="shared" si="3"/>
@@ -9317,13 +9317,13 @@
         <v>760</v>
       </c>
       <c r="B218" t="s">
+        <v>778</v>
+      </c>
+      <c r="C218" t="s">
         <v>779</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
         <v>780</v>
-      </c>
-      <c r="D218" t="s">
-        <v>781</v>
       </c>
       <c r="F218">
         <f t="shared" si="3"/>
@@ -9335,13 +9335,13 @@
         <v>158</v>
       </c>
       <c r="B219" t="s">
+        <v>781</v>
+      </c>
+      <c r="C219" t="s">
         <v>782</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
         <v>783</v>
-      </c>
-      <c r="D219" t="s">
-        <v>784</v>
       </c>
       <c r="F219">
         <f t="shared" si="3"/>
@@ -9353,13 +9353,13 @@
         <v>762</v>
       </c>
       <c r="B220" t="s">
+        <v>784</v>
+      </c>
+      <c r="C220" t="s">
         <v>785</v>
       </c>
-      <c r="C220" t="s">
+      <c r="D220" t="s">
         <v>786</v>
-      </c>
-      <c r="D220" t="s">
-        <v>787</v>
       </c>
       <c r="F220">
         <f t="shared" si="3"/>
@@ -9371,13 +9371,13 @@
         <v>834</v>
       </c>
       <c r="B221" t="s">
+        <v>787</v>
+      </c>
+      <c r="C221" t="s">
         <v>788</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
         <v>789</v>
-      </c>
-      <c r="D221" t="s">
-        <v>790</v>
       </c>
       <c r="F221">
         <f t="shared" si="3"/>
@@ -9389,13 +9389,13 @@
         <v>764</v>
       </c>
       <c r="B222" t="s">
+        <v>790</v>
+      </c>
+      <c r="C222" t="s">
         <v>791</v>
       </c>
-      <c r="C222" t="s">
+      <c r="D222" t="s">
         <v>792</v>
-      </c>
-      <c r="D222" t="s">
-        <v>793</v>
       </c>
       <c r="F222">
         <f t="shared" si="3"/>
@@ -9407,13 +9407,13 @@
         <v>626</v>
       </c>
       <c r="B223" t="s">
+        <v>793</v>
+      </c>
+      <c r="C223" t="s">
         <v>794</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>795</v>
-      </c>
-      <c r="D223" t="s">
-        <v>796</v>
       </c>
       <c r="F223">
         <f t="shared" si="3"/>
@@ -9425,13 +9425,13 @@
         <v>768</v>
       </c>
       <c r="B224" t="s">
+        <v>796</v>
+      </c>
+      <c r="C224" t="s">
         <v>797</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
         <v>798</v>
-      </c>
-      <c r="D224" t="s">
-        <v>799</v>
       </c>
       <c r="F224">
         <f t="shared" si="3"/>
@@ -9443,13 +9443,13 @@
         <v>772</v>
       </c>
       <c r="B225" t="s">
+        <v>799</v>
+      </c>
+      <c r="C225" t="s">
         <v>800</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>801</v>
-      </c>
-      <c r="D225" t="s">
-        <v>802</v>
       </c>
       <c r="F225">
         <f t="shared" si="3"/>
@@ -9461,13 +9461,13 @@
         <v>776</v>
       </c>
       <c r="B226" t="s">
+        <v>802</v>
+      </c>
+      <c r="C226" t="s">
         <v>803</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>804</v>
-      </c>
-      <c r="D226" t="s">
-        <v>805</v>
       </c>
       <c r="F226">
         <f t="shared" si="3"/>
@@ -9479,13 +9479,13 @@
         <v>780</v>
       </c>
       <c r="B227" t="s">
+        <v>805</v>
+      </c>
+      <c r="C227" t="s">
         <v>806</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>807</v>
-      </c>
-      <c r="D227" t="s">
-        <v>808</v>
       </c>
       <c r="F227">
         <f t="shared" si="3"/>
@@ -9497,13 +9497,13 @@
         <v>788</v>
       </c>
       <c r="B228" t="s">
+        <v>808</v>
+      </c>
+      <c r="C228" t="s">
         <v>809</v>
       </c>
-      <c r="C228" t="s">
+      <c r="D228" t="s">
         <v>810</v>
-      </c>
-      <c r="D228" t="s">
-        <v>811</v>
       </c>
       <c r="F228">
         <f t="shared" si="3"/>
@@ -9515,13 +9515,13 @@
         <v>792</v>
       </c>
       <c r="B229" t="s">
+        <v>811</v>
+      </c>
+      <c r="C229" t="s">
         <v>812</v>
       </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>813</v>
-      </c>
-      <c r="D229" t="s">
-        <v>814</v>
       </c>
       <c r="F229">
         <f t="shared" si="3"/>
@@ -9533,13 +9533,13 @@
         <v>795</v>
       </c>
       <c r="B230" t="s">
+        <v>814</v>
+      </c>
+      <c r="C230" t="s">
         <v>815</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
         <v>816</v>
-      </c>
-      <c r="D230" t="s">
-        <v>817</v>
       </c>
       <c r="F230">
         <f t="shared" si="3"/>
@@ -9551,13 +9551,13 @@
         <v>796</v>
       </c>
       <c r="B231" t="s">
+        <v>817</v>
+      </c>
+      <c r="C231" t="s">
         <v>818</v>
       </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
         <v>819</v>
-      </c>
-      <c r="D231" t="s">
-        <v>820</v>
       </c>
       <c r="F231">
         <f t="shared" si="3"/>
@@ -9569,13 +9569,13 @@
         <v>798</v>
       </c>
       <c r="B232" t="s">
+        <v>820</v>
+      </c>
+      <c r="C232" t="s">
         <v>821</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>822</v>
-      </c>
-      <c r="D232" t="s">
-        <v>823</v>
       </c>
       <c r="F232">
         <f t="shared" si="3"/>
@@ -9587,13 +9587,13 @@
         <v>800</v>
       </c>
       <c r="B233" t="s">
+        <v>823</v>
+      </c>
+      <c r="C233" t="s">
         <v>824</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
         <v>825</v>
-      </c>
-      <c r="D233" t="s">
-        <v>826</v>
       </c>
       <c r="F233">
         <f t="shared" si="3"/>
@@ -9605,13 +9605,13 @@
         <v>804</v>
       </c>
       <c r="B234" t="s">
+        <v>826</v>
+      </c>
+      <c r="C234" t="s">
         <v>827</v>
       </c>
-      <c r="C234" t="s">
+      <c r="D234" t="s">
         <v>828</v>
-      </c>
-      <c r="D234" t="s">
-        <v>829</v>
       </c>
       <c r="F234">
         <f t="shared" si="3"/>
@@ -9623,13 +9623,13 @@
         <v>784</v>
       </c>
       <c r="B235" t="s">
+        <v>829</v>
+      </c>
+      <c r="C235" t="s">
         <v>830</v>
       </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
         <v>831</v>
-      </c>
-      <c r="D235" t="s">
-        <v>832</v>
       </c>
       <c r="F235">
         <f t="shared" si="3"/>
@@ -9641,13 +9641,13 @@
         <v>826</v>
       </c>
       <c r="B236" t="s">
+        <v>832</v>
+      </c>
+      <c r="C236" t="s">
         <v>833</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
         <v>834</v>
-      </c>
-      <c r="D236" t="s">
-        <v>835</v>
       </c>
       <c r="F236">
         <f t="shared" si="3"/>
@@ -9659,13 +9659,13 @@
         <v>581</v>
       </c>
       <c r="B237" t="s">
+        <v>835</v>
+      </c>
+      <c r="C237" t="s">
         <v>836</v>
       </c>
-      <c r="C237" t="s">
+      <c r="D237" t="s">
         <v>837</v>
-      </c>
-      <c r="D237" t="s">
-        <v>838</v>
       </c>
       <c r="F237">
         <f t="shared" si="3"/>
@@ -9677,13 +9677,13 @@
         <v>840</v>
       </c>
       <c r="B238" t="s">
+        <v>838</v>
+      </c>
+      <c r="C238" t="s">
         <v>839</v>
       </c>
-      <c r="C238" t="s">
+      <c r="D238" t="s">
         <v>840</v>
-      </c>
-      <c r="D238" t="s">
-        <v>841</v>
       </c>
       <c r="F238">
         <f t="shared" si="3"/>
@@ -9695,13 +9695,13 @@
         <v>858</v>
       </c>
       <c r="B239" t="s">
+        <v>841</v>
+      </c>
+      <c r="C239" t="s">
         <v>842</v>
       </c>
-      <c r="C239" t="s">
+      <c r="D239" t="s">
         <v>843</v>
-      </c>
-      <c r="D239" t="s">
-        <v>844</v>
       </c>
       <c r="F239">
         <f t="shared" si="3"/>
@@ -9713,13 +9713,13 @@
         <v>860</v>
       </c>
       <c r="B240" t="s">
+        <v>844</v>
+      </c>
+      <c r="C240" t="s">
         <v>845</v>
       </c>
-      <c r="C240" t="s">
+      <c r="D240" t="s">
         <v>846</v>
-      </c>
-      <c r="D240" t="s">
-        <v>847</v>
       </c>
       <c r="F240">
         <f t="shared" si="3"/>
@@ -9731,13 +9731,13 @@
         <v>548</v>
       </c>
       <c r="B241" t="s">
+        <v>847</v>
+      </c>
+      <c r="C241" t="s">
         <v>848</v>
       </c>
-      <c r="C241" t="s">
+      <c r="D241" t="s">
         <v>849</v>
-      </c>
-      <c r="D241" t="s">
-        <v>850</v>
       </c>
       <c r="F241">
         <f t="shared" si="3"/>
@@ -9749,13 +9749,13 @@
         <v>862</v>
       </c>
       <c r="B242" t="s">
+        <v>850</v>
+      </c>
+      <c r="C242" t="s">
         <v>851</v>
       </c>
-      <c r="C242" t="s">
+      <c r="D242" t="s">
         <v>852</v>
-      </c>
-      <c r="D242" t="s">
-        <v>853</v>
       </c>
       <c r="F242">
         <f t="shared" si="3"/>
@@ -9767,13 +9767,13 @@
         <v>704</v>
       </c>
       <c r="B243" t="s">
+        <v>853</v>
+      </c>
+      <c r="C243" t="s">
         <v>854</v>
       </c>
-      <c r="C243" t="s">
+      <c r="D243" t="s">
         <v>855</v>
-      </c>
-      <c r="D243" t="s">
-        <v>856</v>
       </c>
       <c r="F243">
         <f t="shared" si="3"/>
@@ -9785,13 +9785,13 @@
         <v>92</v>
       </c>
       <c r="B244" t="s">
+        <v>856</v>
+      </c>
+      <c r="C244" t="s">
         <v>857</v>
       </c>
-      <c r="C244" t="s">
+      <c r="D244" t="s">
         <v>858</v>
-      </c>
-      <c r="D244" t="s">
-        <v>859</v>
       </c>
       <c r="F244">
         <f t="shared" si="3"/>
@@ -9803,13 +9803,13 @@
         <v>850</v>
       </c>
       <c r="B245" t="s">
+        <v>859</v>
+      </c>
+      <c r="C245" t="s">
         <v>860</v>
       </c>
-      <c r="C245" t="s">
+      <c r="D245" t="s">
         <v>861</v>
-      </c>
-      <c r="D245" t="s">
-        <v>862</v>
       </c>
       <c r="F245">
         <f t="shared" si="3"/>
@@ -9821,13 +9821,13 @@
         <v>876</v>
       </c>
       <c r="B246" t="s">
+        <v>862</v>
+      </c>
+      <c r="C246" t="s">
         <v>863</v>
       </c>
-      <c r="C246" t="s">
+      <c r="D246" t="s">
         <v>864</v>
-      </c>
-      <c r="D246" t="s">
-        <v>865</v>
       </c>
       <c r="F246">
         <f t="shared" si="3"/>
@@ -9839,13 +9839,13 @@
         <v>732</v>
       </c>
       <c r="B247" t="s">
+        <v>865</v>
+      </c>
+      <c r="C247" t="s">
         <v>866</v>
       </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
         <v>867</v>
-      </c>
-      <c r="D247" t="s">
-        <v>868</v>
       </c>
       <c r="F247">
         <f t="shared" si="3"/>
@@ -9857,13 +9857,13 @@
         <v>887</v>
       </c>
       <c r="B248" t="s">
+        <v>868</v>
+      </c>
+      <c r="C248" t="s">
         <v>869</v>
       </c>
-      <c r="C248" t="s">
+      <c r="D248" t="s">
         <v>870</v>
-      </c>
-      <c r="D248" t="s">
-        <v>871</v>
       </c>
       <c r="F248">
         <f t="shared" si="3"/>
@@ -9875,13 +9875,13 @@
         <v>894</v>
       </c>
       <c r="B249" t="s">
+        <v>871</v>
+      </c>
+      <c r="C249" t="s">
         <v>872</v>
       </c>
-      <c r="C249" t="s">
+      <c r="D249" t="s">
         <v>873</v>
-      </c>
-      <c r="D249" t="s">
-        <v>874</v>
       </c>
       <c r="F249">
         <f t="shared" si="3"/>
@@ -9893,13 +9893,13 @@
         <v>716</v>
       </c>
       <c r="B250" t="s">
+        <v>874</v>
+      </c>
+      <c r="C250" t="s">
         <v>875</v>
       </c>
-      <c r="C250" t="s">
+      <c r="D250" t="s">
         <v>876</v>
-      </c>
-      <c r="D250" t="s">
-        <v>877</v>
       </c>
       <c r="F250">
         <f t="shared" si="3"/>
@@ -9911,13 +9911,13 @@
         <v>248</v>
       </c>
       <c r="B251" t="s">
+        <v>877</v>
+      </c>
+      <c r="C251" t="s">
         <v>878</v>
       </c>
-      <c r="C251" t="s">
+      <c r="D251" t="s">
         <v>879</v>
-      </c>
-      <c r="D251" t="s">
-        <v>880</v>
       </c>
       <c r="F251">
         <f t="shared" si="3"/>

--- a/DB_ImportFields.xlsx
+++ b/DB_ImportFields.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="0" windowWidth="24720" windowHeight="16580" tabRatio="678" activeTab="2"/>
+    <workbookView xWindow="580" yWindow="0" windowWidth="24720" windowHeight="16580" tabRatio="678" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="allg" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="931">
   <si>
     <t>People</t>
   </si>
@@ -2787,9 +2787,6 @@
     <t>Involvement In third World Debt</t>
   </si>
   <si>
-    <t>Controversial</t>
-  </si>
-  <si>
     <t>People positive</t>
   </si>
   <si>
@@ -2830,6 +2827,15 @@
   </si>
   <si>
     <t>Animals</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>controversial</t>
   </si>
 </sst>
 </file>
@@ -4171,8 +4177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -4190,11 +4196,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>928</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D5" si="0">LEN(B3)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4202,11 +4208,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>929</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4214,7 +4220,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>914</v>
+        <v>930</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
@@ -4236,7 +4242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -4267,7 +4273,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
@@ -4303,7 +4309,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D7">
         <f>LEN(B7)</f>
@@ -4326,7 +4332,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -4353,10 +4359,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4375,10 +4381,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4419,10 +4425,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C6" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -4441,10 +4447,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -4485,10 +4491,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C9" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -4507,10 +4513,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C10" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -4551,10 +4557,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C12" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -4573,10 +4579,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C13" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -4617,10 +4623,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C15" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -4639,10 +4645,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -4701,7 +4707,7 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -5377,13 +5383,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>894</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E37" s="15"/>
     </row>
@@ -5392,13 +5398,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>894</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E38" s="15"/>
     </row>
